--- a/media/market_data.xlsx
+++ b/media/market_data.xlsx
@@ -158,360 +158,360 @@
         <tr r="F4" s="1"/>
       </tp>
       <tp>
-        <v>1.72</v>
+        <v>1.71</v>
         <stp/>
         <stp xml:space="preserve">
 WIPLN3MD=X	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F3" s="1"/>
       </tp>
       <tp>
-        <v>1.6400000000000001</v>
+        <v>1.6300000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 WIPLN1MD=X	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F2" s="1"/>
       </tp>
       <tp>
-        <v>1.1218000000000001</v>
+        <v>1.1078000000000001</v>
         <stp/>
         <stp>_x0004_EUR=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F4" s="3"/>
       </tp>
       <tp>
-        <v>3.7870000000000004</v>
+        <v>3.8719000000000001</v>
         <stp/>
         <stp>_x0004_PLN=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F3" s="3"/>
       </tp>
       <tp>
-        <v>1.9560000000000002</v>
+        <v>1.6940000000000002</v>
         <stp/>
         <stp>_x000B_USDAM3L10Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F14" s="5"/>
       </tp>
       <tp>
-        <v>2.0209999999999999</v>
+        <v>1.744</v>
         <stp/>
         <stp>_x000B_USDAM3L12Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F15" s="5"/>
       </tp>
       <tp>
-        <v>2.0880000000000001</v>
+        <v>1.8122</v>
         <stp/>
         <stp>_x000B_USDAM3L15Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F16" s="5"/>
       </tp>
       <tp>
-        <v>2.1</v>
+        <v>1.895</v>
         <stp/>
         <stp>_x000B_PLNAB6W12Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F15" s="1"/>
       </tp>
       <tp>
-        <v>1.99</v>
+        <v>1.75</v>
         <stp/>
         <stp>_x000B_PLNAB3W10Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F14" s="1"/>
       </tp>
       <tp>
-        <v>2.2200000000000002</v>
+        <v>1.9400000000000002</v>
         <stp/>
         <stp>_x000B_PLNAB6W15Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F16" s="1"/>
       </tp>
       <tp>
-        <v>0.42430000000000001</v>
+        <v>0.35100000000000003</v>
         <stp/>
         <stp>_x000B_EURAB6E15Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F16" s="2"/>
       </tp>
       <tp>
-        <v>0.25330000000000003</v>
+        <v>0.21300000000000002</v>
         <stp/>
         <stp>_x000B_EURAB6E12Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F15" s="2"/>
       </tp>
       <tp>
-        <v>0.1227</v>
+        <v>0.1</v>
         <stp/>
         <stp>_x000B_EURAB6E10Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F14" s="2"/>
       </tp>
       <tp>
-        <v>2.1659999999999999</v>
+        <v>1.8684000000000001</v>
         <stp/>
         <stp>_x000B_USDAM3L20Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F17" s="5"/>
       </tp>
       <tp>
-        <v>2.31</v>
+        <v>2.0300000000000002</v>
         <stp/>
         <stp>_x000B_PLNAB6W20Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F17" s="1"/>
       </tp>
       <tp>
-        <v>0.59130000000000005</v>
+        <v>0.47800000000000004</v>
         <stp/>
         <stp>_x000B_EURAB6E20Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F17" s="2"/>
       </tp>
       <tp>
-        <v>2.1950000000000003</v>
+        <v>1.8894000000000002</v>
         <stp/>
         <stp>_x000B_USDAM3L30Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F18" s="5"/>
       </tp>
       <tp>
-        <v>0.6673</v>
+        <v>0.51500000000000001</v>
         <stp/>
         <stp>_x000B_EURAB6E30Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F18" s="2"/>
       </tp>
       <tp>
-        <v>2.1680000000000001</v>
+        <v>1.8360000000000001</v>
         <stp/>
         <stp>_x000B_USDAM3L50Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F19" s="5"/>
       </tp>
       <tp>
-        <v>0.61930000000000007</v>
+        <v>0.40600000000000003</v>
         <stp/>
         <stp>_x000B_EURAB6E50Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F19" s="2"/>
       </tp>
       <tp>
-        <v>2.2611300000000001</v>
+        <v>1.7236300000000002</v>
         <stp/>
         <stp xml:space="preserve">
 USD1MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F2" s="5"/>
       </tp>
       <tp>
-        <v>-0.44614000000000004</v>
+        <v>-0.50343000000000004</v>
         <stp/>
         <stp xml:space="preserve">
 EUR1MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F2" s="2"/>
       </tp>
       <tp>
-        <v>2.2593800000000002</v>
+        <v>1.8985000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USD3MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F3" s="5"/>
       </tp>
       <tp>
-        <v>-0.41429000000000005</v>
+        <v>-0.43986000000000003</v>
         <stp/>
         <stp xml:space="preserve">
 EUR3MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F3" s="2"/>
       </tp>
       <tp>
-        <v>2.14425</v>
+        <v>1.9188800000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USD6MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F4" s="5"/>
       </tp>
       <tp>
-        <v>-0.42614000000000002</v>
+        <v>-0.39686000000000005</v>
         <stp/>
         <stp xml:space="preserve">
 EUR6MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F4" s="2"/>
       </tp>
       <tp>
-        <v>2.8000000000000001E-2</v>
+        <v>2.9500000000000002E-2</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E9Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F13" s="2"/>
       </tp>
       <tp>
-        <v>1.9500000000000002</v>
+        <v>1.77</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W9Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F13" s="1"/>
       </tp>
       <tp>
-        <v>1.9144000000000001</v>
+        <v>1.6584000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L9Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F13" s="5"/>
       </tp>
       <tp>
-        <v>-5.6500000000000002E-2</v>
+        <v>-3.85E-2</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E8Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F12" s="2"/>
       </tp>
       <tp>
-        <v>1.9200000000000002</v>
+        <v>1.77</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W8Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F12" s="1"/>
       </tp>
       <tp>
-        <v>1.8771</v>
+        <v>1.6308</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L8Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F12" s="5"/>
       </tp>
       <tp>
-        <v>-0.41000000000000003</v>
+        <v>-0.3367</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E1Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F5" s="2"/>
       </tp>
       <tp>
-        <v>1.7325000000000002</v>
+        <v>1.7130000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W1Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F5" s="1"/>
       </tp>
       <tp>
-        <v>2.0220000000000002</v>
+        <v>1.7210000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L1Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F5" s="5"/>
       </tp>
       <tp>
-        <v>-0.42500000000000004</v>
+        <v>-0.28889999999999999</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E3Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F7" s="2"/>
       </tp>
       <tp>
-        <v>1.7100000000000002</v>
+        <v>1.75</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W3Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F7" s="1"/>
       </tp>
       <tp>
-        <v>1.7730000000000001</v>
+        <v>1.5595000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L3Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F7" s="5"/>
       </tp>
       <tp>
-        <v>-0.44800000000000001</v>
+        <v>-0.33</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E2Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F6" s="2"/>
       </tp>
       <tp>
-        <v>1.7000000000000002</v>
+        <v>1.6800000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W2Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F6" s="1"/>
       </tp>
       <tp>
-        <v>1.84</v>
+        <v>1.603</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L2Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F6" s="5"/>
       </tp>
       <tp>
-        <v>-0.30299999999999999</v>
+        <v>-0.21350000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E5Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F9" s="2"/>
       </tp>
       <tp>
-        <v>1.83</v>
+        <v>1.72</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W5Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F9" s="1"/>
       </tp>
       <tp>
-        <v>1.7715000000000001</v>
+        <v>1.5643</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L5Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F9" s="5"/>
       </tp>
       <tp>
-        <v>-0.36320000000000002</v>
+        <v>-0.25919999999999999</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E4Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F8" s="2"/>
       </tp>
       <tp>
-        <v>1.76</v>
+        <v>1.74</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W4Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F8" s="1"/>
       </tp>
       <tp>
-        <v>1.7550000000000001</v>
+        <v>1.5537000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L4Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F8" s="5"/>
       </tp>
       <tp>
-        <v>-0.14200000000000002</v>
+        <v>-9.5000000000000001E-2</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E7Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F11" s="2"/>
       </tp>
       <tp>
-        <v>1.86</v>
+        <v>1.76</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W7Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F11" s="1"/>
       </tp>
       <tp>
-        <v>1.855</v>
+        <v>1.6052000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L7Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F11" s="5"/>
       </tp>
       <tp>
-        <v>-0.22370000000000001</v>
+        <v>-0.1542</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E6Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F10" s="2"/>
       </tp>
       <tp>
-        <v>1.82</v>
+        <v>1.75</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W6Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F10" s="1"/>
       </tp>
       <tp>
-        <v>1.8041</v>
+        <v>1.5828</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L6Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F10" s="5"/>
       </tp>
       <tp>
-        <v>4.2483000000000004</v>
+        <v>4.2890000000000006</v>
         <stp/>
         <stp xml:space="preserve">	EURPLN=D3	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F2" s="3"/>
@@ -820,14 +820,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
-        <v>43668</v>
+        <v>43788</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="4">
         <f ca="1">TODAY()</f>
-        <v>43668</v>
+        <v>43788</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
@@ -838,14 +838,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>1.6400000000000001</v>
+        <v>1.6300000000000001</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="3">
         <f>_xll.RtGet("IDN","WIPLN1MD=X","SEC_ACT_1")</f>
-        <v>1.6400000000000001</v>
+        <v>1.6300000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -853,14 +853,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="3">
         <f>_xll.RtGet("IDN","WIPLN3MD=X","SEC_ACT_1")</f>
-        <v>1.72</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -883,14 +883,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>1.7325000000000002</v>
+        <v>1.7130000000000001</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W1Y=","SEC_ACT_1")</f>
-        <v>1.7325000000000002</v>
+        <v>1.7130000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -898,14 +898,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>1.7000000000000002</v>
+        <v>1.6800000000000002</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W2Y=","SEC_ACT_1")</f>
-        <v>1.7000000000000002</v>
+        <v>1.6800000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -913,14 +913,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>1.7100000000000002</v>
+        <v>1.75</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W3Y=","SEC_ACT_1")</f>
-        <v>1.7100000000000002</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -928,14 +928,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W4Y=","SEC_ACT_1")</f>
-        <v>1.76</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -943,14 +943,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W5Y=","SEC_ACT_1")</f>
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -958,14 +958,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W6Y=","SEC_ACT_1")</f>
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -973,14 +973,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W7Y=","SEC_ACT_1")</f>
-        <v>1.86</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -988,14 +988,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>1.9200000000000002</v>
+        <v>1.77</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W8Y=","SEC_ACT_1")</f>
-        <v>1.9200000000000002</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1003,14 +1003,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>1.9500000000000002</v>
+        <v>1.77</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W9Y=","SEC_ACT_1")</f>
-        <v>1.9500000000000002</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1018,14 +1018,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>1.99</v>
+        <v>1.75</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W10Y=","SEC_ACT_1")</f>
-        <v>1.99</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1033,14 +1033,14 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>2.1</v>
+        <v>1.895</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W12Y=","SEC_ACT_1")</f>
-        <v>2.1</v>
+        <v>1.895</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1048,14 +1048,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2.2200000000000002</v>
+        <v>1.9400000000000002</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W15Y=","SEC_ACT_1")</f>
-        <v>2.2200000000000002</v>
+        <v>1.9400000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1063,14 +1063,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>2.31</v>
+        <v>2.0300000000000002</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W20Y=","SEC_ACT_1")</f>
-        <v>2.31</v>
+        <v>2.0300000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1094,7 +1094,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1104,14 +1106,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
-        <v>43668</v>
+        <v>43788</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="4">
         <f ca="1">TODAY()</f>
-        <v>43668</v>
+        <v>43788</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
@@ -1122,14 +1124,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>-0.44614000000000004</v>
+        <v>-0.50343000000000004</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="3">
         <f>_xll.RtGet("IDN","EUR1MFSR=X","PRIMACT_1")</f>
-        <v>-0.44614000000000004</v>
+        <v>-0.50343000000000004</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1137,14 +1139,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>-0.41429000000000005</v>
+        <v>-0.43986000000000003</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="3">
         <f>_xll.RtGet("IDN","EUR3MFSR=X","PRIMACT_1")</f>
-        <v>-0.41429000000000005</v>
+        <v>-0.43986000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1152,14 +1154,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>-0.42614000000000002</v>
+        <v>-0.39686000000000005</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="3">
         <f>_xll.RtGet("IDN","EUR6MFSR=X","PRIMACT_1")</f>
-        <v>-0.42614000000000002</v>
+        <v>-0.39686000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1167,14 +1169,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>-0.41000000000000003</v>
+        <v>-0.3206</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="3">
         <f>_xll.RtGet("IDN","EURAB6E1Y=","SEC_ACT_1")</f>
-        <v>-0.41000000000000003</v>
+        <v>-0.3367</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1182,14 +1184,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>-0.44800000000000001</v>
+        <v>-0.33</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3">
         <f>_xll.RtGet("IDN","EURAB6E2Y=","SEC_ACT_1")</f>
-        <v>-0.44800000000000001</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1197,14 +1199,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>-0.42500000000000004</v>
+        <v>-0.28889999999999999</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="3">
         <f>_xll.RtGet("IDN","EURAB6E3Y=","SEC_ACT_1")</f>
-        <v>-0.42500000000000004</v>
+        <v>-0.28889999999999999</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1212,14 +1214,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>-0.36899999999999999</v>
+        <v>-0.26230000000000003</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="3">
         <f>_xll.RtGet("IDN","EURAB6E4Y=","SEC_ACT_1")</f>
-        <v>-0.36320000000000002</v>
+        <v>-0.25919999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1227,14 +1229,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>-0.30399999999999999</v>
+        <v>-0.21260000000000001</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="3">
         <f>_xll.RtGet("IDN","EURAB6E5Y=","SEC_ACT_1")</f>
-        <v>-0.30299999999999999</v>
+        <v>-0.21350000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1242,14 +1244,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>-0.224</v>
+        <v>-0.16</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="3">
         <f>_xll.RtGet("IDN","EURAB6E6Y=","SEC_ACT_1")</f>
-        <v>-0.22370000000000001</v>
+        <v>-0.1542</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1257,14 +1259,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>-0.13800000000000001</v>
+        <v>-9.9299999999999999E-2</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="3">
         <f>_xll.RtGet("IDN","EURAB6E7Y=","SEC_ACT_1")</f>
-        <v>-0.14200000000000002</v>
+        <v>-9.5000000000000001E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1272,14 +1274,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>-5.3000000000000005E-2</v>
+        <v>-3.7700000000000004E-2</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="3">
         <f>_xll.RtGet("IDN","EURAB6E8Y=","SEC_ACT_1")</f>
-        <v>-5.6500000000000002E-2</v>
+        <v>-3.85E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1287,14 +1289,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>3.2000000000000001E-2</v>
+        <v>2.3800000000000002E-2</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="3">
         <f>_xll.RtGet("IDN","EURAB6E9Y=","SEC_ACT_1")</f>
-        <v>2.8000000000000001E-2</v>
+        <v>2.9500000000000002E-2</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1302,14 +1304,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>0.112</v>
+        <v>8.3700000000000011E-2</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="3">
         <f>_xll.RtGet("IDN","EURAB6E10Y=","SEC_ACT_1")</f>
-        <v>0.1227</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1317,14 +1319,14 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>0.25230000000000002</v>
+        <v>0.1958</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="3">
         <f>_xll.RtGet("IDN","EURAB6E12Y=","SEC_ACT_1")</f>
-        <v>0.25330000000000003</v>
+        <v>0.21300000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1332,14 +1334,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>0.4234</v>
+        <v>0.33300000000000002</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="3">
         <f>_xll.RtGet("IDN","EURAB6E15Y=","SEC_ACT_1")</f>
-        <v>0.42430000000000001</v>
+        <v>0.35100000000000003</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1347,14 +1349,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>0.59030000000000005</v>
+        <v>0.46180000000000004</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="3">
         <f>_xll.RtGet("IDN","EURAB6E20Y=","SEC_ACT_1")</f>
-        <v>0.59130000000000005</v>
+        <v>0.47800000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1362,14 +1364,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>0.6663</v>
+        <v>0.49880000000000002</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="3">
         <f>_xll.RtGet("IDN","EURAB6E30Y=","SEC_ACT_1")</f>
-        <v>0.6673</v>
+        <v>0.51500000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1377,14 +1379,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>0.61830000000000007</v>
+        <v>0.38480000000000003</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="3">
         <f>_xll.RtGet("IDN","EURAB6E50Y=","SEC_ACT_1")</f>
-        <v>0.61930000000000007</v>
+        <v>0.40600000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1396,7 +1398,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1406,14 +1410,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
-        <v>43668</v>
+        <v>43788</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="4">
         <f ca="1">TODAY()</f>
-        <v>43668</v>
+        <v>43788</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
@@ -1424,14 +1428,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>2.2611300000000001</v>
+        <v>1.7236300000000002</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F2" s="3">
         <f>_xll.RtGet("IDN","USD1MFSR=X","PRIMACT_1")</f>
-        <v>2.2611300000000001</v>
+        <v>1.7236300000000002</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1439,14 +1443,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>2.2593800000000002</v>
+        <v>1.8985000000000001</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F3" s="3">
         <f>_xll.RtGet("IDN","USD3MFSR=X","PRIMACT_1")</f>
-        <v>2.2593800000000002</v>
+        <v>1.8985000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1454,14 +1458,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>2.14425</v>
+        <v>1.9188800000000001</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="F4" s="3">
         <f>_xll.RtGet("IDN","USD6MFSR=X","PRIMACT_1")</f>
-        <v>2.14425</v>
+        <v>1.9188800000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1469,14 +1473,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>2.02</v>
+        <v>1.7210000000000001</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F5" s="3">
         <f>_xll.RtGet("IDN","USDAM3L1Y=","SEC_ACT_1")</f>
-        <v>2.0220000000000002</v>
+        <v>1.7210000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1484,14 +1488,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>1.8171000000000002</v>
+        <v>1.5891000000000002</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F6" s="3">
         <f>_xll.RtGet("IDN","USDAM3L2Y=","SEC_ACT_1")</f>
-        <v>1.84</v>
+        <v>1.603</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,14 +1503,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>1.764</v>
+        <v>1.5750000000000002</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="F7" s="3">
         <f>_xll.RtGet("IDN","USDAM3L3Y=","SEC_ACT_1")</f>
-        <v>1.7730000000000001</v>
+        <v>1.5595000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1514,14 +1518,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>1.7499</v>
+        <v>1.5799000000000001</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="F8" s="3">
         <f>_xll.RtGet("IDN","USDAM3L4Y=","SEC_ACT_1")</f>
-        <v>1.7550000000000001</v>
+        <v>1.5537000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1529,14 +1533,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>1.7666000000000002</v>
+        <v>1.5819000000000001</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="F9" s="3">
         <f>_xll.RtGet("IDN","USDAM3L5Y=","SEC_ACT_1")</f>
-        <v>1.7715000000000001</v>
+        <v>1.5643</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1544,14 +1548,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>1.7992000000000001</v>
+        <v>1.6073000000000002</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="3">
         <f>_xll.RtGet("IDN","USDAM3L6Y=","SEC_ACT_1")</f>
-        <v>1.8041</v>
+        <v>1.5828</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1559,14 +1563,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>1.8490000000000002</v>
+        <v>1.621</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="3">
         <f>_xll.RtGet("IDN","USDAM3L7Y=","SEC_ACT_1")</f>
-        <v>1.855</v>
+        <v>1.6052000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1574,14 +1578,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>1.8733000000000002</v>
+        <v>1.647</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="3">
         <f>_xll.RtGet("IDN","USDAM3L8Y=","SEC_ACT_1")</f>
-        <v>1.8771</v>
+        <v>1.6308</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1589,14 +1593,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>1.9140000000000001</v>
+        <v>1.675</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="F13" s="3">
         <f>_xll.RtGet("IDN","USDAM3L9Y=","SEC_ACT_1")</f>
-        <v>1.9144000000000001</v>
+        <v>1.6584000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1604,14 +1608,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>1.9670000000000001</v>
+        <v>1.7040000000000002</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F14" s="3">
         <f>_xll.RtGet("IDN","USDAM3L10Y=","SEC_ACT_1")</f>
-        <v>1.9560000000000002</v>
+        <v>1.6940000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1619,14 +1623,14 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>2.0289999999999999</v>
+        <v>1.754</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="3">
         <f>_xll.RtGet("IDN","USDAM3L12Y=","SEC_ACT_1")</f>
-        <v>2.0209999999999999</v>
+        <v>1.744</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1634,14 +1638,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>2.097</v>
+        <v>1.8080000000000001</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F16" s="3">
         <f>_xll.RtGet("IDN","USDAM3L15Y=","SEC_ACT_1")</f>
-        <v>2.0880000000000001</v>
+        <v>1.8122</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1649,14 +1653,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>2.149</v>
+        <v>1.863</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="3">
         <f>_xll.RtGet("IDN","USDAM3L20Y=","SEC_ACT_1")</f>
-        <v>2.1659999999999999</v>
+        <v>1.8684000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1664,14 +1668,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>2.1859999999999999</v>
+        <v>1.885</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F18" s="3">
         <f>_xll.RtGet("IDN","USDAM3L30Y=","SEC_ACT_1")</f>
-        <v>2.1950000000000003</v>
+        <v>1.8894000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1679,14 +1683,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>2.1659999999999999</v>
+        <v>1.8270000000000002</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="F19" s="3">
         <f>_xll.RtGet("IDN","USDAM3L50Y=","SEC_ACT_1")</f>
-        <v>2.1680000000000001</v>
+        <v>1.8360000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1708,11 +1712,11 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
-        <v>43668</v>
+        <v>43788</v>
       </c>
       <c r="E1" s="4">
         <f ca="1">TODAY()</f>
-        <v>43668</v>
+        <v>43788</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1720,14 +1724,14 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>4.2483000000000004</v>
+        <v>4.2890000000000006</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
       <c r="F2" s="2">
         <f>_xll.RtGet("IDN","EURPLN=D3","PRIMACT_1")</f>
-        <v>4.2483000000000004</v>
+        <v>4.2890000000000006</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1735,14 +1739,14 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>3.7870000000000004</v>
+        <v>3.8718000000000004</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
       <c r="F3" s="2">
         <f>_xll.RtGet("IDN","PLN=","SEC_ACT_1")</f>
-        <v>3.7870000000000004</v>
+        <v>3.8719000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1750,14 +1754,14 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>1.1219000000000001</v>
+        <v>1.1080000000000001</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
       </c>
       <c r="F4" s="2">
         <f>_xll.RtGet("IDN","EUR=","SEC_ACT_1")</f>
-        <v>1.1218000000000001</v>
+        <v>1.1078000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">

--- a/media/market_data.xlsx
+++ b/media/market_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="14355" windowHeight="4950"/>
+    <workbookView xWindow="0" yWindow="105" windowWidth="14355" windowHeight="4950" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PLN curve" sheetId="1" r:id="rId1"/>
@@ -150,368 +150,368 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="pldatasource.rtgetrtdserver">
-      <tp>
-        <v>1.79</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 WIPLN6MD=X	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F4" s="1"/>
       </tp>
-      <tp>
-        <v>1.71</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 WIPLN3MD=X	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F3" s="1"/>
       </tp>
-      <tp>
-        <v>1.6300000000000001</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 WIPLN1MD=X	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F2" s="1"/>
       </tp>
-      <tp>
-        <v>1.1078000000000001</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp>_x0004_EUR=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F4" s="3"/>
       </tp>
-      <tp>
-        <v>3.8719000000000001</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp>_x0004_PLN=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F3" s="3"/>
       </tp>
-      <tp>
-        <v>1.6940000000000002</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp>_x000B_USDAM3L10Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F14" s="5"/>
       </tp>
-      <tp>
-        <v>1.744</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp>_x000B_USDAM3L12Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F15" s="5"/>
       </tp>
-      <tp>
-        <v>1.8122</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp>_x000B_USDAM3L15Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F16" s="5"/>
       </tp>
-      <tp>
-        <v>1.895</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp>_x000B_PLNAB6W12Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F15" s="1"/>
       </tp>
-      <tp>
-        <v>1.75</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp>_x000B_PLNAB3W10Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F14" s="1"/>
       </tp>
-      <tp>
-        <v>1.9400000000000002</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp>_x000B_PLNAB6W15Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F16" s="1"/>
       </tp>
-      <tp>
-        <v>0.35100000000000003</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp>_x000B_EURAB6E15Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F16" s="2"/>
       </tp>
-      <tp>
-        <v>0.21300000000000002</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp>_x000B_EURAB6E12Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F15" s="2"/>
       </tp>
-      <tp>
-        <v>0.1</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp>_x000B_EURAB6E10Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F14" s="2"/>
       </tp>
-      <tp>
-        <v>1.8684000000000001</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp>_x000B_USDAM3L20Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F17" s="5"/>
       </tp>
-      <tp>
-        <v>2.0300000000000002</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp>_x000B_PLNAB6W20Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F17" s="1"/>
       </tp>
-      <tp>
-        <v>0.47800000000000004</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp>_x000B_EURAB6E20Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F17" s="2"/>
       </tp>
-      <tp>
-        <v>1.8894000000000002</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp>_x000B_USDAM3L30Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F18" s="5"/>
       </tp>
-      <tp>
-        <v>0.51500000000000001</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp>_x000B_EURAB6E30Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F18" s="2"/>
       </tp>
-      <tp>
-        <v>1.8360000000000001</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp>_x000B_USDAM3L50Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F19" s="5"/>
       </tp>
-      <tp>
-        <v>0.40600000000000003</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp>_x000B_EURAB6E50Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F19" s="2"/>
       </tp>
-      <tp>
-        <v>1.7236300000000002</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 USD1MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F2" s="5"/>
       </tp>
-      <tp>
-        <v>-0.50343000000000004</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 EUR1MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F2" s="2"/>
       </tp>
-      <tp>
-        <v>1.8985000000000001</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 USD3MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F3" s="5"/>
       </tp>
-      <tp>
-        <v>-0.43986000000000003</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 EUR3MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F3" s="2"/>
       </tp>
-      <tp>
-        <v>1.9188800000000001</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 USD6MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F4" s="5"/>
       </tp>
-      <tp>
-        <v>-0.39686000000000005</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 EUR6MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F4" s="2"/>
       </tp>
-      <tp>
-        <v>2.9500000000000002E-2</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E9Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F13" s="2"/>
       </tp>
-      <tp>
-        <v>1.77</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W9Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F13" s="1"/>
       </tp>
-      <tp>
-        <v>1.6584000000000001</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L9Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F13" s="5"/>
       </tp>
-      <tp>
-        <v>-3.85E-2</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E8Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F12" s="2"/>
       </tp>
-      <tp>
-        <v>1.77</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W8Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F12" s="1"/>
       </tp>
-      <tp>
-        <v>1.6308</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L8Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F12" s="5"/>
       </tp>
-      <tp>
-        <v>-0.3367</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E1Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F5" s="2"/>
       </tp>
-      <tp>
-        <v>1.7130000000000001</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W1Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F5" s="1"/>
       </tp>
-      <tp>
-        <v>1.7210000000000001</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L1Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F5" s="5"/>
       </tp>
-      <tp>
-        <v>-0.28889999999999999</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E3Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F7" s="2"/>
       </tp>
-      <tp>
-        <v>1.75</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W3Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F7" s="1"/>
       </tp>
-      <tp>
-        <v>1.5595000000000001</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L3Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F7" s="5"/>
       </tp>
-      <tp>
-        <v>-0.33</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E2Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F6" s="2"/>
       </tp>
-      <tp>
-        <v>1.6800000000000002</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W2Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F6" s="1"/>
       </tp>
-      <tp>
-        <v>1.603</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L2Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F6" s="5"/>
       </tp>
-      <tp>
-        <v>-0.21350000000000002</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E5Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F9" s="2"/>
       </tp>
-      <tp>
-        <v>1.72</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W5Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F9" s="1"/>
       </tp>
-      <tp>
-        <v>1.5643</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L5Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F9" s="5"/>
       </tp>
-      <tp>
-        <v>-0.25919999999999999</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E4Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F8" s="2"/>
       </tp>
-      <tp>
-        <v>1.74</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W4Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F8" s="1"/>
       </tp>
-      <tp>
-        <v>1.5537000000000001</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L4Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F8" s="5"/>
       </tp>
-      <tp>
-        <v>-9.5000000000000001E-2</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E7Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F11" s="2"/>
       </tp>
-      <tp>
-        <v>1.76</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W7Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F11" s="1"/>
       </tp>
-      <tp>
-        <v>1.6052000000000002</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L7Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F11" s="5"/>
       </tp>
-      <tp>
-        <v>-0.1542</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E6Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F10" s="2"/>
       </tp>
-      <tp>
-        <v>1.75</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W6Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F10" s="1"/>
       </tp>
-      <tp>
-        <v>1.5828</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L6Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F10" s="5"/>
       </tp>
-      <tp>
-        <v>4.2890000000000006</v>
+      <tp t="s">
+        <v>#N/A Not Signed In</v>
         <stp/>
         <stp xml:space="preserve">	EURPLN=D3	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F2" s="3"/>
@@ -810,7 +810,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -820,14 +820,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
-        <v>43788</v>
+        <v>43789</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="4">
         <f ca="1">TODAY()</f>
-        <v>43788</v>
+        <v>43789</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
@@ -843,9 +843,9 @@
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="3" t="str">
         <f>_xll.RtGet("IDN","WIPLN1MD=X","SEC_ACT_1")</f>
-        <v>1.6300000000000001</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -858,9 +858,9 @@
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="3" t="str">
         <f>_xll.RtGet("IDN","WIPLN3MD=X","SEC_ACT_1")</f>
-        <v>1.71</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -873,9 +873,9 @@
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="3" t="str">
         <f>_xll.RtGet("IDN","WIPLN6MD=X","SEC_ACT_1")</f>
-        <v>1.79</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -888,9 +888,9 @@
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="str">
         <f>_xll.RtGet("IDN","PLNAB3W1Y=","SEC_ACT_1")</f>
-        <v>1.7130000000000001</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -903,9 +903,9 @@
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="str">
         <f>_xll.RtGet("IDN","PLNAB3W2Y=","SEC_ACT_1")</f>
-        <v>1.6800000000000002</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -918,9 +918,9 @@
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="3" t="str">
         <f>_xll.RtGet("IDN","PLNAB3W3Y=","SEC_ACT_1")</f>
-        <v>1.75</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -933,9 +933,9 @@
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="str">
         <f>_xll.RtGet("IDN","PLNAB3W4Y=","SEC_ACT_1")</f>
-        <v>1.74</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -948,9 +948,9 @@
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="str">
         <f>_xll.RtGet("IDN","PLNAB3W5Y=","SEC_ACT_1")</f>
-        <v>1.72</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -963,9 +963,9 @@
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="str">
         <f>_xll.RtGet("IDN","PLNAB3W6Y=","SEC_ACT_1")</f>
-        <v>1.75</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -978,9 +978,9 @@
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="3" t="str">
         <f>_xll.RtGet("IDN","PLNAB3W7Y=","SEC_ACT_1")</f>
-        <v>1.76</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -993,9 +993,9 @@
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="str">
         <f>_xll.RtGet("IDN","PLNAB3W8Y=","SEC_ACT_1")</f>
-        <v>1.77</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1008,9 +1008,9 @@
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="3" t="str">
         <f>_xll.RtGet("IDN","PLNAB3W9Y=","SEC_ACT_1")</f>
-        <v>1.77</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1023,9 +1023,9 @@
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="str">
         <f>_xll.RtGet("IDN","PLNAB3W10Y=","SEC_ACT_1")</f>
-        <v>1.75</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1038,9 +1038,9 @@
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="str">
         <f>_xll.RtGet("IDN","PLNAB6W12Y=","SEC_ACT_1")</f>
-        <v>1.895</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1053,9 +1053,9 @@
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="3" t="str">
         <f>_xll.RtGet("IDN","PLNAB6W15Y=","SEC_ACT_1")</f>
-        <v>1.9400000000000002</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1068,9 +1068,9 @@
       <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="3" t="str">
         <f>_xll.RtGet("IDN","PLNAB6W20Y=","SEC_ACT_1")</f>
-        <v>2.0300000000000002</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1094,9 +1094,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1106,14 +1104,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
-        <v>43788</v>
+        <v>43789</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="4">
         <f ca="1">TODAY()</f>
-        <v>43788</v>
+        <v>43789</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
@@ -1129,9 +1127,9 @@
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="3" t="str">
         <f>_xll.RtGet("IDN","EUR1MFSR=X","PRIMACT_1")</f>
-        <v>-0.50343000000000004</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1144,9 +1142,9 @@
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="3" t="str">
         <f>_xll.RtGet("IDN","EUR3MFSR=X","PRIMACT_1")</f>
-        <v>-0.43986000000000003</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1159,9 +1157,9 @@
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="3" t="str">
         <f>_xll.RtGet("IDN","EUR6MFSR=X","PRIMACT_1")</f>
-        <v>-0.39686000000000005</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1174,9 +1172,9 @@
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="str">
         <f>_xll.RtGet("IDN","EURAB6E1Y=","SEC_ACT_1")</f>
-        <v>-0.3367</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1189,9 +1187,9 @@
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="str">
         <f>_xll.RtGet("IDN","EURAB6E2Y=","SEC_ACT_1")</f>
-        <v>-0.33</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1204,9 +1202,9 @@
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="3" t="str">
         <f>_xll.RtGet("IDN","EURAB6E3Y=","SEC_ACT_1")</f>
-        <v>-0.28889999999999999</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1219,9 +1217,9 @@
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="str">
         <f>_xll.RtGet("IDN","EURAB6E4Y=","SEC_ACT_1")</f>
-        <v>-0.25919999999999999</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1234,9 +1232,9 @@
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="str">
         <f>_xll.RtGet("IDN","EURAB6E5Y=","SEC_ACT_1")</f>
-        <v>-0.21350000000000002</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1249,9 +1247,9 @@
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="str">
         <f>_xll.RtGet("IDN","EURAB6E6Y=","SEC_ACT_1")</f>
-        <v>-0.1542</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1264,9 +1262,9 @@
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="3" t="str">
         <f>_xll.RtGet("IDN","EURAB6E7Y=","SEC_ACT_1")</f>
-        <v>-9.5000000000000001E-2</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1279,9 +1277,9 @@
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="str">
         <f>_xll.RtGet("IDN","EURAB6E8Y=","SEC_ACT_1")</f>
-        <v>-3.85E-2</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1294,9 +1292,9 @@
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="3" t="str">
         <f>_xll.RtGet("IDN","EURAB6E9Y=","SEC_ACT_1")</f>
-        <v>2.9500000000000002E-2</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1309,9 +1307,9 @@
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="str">
         <f>_xll.RtGet("IDN","EURAB6E10Y=","SEC_ACT_1")</f>
-        <v>0.1</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1324,9 +1322,9 @@
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="str">
         <f>_xll.RtGet("IDN","EURAB6E12Y=","SEC_ACT_1")</f>
-        <v>0.21300000000000002</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1339,9 +1337,9 @@
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="3" t="str">
         <f>_xll.RtGet("IDN","EURAB6E15Y=","SEC_ACT_1")</f>
-        <v>0.35100000000000003</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1354,9 +1352,9 @@
       <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="3" t="str">
         <f>_xll.RtGet("IDN","EURAB6E20Y=","SEC_ACT_1")</f>
-        <v>0.47800000000000004</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1369,9 +1367,9 @@
       <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="str">
         <f>_xll.RtGet("IDN","EURAB6E30Y=","SEC_ACT_1")</f>
-        <v>0.51500000000000001</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1384,9 +1382,9 @@
       <c r="E19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="3" t="str">
         <f>_xll.RtGet("IDN","EURAB6E50Y=","SEC_ACT_1")</f>
-        <v>0.40600000000000003</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
   </sheetData>
@@ -1398,9 +1396,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B19"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1410,14 +1406,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
-        <v>43788</v>
+        <v>43789</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="4">
         <f ca="1">TODAY()</f>
-        <v>43788</v>
+        <v>43789</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
@@ -1433,9 +1429,9 @@
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="3" t="str">
         <f>_xll.RtGet("IDN","USD1MFSR=X","PRIMACT_1")</f>
-        <v>1.7236300000000002</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1448,9 +1444,9 @@
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="3" t="str">
         <f>_xll.RtGet("IDN","USD3MFSR=X","PRIMACT_1")</f>
-        <v>1.8985000000000001</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1463,9 +1459,9 @@
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="3" t="str">
         <f>_xll.RtGet("IDN","USD6MFSR=X","PRIMACT_1")</f>
-        <v>1.9188800000000001</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1478,9 +1474,9 @@
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="3" t="str">
         <f>_xll.RtGet("IDN","USDAM3L1Y=","SEC_ACT_1")</f>
-        <v>1.7210000000000001</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1493,9 +1489,9 @@
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="3" t="str">
         <f>_xll.RtGet("IDN","USDAM3L2Y=","SEC_ACT_1")</f>
-        <v>1.603</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1508,9 +1504,9 @@
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="3" t="str">
         <f>_xll.RtGet("IDN","USDAM3L3Y=","SEC_ACT_1")</f>
-        <v>1.5595000000000001</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1523,9 +1519,9 @@
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="3" t="str">
         <f>_xll.RtGet("IDN","USDAM3L4Y=","SEC_ACT_1")</f>
-        <v>1.5537000000000001</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1538,9 +1534,9 @@
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="3" t="str">
         <f>_xll.RtGet("IDN","USDAM3L5Y=","SEC_ACT_1")</f>
-        <v>1.5643</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1553,9 +1549,9 @@
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="3" t="str">
         <f>_xll.RtGet("IDN","USDAM3L6Y=","SEC_ACT_1")</f>
-        <v>1.5828</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1568,9 +1564,9 @@
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="3" t="str">
         <f>_xll.RtGet("IDN","USDAM3L7Y=","SEC_ACT_1")</f>
-        <v>1.6052000000000002</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1583,9 +1579,9 @@
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="3" t="str">
         <f>_xll.RtGet("IDN","USDAM3L8Y=","SEC_ACT_1")</f>
-        <v>1.6308</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1598,9 +1594,9 @@
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="3" t="str">
         <f>_xll.RtGet("IDN","USDAM3L9Y=","SEC_ACT_1")</f>
-        <v>1.6584000000000001</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1613,9 +1609,9 @@
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="str">
         <f>_xll.RtGet("IDN","USDAM3L10Y=","SEC_ACT_1")</f>
-        <v>1.6940000000000002</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1628,9 +1624,9 @@
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="3" t="str">
         <f>_xll.RtGet("IDN","USDAM3L12Y=","SEC_ACT_1")</f>
-        <v>1.744</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1643,9 +1639,9 @@
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="3" t="str">
         <f>_xll.RtGet("IDN","USDAM3L15Y=","SEC_ACT_1")</f>
-        <v>1.8122</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1658,9 +1654,9 @@
       <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="3" t="str">
         <f>_xll.RtGet("IDN","USDAM3L20Y=","SEC_ACT_1")</f>
-        <v>1.8684000000000001</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1673,9 +1669,9 @@
       <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="3" t="str">
         <f>_xll.RtGet("IDN","USDAM3L30Y=","SEC_ACT_1")</f>
-        <v>1.8894000000000002</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1688,9 +1684,9 @@
       <c r="E19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="3" t="str">
         <f>_xll.RtGet("IDN","USDAM3L50Y=","SEC_ACT_1")</f>
-        <v>1.8360000000000001</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
   </sheetData>
@@ -1702,7 +1698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1712,11 +1708,11 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
-        <v>43788</v>
+        <v>43789</v>
       </c>
       <c r="E1" s="4">
         <f ca="1">TODAY()</f>
-        <v>43788</v>
+        <v>43789</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1729,9 +1725,9 @@
       <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2">
+      <c r="F2" s="2" t="str">
         <f>_xll.RtGet("IDN","EURPLN=D3","PRIMACT_1")</f>
-        <v>4.2890000000000006</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1744,9 +1740,9 @@
       <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="2" t="str">
         <f>_xll.RtGet("IDN","PLN=","SEC_ACT_1")</f>
-        <v>3.8719000000000001</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1759,9 +1755,9 @@
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="2" t="str">
         <f>_xll.RtGet("IDN","EUR=","SEC_ACT_1")</f>
-        <v>1.1078000000000001</v>
+        <v>#N/A Not Signed In</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">

--- a/media/market_data.xlsx
+++ b/media/market_data.xlsx
@@ -4,20 +4,23 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="105" windowWidth="14355" windowHeight="4950" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="5415"/>
   </bookViews>
   <sheets>
     <sheet name="PLN curve" sheetId="1" r:id="rId1"/>
     <sheet name="EUR curve" sheetId="2" r:id="rId2"/>
     <sheet name="USA curve" sheetId="5" r:id="rId3"/>
-    <sheet name="FX PLN" sheetId="3" r:id="rId4"/>
+    <sheet name="PLN RATES" sheetId="6" r:id="rId4"/>
+    <sheet name="EURO RATES" sheetId="7" r:id="rId5"/>
+    <sheet name="USD RATES" sheetId="8" r:id="rId6"/>
+    <sheet name="FX PLN" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="83">
   <si>
     <t>1M</t>
   </si>
@@ -87,6 +90,186 @@
   <si>
     <t>12M</t>
   </si>
+  <si>
+    <t>WIBOR</t>
+  </si>
+  <si>
+    <t>FRA</t>
+  </si>
+  <si>
+    <t>IRS</t>
+  </si>
+  <si>
+    <t>EONIA/EURIBOR</t>
+  </si>
+  <si>
+    <t>EONIA</t>
+  </si>
+  <si>
+    <t>LIBOR</t>
+  </si>
+  <si>
+    <t>ON</t>
+  </si>
+  <si>
+    <t>TN</t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>2W</t>
+  </si>
+  <si>
+    <t>9M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1Y    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2Y    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3Y    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4Y    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5Y    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6Y    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7Y    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8Y    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9Y    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10Y   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12Y   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">15Y   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20Y   </t>
+  </si>
+  <si>
+    <t>1X2</t>
+  </si>
+  <si>
+    <t>2X3</t>
+  </si>
+  <si>
+    <t>1X4</t>
+  </si>
+  <si>
+    <t>2X5</t>
+  </si>
+  <si>
+    <t>3X6</t>
+  </si>
+  <si>
+    <t>4X7</t>
+  </si>
+  <si>
+    <t>5X8</t>
+  </si>
+  <si>
+    <t>6X9</t>
+  </si>
+  <si>
+    <t>7X10</t>
+  </si>
+  <si>
+    <t>8X11</t>
+  </si>
+  <si>
+    <t>9X12</t>
+  </si>
+  <si>
+    <t>1X7</t>
+  </si>
+  <si>
+    <t>2X8</t>
+  </si>
+  <si>
+    <t>3X9</t>
+  </si>
+  <si>
+    <t>4X10</t>
+  </si>
+  <si>
+    <t>5X11</t>
+  </si>
+  <si>
+    <t>6X12</t>
+  </si>
+  <si>
+    <t>12X15</t>
+  </si>
+  <si>
+    <t>15X18</t>
+  </si>
+  <si>
+    <t>18X21</t>
+  </si>
+  <si>
+    <t>21X24</t>
+  </si>
+  <si>
+    <t>12X18</t>
+  </si>
+  <si>
+    <t>18X24</t>
+  </si>
+  <si>
+    <t>2X14</t>
+  </si>
+  <si>
+    <t>3X15</t>
+  </si>
+  <si>
+    <t>9X15</t>
+  </si>
+  <si>
+    <t>6X18</t>
+  </si>
+  <si>
+    <t>12X24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ON    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">SW    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1M    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2M    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3M    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6M    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9M    </t>
+  </si>
+  <si>
+    <t>MID</t>
+  </si>
 </sst>
 </file>
 
@@ -150,371 +333,2962 @@
 <volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <volType type="realTimeData">
     <main first="pldatasource.rtgetrtdserver">
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>1.59</v>
+        <stp/>
+        <stp xml:space="preserve">
+WIPLNTND=X	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I4" s="6"/>
+      </tp>
+      <tp>
+        <v>1.58</v>
+        <stp/>
+        <stp xml:space="preserve">
+WIPLNSWD=X	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I5" s="6"/>
+      </tp>
+      <tp>
+        <v>1.59</v>
+        <stp/>
+        <stp xml:space="preserve">
+WIPLNOND=X	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I3" s="6"/>
+      </tp>
+      <tp>
+        <v>1.8</v>
+        <stp/>
+        <stp xml:space="preserve">
+WIPLN9MD=X	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I10" s="6"/>
+      </tp>
+      <tp>
+        <v>1.79</v>
         <stp/>
         <stp xml:space="preserve">
 WIPLN6MD=X	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I9" s="6"/>
         <tr r="F4" s="1"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>1.6</v>
+        <stp/>
+        <stp xml:space="preserve">
+WIPLN2WD=X	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I6" s="6"/>
+      </tp>
+      <tp>
+        <v>1.71</v>
         <stp/>
         <stp xml:space="preserve">
 WIPLN3MD=X	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I8" s="6"/>
         <tr r="F3" s="1"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>1.6300000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 WIPLN1MD=X	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I7" s="6"/>
         <tr r="F2" s="1"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>1.84</v>
+        <stp/>
+        <stp xml:space="preserve">
+WIPLN1YD=X	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I11" s="6"/>
+      </tp>
+      <tp>
+        <v>-0.39</v>
+        <stp/>
+        <stp xml:space="preserve">
+EUR15X18F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I46" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.34300000000000003</v>
+        <stp/>
+        <stp xml:space="preserve">
+EUR12X18F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I58" s="7"/>
+      </tp>
+      <tp>
+        <v>1.4598</v>
+        <stp/>
+        <stp xml:space="preserve">
+USD15X18F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I43" s="8"/>
+      </tp>
+      <tp>
+        <v>1.6862500000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLN12X18F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I67" s="6"/>
+      </tp>
+      <tp>
+        <v>1.5598800000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLN15X18F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I64" s="6"/>
+      </tp>
+      <tp>
+        <v>1.5630000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+USD12X18F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I41" s="8"/>
+      </tp>
+      <tp>
+        <v>1.5230000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+USD12X18F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H41" s="8"/>
+      </tp>
+      <tp>
+        <v>1.5098800000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLN15X18F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H64" s="6"/>
+      </tp>
+      <tp>
+        <v>1.6262500000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLN12X18F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H67" s="6"/>
+      </tp>
+      <tp>
+        <v>1.4198000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+USD15X18F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H43" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.35299999999999998</v>
+        <stp/>
+        <stp xml:space="preserve">
+EUR12X18F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H58" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.44</v>
+        <stp/>
+        <stp xml:space="preserve">
+EUR15X18F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H46" s="7"/>
+      </tp>
+      <tp>
+        <v>1.31</v>
+        <stp/>
+        <stp xml:space="preserve">
+WIPLNTND=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H4" s="6"/>
+      </tp>
+      <tp>
+        <v>1.3800000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+WIPLNSWD=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H5" s="6"/>
+      </tp>
+      <tp>
+        <v>1.31</v>
+        <stp/>
+        <stp xml:space="preserve">
+WIPLNOND=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H3" s="6"/>
+      </tp>
+      <tp>
+        <v>1.59</v>
+        <stp/>
+        <stp xml:space="preserve">
+WIPLN6MD=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H9" s="6"/>
+      </tp>
+      <tp>
+        <v>1.6400000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+WIPLN1YD=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H11" s="6"/>
+      </tp>
+      <tp>
+        <v>1.43</v>
+        <stp/>
+        <stp xml:space="preserve">
+WIPLN1MD=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H7" s="6"/>
+      </tp>
+      <tp>
+        <v>1.4000000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+WIPLN2WD=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H6" s="6"/>
+      </tp>
+      <tp>
+        <v>1.51</v>
+        <stp/>
+        <stp xml:space="preserve">
+WIPLN3MD=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H8" s="6"/>
+      </tp>
+      <tp>
+        <v>1.6</v>
+        <stp/>
+        <stp xml:space="preserve">
+WIPLN9MD=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H10" s="6"/>
+      </tp>
+      <tp>
+        <v>1.1025</v>
         <stp/>
         <stp>_x0004_EUR=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F4" s="3"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>3.9026000000000001</v>
         <stp/>
         <stp>_x0004_PLN=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F3" s="3"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>-0.38</v>
+        <stp/>
+        <stp xml:space="preserve">
+EUR18X21F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I47" s="7"/>
+      </tp>
+      <tp>
+        <v>1.5427200000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLN18X21F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I65" s="6"/>
+      </tp>
+      <tp>
+        <v>1.42</v>
+        <stp/>
+        <stp xml:space="preserve">
+USD18X21F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I44" s="8"/>
+      </tp>
+      <tp>
+        <v>1.5970000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+USDSWFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H5" s="8"/>
+      </tp>
+      <tp>
+        <v>1.4000000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+USD18X21F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H44" s="8"/>
+      </tp>
+      <tp>
+        <v>1.49272</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLN18X21F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H65" s="6"/>
+      </tp>
+      <tp>
+        <v>-0.43</v>
+        <stp/>
+        <stp xml:space="preserve">
+EUR18X21F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H47" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.40200000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+EUR12X15F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I45" s="7"/>
+      </tp>
+      <tp>
+        <v>1.5990900000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLN12X15F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I63" s="6"/>
+      </tp>
+      <tp>
+        <v>1.528</v>
+        <stp/>
+        <stp xml:space="preserve">
+USD12X15F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I42" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.311</v>
+        <stp/>
+        <stp xml:space="preserve">
+EUR18X24F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I59" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.25600000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+EUR12X24F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I61" s="7"/>
+      </tp>
+      <tp>
+        <v>1.4884000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLN21X24F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H66" s="6"/>
+      </tp>
+      <tp>
+        <v>1.6283200000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLN18X24F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I68" s="6"/>
+      </tp>
+      <tp>
+        <v>1.4950000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+USD18X24F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I45" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.42</v>
+        <stp/>
+        <stp xml:space="preserve">
+EUR21X24F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H48" s="7"/>
+      </tp>
+      <tp>
+        <v>1.4550000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+USD18X24F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H45" s="8"/>
+      </tp>
+      <tp>
+        <v>1.5683200000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLN18X24F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H68" s="6"/>
+      </tp>
+      <tp>
+        <v>-0.37</v>
+        <stp/>
+        <stp xml:space="preserve">
+EUR21X24F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I48" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.33100000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+EUR18X24F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H59" s="7"/>
+      </tp>
+      <tp>
+        <v>1.5384</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLN21X24F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I66" s="6"/>
+      </tp>
+      <tp>
+        <v>-0.26600000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+EUR12X24F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H61" s="7"/>
+      </tp>
+      <tp>
+        <v>1.488</v>
+        <stp/>
+        <stp xml:space="preserve">
+USD12X15F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H42" s="8"/>
+      </tp>
+      <tp>
+        <v>1.5490900000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLN12X15F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H63" s="6"/>
+      </tp>
+      <tp>
+        <v>-0.45200000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+EUR12X15F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H45" s="7"/>
+      </tp>
+      <tp>
+        <v>1.5361300000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+USDONFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H4" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.499</v>
+        <stp/>
+        <stp>_x000B_EURIBORSWD=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H5" s="7"/>
+      </tp>
+      <tp>
+        <v>1.7244800000000002</v>
+        <stp/>
+        <stp>_x0008_PLN4X7F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I51" s="6"/>
+      </tp>
+      <tp>
+        <v>1.7073</v>
+        <stp/>
+        <stp>_x0008_USD4X7F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I28" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.4</v>
+        <stp/>
+        <stp>_x0008_EUR4X7F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I39" s="7"/>
+      </tp>
+      <tp>
+        <v>1.7188000000000001</v>
+        <stp/>
+        <stp>_x0008_PLN5X8F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I52" s="6"/>
+      </tp>
+      <tp>
+        <v>1.669</v>
+        <stp/>
+        <stp>_x0008_USD5X8F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I29" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.40300000000000002</v>
+        <stp/>
+        <stp>_x0008_EUR5X8F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I40" s="7"/>
+      </tp>
+      <tp>
+        <v>1.7143000000000002</v>
+        <stp/>
+        <stp>_x0008_PLN6X9F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I53" s="6"/>
+      </tp>
+      <tp>
+        <v>1.6300000000000001</v>
+        <stp/>
+        <stp>_x0008_USD6X9F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I30" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.40700000000000003</v>
+        <stp/>
+        <stp>_x0008_EUR6X9F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I41" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>SW</v>
+        <stp/>
+        <stp>_x000B_EURIBORSWD=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G5" s="7"/>
+      </tp>
+      <tp>
+        <v>1.6600000000000001</v>
+        <stp/>
+        <stp>_x0008_PLN1X2F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I46" s="6"/>
+      </tp>
+      <tp>
+        <v>1.73533</v>
+        <stp/>
+        <stp>_x0008_PLN1X4F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I48" s="6"/>
+      </tp>
+      <tp>
+        <v>1.8194800000000002</v>
+        <stp/>
+        <stp>_x0008_PLN1X7F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I57" s="6"/>
+      </tp>
+      <tp>
+        <v>1.9032</v>
+        <stp/>
+        <stp>_x0008_USD1X7F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I34" s="8"/>
+      </tp>
+      <tp>
+        <v>1.891</v>
+        <stp/>
+        <stp>_x0008_USD1X4F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I25" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.39</v>
+        <stp/>
+        <stp>_x0008_EUR1X4F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I36" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.32</v>
+        <stp/>
+        <stp>_x0008_EUR1X7F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I49" s="7"/>
+      </tp>
+      <tp>
+        <v>1.6600000000000001</v>
+        <stp/>
+        <stp>_x0008_PLN2X3F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I47" s="6"/>
+      </tp>
+      <tp>
+        <v>1.7336300000000002</v>
+        <stp/>
+        <stp>_x0008_PLN2X5F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I49" s="6"/>
+      </tp>
+      <tp>
+        <v>1.8</v>
+        <stp/>
+        <stp>_x0008_PLN2X8F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I58" s="6"/>
+      </tp>
+      <tp>
+        <v>1.8240000000000001</v>
+        <stp/>
+        <stp>_x0008_USD2X8F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I35" s="8"/>
+      </tp>
+      <tp>
+        <v>1.8069999999999999</v>
+        <stp/>
+        <stp>_x0008_USD2X5F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I26" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.31</v>
+        <stp/>
+        <stp>_x0008_EUR2X8F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I50" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.38</v>
+        <stp/>
+        <stp>_x0008_EUR2X5F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I37" s="7"/>
+      </tp>
+      <tp>
+        <v>1.7322600000000001</v>
+        <stp/>
+        <stp>_x0008_PLN3X6F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I50" s="6"/>
+      </tp>
+      <tp>
+        <v>1.79</v>
+        <stp/>
+        <stp>_x0008_PLN3X9F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I59" s="6"/>
+      </tp>
+      <tp>
+        <v>1.77</v>
+        <stp/>
+        <stp>_x0008_USD3X9F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I36" s="8"/>
+      </tp>
+      <tp>
+        <v>1.7470000000000001</v>
+        <stp/>
+        <stp>_x0008_USD3X6F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I27" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.32900000000000001</v>
+        <stp/>
+        <stp>_x0008_EUR3X9F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I52" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.39</v>
+        <stp/>
+        <stp>_x0008_EUR3X6F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I38" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.41699999999999998</v>
+        <stp/>
+        <stp>_x0008_EUR6X9F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H41" s="7"/>
+      </tp>
+      <tp>
+        <v>1.6643000000000001</v>
+        <stp/>
+        <stp>_x0008_PLN6X9F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H53" s="6"/>
+      </tp>
+      <tp>
+        <v>1.61</v>
+        <stp/>
+        <stp>_x0008_USD6X9F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H30" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.42</v>
+        <stp/>
+        <stp>_x0008_EUR4X7F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H39" s="7"/>
+      </tp>
+      <tp>
+        <v>1.6744800000000002</v>
+        <stp/>
+        <stp>_x0008_PLN4X7F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H51" s="6"/>
+      </tp>
+      <tp>
+        <v>1.6673</v>
+        <stp/>
+        <stp>_x0008_USD4X7F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H28" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.41300000000000003</v>
+        <stp/>
+        <stp>_x0008_EUR5X8F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H40" s="7"/>
+      </tp>
+      <tp>
+        <v>1.6688000000000001</v>
+        <stp/>
+        <stp>_x0008_PLN5X8F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H52" s="6"/>
+      </tp>
+      <tp>
+        <v>1.629</v>
+        <stp/>
+        <stp>_x0008_USD5X8F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H29" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.35000000000000003</v>
+        <stp/>
+        <stp>_x0008_EUR2X8F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H50" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.4</v>
+        <stp/>
+        <stp>_x0008_EUR2X5F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H37" s="7"/>
+      </tp>
+      <tp>
+        <v>1.62</v>
+        <stp/>
+        <stp>_x0008_PLN2X3F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H47" s="6"/>
+      </tp>
+      <tp>
+        <v>1.6836300000000002</v>
+        <stp/>
+        <stp>_x0008_PLN2X5F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H49" s="6"/>
+      </tp>
+      <tp>
+        <v>1.78</v>
+        <stp/>
+        <stp>_x0008_PLN2X8F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H58" s="6"/>
+      </tp>
+      <tp>
+        <v>1.784</v>
+        <stp/>
+        <stp>_x0008_USD2X8F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H35" s="8"/>
+      </tp>
+      <tp>
+        <v>1.7670000000000001</v>
+        <stp/>
+        <stp>_x0008_USD2X5F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H26" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.33900000000000002</v>
+        <stp/>
+        <stp>_x0008_EUR3X9F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H52" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.41000000000000003</v>
+        <stp/>
+        <stp>_x0008_EUR3X6F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H38" s="7"/>
+      </tp>
+      <tp>
+        <v>1.6822600000000001</v>
+        <stp/>
+        <stp>_x0008_PLN3X6F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H50" s="6"/>
+      </tp>
+      <tp>
+        <v>1.77</v>
+        <stp/>
+        <stp>_x0008_PLN3X9F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H59" s="6"/>
+      </tp>
+      <tp>
+        <v>1.73</v>
+        <stp/>
+        <stp>_x0008_USD3X9F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H36" s="8"/>
+      </tp>
+      <tp>
+        <v>1.7070000000000001</v>
+        <stp/>
+        <stp>_x0008_USD3X6F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H27" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.34</v>
+        <stp/>
+        <stp>_x0008_EUR1X7F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H49" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.41000000000000003</v>
+        <stp/>
+        <stp>_x0008_EUR1X4F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H36" s="7"/>
+      </tp>
+      <tp>
+        <v>1.62</v>
+        <stp/>
+        <stp>_x0008_PLN1X2F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H46" s="6"/>
+      </tp>
+      <tp>
+        <v>1.7594800000000002</v>
+        <stp/>
+        <stp>_x0008_PLN1X7F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H57" s="6"/>
+      </tp>
+      <tp>
+        <v>1.6853300000000002</v>
+        <stp/>
+        <stp>_x0008_PLN1X4F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H48" s="6"/>
+      </tp>
+      <tp>
+        <v>1.851</v>
+        <stp/>
+        <stp>_x0008_USD1X4F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H25" s="8"/>
+      </tp>
+      <tp>
+        <v>1.8432000000000002</v>
+        <stp/>
+        <stp>_x0008_USD1X7F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H34" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>2X3</v>
+        <stp/>
+        <stp>_x0008_PLN2X3F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G47" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>2X5</v>
+        <stp/>
+        <stp>_x0008_PLN2X5F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G49" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>2X8</v>
+        <stp/>
+        <stp>_x0008_PLN2X8F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G58" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>2X8</v>
+        <stp/>
+        <stp>_x0008_USD2X8F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G35" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>2X5</v>
+        <stp/>
+        <stp>_x0008_USD2X5F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G26" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>2X8</v>
+        <stp/>
+        <stp>_x0008_EUR2X8F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G50" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>2X5</v>
+        <stp/>
+        <stp>_x0008_EUR2X5F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G37" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>3X6</v>
+        <stp/>
+        <stp>_x0008_PLN3X6F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G50" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>3X9</v>
+        <stp/>
+        <stp>_x0008_PLN3X9F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G59" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>3X9</v>
+        <stp/>
+        <stp>_x0008_USD3X9F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G36" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>3X6</v>
+        <stp/>
+        <stp>_x0008_USD3X6F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G27" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>3X9</v>
+        <stp/>
+        <stp>_x0008_EUR3X9F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G52" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>3X6</v>
+        <stp/>
+        <stp>_x0008_EUR3X6F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G38" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.39900000000000002</v>
+        <stp/>
+        <stp>_x000B_EURIBOR3MD=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H7" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>8X11</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR8X11F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G43" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>8X11</v>
+        <stp/>
+        <stp xml:space="preserve">	PLN8X11F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G55" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>8X11</v>
+        <stp/>
+        <stp xml:space="preserve">	USD8X11F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G32" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>1X2</v>
+        <stp/>
+        <stp>_x0008_PLN1X2F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G46" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>1X7</v>
+        <stp/>
+        <stp>_x0008_PLN1X7F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G57" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>1X4</v>
+        <stp/>
+        <stp>_x0008_PLN1X4F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G48" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>1X4</v>
+        <stp/>
+        <stp>_x0008_USD1X4F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G25" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>1X7</v>
+        <stp/>
+        <stp>_x0008_USD1X7F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G34" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>1X7</v>
+        <stp/>
+        <stp>_x0008_EUR1X7F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G49" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>1X4</v>
+        <stp/>
+        <stp>_x0008_EUR1X4F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G36" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.45100000000000001</v>
+        <stp/>
+        <stp>_x000B_EURIBOR1MD=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H6" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.27900000000000003</v>
+        <stp/>
+        <stp>_x000B_EURIBOR1YD=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H9" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>9X12</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR9X12F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G44" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>9X15</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR9X15F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G57" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>9X12</v>
+        <stp/>
+        <stp xml:space="preserve">	PLN9X12F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G56" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>9X15</v>
+        <stp/>
+        <stp xml:space="preserve">	USD9X15F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G40" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>9X12</v>
+        <stp/>
+        <stp xml:space="preserve">	USD9X12F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G33" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>6X9</v>
+        <stp/>
+        <stp>_x0008_PLN6X9F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G53" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>6X9</v>
+        <stp/>
+        <stp>_x0008_USD6X9F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G30" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>6X9</v>
+        <stp/>
+        <stp>_x0008_EUR6X9F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G41" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.33800000000000002</v>
+        <stp/>
+        <stp>_x000B_EURIBOR6MD=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H8" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>4X7</v>
+        <stp/>
+        <stp>_x0008_PLN4X7F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G51" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>4X7</v>
+        <stp/>
+        <stp>_x0008_USD4X7F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G28" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>4X7</v>
+        <stp/>
+        <stp>_x0008_EUR4X7F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G39" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>5X8</v>
+        <stp/>
+        <stp>_x0008_PLN5X8F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G52" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>5X8</v>
+        <stp/>
+        <stp>_x0008_USD5X8F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G29" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>5X8</v>
+        <stp/>
+        <stp>_x0008_EUR5X8F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G40" s="7"/>
+      </tp>
+      <tp>
+        <v>1.9350000000000001</v>
+        <stp/>
+        <stp>_x000B_PLNAB6W20Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H37" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>2X14</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR2X14F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G51" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>3X15</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR3X15F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G53" s="7"/>
+      </tp>
+      <tp>
+        <v>1.6120000000000001</v>
+        <stp/>
+        <stp>_x000B_USDAM3L10Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H22" s="8"/>
+      </tp>
+      <tp>
+        <v>1.73</v>
+        <stp/>
+        <stp>_x000B_PLNAB3W10Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H23" s="6"/>
+      </tp>
+      <tp>
+        <v>1.6950000000000001</v>
+        <stp/>
+        <stp>_x000B_PLNAB6W10Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H34" s="6"/>
+      </tp>
+      <tp>
+        <v>1.7250000000000001</v>
+        <stp/>
+        <stp>_x000B_PLNAB6W12Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H35" s="6"/>
+      </tp>
+      <tp>
+        <v>1.8150000000000002</v>
+        <stp/>
+        <stp>_x000B_PLNAB6W15Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H36" s="6"/>
+      </tp>
+      <tp>
+        <v>-3.4000000000000002E-2</v>
+        <stp/>
+        <stp>_x000B_EURAB3E10Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H21" s="7"/>
+      </tp>
+      <tp>
+        <v>4.7E-2</v>
+        <stp/>
+        <stp>_x000B_EURAB6E10Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H33" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>6X18</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR6X18F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G60" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>6X12</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR6X12F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G56" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>6X12</v>
+        <stp/>
+        <stp xml:space="preserve">	PLN6X12F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G62" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>6X12</v>
+        <stp/>
+        <stp xml:space="preserve">	USD6X12F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G39" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>7X10</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR7X10F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G42" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>7X10</v>
+        <stp/>
+        <stp xml:space="preserve">	PLN7X10F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G54" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>7X10</v>
+        <stp/>
+        <stp xml:space="preserve">	USD7X10F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G31" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>4X10</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR4X10F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G54" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>4X10</v>
+        <stp/>
+        <stp xml:space="preserve">	PLN4X10F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G60" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>4X10</v>
+        <stp/>
+        <stp xml:space="preserve">	USD4X10F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G37" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.44800000000000001</v>
+        <stp/>
+        <stp>_x0006_EONIA=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H4" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>5X11</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR5X11F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G55" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>5X11</v>
+        <stp/>
+        <stp xml:space="preserve">	PLN5X11F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G61" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>5X11</v>
+        <stp/>
+        <stp xml:space="preserve">	USD5X11F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G38" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>1M</v>
+        <stp/>
+        <stp>_x000B_EURIBOR1MD=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G6" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>1Y</v>
+        <stp/>
+        <stp>_x000B_EURIBOR1YD=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G9" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>3M</v>
+        <stp/>
+        <stp>_x000B_EURIBOR3MD=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G7" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>6M</v>
+        <stp/>
+        <stp>_x000B_EURIBOR6MD=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G8" s="7"/>
+      </tp>
+      <tp>
+        <v>1.6520000000000001</v>
         <stp/>
         <stp>_x000B_USDAM3L10Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F14" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+        <tr r="I22" s="8"/>
+      </tp>
+      <tp>
+        <v>1.6900000000000002</v>
         <stp/>
         <stp>_x000B_USDAM3L12Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F15" s="5"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>1.754</v>
         <stp/>
         <stp>_x000B_USDAM3L15Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F16" s="5"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>1.7650000000000001</v>
         <stp/>
         <stp>_x000B_PLNAB6W12Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F15" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+        <tr r="I35" s="6"/>
+      </tp>
+      <tp>
+        <v>1.7350000000000001</v>
+        <stp/>
+        <stp>_x000B_PLNAB6W10Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I34" s="6"/>
+      </tp>
+      <tp>
+        <v>1.75</v>
         <stp/>
         <stp>_x000B_PLNAB3W10Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I23" s="6"/>
         <tr r="F14" s="1"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>1.855</v>
         <stp/>
         <stp>_x000B_PLNAB6W15Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F16" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+        <tr r="I36" s="6"/>
+      </tp>
+      <tp>
+        <v>0.30660000000000004</v>
         <stp/>
         <stp>_x000B_EURAB6E15Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F16" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>0.1671</v>
         <stp/>
         <stp>_x000B_EURAB6E12Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F15" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>5.7000000000000002E-2</v>
         <stp/>
         <stp>_x000B_EURAB6E10Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F14" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+        <tr r="I33" s="7"/>
+      </tp>
+      <tp>
+        <v>6.0000000000000001E-3</v>
+        <stp/>
+        <stp>_x000B_EURAB3E10Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I21" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">10Y   </v>
+        <stp/>
+        <stp>_x000B_USDAM3L10Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G22" s="8"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">10Y   </v>
+        <stp/>
+        <stp>_x000B_PLNAB6W10Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G34" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">10Y   </v>
+        <stp/>
+        <stp>_x000B_PLNAB3W10Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G23" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">12Y   </v>
+        <stp/>
+        <stp>_x000B_PLNAB6W12Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G35" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">15Y   </v>
+        <stp/>
+        <stp>_x000B_PLNAB6W15Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G36" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">10Y   </v>
+        <stp/>
+        <stp>_x000B_EURAB6E10Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G33" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">10Y   </v>
+        <stp/>
+        <stp>_x000B_EURAB3E10Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G21" s="7"/>
+      </tp>
+      <tp>
+        <v>1.8090000000000002</v>
         <stp/>
         <stp>_x000B_USDAM3L20Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F17" s="5"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>1.9750000000000001</v>
         <stp/>
         <stp>_x000B_PLNAB6W20Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F17" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+        <tr r="I37" s="6"/>
+      </tp>
+      <tp>
+        <v>0.43690000000000001</v>
         <stp/>
         <stp>_x000B_EURAB6E20Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F17" s="2"/>
       </tp>
       <tp t="s">
-        <v>#N/A Not Signed In</v>
+        <v xml:space="preserve">20Y   </v>
+        <stp/>
+        <stp>_x000B_PLNAB6W20Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G37" s="6"/>
+      </tp>
+      <tp>
+        <v>1.8250000000000002</v>
         <stp/>
         <stp>_x000B_USDAM3L30Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F18" s="5"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>0.47490000000000004</v>
         <stp/>
         <stp>_x000B_EURAB6E30Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F18" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>1.768</v>
         <stp/>
         <stp>_x000B_USDAM3L50Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F19" s="5"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>0.36410000000000003</v>
         <stp/>
         <stp>_x000B_EURAB6E50Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F19" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>1.6995000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 USD1MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H6" s="8"/>
         <tr r="F2" s="5"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>1.9417500000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+USD1YFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H10" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.50286000000000008</v>
         <stp/>
         <stp xml:space="preserve">
 EUR1MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F2" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>1.9186300000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USD3MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H8" s="8"/>
         <tr r="F3" s="5"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>-0.44200000000000006</v>
         <stp/>
         <stp xml:space="preserve">
 EUR3MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F3" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>1.8420000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+USD2MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H7" s="8"/>
+      </tp>
+      <tp>
+        <v>1.9191300000000002</v>
         <stp/>
         <stp xml:space="preserve">
 USD6MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H9" s="8"/>
         <tr r="F4" s="5"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>-0.39800000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 EUR6MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F4" s="2"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>1.6700000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB1W9M=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I42" s="6"/>
+      </tp>
+      <tp>
+        <v>-4.8999999999999998E-3</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E9Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F13" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+        <tr r="I32" s="7"/>
+      </tp>
+      <tp>
+        <v>-7.2000000000000008E-2</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E9Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I20" s="7"/>
+      </tp>
+      <tp>
+        <v>1.718</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB6W9Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I33" s="6"/>
+      </tp>
+      <tp>
+        <v>1.73</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W9Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I22" s="6"/>
         <tr r="F13" s="1"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>1.623</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L9Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F13" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+        <tr r="I21" s="8"/>
+      </tp>
+      <tp>
+        <v>-6.4899999999999999E-2</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E8Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F12" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+        <tr r="I31" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.13739999999999999</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E8Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I19" s="7"/>
+      </tp>
+      <tp>
+        <v>1.7100000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB6W8Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I32" s="6"/>
+      </tp>
+      <tp>
+        <v>1.73</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W8Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I21" s="6"/>
         <tr r="F12" s="1"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>1.5790000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L8Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F12" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+        <tr r="I20" s="8"/>
+      </tp>
+      <tp>
+        <v>1.6800000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB6W8Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H32" s="6"/>
+      </tp>
+      <tp>
+        <v>1.7100000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB3W8Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H21" s="6"/>
+      </tp>
+      <tp>
+        <v>1.5738000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+USDAM3L8Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H20" s="8"/>
+      </tp>
+      <tp>
+        <v>-6.8900000000000003E-2</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB6E8Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H31" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.1424</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E8Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H19" s="7"/>
+      </tp>
+      <tp>
+        <v>1.6880000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB6W9Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H33" s="6"/>
+      </tp>
+      <tp>
+        <v>1.7100000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB3W9Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H22" s="6"/>
+      </tp>
+      <tp>
+        <v>1.5830000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+USDAM3L9Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H21" s="8"/>
+      </tp>
+      <tp>
+        <v>-8.8999999999999999E-3</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB6E9Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H32" s="7"/>
+      </tp>
+      <tp>
+        <v>-8.2000000000000003E-2</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E9Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H20" s="7"/>
+      </tp>
+      <tp>
+        <v>1.6400000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB1W9M=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H42" s="6"/>
+      </tp>
+      <tp>
+        <v>-0.34129999999999999</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E1Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F5" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+        <tr r="I24" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.3957</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E1Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I12" s="7"/>
+      </tp>
+      <tp>
+        <v>1.6920000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB6W2Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H26" s="6"/>
+      </tp>
+      <tp>
+        <v>1.6500000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB3W2Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H15" s="6"/>
+      </tp>
+      <tp>
+        <v>1.5610000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+USDAM3L2Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H14" s="8"/>
+      </tp>
+      <tp>
+        <v>1.7100000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W1Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F5" s="1"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+        <tr r="I14" s="6"/>
+      </tp>
+      <tp>
+        <v>1.6700000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB1W1Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I43" s="6"/>
+      </tp>
+      <tp>
+        <v>-0.35300000000000004</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB6E2Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H25" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.4224</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E2Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H13" s="7"/>
+      </tp>
+      <tp>
+        <v>1.7310000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L1Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F5" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+        <tr r="I13" s="8"/>
+      </tp>
+      <tp>
+        <v>1.665</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB6W3Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H27" s="6"/>
+      </tp>
+      <tp>
+        <v>1.6300000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB3W3Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H16" s="6"/>
+      </tp>
+      <tp>
+        <v>1.5279</v>
+        <stp/>
+        <stp xml:space="preserve">
+USDAM3L3Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H15" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.32800000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB6E3Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H26" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.39980000000000004</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E3Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H14" s="7"/>
+      </tp>
+      <tp>
+        <v>1.6300000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB1W3M=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H40" s="6"/>
+      </tp>
+      <tp>
+        <v>1.6600000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB1W3M=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I40" s="6"/>
+      </tp>
+      <tp>
+        <v>-0.308</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E3Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F7" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+        <tr r="I26" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.38980000000000004</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E3Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I14" s="7"/>
+      </tp>
+      <tp>
+        <v>1.6950000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB6W3Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I27" s="6"/>
+      </tp>
+      <tp>
+        <v>1.6500000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W3Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I16" s="6"/>
         <tr r="F7" s="1"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>1.5330000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L3Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F7" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+        <tr r="I15" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.33300000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E2Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F6" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+        <tr r="I25" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.41240000000000004</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E2Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I13" s="7"/>
+      </tp>
+      <tp>
+        <v>1.6400000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB1W1Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H43" s="6"/>
+      </tp>
+      <tp>
+        <v>1.6800000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB3W1Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H14" s="6"/>
+      </tp>
+      <tp>
+        <v>1.6910000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+USDAM3L1Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H13" s="8"/>
+      </tp>
+      <tp>
+        <v>1.7230000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB6W2Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I26" s="6"/>
+      </tp>
+      <tp>
+        <v>1.6700000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W2Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I15" s="6"/>
         <tr r="F6" s="1"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>-0.3448</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB6E1Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H24" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.43570000000000003</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E1Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H12" s="7"/>
+      </tp>
+      <tp>
+        <v>1.601</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L2Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F6" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+        <tr r="I14" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.22550000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E5Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F9" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+        <tr r="I28" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.30399999999999999</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E5Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I16" s="7"/>
+      </tp>
+      <tp>
+        <v>1.6600000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB6W6Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H30" s="6"/>
+      </tp>
+      <tp>
+        <v>1.6800000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB3W6Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H19" s="6"/>
+      </tp>
+      <tp>
+        <v>1.5130000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+USDAM3L6Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H18" s="8"/>
+      </tp>
+      <tp>
+        <v>1.6850000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB6W5Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I29" s="6"/>
+      </tp>
+      <tp>
+        <v>1.6800000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W5Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I18" s="6"/>
         <tr r="F9" s="1"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>-0.186</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB6E6Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H29" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.26190000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E6Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H17" s="7"/>
+      </tp>
+      <tp>
+        <v>1.6400000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB1W6M=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H41" s="6"/>
+      </tp>
+      <tp>
+        <v>1.54</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L5Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F9" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+        <tr r="I17" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.26930000000000004</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E4Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F8" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+        <tr r="I27" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.35089999999999999</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E4Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I15" s="7"/>
+      </tp>
+      <tp>
+        <v>1.6700000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB6W7Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H31" s="6"/>
+      </tp>
+      <tp>
+        <v>1.6900000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB3W7Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H20" s="6"/>
+      </tp>
+      <tp>
+        <v>1.544</v>
+        <stp/>
+        <stp xml:space="preserve">
+USDAM3L7Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H19" s="8"/>
+      </tp>
+      <tp>
+        <v>1.6850000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB6W4Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I28" s="6"/>
+      </tp>
+      <tp>
+        <v>1.6600000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W4Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I17" s="6"/>
         <tr r="F8" s="1"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>-0.12790000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB6E7Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H30" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.2034</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E7Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H18" s="7"/>
+      </tp>
+      <tp>
+        <v>1.538</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L4Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F8" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+        <tr r="I16" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.12390000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E7Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F11" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+        <tr r="I30" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.19840000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E7Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I18" s="7"/>
+      </tp>
+      <tp>
+        <v>1.655</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB6W4Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H28" s="6"/>
+      </tp>
+      <tp>
+        <v>1.6400000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB3W4Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H17" s="6"/>
+      </tp>
+      <tp>
+        <v>1.498</v>
+        <stp/>
+        <stp xml:space="preserve">
+USDAM3L4Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H16" s="8"/>
+      </tp>
+      <tp>
+        <v>1.7000000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB6W7Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I31" s="6"/>
+      </tp>
+      <tp>
+        <v>1.7100000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W7Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I20" s="6"/>
         <tr r="F11" s="1"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>-0.2893</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB6E4Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H27" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.3609</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E4Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H15" s="7"/>
+      </tp>
+      <tp>
+        <v>1.5640000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L7Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F11" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+        <tr r="I19" s="8"/>
+      </tp>
+      <tp>
+        <v>1.6700000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB1W6M=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I41" s="6"/>
+      </tp>
+      <tp>
+        <v>-0.17600000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E6Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F10" s="2"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+        <tr r="I29" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.25190000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E6Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I17" s="7"/>
+      </tp>
+      <tp>
+        <v>1.655</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB6W5Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H29" s="6"/>
+      </tp>
+      <tp>
+        <v>1.6600000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB3W5Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H18" s="6"/>
+      </tp>
+      <tp>
+        <v>1.5</v>
+        <stp/>
+        <stp xml:space="preserve">
+USDAM3L5Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H17" s="8"/>
+      </tp>
+      <tp>
+        <v>1.6900000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB6W6Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I30" s="6"/>
+      </tp>
+      <tp>
+        <v>1.7000000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W6Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I19" s="6"/>
         <tr r="F10" s="1"/>
       </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+      <tp>
+        <v>-0.23550000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB6E5Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H28" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.314</v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E5Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H16" s="7"/>
+      </tp>
+      <tp>
+        <v>1.5530000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L6Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F10" s="5"/>
-      </tp>
-      <tp t="s">
-        <v>#N/A Not Signed In</v>
+        <tr r="I18" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>9M</v>
+        <stp/>
+        <stp xml:space="preserve">
+WIPLN9MD=X_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G10" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>1M</v>
+        <stp/>
+        <stp xml:space="preserve">
+WIPLN1MD=X_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G7" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>1Y</v>
+        <stp/>
+        <stp xml:space="preserve">
+WIPLN1YD=X_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G11" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>2W</v>
+        <stp/>
+        <stp xml:space="preserve">
+WIPLN2WD=X_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G6" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>3M</v>
+        <stp/>
+        <stp xml:space="preserve">
+WIPLN3MD=X_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G8" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>6M</v>
+        <stp/>
+        <stp xml:space="preserve">
+WIPLN6MD=X_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G9" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>ON</v>
+        <stp/>
+        <stp xml:space="preserve">
+WIPLNOND=X_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G3" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>SW</v>
+        <stp/>
+        <stp xml:space="preserve">
+WIPLNSWD=X_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G5" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>TN</v>
+        <stp/>
+        <stp xml:space="preserve">
+WIPLNTND=X_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G4" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>15X18</v>
+        <stp/>
+        <stp xml:space="preserve">
+EUR15X18F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G46" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>12X18</v>
+        <stp/>
+        <stp xml:space="preserve">
+EUR12X18F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G58" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>15X18</v>
+        <stp/>
+        <stp xml:space="preserve">
+USD15X18F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G43" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>12X18</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLN12X18F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G67" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>15X18</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLN15X18F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G64" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>12X18</v>
+        <stp/>
+        <stp xml:space="preserve">
+USD12X18F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G41" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>18X21</v>
+        <stp/>
+        <stp xml:space="preserve">
+EUR18X21F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G47" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>18X21</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLN18X21F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G65" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>18X21</v>
+        <stp/>
+        <stp xml:space="preserve">
+USD18X21F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G44" s="8"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">SW    </v>
+        <stp/>
+        <stp xml:space="preserve">
+USDSWFSR=X_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G5" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>21X24</v>
+        <stp/>
+        <stp xml:space="preserve">
+EUR21X24F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G48" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>21X24</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLN21X24F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G66" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>12X15</v>
+        <stp/>
+        <stp xml:space="preserve">
+EUR12X15F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G45" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>12X15</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLN12X15F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G63" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>12X15</v>
+        <stp/>
+        <stp xml:space="preserve">
+USD12X15F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G42" s="8"/>
+      </tp>
+      <tp t="s">
+        <v>18X24</v>
+        <stp/>
+        <stp xml:space="preserve">
+EUR18X24F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G59" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>12X24</v>
+        <stp/>
+        <stp xml:space="preserve">
+EUR12X24F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G61" s="7"/>
+      </tp>
+      <tp t="s">
+        <v>18X24</v>
+        <stp/>
+        <stp xml:space="preserve">
+PLN18X24F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G68" s="6"/>
+      </tp>
+      <tp t="s">
+        <v>18X24</v>
+        <stp/>
+        <stp xml:space="preserve">
+USD18X24F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G45" s="8"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">ON    </v>
+        <stp/>
+        <stp xml:space="preserve">
+USDONFSR=X_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G4" s="8"/>
+      </tp>
+      <tp>
+        <v>4.3016000000000005</v>
         <stp/>
         <stp xml:space="preserve">	EURPLN=D3	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F2" s="3"/>
+      </tp>
+      <tp>
+        <v>1.5680000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	USD8X11F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I32" s="8"/>
+      </tp>
+      <tp>
+        <v>1.67</v>
+        <stp/>
+        <stp xml:space="preserve">	PLN8X11F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I55" s="6"/>
+      </tp>
+      <tp>
+        <v>-0.41000000000000003</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR8X11F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I43" s="7"/>
+      </tp>
+      <tp>
+        <v>1.601</v>
+        <stp/>
+        <stp xml:space="preserve">	USD9X15F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I40" s="8"/>
+      </tp>
+      <tp>
+        <v>1.542</v>
+        <stp/>
+        <stp xml:space="preserve">	USD9X12F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I33" s="8"/>
+      </tp>
+      <tp>
+        <v>1.6621700000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	PLN9X12F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I56" s="6"/>
+      </tp>
+      <tp>
+        <v>-0.39800000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR9X12F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I44" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.34300000000000003</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR9X15F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I57" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.27100000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR2X14F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I51" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">1Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+USD1YFSR=X_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G10" s="8"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">1M    </v>
+        <stp/>
+        <stp xml:space="preserve">
+USD1MFSR=X_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G6" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.27100000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR3X15F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I53" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">2M    </v>
+        <stp/>
+        <stp xml:space="preserve">
+USD2MFSR=X_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G7" s="8"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">3M    </v>
+        <stp/>
+        <stp xml:space="preserve">
+USD3MFSR=X_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G8" s="8"/>
+      </tp>
+      <tp>
+        <v>1.659</v>
+        <stp/>
+        <stp xml:space="preserve">	USD6X12F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I39" s="8"/>
+      </tp>
+      <tp>
+        <v>1.7950200000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	PLN6X12F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I62" s="6"/>
+      </tp>
+      <tp>
+        <v>-0.24399999999999999</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR6X18F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I60" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.33</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR6X12F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I56" s="7"/>
+      </tp>
+      <tp>
+        <v>1.6062000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	USD7X10F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I31" s="8"/>
+      </tp>
+      <tp>
+        <v>1.69</v>
+        <stp/>
+        <stp xml:space="preserve">	PLN7X10F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I54" s="6"/>
+      </tp>
+      <tp>
+        <v>-0.39100000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR7X10F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I42" s="7"/>
+      </tp>
+      <tp>
+        <v>1.7110000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	USD4X10F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I37" s="8"/>
+      </tp>
+      <tp>
+        <v>1.8135900000000003</v>
+        <stp/>
+        <stp xml:space="preserve">	PLN4X10F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I60" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">6M    </v>
+        <stp/>
+        <stp xml:space="preserve">
+USD6MFSR=X_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G9" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.33100000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR4X10F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I54" s="7"/>
+      </tp>
+      <tp>
+        <v>1.6890000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	USD5X11F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I38" s="8"/>
+      </tp>
+      <tp>
+        <v>1.8065</v>
+        <stp/>
+        <stp xml:space="preserve">	PLN5X11F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I61" s="6"/>
+      </tp>
+      <tp>
+        <v>-0.33</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR5X11F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I55" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">9M    </v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB1W9M=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G42" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">9Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E9Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G20" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">9Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB6E9Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G32" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">9Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB3W9Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G22" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">9Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB6W9Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G33" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">9Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+USDAM3L9Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G21" s="8"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">8Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E8Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G19" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">8Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB6E8Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G31" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">8Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB3W8Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G21" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">8Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB6W8Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G32" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">8Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+USDAM3L8Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G20" s="8"/>
+      </tp>
+      <tp>
+        <v>1.5609999999999999</v>
+        <stp/>
+        <stp xml:space="preserve">	USD9X15F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H40" s="8"/>
+      </tp>
+      <tp>
+        <v>1.522</v>
+        <stp/>
+        <stp xml:space="preserve">	USD9X12F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H33" s="8"/>
+      </tp>
+      <tp>
+        <v>1.6121700000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	PLN9X12F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H56" s="6"/>
+      </tp>
+      <tp>
+        <v>-0.44800000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR9X12F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H44" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.35299999999999998</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR9X15F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H57" s="7"/>
+      </tp>
+      <tp>
+        <v>1.548</v>
+        <stp/>
+        <stp xml:space="preserve">	USD8X11F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H32" s="8"/>
+      </tp>
+      <tp>
+        <v>1.6300000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	PLN8X11F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H55" s="6"/>
+      </tp>
+      <tp>
+        <v>-0.43</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR8X11F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H43" s="7"/>
+      </tp>
+      <tp>
+        <v>1.649</v>
+        <stp/>
+        <stp xml:space="preserve">	USD5X11F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H38" s="8"/>
+      </tp>
+      <tp>
+        <v>1.7465000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">	PLN5X11F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H61" s="6"/>
+      </tp>
+      <tp>
+        <v>-0.35000000000000003</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR5X11F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H55" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">3M    </v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB1W3M=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G40" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">3Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E3Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G14" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">3Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB6E3Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G26" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">3Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB3W3Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G16" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">3Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB6W3Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G27" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">3Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+USDAM3L3Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G15" s="8"/>
+      </tp>
+      <tp>
+        <v>1.671</v>
+        <stp/>
+        <stp xml:space="preserve">	USD4X10F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H37" s="8"/>
+      </tp>
+      <tp>
+        <v>1.7535900000000002</v>
+        <stp/>
+        <stp xml:space="preserve">	PLN4X10F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H60" s="6"/>
+      </tp>
+      <tp>
+        <v>-0.34100000000000003</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR4X10F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H54" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">2Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E2Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G13" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">2Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB6E2Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G25" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">2Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB3W2Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G15" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">2Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB6W2Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G26" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">2Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+USDAM3L2Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G14" s="8"/>
+      </tp>
+      <tp>
+        <v>1.5662</v>
+        <stp/>
+        <stp xml:space="preserve">	USD7X10F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H31" s="8"/>
+      </tp>
+      <tp>
+        <v>1.6500000000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	PLN7X10F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H54" s="6"/>
+      </tp>
+      <tp>
+        <v>-0.441</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR7X10F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H42" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">1Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E1Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G12" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">1Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB6E1Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G24" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">1Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB1W1Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G43" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">1Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB3W1Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G14" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">1Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+USDAM3L1Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G13" s="8"/>
+      </tp>
+      <tp>
+        <v>1.619</v>
+        <stp/>
+        <stp xml:space="preserve">	USD6X12F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H39" s="8"/>
+      </tp>
+      <tp>
+        <v>1.7350200000000002</v>
+        <stp/>
+        <stp xml:space="preserve">	PLN6X12F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H62" s="6"/>
+      </tp>
+      <tp>
+        <v>-0.29399999999999998</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR6X18F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H60" s="7"/>
+      </tp>
+      <tp>
+        <v>-0.35000000000000003</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR6X12F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H56" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">7Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E7Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G18" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">7Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB6E7Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G30" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">7Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB3W7Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G20" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">7Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB6W7Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G31" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">7Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+USDAM3L7Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G19" s="8"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">6M    </v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB1W6M=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G41" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">6Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E6Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G17" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">6Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB6E6Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G29" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">6Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB3W6Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G19" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">6Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB6W6Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G30" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">6Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+USDAM3L6Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G18" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.28100000000000003</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR3X15F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H53" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">5Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E5Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G16" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">5Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB6E5Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G28" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">5Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB3W5Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G18" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">5Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB6W5Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G29" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">5Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+USDAM3L5Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G17" s="8"/>
+      </tp>
+      <tp>
+        <v>-0.28100000000000003</v>
+        <stp/>
+        <stp xml:space="preserve">	EUR2X14F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H51" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">4Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB3E4Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G15" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">4Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+EURAB6E4Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G27" s="7"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">4Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB3W4Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G17" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">4Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+PLNAB6W4Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G28" s="6"/>
+      </tp>
+      <tp t="s">
+        <v xml:space="preserve">4Y    </v>
+        <stp/>
+        <stp xml:space="preserve">
+USDAM3L4Y=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="G16" s="8"/>
       </tp>
     </main>
   </volType>
@@ -810,7 +3584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -820,14 +3594,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
-        <v>43789</v>
+        <v>43797</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="4">
         <f ca="1">TODAY()</f>
-        <v>43789</v>
+        <v>43795</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
@@ -843,9 +3617,9 @@
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="str">
+      <c r="F2" s="3">
         <f>_xll.RtGet("IDN","WIPLN1MD=X","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.6300000000000001</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -858,9 +3632,9 @@
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="str">
+      <c r="F3" s="3">
         <f>_xll.RtGet("IDN","WIPLN3MD=X","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -873,9 +3647,9 @@
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="str">
+      <c r="F4" s="3">
         <f>_xll.RtGet("IDN","WIPLN6MD=X","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.79</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -883,14 +3657,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>1.7130000000000001</v>
+        <v>1.7100000000000002</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="str">
+      <c r="F5" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W1Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.7100000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -898,14 +3672,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>1.6800000000000002</v>
+        <v>1.6700000000000002</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="str">
+      <c r="F6" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W2Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.6700000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -913,14 +3687,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>1.75</v>
+        <v>1.6500000000000001</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="3" t="str">
+      <c r="F7" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W3Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.6500000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -928,14 +3702,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>1.74</v>
+        <v>1.6600000000000001</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="3" t="str">
+      <c r="F8" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W4Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.6600000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -943,14 +3717,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>1.72</v>
+        <v>1.6800000000000002</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="3" t="str">
+      <c r="F9" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W5Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.6800000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -958,14 +3732,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>1.75</v>
+        <v>1.7000000000000002</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3" t="str">
+      <c r="F10" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W6Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.7000000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -973,14 +3747,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>1.76</v>
+        <v>1.7100000000000002</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="3" t="str">
+      <c r="F11" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W7Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.7100000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -988,14 +3762,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="str">
+      <c r="F12" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W8Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1003,14 +3777,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="3" t="str">
+      <c r="F13" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W9Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1023,9 +3797,9 @@
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="3" t="str">
+      <c r="F14" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W10Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1033,14 +3807,14 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>1.895</v>
+        <v>1.798</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="3" t="str">
+      <c r="F15" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W12Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.7650000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1048,14 +3822,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>1.9400000000000002</v>
+        <v>1.8880000000000001</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="3" t="str">
+      <c r="F16" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W15Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.855</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1063,14 +3837,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>2.0300000000000002</v>
+        <v>2.0070000000000001</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="3" t="str">
+      <c r="F17" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W20Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.9750000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1104,14 +3878,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
-        <v>43789</v>
+        <v>43797</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="4">
         <f ca="1">TODAY()</f>
-        <v>43789</v>
+        <v>43795</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
@@ -1122,14 +3896,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>-0.50343000000000004</v>
+        <v>-0.50070999999999999</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="str">
+      <c r="F2" s="3">
         <f>_xll.RtGet("IDN","EUR1MFSR=X","PRIMACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>-0.50286000000000008</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1137,14 +3911,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>-0.43986000000000003</v>
+        <v>-0.44500000000000006</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="str">
+      <c r="F3" s="3">
         <f>_xll.RtGet("IDN","EUR3MFSR=X","PRIMACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>-0.44200000000000006</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1152,14 +3926,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>-0.39686000000000005</v>
+        <v>-0.39943000000000001</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="str">
+      <c r="F4" s="3">
         <f>_xll.RtGet("IDN","EUR6MFSR=X","PRIMACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>-0.39800000000000002</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1167,14 +3941,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>-0.3206</v>
+        <v>-0.34</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="str">
+      <c r="F5" s="3">
         <f>_xll.RtGet("IDN","EURAB6E1Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>-0.34129999999999999</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1182,14 +3956,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>-0.33</v>
+        <v>-0.33500000000000002</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="str">
+      <c r="F6" s="3">
         <f>_xll.RtGet("IDN","EURAB6E2Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>-0.33300000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1197,14 +3971,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>-0.28889999999999999</v>
+        <v>-0.29339999999999999</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="3" t="str">
+      <c r="F7" s="3">
         <f>_xll.RtGet("IDN","EURAB6E3Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>-0.308</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1212,14 +3986,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>-0.26230000000000003</v>
+        <v>-0.26450000000000001</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="3" t="str">
+      <c r="F8" s="3">
         <f>_xll.RtGet("IDN","EURAB6E4Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>-0.26930000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1227,14 +4001,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>-0.21260000000000001</v>
+        <v>-0.22310000000000002</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="3" t="str">
+      <c r="F9" s="3">
         <f>_xll.RtGet("IDN","EURAB6E5Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>-0.22550000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1242,14 +4016,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>-0.16</v>
+        <v>-0.17020000000000002</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3" t="str">
+      <c r="F10" s="3">
         <f>_xll.RtGet("IDN","EURAB6E6Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>-0.17600000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1257,14 +4031,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>-9.9299999999999999E-2</v>
+        <v>-0.11410000000000001</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="3" t="str">
+      <c r="F11" s="3">
         <f>_xll.RtGet("IDN","EURAB6E7Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>-0.12390000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1272,14 +4046,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>-3.7700000000000004E-2</v>
+        <v>-5.3900000000000003E-2</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="str">
+      <c r="F12" s="3">
         <f>_xll.RtGet("IDN","EURAB6E8Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>-6.4899999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1287,14 +4061,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>2.3800000000000002E-2</v>
+        <v>1.9E-2</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="3" t="str">
+      <c r="F13" s="3">
         <f>_xll.RtGet("IDN","EURAB6E9Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>-4.8999999999999998E-3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1302,14 +4076,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>8.3700000000000011E-2</v>
+        <v>8.3900000000000002E-2</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="3" t="str">
+      <c r="F14" s="3">
         <f>_xll.RtGet("IDN","EURAB6E10Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>5.7000000000000002E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1317,14 +4091,14 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>0.1958</v>
+        <v>0.19790000000000002</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="3" t="str">
+      <c r="F15" s="3">
         <f>_xll.RtGet("IDN","EURAB6E12Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>0.1671</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1332,14 +4106,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>0.33300000000000002</v>
+        <v>0.33790000000000003</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="3" t="str">
+      <c r="F16" s="3">
         <f>_xll.RtGet("IDN","EURAB6E15Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>0.30660000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1347,14 +4121,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>0.46180000000000004</v>
+        <v>0.46890000000000004</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="3" t="str">
+      <c r="F17" s="3">
         <f>_xll.RtGet("IDN","EURAB6E20Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>0.43690000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1362,14 +4136,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>0.49880000000000002</v>
+        <v>0.50590000000000002</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="3" t="str">
+      <c r="F18" s="3">
         <f>_xll.RtGet("IDN","EURAB6E30Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>0.47490000000000004</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1377,14 +4151,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>0.38480000000000003</v>
+        <v>0.39090000000000003</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="3" t="str">
+      <c r="F19" s="3">
         <f>_xll.RtGet("IDN","EURAB6E50Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>0.36410000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1406,14 +4180,14 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
-        <v>43789</v>
+        <v>43797</v>
       </c>
       <c r="B1" t="s">
         <v>16</v>
       </c>
       <c r="E1" s="4">
         <f ca="1">TODAY()</f>
-        <v>43789</v>
+        <v>43795</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
@@ -1424,14 +4198,14 @@
         <v>0</v>
       </c>
       <c r="B2" s="3">
-        <v>1.7236300000000002</v>
+        <v>1.7027500000000002</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="3" t="str">
+      <c r="F2" s="3">
         <f>_xll.RtGet("IDN","USD1MFSR=X","PRIMACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.6995000000000002</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1439,14 +4213,14 @@
         <v>1</v>
       </c>
       <c r="B3" s="3">
-        <v>1.8985000000000001</v>
+        <v>1.9172500000000001</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="str">
+      <c r="F3" s="3">
         <f>_xll.RtGet("IDN","USD3MFSR=X","PRIMACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.9186300000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1454,14 +4228,14 @@
         <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>1.9188800000000001</v>
+        <v>1.9072500000000001</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="3" t="str">
+      <c r="F4" s="3">
         <f>_xll.RtGet("IDN","USD6MFSR=X","PRIMACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.9191300000000002</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1469,14 +4243,14 @@
         <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>1.7210000000000001</v>
+        <v>1.7270000000000001</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="3" t="str">
+      <c r="F5" s="3">
         <f>_xll.RtGet("IDN","USDAM3L1Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.7310000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1484,14 +4258,14 @@
         <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>1.5891000000000002</v>
+        <v>1.6033000000000002</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="3" t="str">
+      <c r="F6" s="3">
         <f>_xll.RtGet("IDN","USDAM3L2Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.601</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -1499,14 +4273,14 @@
         <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>1.5750000000000002</v>
+        <v>1.544</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F7" s="3" t="str">
+      <c r="F7" s="3">
         <f>_xll.RtGet("IDN","USDAM3L3Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.5330000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -1514,14 +4288,14 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>1.5799000000000001</v>
+        <v>1.5530000000000002</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="3" t="str">
+      <c r="F8" s="3">
         <f>_xll.RtGet("IDN","USDAM3L4Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.538</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -1529,14 +4303,14 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>1.5819000000000001</v>
+        <v>1.554</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="3" t="str">
+      <c r="F9" s="3">
         <f>_xll.RtGet("IDN","USDAM3L5Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1544,14 +4318,14 @@
         <v>8</v>
       </c>
       <c r="B10" s="3">
-        <v>1.6073000000000002</v>
+        <v>1.5570000000000002</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="3" t="str">
+      <c r="F10" s="3">
         <f>_xll.RtGet("IDN","USDAM3L6Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.5530000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -1559,14 +4333,14 @@
         <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>1.621</v>
+        <v>1.591</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F11" s="3" t="str">
+      <c r="F11" s="3">
         <f>_xll.RtGet("IDN","USDAM3L7Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.5640000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -1574,14 +4348,14 @@
         <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>1.647</v>
+        <v>1.6107</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="3" t="str">
+      <c r="F12" s="3">
         <f>_xll.RtGet("IDN","USDAM3L8Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.5790000000000002</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -1589,14 +4363,14 @@
         <v>11</v>
       </c>
       <c r="B13" s="3">
-        <v>1.675</v>
+        <v>1.6188</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="3" t="str">
+      <c r="F13" s="3">
         <f>_xll.RtGet("IDN","USDAM3L9Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.623</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1604,14 +4378,14 @@
         <v>12</v>
       </c>
       <c r="B14" s="3">
-        <v>1.7040000000000002</v>
+        <v>1.6659000000000002</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="3" t="str">
+      <c r="F14" s="3">
         <f>_xll.RtGet("IDN","USDAM3L10Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.6520000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -1619,14 +4393,14 @@
         <v>13</v>
       </c>
       <c r="B15" s="3">
-        <v>1.754</v>
+        <v>1.7157</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15" s="3" t="str">
+      <c r="F15" s="3">
         <f>_xll.RtGet("IDN","USDAM3L12Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.6900000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -1634,14 +4408,14 @@
         <v>14</v>
       </c>
       <c r="B16" s="3">
-        <v>1.8080000000000001</v>
+        <v>1.754</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="3" t="str">
+      <c r="F16" s="3">
         <f>_xll.RtGet("IDN","USDAM3L15Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.754</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -1649,14 +4423,14 @@
         <v>15</v>
       </c>
       <c r="B17" s="3">
-        <v>1.863</v>
+        <v>1.8220000000000001</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="3" t="str">
+      <c r="F17" s="3">
         <f>_xll.RtGet("IDN","USDAM3L20Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.8090000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1664,14 +4438,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="3">
-        <v>1.885</v>
+        <v>1.8371000000000002</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="3" t="str">
+      <c r="F18" s="3">
         <f>_xll.RtGet("IDN","USDAM3L30Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.8250000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -1679,14 +4453,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>1.8270000000000002</v>
+        <v>1.7830000000000001</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F19" s="3" t="str">
+      <c r="F19" s="3">
         <f>_xll.RtGet("IDN","USDAM3L50Y=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.768</v>
       </c>
     </row>
   </sheetData>
@@ -1696,9 +4470,4154 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>43797</v>
+      </c>
+      <c r="G1" s="4">
+        <f ca="1">TODAY()</f>
+        <v>43795</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>1.31</v>
+      </c>
+      <c r="C3">
+        <v>1.59</v>
+      </c>
+      <c r="E3" s="3">
+        <f>(C3+B3)/2</f>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="G3" t="str">
+        <f>_xll.RtGet("IDN","WIPLNOND=X","GV4_TEXT")</f>
+        <v>ON</v>
+      </c>
+      <c r="H3">
+        <f>_xll.RtGet("IDN","WIPLNOND=X","PRIMACT_1")</f>
+        <v>1.31</v>
+      </c>
+      <c r="I3">
+        <f>_xll.RtGet("IDN","WIPLNOND=X","SEC_ACT_1")</f>
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4">
+        <v>1.31</v>
+      </c>
+      <c r="C4">
+        <v>1.59</v>
+      </c>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4:E67" si="0">(C4+B4)/2</f>
+        <v>1.4500000000000002</v>
+      </c>
+      <c r="G4" t="str">
+        <f>_xll.RtGet("IDN","WIPLNTND=X","GV4_TEXT")</f>
+        <v>TN</v>
+      </c>
+      <c r="H4">
+        <f>_xll.RtGet("IDN","WIPLNTND=X","PRIMACT_1")</f>
+        <v>1.31</v>
+      </c>
+      <c r="I4">
+        <f>_xll.RtGet("IDN","WIPLNTND=X","SEC_ACT_1")</f>
+        <v>1.59</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="C5">
+        <v>1.58</v>
+      </c>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.48</v>
+      </c>
+      <c r="G5" t="str">
+        <f>_xll.RtGet("IDN","WIPLNSWD=X","GV4_TEXT")</f>
+        <v>SW</v>
+      </c>
+      <c r="H5">
+        <f>_xll.RtGet("IDN","WIPLNSWD=X","PRIMACT_1")</f>
+        <v>1.3800000000000001</v>
+      </c>
+      <c r="I5">
+        <f>_xll.RtGet("IDN","WIPLNSWD=X","SEC_ACT_1")</f>
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="C6">
+        <v>1.6</v>
+      </c>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="G6" t="str">
+        <f>_xll.RtGet("IDN","WIPLN2WD=X","GV4_TEXT")</f>
+        <v>2W</v>
+      </c>
+      <c r="H6">
+        <f>_xll.RtGet("IDN","WIPLN2WD=X","PRIMACT_1")</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="I6">
+        <f>_xll.RtGet("IDN","WIPLN2WD=X","SEC_ACT_1")</f>
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>1.43</v>
+      </c>
+      <c r="C7">
+        <v>1.6300000000000001</v>
+      </c>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.53</v>
+      </c>
+      <c r="G7" t="str">
+        <f>_xll.RtGet("IDN","WIPLN1MD=X","GV4_TEXT")</f>
+        <v>1M</v>
+      </c>
+      <c r="H7">
+        <f>_xll.RtGet("IDN","WIPLN1MD=X","PRIMACT_1")</f>
+        <v>1.43</v>
+      </c>
+      <c r="I7">
+        <f>_xll.RtGet("IDN","WIPLN1MD=X","SEC_ACT_1")</f>
+        <v>1.6300000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>1.51</v>
+      </c>
+      <c r="C8">
+        <v>1.71</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6099999999999999</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xll.RtGet("IDN","WIPLN3MD=X","GV4_TEXT")</f>
+        <v>3M</v>
+      </c>
+      <c r="H8">
+        <f>_xll.RtGet("IDN","WIPLN3MD=X","PRIMACT_1")</f>
+        <v>1.51</v>
+      </c>
+      <c r="I8">
+        <f>_xll.RtGet("IDN","WIPLN3MD=X","SEC_ACT_1")</f>
+        <v>1.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1.59</v>
+      </c>
+      <c r="C9">
+        <v>1.79</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.69</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xll.RtGet("IDN","WIPLN6MD=X","GV4_TEXT")</f>
+        <v>6M</v>
+      </c>
+      <c r="H9">
+        <f>_xll.RtGet("IDN","WIPLN6MD=X","PRIMACT_1")</f>
+        <v>1.59</v>
+      </c>
+      <c r="I9">
+        <f>_xll.RtGet("IDN","WIPLN6MD=X","SEC_ACT_1")</f>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>1.6</v>
+      </c>
+      <c r="C10">
+        <v>1.8</v>
+      </c>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xll.RtGet("IDN","WIPLN9MD=X","GV4_TEXT")</f>
+        <v>9M</v>
+      </c>
+      <c r="H10">
+        <f>_xll.RtGet("IDN","WIPLN9MD=X","PRIMACT_1")</f>
+        <v>1.6</v>
+      </c>
+      <c r="I10">
+        <f>_xll.RtGet("IDN","WIPLN9MD=X","SEC_ACT_1")</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="C11">
+        <v>1.84</v>
+      </c>
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7400000000000002</v>
+      </c>
+      <c r="G11" t="str">
+        <f>_xll.RtGet("IDN","WIPLN1YD=X","GV4_TEXT")</f>
+        <v>1Y</v>
+      </c>
+      <c r="H11">
+        <f>_xll.RtGet("IDN","WIPLN1YD=X","PRIMACT_1")</f>
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="I11">
+        <f>_xll.RtGet("IDN","WIPLN1YD=X","SEC_ACT_1")</f>
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E13" s="3"/>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14">
+        <v>1.6780000000000002</v>
+      </c>
+      <c r="C14">
+        <v>1.7080000000000002</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6930000000000001</v>
+      </c>
+      <c r="G14" t="str">
+        <f>_xll.RtGet("IDN","PLNAB3W1Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">1Y    </v>
+      </c>
+      <c r="H14">
+        <f>_xll.RtGet("IDN","PLNAB3W1Y=","PRIMACT_1")</f>
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="I14">
+        <f>_xll.RtGet("IDN","PLNAB3W1Y=","SEC_ACT_1")</f>
+        <v>1.7100000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15">
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="C15">
+        <v>1.6700000000000002</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="G15" t="str">
+        <f>_xll.RtGet("IDN","PLNAB3W2Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">2Y    </v>
+      </c>
+      <c r="H15">
+        <f>_xll.RtGet("IDN","PLNAB3W2Y=","PRIMACT_1")</f>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="I15">
+        <f>_xll.RtGet("IDN","PLNAB3W2Y=","SEC_ACT_1")</f>
+        <v>1.6700000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16">
+        <v>1.6300000000000001</v>
+      </c>
+      <c r="C16">
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="G16" t="str">
+        <f>_xll.RtGet("IDN","PLNAB3W3Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">3Y    </v>
+      </c>
+      <c r="H16">
+        <f>_xll.RtGet("IDN","PLNAB3W3Y=","PRIMACT_1")</f>
+        <v>1.6300000000000001</v>
+      </c>
+      <c r="I16">
+        <f>_xll.RtGet("IDN","PLNAB3W3Y=","SEC_ACT_1")</f>
+        <v>1.6500000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17">
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="C17">
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="G17" t="str">
+        <f>_xll.RtGet("IDN","PLNAB3W4Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">4Y    </v>
+      </c>
+      <c r="H17">
+        <f>_xll.RtGet("IDN","PLNAB3W4Y=","PRIMACT_1")</f>
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="I17">
+        <f>_xll.RtGet("IDN","PLNAB3W4Y=","SEC_ACT_1")</f>
+        <v>1.6600000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18">
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="C18">
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6700000000000002</v>
+      </c>
+      <c r="G18" t="str">
+        <f>_xll.RtGet("IDN","PLNAB3W5Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">5Y    </v>
+      </c>
+      <c r="H18">
+        <f>_xll.RtGet("IDN","PLNAB3W5Y=","PRIMACT_1")</f>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="I18">
+        <f>_xll.RtGet("IDN","PLNAB3W5Y=","SEC_ACT_1")</f>
+        <v>1.6800000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19">
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="C19">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6900000000000002</v>
+      </c>
+      <c r="G19" t="str">
+        <f>_xll.RtGet("IDN","PLNAB3W6Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">6Y    </v>
+      </c>
+      <c r="H19">
+        <f>_xll.RtGet("IDN","PLNAB3W6Y=","PRIMACT_1")</f>
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="I19">
+        <f>_xll.RtGet("IDN","PLNAB3W6Y=","SEC_ACT_1")</f>
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20">
+        <v>1.6900000000000002</v>
+      </c>
+      <c r="C20">
+        <v>1.7100000000000002</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="G20" t="str">
+        <f>_xll.RtGet("IDN","PLNAB3W7Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">7Y    </v>
+      </c>
+      <c r="H20">
+        <f>_xll.RtGet("IDN","PLNAB3W7Y=","PRIMACT_1")</f>
+        <v>1.6900000000000002</v>
+      </c>
+      <c r="I20">
+        <f>_xll.RtGet("IDN","PLNAB3W7Y=","SEC_ACT_1")</f>
+        <v>1.7100000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21">
+        <v>1.7100000000000002</v>
+      </c>
+      <c r="C21">
+        <v>1.73</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7200000000000002</v>
+      </c>
+      <c r="G21" t="str">
+        <f>_xll.RtGet("IDN","PLNAB3W8Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">8Y    </v>
+      </c>
+      <c r="H21">
+        <f>_xll.RtGet("IDN","PLNAB3W8Y=","PRIMACT_1")</f>
+        <v>1.7100000000000002</v>
+      </c>
+      <c r="I21">
+        <f>_xll.RtGet("IDN","PLNAB3W8Y=","SEC_ACT_1")</f>
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22">
+        <v>1.7100000000000002</v>
+      </c>
+      <c r="C22">
+        <v>1.73</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7200000000000002</v>
+      </c>
+      <c r="G22" t="str">
+        <f>_xll.RtGet("IDN","PLNAB3W9Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">9Y    </v>
+      </c>
+      <c r="H22">
+        <f>_xll.RtGet("IDN","PLNAB3W9Y=","PRIMACT_1")</f>
+        <v>1.7100000000000002</v>
+      </c>
+      <c r="I22">
+        <f>_xll.RtGet("IDN","PLNAB3W9Y=","SEC_ACT_1")</f>
+        <v>1.73</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23">
+        <v>1.73</v>
+      </c>
+      <c r="C23">
+        <v>1.75</v>
+      </c>
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
+        <v>1.74</v>
+      </c>
+      <c r="G23" t="str">
+        <f>_xll.RtGet("IDN","PLNAB3W10Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">10Y   </v>
+      </c>
+      <c r="H23">
+        <f>_xll.RtGet("IDN","PLNAB3W10Y=","PRIMACT_1")</f>
+        <v>1.73</v>
+      </c>
+      <c r="I23">
+        <f>_xll.RtGet("IDN","PLNAB3W10Y=","SEC_ACT_1")</f>
+        <v>1.75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="G25" t="s">
+        <v>25</v>
+      </c>
+      <c r="H25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>1.6950000000000001</v>
+      </c>
+      <c r="C26">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
+        <v>1.71</v>
+      </c>
+      <c r="G26" t="str">
+        <f>_xll.RtGet("IDN","PLNAB6W2Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">2Y    </v>
+      </c>
+      <c r="H26">
+        <f>_xll.RtGet("IDN","PLNAB6W2Y=","PRIMACT_1")</f>
+        <v>1.6920000000000002</v>
+      </c>
+      <c r="I26">
+        <f>_xll.RtGet("IDN","PLNAB6W2Y=","SEC_ACT_1")</f>
+        <v>1.7230000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27">
+        <v>1.6680000000000001</v>
+      </c>
+      <c r="C27">
+        <v>1.6980000000000002</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6830000000000003</v>
+      </c>
+      <c r="G27" t="str">
+        <f>_xll.RtGet("IDN","PLNAB6W3Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">3Y    </v>
+      </c>
+      <c r="H27">
+        <f>_xll.RtGet("IDN","PLNAB6W3Y=","PRIMACT_1")</f>
+        <v>1.665</v>
+      </c>
+      <c r="I27">
+        <f>_xll.RtGet("IDN","PLNAB6W3Y=","SEC_ACT_1")</f>
+        <v>1.6950000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28">
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="C28">
+        <v>1.6900000000000002</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6750000000000003</v>
+      </c>
+      <c r="G28" t="str">
+        <f>_xll.RtGet("IDN","PLNAB6W4Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">4Y    </v>
+      </c>
+      <c r="H28">
+        <f>_xll.RtGet("IDN","PLNAB6W4Y=","PRIMACT_1")</f>
+        <v>1.655</v>
+      </c>
+      <c r="I28">
+        <f>_xll.RtGet("IDN","PLNAB6W4Y=","SEC_ACT_1")</f>
+        <v>1.6850000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29">
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="C29">
+        <v>1.6900000000000002</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6750000000000003</v>
+      </c>
+      <c r="G29" t="str">
+        <f>_xll.RtGet("IDN","PLNAB6W5Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">5Y    </v>
+      </c>
+      <c r="H29">
+        <f>_xll.RtGet("IDN","PLNAB6W5Y=","PRIMACT_1")</f>
+        <v>1.655</v>
+      </c>
+      <c r="I29">
+        <f>_xll.RtGet("IDN","PLNAB6W5Y=","SEC_ACT_1")</f>
+        <v>1.6850000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30">
+        <v>1.6680000000000001</v>
+      </c>
+      <c r="C30">
+        <v>1.6980000000000002</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6830000000000003</v>
+      </c>
+      <c r="G30" t="str">
+        <f>_xll.RtGet("IDN","PLNAB6W6Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">6Y    </v>
+      </c>
+      <c r="H30">
+        <f>_xll.RtGet("IDN","PLNAB6W6Y=","PRIMACT_1")</f>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="I30">
+        <f>_xll.RtGet("IDN","PLNAB6W6Y=","SEC_ACT_1")</f>
+        <v>1.6900000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31">
+        <v>1.6780000000000002</v>
+      </c>
+      <c r="C31">
+        <v>1.7080000000000002</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6930000000000001</v>
+      </c>
+      <c r="G31" t="str">
+        <f>_xll.RtGet("IDN","PLNAB6W7Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">7Y    </v>
+      </c>
+      <c r="H31">
+        <f>_xll.RtGet("IDN","PLNAB6W7Y=","PRIMACT_1")</f>
+        <v>1.6700000000000002</v>
+      </c>
+      <c r="I31">
+        <f>_xll.RtGet("IDN","PLNAB6W7Y=","SEC_ACT_1")</f>
+        <v>1.7000000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32">
+        <v>1.6880000000000002</v>
+      </c>
+      <c r="C32">
+        <v>1.718</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7030000000000001</v>
+      </c>
+      <c r="G32" t="str">
+        <f>_xll.RtGet("IDN","PLNAB6W8Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">8Y    </v>
+      </c>
+      <c r="H32">
+        <f>_xll.RtGet("IDN","PLNAB6W8Y=","PRIMACT_1")</f>
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="I32">
+        <f>_xll.RtGet("IDN","PLNAB6W8Y=","SEC_ACT_1")</f>
+        <v>1.7100000000000002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33">
+        <v>1.6950000000000001</v>
+      </c>
+      <c r="C33">
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="0"/>
+        <v>1.71</v>
+      </c>
+      <c r="G33" t="str">
+        <f>_xll.RtGet("IDN","PLNAB6W9Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">9Y    </v>
+      </c>
+      <c r="H33">
+        <f>_xll.RtGet("IDN","PLNAB6W9Y=","PRIMACT_1")</f>
+        <v>1.6880000000000002</v>
+      </c>
+      <c r="I33">
+        <f>_xll.RtGet("IDN","PLNAB6W9Y=","SEC_ACT_1")</f>
+        <v>1.718</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="B34">
+        <v>1.7020000000000002</v>
+      </c>
+      <c r="C34">
+        <v>1.742</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="0"/>
+        <v>1.722</v>
+      </c>
+      <c r="G34" t="str">
+        <f>_xll.RtGet("IDN","PLNAB6W10Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">10Y   </v>
+      </c>
+      <c r="H34">
+        <f>_xll.RtGet("IDN","PLNAB6W10Y=","PRIMACT_1")</f>
+        <v>1.6950000000000001</v>
+      </c>
+      <c r="I34">
+        <f>_xll.RtGet("IDN","PLNAB6W10Y=","SEC_ACT_1")</f>
+        <v>1.7350000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35">
+        <v>1.732</v>
+      </c>
+      <c r="C35">
+        <v>1.7730000000000001</v>
+      </c>
+      <c r="E35" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7524999999999999</v>
+      </c>
+      <c r="G35" t="str">
+        <f>_xll.RtGet("IDN","PLNAB6W12Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">12Y   </v>
+      </c>
+      <c r="H35">
+        <f>_xll.RtGet("IDN","PLNAB6W12Y=","PRIMACT_1")</f>
+        <v>1.7250000000000001</v>
+      </c>
+      <c r="I35">
+        <f>_xll.RtGet("IDN","PLNAB6W12Y=","SEC_ACT_1")</f>
+        <v>1.7650000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36">
+        <v>1.8230000000000002</v>
+      </c>
+      <c r="C36">
+        <v>1.863</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="0"/>
+        <v>1.843</v>
+      </c>
+      <c r="G36" t="str">
+        <f>_xll.RtGet("IDN","PLNAB6W15Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">15Y   </v>
+      </c>
+      <c r="H36">
+        <f>_xll.RtGet("IDN","PLNAB6W15Y=","PRIMACT_1")</f>
+        <v>1.8150000000000002</v>
+      </c>
+      <c r="I36">
+        <f>_xll.RtGet("IDN","PLNAB6W15Y=","SEC_ACT_1")</f>
+        <v>1.855</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>46</v>
+      </c>
+      <c r="B37">
+        <v>1.9420000000000002</v>
+      </c>
+      <c r="C37">
+        <v>1.982</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9620000000000002</v>
+      </c>
+      <c r="G37" t="str">
+        <f>_xll.RtGet("IDN","PLNAB6W20Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">20Y   </v>
+      </c>
+      <c r="H37">
+        <f>_xll.RtGet("IDN","PLNAB6W20Y=","PRIMACT_1")</f>
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="I37">
+        <f>_xll.RtGet("IDN","PLNAB6W20Y=","SEC_ACT_1")</f>
+        <v>1.9750000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E38" s="3"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" t="s">
+        <v>0</v>
+      </c>
+      <c r="E39" s="3"/>
+      <c r="G39" t="s">
+        <v>25</v>
+      </c>
+      <c r="H39" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40">
+        <v>1.6300000000000001</v>
+      </c>
+      <c r="C40">
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="0"/>
+        <v>1.645</v>
+      </c>
+      <c r="G40" t="str">
+        <f>_xll.RtGet("IDN","PLNAB1W3M=","GV4_TEXT")</f>
+        <v xml:space="preserve">3M    </v>
+      </c>
+      <c r="H40">
+        <f>_xll.RtGet("IDN","PLNAB1W3M=","PRIMACT_1")</f>
+        <v>1.6300000000000001</v>
+      </c>
+      <c r="I40">
+        <f>_xll.RtGet("IDN","PLNAB1W3M=","SEC_ACT_1")</f>
+        <v>1.6600000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41">
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="C41">
+        <v>1.6700000000000002</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6550000000000002</v>
+      </c>
+      <c r="G41" t="str">
+        <f>_xll.RtGet("IDN","PLNAB1W6M=","GV4_TEXT")</f>
+        <v xml:space="preserve">6M    </v>
+      </c>
+      <c r="H41">
+        <f>_xll.RtGet("IDN","PLNAB1W6M=","PRIMACT_1")</f>
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="I41">
+        <f>_xll.RtGet("IDN","PLNAB1W6M=","SEC_ACT_1")</f>
+        <v>1.6700000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42">
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="C42">
+        <v>1.6700000000000002</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6550000000000002</v>
+      </c>
+      <c r="G42" t="str">
+        <f>_xll.RtGet("IDN","PLNAB1W9M=","GV4_TEXT")</f>
+        <v xml:space="preserve">9M    </v>
+      </c>
+      <c r="H42">
+        <f>_xll.RtGet("IDN","PLNAB1W9M=","PRIMACT_1")</f>
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="I42">
+        <f>_xll.RtGet("IDN","PLNAB1W9M=","SEC_ACT_1")</f>
+        <v>1.6700000000000002</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B43">
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="C43">
+        <v>1.6700000000000002</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6550000000000002</v>
+      </c>
+      <c r="G43" t="str">
+        <f>_xll.RtGet("IDN","PLNAB1W1Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">1Y    </v>
+      </c>
+      <c r="H43">
+        <f>_xll.RtGet("IDN","PLNAB1W1Y=","PRIMACT_1")</f>
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="I43">
+        <f>_xll.RtGet("IDN","PLNAB1W1Y=","SEC_ACT_1")</f>
+        <v>1.6700000000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E44" s="3"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>24</v>
+      </c>
+      <c r="E45" s="3"/>
+      <c r="G45" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>47</v>
+      </c>
+      <c r="B46">
+        <v>1.62</v>
+      </c>
+      <c r="C46">
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="E46" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="G46" t="str">
+        <f>_xll.RtGet("IDN","PLN1X2F=","GV4_TEXT")</f>
+        <v>1X2</v>
+      </c>
+      <c r="H46">
+        <f>_xll.RtGet("IDN","PLN1X2F=","PRIMACT_1")</f>
+        <v>1.62</v>
+      </c>
+      <c r="I46">
+        <f>_xll.RtGet("IDN","PLN1X2F=","SEC_ACT_1")</f>
+        <v>1.6600000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47">
+        <v>1.62</v>
+      </c>
+      <c r="C47">
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="E47" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="G47" t="str">
+        <f>_xll.RtGet("IDN","PLN2X3F=","GV4_TEXT")</f>
+        <v>2X3</v>
+      </c>
+      <c r="H47">
+        <f>_xll.RtGet("IDN","PLN2X3F=","PRIMACT_1")</f>
+        <v>1.62</v>
+      </c>
+      <c r="I47">
+        <f>_xll.RtGet("IDN","PLN2X3F=","SEC_ACT_1")</f>
+        <v>1.6600000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>49</v>
+      </c>
+      <c r="B48">
+        <v>1.6849800000000001</v>
+      </c>
+      <c r="C48">
+        <v>1.7349800000000002</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7099800000000003</v>
+      </c>
+      <c r="G48" t="str">
+        <f>_xll.RtGet("IDN","PLN1X4F=","GV4_TEXT")</f>
+        <v>1X4</v>
+      </c>
+      <c r="H48">
+        <f>_xll.RtGet("IDN","PLN1X4F=","PRIMACT_1")</f>
+        <v>1.6853300000000002</v>
+      </c>
+      <c r="I48">
+        <f>_xll.RtGet("IDN","PLN1X4F=","SEC_ACT_1")</f>
+        <v>1.73533</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>50</v>
+      </c>
+      <c r="B49">
+        <v>1.6830100000000001</v>
+      </c>
+      <c r="C49">
+        <v>1.7330100000000002</v>
+      </c>
+      <c r="E49" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7080100000000003</v>
+      </c>
+      <c r="G49" t="str">
+        <f>_xll.RtGet("IDN","PLN2X5F=","GV4_TEXT")</f>
+        <v>2X5</v>
+      </c>
+      <c r="H49">
+        <f>_xll.RtGet("IDN","PLN2X5F=","PRIMACT_1")</f>
+        <v>1.6836300000000002</v>
+      </c>
+      <c r="I49">
+        <f>_xll.RtGet("IDN","PLN2X5F=","SEC_ACT_1")</f>
+        <v>1.7336300000000002</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
+      <c r="B50">
+        <v>1.6814600000000002</v>
+      </c>
+      <c r="C50">
+        <v>1.7314600000000002</v>
+      </c>
+      <c r="E50" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7064600000000003</v>
+      </c>
+      <c r="G50" t="str">
+        <f>_xll.RtGet("IDN","PLN3X6F=","GV4_TEXT")</f>
+        <v>3X6</v>
+      </c>
+      <c r="H50">
+        <f>_xll.RtGet("IDN","PLN3X6F=","PRIMACT_1")</f>
+        <v>1.6822600000000001</v>
+      </c>
+      <c r="I50">
+        <f>_xll.RtGet("IDN","PLN3X6F=","SEC_ACT_1")</f>
+        <v>1.7322600000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51">
+        <v>1.6736400000000002</v>
+      </c>
+      <c r="C51">
+        <v>1.7236400000000001</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6986400000000001</v>
+      </c>
+      <c r="G51" t="str">
+        <f>_xll.RtGet("IDN","PLN4X7F=","GV4_TEXT")</f>
+        <v>4X7</v>
+      </c>
+      <c r="H51">
+        <f>_xll.RtGet("IDN","PLN4X7F=","PRIMACT_1")</f>
+        <v>1.6744800000000002</v>
+      </c>
+      <c r="I51">
+        <f>_xll.RtGet("IDN","PLN4X7F=","SEC_ACT_1")</f>
+        <v>1.7244800000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52">
+        <v>1.6681000000000001</v>
+      </c>
+      <c r="C52">
+        <v>1.7181000000000002</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6931000000000003</v>
+      </c>
+      <c r="G52" t="str">
+        <f>_xll.RtGet("IDN","PLN5X8F=","GV4_TEXT")</f>
+        <v>5X8</v>
+      </c>
+      <c r="H52">
+        <f>_xll.RtGet("IDN","PLN5X8F=","PRIMACT_1")</f>
+        <v>1.6688000000000001</v>
+      </c>
+      <c r="I52">
+        <f>_xll.RtGet("IDN","PLN5X8F=","SEC_ACT_1")</f>
+        <v>1.7188000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53">
+        <v>1.6639300000000001</v>
+      </c>
+      <c r="C53">
+        <v>1.7139300000000002</v>
+      </c>
+      <c r="E53" s="3">
+        <f t="shared" si="0"/>
+        <v>1.68893</v>
+      </c>
+      <c r="G53" t="str">
+        <f>_xll.RtGet("IDN","PLN6X9F=","GV4_TEXT")</f>
+        <v>6X9</v>
+      </c>
+      <c r="H53">
+        <f>_xll.RtGet("IDN","PLN6X9F=","PRIMACT_1")</f>
+        <v>1.6643000000000001</v>
+      </c>
+      <c r="I53">
+        <f>_xll.RtGet("IDN","PLN6X9F=","SEC_ACT_1")</f>
+        <v>1.7143000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>55</v>
+      </c>
+      <c r="B54">
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="C54">
+        <v>1.69</v>
+      </c>
+      <c r="E54" s="3">
+        <f t="shared" si="0"/>
+        <v>1.67</v>
+      </c>
+      <c r="G54" t="str">
+        <f>_xll.RtGet("IDN","PLN7X10F=","GV4_TEXT")</f>
+        <v>7X10</v>
+      </c>
+      <c r="H54">
+        <f>_xll.RtGet("IDN","PLN7X10F=","PRIMACT_1")</f>
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="I54">
+        <f>_xll.RtGet("IDN","PLN7X10F=","SEC_ACT_1")</f>
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55">
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="C55">
+        <v>1.68</v>
+      </c>
+      <c r="E55" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="G55" t="str">
+        <f>_xll.RtGet("IDN","PLN8X11F=","GV4_TEXT")</f>
+        <v>8X11</v>
+      </c>
+      <c r="H55">
+        <f>_xll.RtGet("IDN","PLN8X11F=","PRIMACT_1")</f>
+        <v>1.6300000000000001</v>
+      </c>
+      <c r="I55">
+        <f>_xll.RtGet("IDN","PLN8X11F=","SEC_ACT_1")</f>
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="B56">
+        <v>1.6140700000000001</v>
+      </c>
+      <c r="C56">
+        <v>1.6640700000000002</v>
+      </c>
+      <c r="E56" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6390700000000002</v>
+      </c>
+      <c r="G56" t="str">
+        <f>_xll.RtGet("IDN","PLN9X12F=","GV4_TEXT")</f>
+        <v>9X12</v>
+      </c>
+      <c r="H56">
+        <f>_xll.RtGet("IDN","PLN9X12F=","PRIMACT_1")</f>
+        <v>1.6121700000000001</v>
+      </c>
+      <c r="I56">
+        <f>_xll.RtGet("IDN","PLN9X12F=","SEC_ACT_1")</f>
+        <v>1.6621700000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57">
+        <v>1.7595200000000002</v>
+      </c>
+      <c r="C57">
+        <v>1.8195200000000002</v>
+      </c>
+      <c r="E57" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7895200000000002</v>
+      </c>
+      <c r="G57" t="str">
+        <f>_xll.RtGet("IDN","PLN1X7F=","GV4_TEXT")</f>
+        <v>1X7</v>
+      </c>
+      <c r="H57">
+        <f>_xll.RtGet("IDN","PLN1X7F=","PRIMACT_1")</f>
+        <v>1.7594800000000002</v>
+      </c>
+      <c r="I57">
+        <f>_xll.RtGet("IDN","PLN1X7F=","SEC_ACT_1")</f>
+        <v>1.8194800000000002</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>59</v>
+      </c>
+      <c r="B58">
+        <v>1.78</v>
+      </c>
+      <c r="C58">
+        <v>1.8</v>
+      </c>
+      <c r="E58" s="3">
+        <f t="shared" si="0"/>
+        <v>1.79</v>
+      </c>
+      <c r="G58" t="str">
+        <f>_xll.RtGet("IDN","PLN2X8F=","GV4_TEXT")</f>
+        <v>2X8</v>
+      </c>
+      <c r="H58">
+        <f>_xll.RtGet("IDN","PLN2X8F=","PRIMACT_1")</f>
+        <v>1.78</v>
+      </c>
+      <c r="I58">
+        <f>_xll.RtGet("IDN","PLN2X8F=","SEC_ACT_1")</f>
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B59">
+        <v>1.77</v>
+      </c>
+      <c r="C59">
+        <v>1.79</v>
+      </c>
+      <c r="E59" s="3">
+        <f t="shared" si="0"/>
+        <v>1.78</v>
+      </c>
+      <c r="G59" t="str">
+        <f>_xll.RtGet("IDN","PLN3X9F=","GV4_TEXT")</f>
+        <v>3X9</v>
+      </c>
+      <c r="H59">
+        <f>_xll.RtGet("IDN","PLN3X9F=","PRIMACT_1")</f>
+        <v>1.77</v>
+      </c>
+      <c r="I59">
+        <f>_xll.RtGet("IDN","PLN3X9F=","SEC_ACT_1")</f>
+        <v>1.79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>61</v>
+      </c>
+      <c r="B60">
+        <v>1.7538500000000001</v>
+      </c>
+      <c r="C60">
+        <v>1.8138500000000002</v>
+      </c>
+      <c r="E60" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7838500000000002</v>
+      </c>
+      <c r="G60" t="str">
+        <f>_xll.RtGet("IDN","PLN4X10F=","GV4_TEXT")</f>
+        <v>4X10</v>
+      </c>
+      <c r="H60">
+        <f>_xll.RtGet("IDN","PLN4X10F=","PRIMACT_1")</f>
+        <v>1.7535900000000002</v>
+      </c>
+      <c r="I60">
+        <f>_xll.RtGet("IDN","PLN4X10F=","SEC_ACT_1")</f>
+        <v>1.8135900000000003</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B61">
+        <v>1.7469000000000001</v>
+      </c>
+      <c r="C61">
+        <v>1.8069000000000002</v>
+      </c>
+      <c r="E61" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7769000000000001</v>
+      </c>
+      <c r="G61" t="str">
+        <f>_xll.RtGet("IDN","PLN5X11F=","GV4_TEXT")</f>
+        <v>5X11</v>
+      </c>
+      <c r="H61">
+        <f>_xll.RtGet("IDN","PLN5X11F=","PRIMACT_1")</f>
+        <v>1.7465000000000002</v>
+      </c>
+      <c r="I61">
+        <f>_xll.RtGet("IDN","PLN5X11F=","SEC_ACT_1")</f>
+        <v>1.8065</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62">
+        <v>1.7356300000000002</v>
+      </c>
+      <c r="C62">
+        <v>1.7956300000000001</v>
+      </c>
+      <c r="E62" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7656300000000003</v>
+      </c>
+      <c r="G62" t="str">
+        <f>_xll.RtGet("IDN","PLN6X12F=","GV4_TEXT")</f>
+        <v>6X12</v>
+      </c>
+      <c r="H62">
+        <f>_xll.RtGet("IDN","PLN6X12F=","PRIMACT_1")</f>
+        <v>1.7350200000000002</v>
+      </c>
+      <c r="I62">
+        <f>_xll.RtGet("IDN","PLN6X12F=","SEC_ACT_1")</f>
+        <v>1.7950200000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>64</v>
+      </c>
+      <c r="B63">
+        <v>1.55444</v>
+      </c>
+      <c r="C63">
+        <v>1.6044400000000001</v>
+      </c>
+      <c r="E63" s="3">
+        <f t="shared" si="0"/>
+        <v>1.57944</v>
+      </c>
+      <c r="G63" t="str">
+        <f>_xll.RtGet("IDN","PLN12X15F=","GV4_TEXT")</f>
+        <v>12X15</v>
+      </c>
+      <c r="H63">
+        <f>_xll.RtGet("IDN","PLN12X15F=","PRIMACT_1")</f>
+        <v>1.5490900000000001</v>
+      </c>
+      <c r="I63">
+        <f>_xll.RtGet("IDN","PLN12X15F=","SEC_ACT_1")</f>
+        <v>1.5990900000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64">
+        <v>1.55</v>
+      </c>
+      <c r="C64">
+        <v>1.59</v>
+      </c>
+      <c r="E64" s="3">
+        <f t="shared" si="0"/>
+        <v>1.57</v>
+      </c>
+      <c r="G64" t="str">
+        <f>_xll.RtGet("IDN","PLN15X18F=","GV4_TEXT")</f>
+        <v>15X18</v>
+      </c>
+      <c r="H64">
+        <f>_xll.RtGet("IDN","PLN15X18F=","PRIMACT_1")</f>
+        <v>1.5098800000000001</v>
+      </c>
+      <c r="I64">
+        <f>_xll.RtGet("IDN","PLN15X18F=","SEC_ACT_1")</f>
+        <v>1.5598800000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>66</v>
+      </c>
+      <c r="B65">
+        <v>1.5050000000000001</v>
+      </c>
+      <c r="C65">
+        <v>1.5449999999999999</v>
+      </c>
+      <c r="E65" s="3">
+        <f t="shared" si="0"/>
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="G65" t="str">
+        <f>_xll.RtGet("IDN","PLN18X21F=","GV4_TEXT")</f>
+        <v>18X21</v>
+      </c>
+      <c r="H65">
+        <f>_xll.RtGet("IDN","PLN18X21F=","PRIMACT_1")</f>
+        <v>1.49272</v>
+      </c>
+      <c r="I65">
+        <f>_xll.RtGet("IDN","PLN18X21F=","SEC_ACT_1")</f>
+        <v>1.5427200000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>67</v>
+      </c>
+      <c r="B66">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="C66">
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="E66" s="3">
+        <f t="shared" si="0"/>
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="G66" t="str">
+        <f>_xll.RtGet("IDN","PLN21X24F=","GV4_TEXT")</f>
+        <v>21X24</v>
+      </c>
+      <c r="H66">
+        <f>_xll.RtGet("IDN","PLN21X24F=","PRIMACT_1")</f>
+        <v>1.4884000000000002</v>
+      </c>
+      <c r="I66">
+        <f>_xll.RtGet("IDN","PLN21X24F=","SEC_ACT_1")</f>
+        <v>1.5384</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67">
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="C67">
+        <v>1.7000000000000002</v>
+      </c>
+      <c r="E67" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6800000000000002</v>
+      </c>
+      <c r="G67" t="str">
+        <f>_xll.RtGet("IDN","PLN12X18F=","GV4_TEXT")</f>
+        <v>12X18</v>
+      </c>
+      <c r="H67">
+        <f>_xll.RtGet("IDN","PLN12X18F=","PRIMACT_1")</f>
+        <v>1.6262500000000002</v>
+      </c>
+      <c r="I67">
+        <f>_xll.RtGet("IDN","PLN12X18F=","SEC_ACT_1")</f>
+        <v>1.6862500000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68">
+        <v>1.57</v>
+      </c>
+      <c r="C68">
+        <v>1.61</v>
+      </c>
+      <c r="E68" s="3">
+        <f t="shared" ref="E68" si="1">(C68+B68)/2</f>
+        <v>1.59</v>
+      </c>
+      <c r="G68" t="str">
+        <f>_xll.RtGet("IDN","PLN18X24F=","GV4_TEXT")</f>
+        <v>18X24</v>
+      </c>
+      <c r="H68">
+        <f>_xll.RtGet("IDN","PLN18X24F=","PRIMACT_1")</f>
+        <v>1.5683200000000002</v>
+      </c>
+      <c r="I68">
+        <f>_xll.RtGet("IDN","PLN18X24F=","SEC_ACT_1")</f>
+        <v>1.6283200000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>43797</v>
+      </c>
+      <c r="G1" s="4">
+        <f ca="1">TODAY()</f>
+        <v>43795</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>-0.44800000000000001</v>
+      </c>
+      <c r="E4">
+        <f>B4</f>
+        <v>-0.44800000000000001</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4">
+        <f>_xll.RtGet("IDN","EONIA=","PRIMACT_1")</f>
+        <v>-0.44800000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5">
+        <v>-0.499</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:E9" si="0">B5</f>
+        <v>-0.499</v>
+      </c>
+      <c r="G5" t="str">
+        <f>_xll.RtGet("IDN","EURIBORSWD=","GV4_TEXT")</f>
+        <v>SW</v>
+      </c>
+      <c r="H5">
+        <f>_xll.RtGet("IDN","EURIBORSWD=","PRIMACT_1")</f>
+        <v>-0.499</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>-0.45100000000000001</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="0"/>
+        <v>-0.45100000000000001</v>
+      </c>
+      <c r="G6" t="str">
+        <f>_xll.RtGet("IDN","EURIBOR1MD=","GV4_TEXT")</f>
+        <v>1M</v>
+      </c>
+      <c r="H6">
+        <f>_xll.RtGet("IDN","EURIBOR1MD=","PRIMACT_1")</f>
+        <v>-0.45100000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>-0.39900000000000002</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="0"/>
+        <v>-0.39900000000000002</v>
+      </c>
+      <c r="G7" t="str">
+        <f>_xll.RtGet("IDN","EURIBOR3MD=","GV4_TEXT")</f>
+        <v>3M</v>
+      </c>
+      <c r="H7">
+        <f>_xll.RtGet("IDN","EURIBOR3MD=","PRIMACT_1")</f>
+        <v>-0.39900000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>-0.33800000000000002</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xll.RtGet("IDN","EURIBOR6MD=","GV4_TEXT")</f>
+        <v>6M</v>
+      </c>
+      <c r="H8">
+        <f>_xll.RtGet("IDN","EURIBOR6MD=","PRIMACT_1")</f>
+        <v>-0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>-0.27900000000000003</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>-0.27900000000000003</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xll.RtGet("IDN","EURIBOR1YD=","GV4_TEXT")</f>
+        <v>1Y</v>
+      </c>
+      <c r="H9">
+        <f>_xll.RtGet("IDN","EURIBOR1YD=","PRIMACT_1")</f>
+        <v>-0.27900000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>-0.41110000000000002</v>
+      </c>
+      <c r="C12">
+        <v>-0.4078</v>
+      </c>
+      <c r="E12">
+        <f>(C12+B12)/2</f>
+        <v>-0.40944999999999998</v>
+      </c>
+      <c r="G12" t="str">
+        <f>_xll.RtGet("IDN","EURAB3E1Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">1Y    </v>
+      </c>
+      <c r="H12">
+        <f>_xll.RtGet("IDN","EURAB3E1Y=","PRIMACT_1")</f>
+        <v>-0.43570000000000003</v>
+      </c>
+      <c r="I12">
+        <f>_xll.RtGet("IDN","EURAB3E1Y=","SEC_ACT_1")</f>
+        <v>-0.3957</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13">
+        <v>-0.44220000000000004</v>
+      </c>
+      <c r="C13">
+        <v>-0.39219999999999999</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:E21" si="1">(C13+B13)/2</f>
+        <v>-0.41720000000000002</v>
+      </c>
+      <c r="G13" t="str">
+        <f>_xll.RtGet("IDN","EURAB3E2Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">2Y    </v>
+      </c>
+      <c r="H13">
+        <f>_xll.RtGet("IDN","EURAB3E2Y=","PRIMACT_1")</f>
+        <v>-0.4224</v>
+      </c>
+      <c r="I13">
+        <f>_xll.RtGet("IDN","EURAB3E2Y=","SEC_ACT_1")</f>
+        <v>-0.41240000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14">
+        <v>-0.41300000000000003</v>
+      </c>
+      <c r="C14">
+        <v>-0.372</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>-0.39250000000000002</v>
+      </c>
+      <c r="G14" t="str">
+        <f>_xll.RtGet("IDN","EURAB3E3Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">3Y    </v>
+      </c>
+      <c r="H14">
+        <f>_xll.RtGet("IDN","EURAB3E3Y=","PRIMACT_1")</f>
+        <v>-0.39980000000000004</v>
+      </c>
+      <c r="I14">
+        <f>_xll.RtGet("IDN","EURAB3E3Y=","SEC_ACT_1")</f>
+        <v>-0.38980000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15">
+        <v>-0.37490000000000001</v>
+      </c>
+      <c r="C15">
+        <v>-0.33490000000000003</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>-0.35489999999999999</v>
+      </c>
+      <c r="G15" t="str">
+        <f>_xll.RtGet("IDN","EURAB3E4Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">4Y    </v>
+      </c>
+      <c r="H15">
+        <f>_xll.RtGet("IDN","EURAB3E4Y=","PRIMACT_1")</f>
+        <v>-0.3609</v>
+      </c>
+      <c r="I15">
+        <f>_xll.RtGet("IDN","EURAB3E4Y=","SEC_ACT_1")</f>
+        <v>-0.35089999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16">
+        <v>-0.309</v>
+      </c>
+      <c r="C16">
+        <v>-0.30399999999999999</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>-0.30649999999999999</v>
+      </c>
+      <c r="G16" t="str">
+        <f>_xll.RtGet("IDN","EURAB3E5Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">5Y    </v>
+      </c>
+      <c r="H16">
+        <f>_xll.RtGet("IDN","EURAB3E5Y=","PRIMACT_1")</f>
+        <v>-0.314</v>
+      </c>
+      <c r="I16">
+        <f>_xll.RtGet("IDN","EURAB3E5Y=","SEC_ACT_1")</f>
+        <v>-0.30399999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>39</v>
+      </c>
+      <c r="B17">
+        <v>-0.2737</v>
+      </c>
+      <c r="C17">
+        <v>-0.23370000000000002</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>-0.25370000000000004</v>
+      </c>
+      <c r="G17" t="str">
+        <f>_xll.RtGet("IDN","EURAB3E6Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">6Y    </v>
+      </c>
+      <c r="H17">
+        <f>_xll.RtGet("IDN","EURAB3E6Y=","PRIMACT_1")</f>
+        <v>-0.26190000000000002</v>
+      </c>
+      <c r="I17">
+        <f>_xll.RtGet("IDN","EURAB3E6Y=","SEC_ACT_1")</f>
+        <v>-0.25190000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>-0.21450000000000002</v>
+      </c>
+      <c r="C18">
+        <v>-0.17450000000000002</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>-0.19450000000000001</v>
+      </c>
+      <c r="G18" t="str">
+        <f>_xll.RtGet("IDN","EURAB3E7Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">7Y    </v>
+      </c>
+      <c r="H18">
+        <f>_xll.RtGet("IDN","EURAB3E7Y=","PRIMACT_1")</f>
+        <v>-0.2034</v>
+      </c>
+      <c r="I18">
+        <f>_xll.RtGet("IDN","EURAB3E7Y=","SEC_ACT_1")</f>
+        <v>-0.19840000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19">
+        <v>-0.153</v>
+      </c>
+      <c r="C19">
+        <v>-0.113</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>-0.13300000000000001</v>
+      </c>
+      <c r="G19" t="str">
+        <f>_xll.RtGet("IDN","EURAB3E8Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">8Y    </v>
+      </c>
+      <c r="H19">
+        <f>_xll.RtGet("IDN","EURAB3E8Y=","PRIMACT_1")</f>
+        <v>-0.1424</v>
+      </c>
+      <c r="I19">
+        <f>_xll.RtGet("IDN","EURAB3E8Y=","SEC_ACT_1")</f>
+        <v>-0.13739999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20">
+        <v>-7.640000000000001E-2</v>
+      </c>
+      <c r="C20">
+        <v>-6.6400000000000001E-2</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>-7.1400000000000005E-2</v>
+      </c>
+      <c r="G20" t="str">
+        <f>_xll.RtGet("IDN","EURAB3E9Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">9Y    </v>
+      </c>
+      <c r="H20">
+        <f>_xll.RtGet("IDN","EURAB3E9Y=","PRIMACT_1")</f>
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="I20">
+        <f>_xll.RtGet("IDN","EURAB3E9Y=","SEC_ACT_1")</f>
+        <v>-7.2000000000000008E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21">
+        <v>-1.43E-2</v>
+      </c>
+      <c r="C21">
+        <v>-4.3E-3</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>-9.2999999999999992E-3</v>
+      </c>
+      <c r="G21" t="str">
+        <f>_xll.RtGet("IDN","EURAB3E10Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">10Y   </v>
+      </c>
+      <c r="H21">
+        <f>_xll.RtGet("IDN","EURAB3E10Y=","PRIMACT_1")</f>
+        <v>-3.4000000000000002E-2</v>
+      </c>
+      <c r="I21">
+        <f>_xll.RtGet("IDN","EURAB3E10Y=","SEC_ACT_1")</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H23" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24">
+        <v>-0.34390000000000004</v>
+      </c>
+      <c r="C24">
+        <v>-0.34040000000000004</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ref="E24:E33" si="2">(C24+B24)/2</f>
+        <v>-0.34215000000000007</v>
+      </c>
+      <c r="G24" t="str">
+        <f>_xll.RtGet("IDN","EURAB6E1Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">1Y    </v>
+      </c>
+      <c r="H24">
+        <f>_xll.RtGet("IDN","EURAB6E1Y=","PRIMACT_1")</f>
+        <v>-0.3448</v>
+      </c>
+      <c r="I24">
+        <f>_xll.RtGet("IDN","EURAB6E1Y=","SEC_ACT_1")</f>
+        <v>-0.34129999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B25">
+        <v>-0.35100000000000003</v>
+      </c>
+      <c r="C25">
+        <v>-0.33100000000000002</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="2"/>
+        <v>-0.34100000000000003</v>
+      </c>
+      <c r="G25" t="str">
+        <f>_xll.RtGet("IDN","EURAB6E2Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">2Y    </v>
+      </c>
+      <c r="H25">
+        <f>_xll.RtGet("IDN","EURAB6E2Y=","PRIMACT_1")</f>
+        <v>-0.35300000000000004</v>
+      </c>
+      <c r="I25">
+        <f>_xll.RtGet("IDN","EURAB6E2Y=","SEC_ACT_1")</f>
+        <v>-0.33300000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26">
+        <v>-0.32500000000000001</v>
+      </c>
+      <c r="C26">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="2"/>
+        <v>-0.315</v>
+      </c>
+      <c r="G26" t="str">
+        <f>_xll.RtGet("IDN","EURAB6E3Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">3Y    </v>
+      </c>
+      <c r="H26">
+        <f>_xll.RtGet("IDN","EURAB6E3Y=","PRIMACT_1")</f>
+        <v>-0.32800000000000001</v>
+      </c>
+      <c r="I26">
+        <f>_xll.RtGet("IDN","EURAB6E3Y=","SEC_ACT_1")</f>
+        <v>-0.308</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27">
+        <v>-0.28100000000000003</v>
+      </c>
+      <c r="C27">
+        <v>-0.27100000000000002</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="2"/>
+        <v>-0.27600000000000002</v>
+      </c>
+      <c r="G27" t="str">
+        <f>_xll.RtGet("IDN","EURAB6E4Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">4Y    </v>
+      </c>
+      <c r="H27">
+        <f>_xll.RtGet("IDN","EURAB6E4Y=","PRIMACT_1")</f>
+        <v>-0.2893</v>
+      </c>
+      <c r="I27">
+        <f>_xll.RtGet("IDN","EURAB6E4Y=","SEC_ACT_1")</f>
+        <v>-0.26930000000000004</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28">
+        <v>-0.23</v>
+      </c>
+      <c r="C28">
+        <v>-0.22500000000000001</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>-0.22750000000000001</v>
+      </c>
+      <c r="G28" t="str">
+        <f>_xll.RtGet("IDN","EURAB6E5Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">5Y    </v>
+      </c>
+      <c r="H28">
+        <f>_xll.RtGet("IDN","EURAB6E5Y=","PRIMACT_1")</f>
+        <v>-0.23550000000000001</v>
+      </c>
+      <c r="I28">
+        <f>_xll.RtGet("IDN","EURAB6E5Y=","SEC_ACT_1")</f>
+        <v>-0.22550000000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29">
+        <v>-0.182</v>
+      </c>
+      <c r="C29">
+        <v>-0.17200000000000001</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>-0.17699999999999999</v>
+      </c>
+      <c r="G29" t="str">
+        <f>_xll.RtGet("IDN","EURAB6E6Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">6Y    </v>
+      </c>
+      <c r="H29">
+        <f>_xll.RtGet("IDN","EURAB6E6Y=","PRIMACT_1")</f>
+        <v>-0.186</v>
+      </c>
+      <c r="I29">
+        <f>_xll.RtGet("IDN","EURAB6E6Y=","SEC_ACT_1")</f>
+        <v>-0.17600000000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30">
+        <v>-0.12710000000000002</v>
+      </c>
+      <c r="C30">
+        <v>-0.11710000000000001</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>-0.12210000000000001</v>
+      </c>
+      <c r="G30" t="str">
+        <f>_xll.RtGet("IDN","EURAB6E7Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">7Y    </v>
+      </c>
+      <c r="H30">
+        <f>_xll.RtGet("IDN","EURAB6E7Y=","PRIMACT_1")</f>
+        <v>-0.12790000000000001</v>
+      </c>
+      <c r="I30">
+        <f>_xll.RtGet("IDN","EURAB6E7Y=","SEC_ACT_1")</f>
+        <v>-0.12390000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B31">
+        <v>-7.1000000000000008E-2</v>
+      </c>
+      <c r="C31">
+        <v>-5.1000000000000004E-2</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="2"/>
+        <v>-6.1000000000000006E-2</v>
+      </c>
+      <c r="G31" t="str">
+        <f>_xll.RtGet("IDN","EURAB6E8Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">8Y    </v>
+      </c>
+      <c r="H31">
+        <f>_xll.RtGet("IDN","EURAB6E8Y=","PRIMACT_1")</f>
+        <v>-6.8900000000000003E-2</v>
+      </c>
+      <c r="I31">
+        <f>_xll.RtGet("IDN","EURAB6E8Y=","SEC_ACT_1")</f>
+        <v>-6.4899999999999999E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B32">
+        <v>-0.01</v>
+      </c>
+      <c r="C32">
+        <v>0.01</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="G32" t="str">
+        <f>_xll.RtGet("IDN","EURAB6E9Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">9Y    </v>
+      </c>
+      <c r="H32">
+        <f>_xll.RtGet("IDN","EURAB6E9Y=","PRIMACT_1")</f>
+        <v>-8.8999999999999999E-3</v>
+      </c>
+      <c r="I32">
+        <f>_xll.RtGet("IDN","EURAB6E9Y=","SEC_ACT_1")</f>
+        <v>-4.8999999999999998E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B33">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="C33">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="2"/>
+        <v>5.9000000000000004E-2</v>
+      </c>
+      <c r="G33" t="str">
+        <f>_xll.RtGet("IDN","EURAB6E10Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">10Y   </v>
+      </c>
+      <c r="H33">
+        <f>_xll.RtGet("IDN","EURAB6E10Y=","PRIMACT_1")</f>
+        <v>4.7E-2</v>
+      </c>
+      <c r="I33">
+        <f>_xll.RtGet("IDN","EURAB6E10Y=","SEC_ACT_1")</f>
+        <v>5.7000000000000002E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>24</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36">
+        <v>-0.41100000000000003</v>
+      </c>
+      <c r="C36">
+        <v>-0.39100000000000001</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:E61" si="3">(C36+B36)/2</f>
+        <v>-0.40100000000000002</v>
+      </c>
+      <c r="G36" t="str">
+        <f>_xll.RtGet("IDN","EUR1X4F=","GV4_TEXT")</f>
+        <v>1X4</v>
+      </c>
+      <c r="H36">
+        <f>_xll.RtGet("IDN","EUR1X4F=","PRIMACT_1")</f>
+        <v>-0.41000000000000003</v>
+      </c>
+      <c r="I36">
+        <f>_xll.RtGet("IDN","EUR1X4F=","SEC_ACT_1")</f>
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>-0.41000000000000003</v>
+      </c>
+      <c r="C37">
+        <v>-0.39</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="3"/>
+        <v>-0.4</v>
+      </c>
+      <c r="G37" t="str">
+        <f>_xll.RtGet("IDN","EUR2X5F=","GV4_TEXT")</f>
+        <v>2X5</v>
+      </c>
+      <c r="H37">
+        <f>_xll.RtGet("IDN","EUR2X5F=","PRIMACT_1")</f>
+        <v>-0.4</v>
+      </c>
+      <c r="I37">
+        <f>_xll.RtGet("IDN","EUR2X5F=","SEC_ACT_1")</f>
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38">
+        <v>-0.41000000000000003</v>
+      </c>
+      <c r="C38">
+        <v>-0.39</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="3"/>
+        <v>-0.4</v>
+      </c>
+      <c r="G38" t="str">
+        <f>_xll.RtGet("IDN","EUR3X6F=","GV4_TEXT")</f>
+        <v>3X6</v>
+      </c>
+      <c r="H38">
+        <f>_xll.RtGet("IDN","EUR3X6F=","PRIMACT_1")</f>
+        <v>-0.41000000000000003</v>
+      </c>
+      <c r="I38">
+        <f>_xll.RtGet("IDN","EUR3X6F=","SEC_ACT_1")</f>
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39">
+        <v>-0.41000000000000003</v>
+      </c>
+      <c r="C39">
+        <v>-0.39</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="3"/>
+        <v>-0.4</v>
+      </c>
+      <c r="G39" t="str">
+        <f>_xll.RtGet("IDN","EUR4X7F=","GV4_TEXT")</f>
+        <v>4X7</v>
+      </c>
+      <c r="H39">
+        <f>_xll.RtGet("IDN","EUR4X7F=","PRIMACT_1")</f>
+        <v>-0.42</v>
+      </c>
+      <c r="I39">
+        <f>_xll.RtGet("IDN","EUR4X7F=","SEC_ACT_1")</f>
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40">
+        <v>-0.42</v>
+      </c>
+      <c r="C40">
+        <v>-0.4</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="3"/>
+        <v>-0.41000000000000003</v>
+      </c>
+      <c r="G40" t="str">
+        <f>_xll.RtGet("IDN","EUR5X8F=","GV4_TEXT")</f>
+        <v>5X8</v>
+      </c>
+      <c r="H40">
+        <f>_xll.RtGet("IDN","EUR5X8F=","PRIMACT_1")</f>
+        <v>-0.41300000000000003</v>
+      </c>
+      <c r="I40">
+        <f>_xll.RtGet("IDN","EUR5X8F=","SEC_ACT_1")</f>
+        <v>-0.40300000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41">
+        <v>-0.42099999999999999</v>
+      </c>
+      <c r="C41">
+        <v>-0.40100000000000002</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="3"/>
+        <v>-0.41100000000000003</v>
+      </c>
+      <c r="G41" t="str">
+        <f>_xll.RtGet("IDN","EUR6X9F=","GV4_TEXT")</f>
+        <v>6X9</v>
+      </c>
+      <c r="H41">
+        <f>_xll.RtGet("IDN","EUR6X9F=","PRIMACT_1")</f>
+        <v>-0.41699999999999998</v>
+      </c>
+      <c r="I41">
+        <f>_xll.RtGet("IDN","EUR6X9F=","SEC_ACT_1")</f>
+        <v>-0.40700000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42">
+        <v>-0.43</v>
+      </c>
+      <c r="C42">
+        <v>-0.41000000000000003</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="3"/>
+        <v>-0.42000000000000004</v>
+      </c>
+      <c r="G42" t="str">
+        <f>_xll.RtGet("IDN","EUR7X10F=","GV4_TEXT")</f>
+        <v>7X10</v>
+      </c>
+      <c r="H42">
+        <f>_xll.RtGet("IDN","EUR7X10F=","PRIMACT_1")</f>
+        <v>-0.441</v>
+      </c>
+      <c r="I42">
+        <f>_xll.RtGet("IDN","EUR7X10F=","SEC_ACT_1")</f>
+        <v>-0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43">
+        <v>-0.43</v>
+      </c>
+      <c r="C43">
+        <v>-0.41000000000000003</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="3"/>
+        <v>-0.42000000000000004</v>
+      </c>
+      <c r="G43" t="str">
+        <f>_xll.RtGet("IDN","EUR8X11F=","GV4_TEXT")</f>
+        <v>8X11</v>
+      </c>
+      <c r="H43">
+        <f>_xll.RtGet("IDN","EUR8X11F=","PRIMACT_1")</f>
+        <v>-0.43</v>
+      </c>
+      <c r="I43">
+        <f>_xll.RtGet("IDN","EUR8X11F=","SEC_ACT_1")</f>
+        <v>-0.41000000000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44">
+        <v>-0.43</v>
+      </c>
+      <c r="C44">
+        <v>-0.41000000000000003</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="3"/>
+        <v>-0.42000000000000004</v>
+      </c>
+      <c r="G44" t="str">
+        <f>_xll.RtGet("IDN","EUR9X12F=","GV4_TEXT")</f>
+        <v>9X12</v>
+      </c>
+      <c r="H44">
+        <f>_xll.RtGet("IDN","EUR9X12F=","PRIMACT_1")</f>
+        <v>-0.44800000000000001</v>
+      </c>
+      <c r="I44">
+        <f>_xll.RtGet("IDN","EUR9X12F=","SEC_ACT_1")</f>
+        <v>-0.39800000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45">
+        <v>-0.435</v>
+      </c>
+      <c r="C45">
+        <v>-0.41500000000000004</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="3"/>
+        <v>-0.42500000000000004</v>
+      </c>
+      <c r="G45" t="str">
+        <f>_xll.RtGet("IDN","EUR12X15F=","GV4_TEXT")</f>
+        <v>12X15</v>
+      </c>
+      <c r="H45">
+        <f>_xll.RtGet("IDN","EUR12X15F=","PRIMACT_1")</f>
+        <v>-0.45200000000000001</v>
+      </c>
+      <c r="I45">
+        <f>_xll.RtGet("IDN","EUR12X15F=","SEC_ACT_1")</f>
+        <v>-0.40200000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46">
+        <v>-0.44</v>
+      </c>
+      <c r="C46">
+        <v>-0.39</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="3"/>
+        <v>-0.41500000000000004</v>
+      </c>
+      <c r="G46" t="str">
+        <f>_xll.RtGet("IDN","EUR15X18F=","GV4_TEXT")</f>
+        <v>15X18</v>
+      </c>
+      <c r="H46">
+        <f>_xll.RtGet("IDN","EUR15X18F=","PRIMACT_1")</f>
+        <v>-0.44</v>
+      </c>
+      <c r="I46">
+        <f>_xll.RtGet("IDN","EUR15X18F=","SEC_ACT_1")</f>
+        <v>-0.39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47">
+        <v>-0.43</v>
+      </c>
+      <c r="C47">
+        <v>-0.38</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="3"/>
+        <v>-0.40500000000000003</v>
+      </c>
+      <c r="G47" t="str">
+        <f>_xll.RtGet("IDN","EUR18X21F=","GV4_TEXT")</f>
+        <v>18X21</v>
+      </c>
+      <c r="H47">
+        <f>_xll.RtGet("IDN","EUR18X21F=","PRIMACT_1")</f>
+        <v>-0.43</v>
+      </c>
+      <c r="I47">
+        <f>_xll.RtGet("IDN","EUR18X21F=","SEC_ACT_1")</f>
+        <v>-0.38</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48">
+        <v>-0.41000000000000003</v>
+      </c>
+      <c r="C48">
+        <v>-0.36</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="3"/>
+        <v>-0.38500000000000001</v>
+      </c>
+      <c r="G48" t="str">
+        <f>_xll.RtGet("IDN","EUR21X24F=","GV4_TEXT")</f>
+        <v>21X24</v>
+      </c>
+      <c r="H48">
+        <f>_xll.RtGet("IDN","EUR21X24F=","PRIMACT_1")</f>
+        <v>-0.42</v>
+      </c>
+      <c r="I48">
+        <f>_xll.RtGet("IDN","EUR21X24F=","SEC_ACT_1")</f>
+        <v>-0.37</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49">
+        <v>-0.34</v>
+      </c>
+      <c r="C49">
+        <v>-0.32</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="3"/>
+        <v>-0.33</v>
+      </c>
+      <c r="G49" t="str">
+        <f>_xll.RtGet("IDN","EUR1X7F=","GV4_TEXT")</f>
+        <v>1X7</v>
+      </c>
+      <c r="H49">
+        <f>_xll.RtGet("IDN","EUR1X7F=","PRIMACT_1")</f>
+        <v>-0.34</v>
+      </c>
+      <c r="I49">
+        <f>_xll.RtGet("IDN","EUR1X7F=","SEC_ACT_1")</f>
+        <v>-0.32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50">
+        <v>-0.34</v>
+      </c>
+      <c r="C50">
+        <v>-0.32</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="3"/>
+        <v>-0.33</v>
+      </c>
+      <c r="G50" t="str">
+        <f>_xll.RtGet("IDN","EUR2X8F=","GV4_TEXT")</f>
+        <v>2X8</v>
+      </c>
+      <c r="H50">
+        <f>_xll.RtGet("IDN","EUR2X8F=","PRIMACT_1")</f>
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="I50">
+        <f>_xll.RtGet("IDN","EUR2X8F=","SEC_ACT_1")</f>
+        <v>-0.31</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>70</v>
+      </c>
+      <c r="B51">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="C51">
+        <v>-0.27</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="3"/>
+        <v>-0.27500000000000002</v>
+      </c>
+      <c r="G51" t="str">
+        <f>_xll.RtGet("IDN","EUR2X14F=","GV4_TEXT")</f>
+        <v>2X14</v>
+      </c>
+      <c r="H51">
+        <f>_xll.RtGet("IDN","EUR2X14F=","PRIMACT_1")</f>
+        <v>-0.28100000000000003</v>
+      </c>
+      <c r="I51">
+        <f>_xll.RtGet("IDN","EUR2X14F=","SEC_ACT_1")</f>
+        <v>-0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>60</v>
+      </c>
+      <c r="B52">
+        <v>-0.34</v>
+      </c>
+      <c r="C52">
+        <v>-0.32</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="3"/>
+        <v>-0.33</v>
+      </c>
+      <c r="G52" t="str">
+        <f>_xll.RtGet("IDN","EUR3X9F=","GV4_TEXT")</f>
+        <v>3X9</v>
+      </c>
+      <c r="H52">
+        <f>_xll.RtGet("IDN","EUR3X9F=","PRIMACT_1")</f>
+        <v>-0.33900000000000002</v>
+      </c>
+      <c r="I52">
+        <f>_xll.RtGet("IDN","EUR3X9F=","SEC_ACT_1")</f>
+        <v>-0.32900000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53">
+        <v>-0.27900000000000003</v>
+      </c>
+      <c r="C53">
+        <v>-0.26900000000000002</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="3"/>
+        <v>-0.27400000000000002</v>
+      </c>
+      <c r="G53" t="str">
+        <f>_xll.RtGet("IDN","EUR3X15F=","GV4_TEXT")</f>
+        <v>3X15</v>
+      </c>
+      <c r="H53">
+        <f>_xll.RtGet("IDN","EUR3X15F=","PRIMACT_1")</f>
+        <v>-0.28100000000000003</v>
+      </c>
+      <c r="I53">
+        <f>_xll.RtGet("IDN","EUR3X15F=","SEC_ACT_1")</f>
+        <v>-0.27100000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>61</v>
+      </c>
+      <c r="B54">
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="C54">
+        <v>-0.33</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="3"/>
+        <v>-0.34</v>
+      </c>
+      <c r="G54" t="str">
+        <f>_xll.RtGet("IDN","EUR4X10F=","GV4_TEXT")</f>
+        <v>4X10</v>
+      </c>
+      <c r="H54">
+        <f>_xll.RtGet("IDN","EUR4X10F=","PRIMACT_1")</f>
+        <v>-0.34100000000000003</v>
+      </c>
+      <c r="I54">
+        <f>_xll.RtGet("IDN","EUR4X10F=","SEC_ACT_1")</f>
+        <v>-0.33100000000000002</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55">
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="C55">
+        <v>-0.33</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="3"/>
+        <v>-0.34</v>
+      </c>
+      <c r="G55" t="str">
+        <f>_xll.RtGet("IDN","EUR5X11F=","GV4_TEXT")</f>
+        <v>5X11</v>
+      </c>
+      <c r="H55">
+        <f>_xll.RtGet("IDN","EUR5X11F=","PRIMACT_1")</f>
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="I55">
+        <f>_xll.RtGet("IDN","EUR5X11F=","SEC_ACT_1")</f>
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56">
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="C56">
+        <v>-0.33</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="3"/>
+        <v>-0.34</v>
+      </c>
+      <c r="G56" t="str">
+        <f>_xll.RtGet("IDN","EUR6X12F=","GV4_TEXT")</f>
+        <v>6X12</v>
+      </c>
+      <c r="H56">
+        <f>_xll.RtGet("IDN","EUR6X12F=","PRIMACT_1")</f>
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="I56">
+        <f>_xll.RtGet("IDN","EUR6X12F=","SEC_ACT_1")</f>
+        <v>-0.33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57">
+        <v>-0.36</v>
+      </c>
+      <c r="C57">
+        <v>-0.34</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="3"/>
+        <v>-0.35</v>
+      </c>
+      <c r="G57" t="str">
+        <f>_xll.RtGet("IDN","EUR9X15F=","GV4_TEXT")</f>
+        <v>9X15</v>
+      </c>
+      <c r="H57">
+        <f>_xll.RtGet("IDN","EUR9X15F=","PRIMACT_1")</f>
+        <v>-0.35299999999999998</v>
+      </c>
+      <c r="I57">
+        <f>_xll.RtGet("IDN","EUR9X15F=","SEC_ACT_1")</f>
+        <v>-0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58">
+        <v>-0.35100000000000003</v>
+      </c>
+      <c r="C58">
+        <v>-0.34100000000000003</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="3"/>
+        <v>-0.34600000000000003</v>
+      </c>
+      <c r="G58" t="str">
+        <f>_xll.RtGet("IDN","EUR12X18F=","GV4_TEXT")</f>
+        <v>12X18</v>
+      </c>
+      <c r="H58">
+        <f>_xll.RtGet("IDN","EUR12X18F=","PRIMACT_1")</f>
+        <v>-0.35299999999999998</v>
+      </c>
+      <c r="I58">
+        <f>_xll.RtGet("IDN","EUR12X18F=","SEC_ACT_1")</f>
+        <v>-0.34300000000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59">
+        <v>-0.34900000000000003</v>
+      </c>
+      <c r="C59">
+        <v>-0.29899999999999999</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="3"/>
+        <v>-0.32400000000000001</v>
+      </c>
+      <c r="G59" t="str">
+        <f>_xll.RtGet("IDN","EUR18X24F=","GV4_TEXT")</f>
+        <v>18X24</v>
+      </c>
+      <c r="H59">
+        <f>_xll.RtGet("IDN","EUR18X24F=","PRIMACT_1")</f>
+        <v>-0.33100000000000002</v>
+      </c>
+      <c r="I59">
+        <f>_xll.RtGet("IDN","EUR18X24F=","SEC_ACT_1")</f>
+        <v>-0.311</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="C60">
+        <v>-0.26</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="3"/>
+        <v>-0.27</v>
+      </c>
+      <c r="G60" t="str">
+        <f>_xll.RtGet("IDN","EUR6X18F=","GV4_TEXT")</f>
+        <v>6X18</v>
+      </c>
+      <c r="H60">
+        <f>_xll.RtGet("IDN","EUR6X18F=","PRIMACT_1")</f>
+        <v>-0.29399999999999998</v>
+      </c>
+      <c r="I60">
+        <f>_xll.RtGet("IDN","EUR6X18F=","SEC_ACT_1")</f>
+        <v>-0.24399999999999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61">
+        <v>-0.26300000000000001</v>
+      </c>
+      <c r="C61">
+        <v>-0.253</v>
+      </c>
+      <c r="E61">
+        <f t="shared" si="3"/>
+        <v>-0.25800000000000001</v>
+      </c>
+      <c r="G61" t="str">
+        <f>_xll.RtGet("IDN","EUR12X24F=","GV4_TEXT")</f>
+        <v>12X24</v>
+      </c>
+      <c r="H61">
+        <f>_xll.RtGet("IDN","EUR12X24F=","PRIMACT_1")</f>
+        <v>-0.26600000000000001</v>
+      </c>
+      <c r="I61">
+        <f>_xll.RtGet("IDN","EUR12X24F=","SEC_ACT_1")</f>
+        <v>-0.25600000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="4">
+        <v>43797</v>
+      </c>
+      <c r="G1" s="4">
+        <f ca="1">TODAY()</f>
+        <v>43795</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>1.5338800000000001</v>
+      </c>
+      <c r="E4">
+        <v>1.5338800000000001</v>
+      </c>
+      <c r="G4" t="str">
+        <f>_xll.RtGet("IDN","USDONFSR=X","GV4_TEXT")</f>
+        <v xml:space="preserve">ON    </v>
+      </c>
+      <c r="H4">
+        <f>_xll.RtGet("IDN","USDONFSR=X","PRIMACT_1")</f>
+        <v>1.5361300000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5">
+        <v>1.5897500000000002</v>
+      </c>
+      <c r="E5">
+        <v>1.5338800000000001</v>
+      </c>
+      <c r="G5" t="str">
+        <f>_xll.RtGet("IDN","USDSWFSR=X","GV4_TEXT")</f>
+        <v xml:space="preserve">SW    </v>
+      </c>
+      <c r="H5">
+        <f>_xll.RtGet("IDN","USDSWFSR=X","PRIMACT_1")</f>
+        <v>1.5970000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6">
+        <v>1.7027500000000002</v>
+      </c>
+      <c r="E6">
+        <v>1.5338800000000001</v>
+      </c>
+      <c r="G6" t="str">
+        <f>_xll.RtGet("IDN","USD1MFSR=X","GV4_TEXT")</f>
+        <v xml:space="preserve">1M    </v>
+      </c>
+      <c r="H6">
+        <f>_xll.RtGet("IDN","USD1MFSR=X","PRIMACT_1")</f>
+        <v>1.6995000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7">
+        <v>1.8367500000000001</v>
+      </c>
+      <c r="E7">
+        <v>1.5338800000000001</v>
+      </c>
+      <c r="G7" t="str">
+        <f>_xll.RtGet("IDN","USD2MFSR=X","GV4_TEXT")</f>
+        <v xml:space="preserve">2M    </v>
+      </c>
+      <c r="H7">
+        <f>_xll.RtGet("IDN","USD2MFSR=X","PRIMACT_1")</f>
+        <v>1.8420000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B8">
+        <v>1.9172500000000001</v>
+      </c>
+      <c r="E8">
+        <v>1.5338800000000001</v>
+      </c>
+      <c r="G8" t="str">
+        <f>_xll.RtGet("IDN","USD3MFSR=X","GV4_TEXT")</f>
+        <v xml:space="preserve">3M    </v>
+      </c>
+      <c r="H8">
+        <f>_xll.RtGet("IDN","USD3MFSR=X","PRIMACT_1")</f>
+        <v>1.9186300000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>80</v>
+      </c>
+      <c r="B9">
+        <v>1.9072500000000001</v>
+      </c>
+      <c r="E9">
+        <v>1.5338800000000001</v>
+      </c>
+      <c r="G9" t="str">
+        <f>_xll.RtGet("IDN","USD6MFSR=X","GV4_TEXT")</f>
+        <v xml:space="preserve">6M    </v>
+      </c>
+      <c r="H9">
+        <f>_xll.RtGet("IDN","USD6MFSR=X","PRIMACT_1")</f>
+        <v>1.9191300000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10">
+        <v>1.9148800000000001</v>
+      </c>
+      <c r="E10">
+        <v>1.5338800000000001</v>
+      </c>
+      <c r="G10" t="str">
+        <f>_xll.RtGet("IDN","USD1YFSR=X","GV4_TEXT")</f>
+        <v xml:space="preserve">1Y    </v>
+      </c>
+      <c r="H10">
+        <f>_xll.RtGet("IDN","USD1YFSR=X","PRIMACT_1")</f>
+        <v>1.9417500000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="C13">
+        <v>1.7270000000000001</v>
+      </c>
+      <c r="E13">
+        <f>(C13+B13)/2</f>
+        <v>1.7170000000000001</v>
+      </c>
+      <c r="G13" t="str">
+        <f>_xll.RtGet("IDN","USDAM3L1Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">1Y    </v>
+      </c>
+      <c r="H13">
+        <f>_xll.RtGet("IDN","USDAM3L1Y=","PRIMACT_1")</f>
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="I13">
+        <f>_xll.RtGet("IDN","USDAM3L1Y=","SEC_ACT_1")</f>
+        <v>1.7310000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>1.5590000000000002</v>
+      </c>
+      <c r="C14">
+        <v>1.599</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:E22" si="0">(C14+B14)/2</f>
+        <v>1.5790000000000002</v>
+      </c>
+      <c r="G14" t="str">
+        <f>_xll.RtGet("IDN","USDAM3L2Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">2Y    </v>
+      </c>
+      <c r="H14">
+        <f>_xll.RtGet("IDN","USDAM3L2Y=","PRIMACT_1")</f>
+        <v>1.5610000000000002</v>
+      </c>
+      <c r="I14">
+        <f>_xll.RtGet("IDN","USDAM3L2Y=","SEC_ACT_1")</f>
+        <v>1.601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>1.522</v>
+      </c>
+      <c r="C15">
+        <v>1.5620000000000001</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>1.542</v>
+      </c>
+      <c r="G15" t="str">
+        <f>_xll.RtGet("IDN","USDAM3L3Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">3Y    </v>
+      </c>
+      <c r="H15">
+        <f>_xll.RtGet("IDN","USDAM3L3Y=","PRIMACT_1")</f>
+        <v>1.5279</v>
+      </c>
+      <c r="I15">
+        <f>_xll.RtGet("IDN","USDAM3L3Y=","SEC_ACT_1")</f>
+        <v>1.5330000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>1.508</v>
+      </c>
+      <c r="C16">
+        <v>1.548</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>1.528</v>
+      </c>
+      <c r="G16" t="str">
+        <f>_xll.RtGet("IDN","USDAM3L4Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">4Y    </v>
+      </c>
+      <c r="H16">
+        <f>_xll.RtGet("IDN","USDAM3L4Y=","PRIMACT_1")</f>
+        <v>1.498</v>
+      </c>
+      <c r="I16">
+        <f>_xll.RtGet("IDN","USDAM3L4Y=","SEC_ACT_1")</f>
+        <v>1.538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>1.5110000000000001</v>
+      </c>
+      <c r="C17">
+        <v>1.5510000000000002</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>1.5310000000000001</v>
+      </c>
+      <c r="G17" t="str">
+        <f>_xll.RtGet("IDN","USDAM3L5Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">5Y    </v>
+      </c>
+      <c r="H17">
+        <f>_xll.RtGet("IDN","USDAM3L5Y=","PRIMACT_1")</f>
+        <v>1.5</v>
+      </c>
+      <c r="I17">
+        <f>_xll.RtGet("IDN","USDAM3L5Y=","SEC_ACT_1")</f>
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <v>1.524</v>
+      </c>
+      <c r="C18">
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>1.544</v>
+      </c>
+      <c r="G18" t="str">
+        <f>_xll.RtGet("IDN","USDAM3L6Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">6Y    </v>
+      </c>
+      <c r="H18">
+        <f>_xll.RtGet("IDN","USDAM3L6Y=","PRIMACT_1")</f>
+        <v>1.5130000000000001</v>
+      </c>
+      <c r="I18">
+        <f>_xll.RtGet("IDN","USDAM3L6Y=","SEC_ACT_1")</f>
+        <v>1.5530000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>1.5490000000000002</v>
+      </c>
+      <c r="C19">
+        <v>1.589</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>1.569</v>
+      </c>
+      <c r="G19" t="str">
+        <f>_xll.RtGet("IDN","USDAM3L7Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">7Y    </v>
+      </c>
+      <c r="H19">
+        <f>_xll.RtGet("IDN","USDAM3L7Y=","PRIMACT_1")</f>
+        <v>1.544</v>
+      </c>
+      <c r="I19">
+        <f>_xll.RtGet("IDN","USDAM3L7Y=","SEC_ACT_1")</f>
+        <v>1.5640000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>1.5670000000000002</v>
+      </c>
+      <c r="C20">
+        <v>1.607</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>1.5870000000000002</v>
+      </c>
+      <c r="G20" t="str">
+        <f>_xll.RtGet("IDN","USDAM3L8Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">8Y    </v>
+      </c>
+      <c r="H20">
+        <f>_xll.RtGet("IDN","USDAM3L8Y=","PRIMACT_1")</f>
+        <v>1.5738000000000001</v>
+      </c>
+      <c r="I20">
+        <f>_xll.RtGet("IDN","USDAM3L8Y=","SEC_ACT_1")</f>
+        <v>1.5790000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>1.5940000000000001</v>
+      </c>
+      <c r="C21">
+        <v>1.6340000000000001</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1.6140000000000001</v>
+      </c>
+      <c r="G21" t="str">
+        <f>_xll.RtGet("IDN","USDAM3L9Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">9Y    </v>
+      </c>
+      <c r="H21">
+        <f>_xll.RtGet("IDN","USDAM3L9Y=","PRIMACT_1")</f>
+        <v>1.5830000000000002</v>
+      </c>
+      <c r="I21">
+        <f>_xll.RtGet("IDN","USDAM3L9Y=","SEC_ACT_1")</f>
+        <v>1.623</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>1.625</v>
+      </c>
+      <c r="C22">
+        <v>1.665</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1.645</v>
+      </c>
+      <c r="G22" t="str">
+        <f>_xll.RtGet("IDN","USDAM3L10Y=","GV4_TEXT")</f>
+        <v xml:space="preserve">10Y   </v>
+      </c>
+      <c r="H22">
+        <f>_xll.RtGet("IDN","USDAM3L10Y=","PRIMACT_1")</f>
+        <v>1.6120000000000001</v>
+      </c>
+      <c r="I22">
+        <f>_xll.RtGet("IDN","USDAM3L10Y=","SEC_ACT_1")</f>
+        <v>1.6520000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25">
+        <v>1.867</v>
+      </c>
+      <c r="C25">
+        <v>1.907</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ref="E25:E45" si="1">(C25+B25)/2</f>
+        <v>1.887</v>
+      </c>
+      <c r="G25" t="str">
+        <f>_xll.RtGet("IDN","USD1X4F=","GV4_TEXT")</f>
+        <v>1X4</v>
+      </c>
+      <c r="H25">
+        <f>_xll.RtGet("IDN","USD1X4F=","PRIMACT_1")</f>
+        <v>1.851</v>
+      </c>
+      <c r="I25">
+        <f>_xll.RtGet("IDN","USD1X4F=","SEC_ACT_1")</f>
+        <v>1.891</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26">
+        <v>1.7847000000000002</v>
+      </c>
+      <c r="C26">
+        <v>1.8247</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>1.8047</v>
+      </c>
+      <c r="G26" t="str">
+        <f>_xll.RtGet("IDN","USD2X5F=","GV4_TEXT")</f>
+        <v>2X5</v>
+      </c>
+      <c r="H26">
+        <f>_xll.RtGet("IDN","USD2X5F=","PRIMACT_1")</f>
+        <v>1.7670000000000001</v>
+      </c>
+      <c r="I26">
+        <f>_xll.RtGet("IDN","USD2X5F=","SEC_ACT_1")</f>
+        <v>1.8069999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B27">
+        <v>1.7231000000000001</v>
+      </c>
+      <c r="C27">
+        <v>1.7631000000000001</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>1.7431000000000001</v>
+      </c>
+      <c r="G27" t="str">
+        <f>_xll.RtGet("IDN","USD3X6F=","GV4_TEXT")</f>
+        <v>3X6</v>
+      </c>
+      <c r="H27">
+        <f>_xll.RtGet("IDN","USD3X6F=","PRIMACT_1")</f>
+        <v>1.7070000000000001</v>
+      </c>
+      <c r="I27">
+        <f>_xll.RtGet("IDN","USD3X6F=","SEC_ACT_1")</f>
+        <v>1.7470000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>1.6799000000000002</v>
+      </c>
+      <c r="C28">
+        <v>1.7199</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>1.6999</v>
+      </c>
+      <c r="G28" t="str">
+        <f>_xll.RtGet("IDN","USD4X7F=","GV4_TEXT")</f>
+        <v>4X7</v>
+      </c>
+      <c r="H28">
+        <f>_xll.RtGet("IDN","USD4X7F=","PRIMACT_1")</f>
+        <v>1.6673</v>
+      </c>
+      <c r="I28">
+        <f>_xll.RtGet("IDN","USD4X7F=","SEC_ACT_1")</f>
+        <v>1.7073</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29">
+        <v>1.6441000000000001</v>
+      </c>
+      <c r="C29">
+        <v>1.6841000000000002</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>1.6641000000000001</v>
+      </c>
+      <c r="G29" t="str">
+        <f>_xll.RtGet("IDN","USD5X8F=","GV4_TEXT")</f>
+        <v>5X8</v>
+      </c>
+      <c r="H29">
+        <f>_xll.RtGet("IDN","USD5X8F=","PRIMACT_1")</f>
+        <v>1.629</v>
+      </c>
+      <c r="I29">
+        <f>_xll.RtGet("IDN","USD5X8F=","SEC_ACT_1")</f>
+        <v>1.669</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>54</v>
+      </c>
+      <c r="B30">
+        <v>1.6106</v>
+      </c>
+      <c r="C30">
+        <v>1.6506000000000001</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>1.6306</v>
+      </c>
+      <c r="G30" t="str">
+        <f>_xll.RtGet("IDN","USD6X9F=","GV4_TEXT")</f>
+        <v>6X9</v>
+      </c>
+      <c r="H30">
+        <f>_xll.RtGet("IDN","USD6X9F=","PRIMACT_1")</f>
+        <v>1.61</v>
+      </c>
+      <c r="I30">
+        <f>_xll.RtGet("IDN","USD6X9F=","SEC_ACT_1")</f>
+        <v>1.6300000000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31">
+        <v>1.5761000000000001</v>
+      </c>
+      <c r="C31">
+        <v>1.6161000000000001</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>1.5961000000000001</v>
+      </c>
+      <c r="G31" t="str">
+        <f>_xll.RtGet("IDN","USD7X10F=","GV4_TEXT")</f>
+        <v>7X10</v>
+      </c>
+      <c r="H31">
+        <f>_xll.RtGet("IDN","USD7X10F=","PRIMACT_1")</f>
+        <v>1.5662</v>
+      </c>
+      <c r="I31">
+        <f>_xll.RtGet("IDN","USD7X10F=","SEC_ACT_1")</f>
+        <v>1.6062000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32">
+        <v>1.5569999999999999</v>
+      </c>
+      <c r="C32">
+        <v>1.577</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>1.5669999999999999</v>
+      </c>
+      <c r="G32" t="str">
+        <f>_xll.RtGet("IDN","USD8X11F=","GV4_TEXT")</f>
+        <v>8X11</v>
+      </c>
+      <c r="H32">
+        <f>_xll.RtGet("IDN","USD8X11F=","PRIMACT_1")</f>
+        <v>1.548</v>
+      </c>
+      <c r="I32">
+        <f>_xll.RtGet("IDN","USD8X11F=","SEC_ACT_1")</f>
+        <v>1.5680000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33">
+        <v>1.5214000000000001</v>
+      </c>
+      <c r="C33">
+        <v>1.5614000000000001</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>1.5414000000000001</v>
+      </c>
+      <c r="G33" t="str">
+        <f>_xll.RtGet("IDN","USD9X12F=","GV4_TEXT")</f>
+        <v>9X12</v>
+      </c>
+      <c r="H33">
+        <f>_xll.RtGet("IDN","USD9X12F=","PRIMACT_1")</f>
+        <v>1.522</v>
+      </c>
+      <c r="I33">
+        <f>_xll.RtGet("IDN","USD9X12F=","SEC_ACT_1")</f>
+        <v>1.542</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>58</v>
+      </c>
+      <c r="B34">
+        <v>1.8565</v>
+      </c>
+      <c r="C34">
+        <v>1.9165000000000001</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>1.8865000000000001</v>
+      </c>
+      <c r="G34" t="str">
+        <f>_xll.RtGet("IDN","USD1X7F=","GV4_TEXT")</f>
+        <v>1X7</v>
+      </c>
+      <c r="H34">
+        <f>_xll.RtGet("IDN","USD1X7F=","PRIMACT_1")</f>
+        <v>1.8432000000000002</v>
+      </c>
+      <c r="I34">
+        <f>_xll.RtGet("IDN","USD1X7F=","SEC_ACT_1")</f>
+        <v>1.9032</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>59</v>
+      </c>
+      <c r="B35">
+        <v>1.7811000000000001</v>
+      </c>
+      <c r="C35">
+        <v>1.8411000000000002</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>1.8111000000000002</v>
+      </c>
+      <c r="G35" t="str">
+        <f>_xll.RtGet("IDN","USD2X8F=","GV4_TEXT")</f>
+        <v>2X8</v>
+      </c>
+      <c r="H35">
+        <f>_xll.RtGet("IDN","USD2X8F=","PRIMACT_1")</f>
+        <v>1.784</v>
+      </c>
+      <c r="I35">
+        <f>_xll.RtGet("IDN","USD2X8F=","SEC_ACT_1")</f>
+        <v>1.8240000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36">
+        <v>1.7257</v>
+      </c>
+      <c r="C36">
+        <v>1.7857000000000001</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>1.7557</v>
+      </c>
+      <c r="G36" t="str">
+        <f>_xll.RtGet("IDN","USD3X9F=","GV4_TEXT")</f>
+        <v>3X9</v>
+      </c>
+      <c r="H36">
+        <f>_xll.RtGet("IDN","USD3X9F=","PRIMACT_1")</f>
+        <v>1.73</v>
+      </c>
+      <c r="I36">
+        <f>_xll.RtGet("IDN","USD3X9F=","SEC_ACT_1")</f>
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37">
+        <v>1.7</v>
+      </c>
+      <c r="C37">
+        <v>1.72</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>1.71</v>
+      </c>
+      <c r="G37" t="str">
+        <f>_xll.RtGet("IDN","USD4X10F=","GV4_TEXT")</f>
+        <v>4X10</v>
+      </c>
+      <c r="H37">
+        <f>_xll.RtGet("IDN","USD4X10F=","PRIMACT_1")</f>
+        <v>1.671</v>
+      </c>
+      <c r="I37">
+        <f>_xll.RtGet("IDN","USD4X10F=","SEC_ACT_1")</f>
+        <v>1.7110000000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>62</v>
+      </c>
+      <c r="B38">
+        <v>1.659</v>
+      </c>
+      <c r="C38">
+        <v>1.6990000000000001</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>1.679</v>
+      </c>
+      <c r="G38" t="str">
+        <f>_xll.RtGet("IDN","USD5X11F=","GV4_TEXT")</f>
+        <v>5X11</v>
+      </c>
+      <c r="H38">
+        <f>_xll.RtGet("IDN","USD5X11F=","PRIMACT_1")</f>
+        <v>1.649</v>
+      </c>
+      <c r="I38">
+        <f>_xll.RtGet("IDN","USD5X11F=","SEC_ACT_1")</f>
+        <v>1.6890000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>63</v>
+      </c>
+      <c r="B39">
+        <v>1.621</v>
+      </c>
+      <c r="C39">
+        <v>1.671</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>1.6459999999999999</v>
+      </c>
+      <c r="G39" t="str">
+        <f>_xll.RtGet("IDN","USD6X12F=","GV4_TEXT")</f>
+        <v>6X12</v>
+      </c>
+      <c r="H39">
+        <f>_xll.RtGet("IDN","USD6X12F=","PRIMACT_1")</f>
+        <v>1.619</v>
+      </c>
+      <c r="I39">
+        <f>_xll.RtGet("IDN","USD6X12F=","SEC_ACT_1")</f>
+        <v>1.659</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40">
+        <v>1.569</v>
+      </c>
+      <c r="C40">
+        <v>1.609</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>1.589</v>
+      </c>
+      <c r="G40" t="str">
+        <f>_xll.RtGet("IDN","USD9X15F=","GV4_TEXT")</f>
+        <v>9X15</v>
+      </c>
+      <c r="H40">
+        <f>_xll.RtGet("IDN","USD9X15F=","PRIMACT_1")</f>
+        <v>1.5609999999999999</v>
+      </c>
+      <c r="I40">
+        <f>_xll.RtGet("IDN","USD9X15F=","SEC_ACT_1")</f>
+        <v>1.601</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>68</v>
+      </c>
+      <c r="B41">
+        <v>1.524</v>
+      </c>
+      <c r="C41">
+        <v>1.5640000000000001</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>1.544</v>
+      </c>
+      <c r="G41" t="str">
+        <f>_xll.RtGet("IDN","USD12X18F=","GV4_TEXT")</f>
+        <v>12X18</v>
+      </c>
+      <c r="H41">
+        <f>_xll.RtGet("IDN","USD12X18F=","PRIMACT_1")</f>
+        <v>1.5230000000000001</v>
+      </c>
+      <c r="I41">
+        <f>_xll.RtGet("IDN","USD12X18F=","SEC_ACT_1")</f>
+        <v>1.5630000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B42">
+        <v>1.4911000000000001</v>
+      </c>
+      <c r="C42">
+        <v>1.5311000000000001</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>1.5111000000000001</v>
+      </c>
+      <c r="G42" t="str">
+        <f>_xll.RtGet("IDN","USD12X15F=","GV4_TEXT")</f>
+        <v>12X15</v>
+      </c>
+      <c r="H42">
+        <f>_xll.RtGet("IDN","USD12X15F=","PRIMACT_1")</f>
+        <v>1.488</v>
+      </c>
+      <c r="I42">
+        <f>_xll.RtGet("IDN","USD12X15F=","SEC_ACT_1")</f>
+        <v>1.528</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43">
+        <v>1.4266000000000001</v>
+      </c>
+      <c r="C43">
+        <v>1.4666000000000001</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>1.4466000000000001</v>
+      </c>
+      <c r="G43" t="str">
+        <f>_xll.RtGet("IDN","USD15X18F=","GV4_TEXT")</f>
+        <v>15X18</v>
+      </c>
+      <c r="H43">
+        <f>_xll.RtGet("IDN","USD15X18F=","PRIMACT_1")</f>
+        <v>1.4198000000000002</v>
+      </c>
+      <c r="I43">
+        <f>_xll.RtGet("IDN","USD15X18F=","SEC_ACT_1")</f>
+        <v>1.4598</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44">
+        <v>1.407</v>
+      </c>
+      <c r="C44">
+        <v>1.427</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>1.417</v>
+      </c>
+      <c r="G44" t="str">
+        <f>_xll.RtGet("IDN","USD18X21F=","GV4_TEXT")</f>
+        <v>18X21</v>
+      </c>
+      <c r="H44">
+        <f>_xll.RtGet("IDN","USD18X21F=","PRIMACT_1")</f>
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="I44">
+        <f>_xll.RtGet("IDN","USD18X21F=","SEC_ACT_1")</f>
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45">
+        <v>1.4630000000000001</v>
+      </c>
+      <c r="C45">
+        <v>1.5030000000000001</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>1.4830000000000001</v>
+      </c>
+      <c r="G45" t="str">
+        <f>_xll.RtGet("IDN","USD18X24F=","GV4_TEXT")</f>
+        <v>18X24</v>
+      </c>
+      <c r="H45">
+        <f>_xll.RtGet("IDN","USD18X24F=","PRIMACT_1")</f>
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="I45">
+        <f>_xll.RtGet("IDN","USD18X24F=","SEC_ACT_1")</f>
+        <v>1.4950000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1708,11 +8627,11 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
-        <v>43789</v>
+        <v>43795</v>
       </c>
       <c r="E1" s="4">
         <f ca="1">TODAY()</f>
-        <v>43789</v>
+        <v>43795</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1720,14 +8639,14 @@
         <v>19</v>
       </c>
       <c r="B2">
-        <v>4.2890000000000006</v>
+        <v>4.3029999999999999</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="2">
         <f>_xll.RtGet("IDN","EURPLN=D3","PRIMACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>4.3016000000000005</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -1735,14 +8654,14 @@
         <v>20</v>
       </c>
       <c r="B3">
-        <v>3.8718000000000004</v>
+        <v>3.9073000000000002</v>
       </c>
       <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="2">
         <f>_xll.RtGet("IDN","PLN=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>3.9026000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -1750,14 +8669,14 @@
         <v>21</v>
       </c>
       <c r="B4">
-        <v>1.1080000000000001</v>
+        <v>1.1015000000000001</v>
       </c>
       <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2" t="str">
+      <c r="F4" s="2">
         <f>_xll.RtGet("IDN","EUR=","SEC_ACT_1")</f>
-        <v>#N/A Not Signed In</v>
+        <v>1.1025</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">

--- a/media/market_data.xlsx
+++ b/media/market_data.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="5415"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22890" windowHeight="5415" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PLN curve" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="93">
   <si>
     <t>1M</t>
   </si>
@@ -270,6 +270,36 @@
   <si>
     <t>MID</t>
   </si>
+  <si>
+    <t>EUR PLN Forward Points</t>
+  </si>
+  <si>
+    <t>SN</t>
+  </si>
+  <si>
+    <t>1W</t>
+  </si>
+  <si>
+    <t>3W</t>
+  </si>
+  <si>
+    <t>2M</t>
+  </si>
+  <si>
+    <t>4M</t>
+  </si>
+  <si>
+    <t>5M</t>
+  </si>
+  <si>
+    <t>Tenor</t>
+  </si>
+  <si>
+    <t>PLN Basis Swap 3m EURIB</t>
+  </si>
+  <si>
+    <t>USD PLN Forward Points</t>
+  </si>
 </sst>
 </file>
 
@@ -279,7 +309,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -287,6 +317,12 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -306,8 +342,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -316,8 +353,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny 4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -334,7 +372,7 @@
   <volType type="realTimeData">
     <main first="pldatasource.rtgetrtdserver">
       <tp>
-        <v>1.59</v>
+        <v>1.6</v>
         <stp/>
         <stp xml:space="preserve">
 WIPLNTND=X	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -348,7 +386,7 @@
         <tr r="I5" s="6"/>
       </tp>
       <tp>
-        <v>1.59</v>
+        <v>1.6</v>
         <stp/>
         <stp xml:space="preserve">
 WIPLNOND=X	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -366,8 +404,8 @@
         <stp/>
         <stp xml:space="preserve">
 WIPLN6MD=X	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="F4" s="1"/>
         <tr r="I9" s="6"/>
-        <tr r="F4" s="1"/>
       </tp>
       <tp>
         <v>1.6</v>
@@ -381,16 +419,16 @@
         <stp/>
         <stp xml:space="preserve">
 WIPLN3MD=X	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="F3" s="1"/>
         <tr r="I8" s="6"/>
-        <tr r="F3" s="1"/>
       </tp>
       <tp>
         <v>1.6300000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 WIPLN1MD=X	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="F2" s="1"/>
         <tr r="I7" s="6"/>
-        <tr r="F2" s="1"/>
       </tp>
       <tp>
         <v>1.84</v>
@@ -407,70 +445,70 @@
         <tr r="I46" s="7"/>
       </tp>
       <tp>
-        <v>-0.34300000000000003</v>
+        <v>-0.34</v>
         <stp/>
         <stp xml:space="preserve">
 EUR12X18F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I58" s="7"/>
       </tp>
       <tp>
-        <v>1.4598</v>
+        <v>1.474</v>
         <stp/>
         <stp xml:space="preserve">
 USD15X18F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I43" s="8"/>
       </tp>
       <tp>
-        <v>1.6862500000000002</v>
+        <v>1.6819999999999999</v>
         <stp/>
         <stp xml:space="preserve">
 PLN12X18F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I67" s="6"/>
       </tp>
       <tp>
-        <v>1.5598800000000002</v>
+        <v>1.5649999999999999</v>
         <stp/>
         <stp xml:space="preserve">
 PLN15X18F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I64" s="6"/>
       </tp>
       <tp>
-        <v>1.5630000000000002</v>
+        <v>1.5840000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USD12X18F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I41" s="8"/>
       </tp>
       <tp>
-        <v>1.5230000000000001</v>
+        <v>1.544</v>
         <stp/>
         <stp xml:space="preserve">
 USD12X18F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H41" s="8"/>
       </tp>
       <tp>
-        <v>1.5098800000000001</v>
+        <v>1.5050000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 PLN15X18F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H64" s="6"/>
       </tp>
       <tp>
-        <v>1.6262500000000002</v>
+        <v>1.6220000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 PLN12X18F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H67" s="6"/>
       </tp>
       <tp>
-        <v>1.4198000000000002</v>
+        <v>1.454</v>
         <stp/>
         <stp xml:space="preserve">
 USD15X18F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H43" s="8"/>
       </tp>
       <tp>
-        <v>-0.35299999999999998</v>
+        <v>-0.36</v>
         <stp/>
         <stp xml:space="preserve">
 EUR12X18F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -547,16 +585,16 @@
         <tr r="H10" s="6"/>
       </tp>
       <tp>
-        <v>1.1025</v>
+        <v>1.1003000000000001</v>
         <stp/>
         <stp>_x0004_EUR=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="F4" s="3"/>
-      </tp>
-      <tp>
-        <v>3.9026000000000001</v>
+        <tr r="H4" s="3"/>
+      </tp>
+      <tp>
+        <v>3.919</v>
         <stp/>
         <stp>_x0004_PLN=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="F3" s="3"/>
+        <tr r="H3" s="3"/>
       </tp>
       <tp>
         <v>-0.38</v>
@@ -566,35 +604,35 @@
         <tr r="I47" s="7"/>
       </tp>
       <tp>
-        <v>1.5427200000000001</v>
+        <v>1.5150000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 PLN18X21F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I65" s="6"/>
       </tp>
       <tp>
-        <v>1.42</v>
+        <v>1.4450000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USD18X21F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I44" s="8"/>
       </tp>
       <tp>
-        <v>1.5970000000000002</v>
+        <v>1.5981300000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USDSWFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H5" s="8"/>
       </tp>
       <tp>
-        <v>1.4000000000000001</v>
+        <v>1.425</v>
         <stp/>
         <stp xml:space="preserve">
 USD18X21F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H44" s="8"/>
       </tp>
       <tp>
-        <v>1.49272</v>
+        <v>1.4550000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 PLN18X21F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -608,56 +646,56 @@
         <tr r="H47" s="7"/>
       </tp>
       <tp>
-        <v>-0.40200000000000002</v>
+        <v>-0.42</v>
         <stp/>
         <stp xml:space="preserve">
 EUR12X15F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I45" s="7"/>
       </tp>
       <tp>
-        <v>1.5990900000000001</v>
+        <v>1.615</v>
         <stp/>
         <stp xml:space="preserve">
 PLN12X15F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I63" s="6"/>
       </tp>
       <tp>
-        <v>1.528</v>
+        <v>1.5511000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USD12X15F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I42" s="8"/>
       </tp>
       <tp>
-        <v>-0.311</v>
+        <v>-0.32</v>
         <stp/>
         <stp xml:space="preserve">
 EUR18X24F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I59" s="7"/>
       </tp>
       <tp>
-        <v>-0.25600000000000001</v>
+        <v>-0.25</v>
         <stp/>
         <stp xml:space="preserve">
 EUR12X24F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I61" s="7"/>
       </tp>
       <tp>
-        <v>1.4884000000000002</v>
+        <v>1.405</v>
         <stp/>
         <stp xml:space="preserve">
 PLN21X24F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H66" s="6"/>
       </tp>
       <tp>
-        <v>1.6283200000000002</v>
+        <v>1.583</v>
         <stp/>
         <stp xml:space="preserve">
 PLN18X24F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I68" s="6"/>
       </tp>
       <tp>
-        <v>1.4950000000000001</v>
+        <v>1.5130000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USD18X24F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -671,14 +709,14 @@
         <tr r="H48" s="7"/>
       </tp>
       <tp>
-        <v>1.4550000000000001</v>
+        <v>1.4730000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USD18X24F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H45" s="8"/>
       </tp>
       <tp>
-        <v>1.5683200000000002</v>
+        <v>1.5230000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 PLN18X24F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -692,49 +730,49 @@
         <tr r="I48" s="7"/>
       </tp>
       <tp>
-        <v>-0.33100000000000002</v>
+        <v>-0.34</v>
         <stp/>
         <stp xml:space="preserve">
 EUR18X24F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H59" s="7"/>
       </tp>
       <tp>
-        <v>1.5384</v>
+        <v>1.4650000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 PLN21X24F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I66" s="6"/>
       </tp>
       <tp>
-        <v>-0.26600000000000001</v>
+        <v>-0.27</v>
         <stp/>
         <stp xml:space="preserve">
 EUR12X24F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H61" s="7"/>
       </tp>
       <tp>
-        <v>1.488</v>
+        <v>1.5111000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USD12X15F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H42" s="8"/>
       </tp>
       <tp>
-        <v>1.5490900000000001</v>
+        <v>1.5549999999999999</v>
         <stp/>
         <stp xml:space="preserve">
 PLN12X15F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H63" s="6"/>
       </tp>
       <tp>
-        <v>-0.45200000000000001</v>
+        <v>-0.44</v>
         <stp/>
         <stp xml:space="preserve">
 EUR12X15F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H45" s="7"/>
       </tp>
       <tp>
-        <v>1.5361300000000002</v>
+        <v>1.538</v>
         <stp/>
         <stp xml:space="preserve">
 USDONFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -747,59 +785,95 @@
         <tr r="H5" s="7"/>
       </tp>
       <tp>
-        <v>1.7244800000000002</v>
+        <v>-1.1500000000000001</v>
+        <stp/>
+        <stp>_x0006_PLNON=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H39" s="3"/>
+      </tp>
+      <tp>
+        <v>-0.15</v>
+        <stp/>
+        <stp>_x0006_PLNON=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I39" s="3"/>
+      </tp>
+      <tp>
+        <v>1.73</v>
         <stp/>
         <stp>_x0008_PLN4X7F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I51" s="6"/>
       </tp>
       <tp>
-        <v>1.7073</v>
+        <v>1.72</v>
         <stp/>
         <stp>_x0008_USD4X7F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I28" s="8"/>
       </tp>
       <tp>
-        <v>-0.4</v>
+        <v>-0.40200000000000002</v>
         <stp/>
         <stp>_x0008_EUR4X7F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I39" s="7"/>
       </tp>
       <tp>
-        <v>1.7188000000000001</v>
+        <v>1.71</v>
         <stp/>
         <stp>_x0008_PLN5X8F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I52" s="6"/>
       </tp>
       <tp>
-        <v>1.669</v>
+        <v>1.6900000000000002</v>
         <stp/>
         <stp>_x0008_USD5X8F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I29" s="8"/>
       </tp>
       <tp>
-        <v>-0.40300000000000002</v>
+        <v>-0.4</v>
         <stp/>
         <stp>_x0008_EUR5X8F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I40" s="7"/>
       </tp>
       <tp>
-        <v>1.7143000000000002</v>
+        <v>-0.01</v>
+        <stp/>
+        <stp>_x0006_PLNSW=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H42" s="3"/>
+      </tp>
+      <tp>
+        <v>0.24</v>
+        <stp/>
+        <stp>_x0006_PLNSN=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H41" s="3"/>
+      </tp>
+      <tp>
+        <v>1.69</v>
         <stp/>
         <stp>_x0008_PLN6X9F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I53" s="6"/>
       </tp>
       <tp>
-        <v>1.6300000000000001</v>
+        <v>1.6596000000000002</v>
         <stp/>
         <stp>_x0008_USD6X9F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I30" s="8"/>
       </tp>
       <tp>
-        <v>-0.40700000000000003</v>
+        <v>-0.40400000000000003</v>
         <stp/>
         <stp>_x0008_EUR6X9F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I41" s="7"/>
       </tp>
+      <tp>
+        <v>0.39</v>
+        <stp/>
+        <stp>_x0006_PLNSN=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I41" s="3"/>
+      </tp>
+      <tp>
+        <v>1.49</v>
+        <stp/>
+        <stp>_x0006_PLNSW=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I42" s="3"/>
+      </tp>
       <tp t="s">
         <v>SW</v>
         <stp/>
@@ -807,55 +881,61 @@
         <tr r="G5" s="7"/>
       </tp>
       <tp>
-        <v>1.6600000000000001</v>
+        <v>1.67</v>
         <stp/>
         <stp>_x0008_PLN1X2F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I46" s="6"/>
       </tp>
       <tp>
-        <v>1.73533</v>
+        <v>1.74</v>
         <stp/>
         <stp>_x0008_PLN1X4F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I48" s="6"/>
       </tp>
       <tp>
-        <v>1.8194800000000002</v>
+        <v>1.8160000000000001</v>
         <stp/>
         <stp>_x0008_PLN1X7F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I57" s="6"/>
       </tp>
       <tp>
-        <v>1.9032</v>
+        <v>1.9121000000000001</v>
         <stp/>
         <stp>_x0008_USD1X7F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I34" s="8"/>
       </tp>
       <tp>
-        <v>1.891</v>
+        <v>1.8934000000000002</v>
         <stp/>
         <stp>_x0008_USD1X4F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I25" s="8"/>
       </tp>
       <tp>
-        <v>-0.39</v>
+        <v>-0.38200000000000001</v>
         <stp/>
         <stp>_x0008_EUR1X4F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I36" s="7"/>
       </tp>
       <tp>
-        <v>-0.32</v>
+        <v>-0.32200000000000001</v>
         <stp/>
         <stp>_x0008_EUR1X7F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I49" s="7"/>
       </tp>
       <tp>
-        <v>1.6600000000000001</v>
+        <v>0.77</v>
+        <stp/>
+        <stp>_x0006_PLNTN=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I40" s="3"/>
+      </tp>
+      <tp>
+        <v>1.67</v>
         <stp/>
         <stp>_x0008_PLN2X3F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I47" s="6"/>
       </tp>
       <tp>
-        <v>1.7336300000000002</v>
+        <v>1.7390000000000001</v>
         <stp/>
         <stp>_x0008_PLN2X5F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I49" s="6"/>
@@ -867,31 +947,37 @@
         <tr r="I58" s="6"/>
       </tp>
       <tp>
-        <v>1.8240000000000001</v>
+        <v>1.84</v>
         <stp/>
         <stp>_x0008_USD2X8F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I35" s="8"/>
       </tp>
       <tp>
-        <v>1.8069999999999999</v>
+        <v>1.8165</v>
         <stp/>
         <stp>_x0008_USD2X5F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I26" s="8"/>
       </tp>
       <tp>
-        <v>-0.31</v>
+        <v>-0.32</v>
         <stp/>
         <stp>_x0008_EUR2X8F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I50" s="7"/>
       </tp>
       <tp>
-        <v>-0.38</v>
+        <v>-0.38900000000000001</v>
         <stp/>
         <stp>_x0008_EUR2X5F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I37" s="7"/>
       </tp>
       <tp>
-        <v>1.7322600000000001</v>
+        <v>0.48</v>
+        <stp/>
+        <stp>_x0006_PLNTN=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H40" s="3"/>
+      </tp>
+      <tp>
+        <v>1.73</v>
         <stp/>
         <stp>_x0008_PLN3X6F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I50" s="6"/>
@@ -903,103 +989,103 @@
         <tr r="I59" s="6"/>
       </tp>
       <tp>
-        <v>1.77</v>
+        <v>1.7884</v>
         <stp/>
         <stp>_x0008_USD3X9F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I36" s="8"/>
       </tp>
       <tp>
-        <v>1.7470000000000001</v>
+        <v>1.7594000000000001</v>
         <stp/>
         <stp>_x0008_USD3X6F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I27" s="8"/>
       </tp>
       <tp>
-        <v>-0.32900000000000001</v>
+        <v>-0.33</v>
         <stp/>
         <stp>_x0008_EUR3X9F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I52" s="7"/>
       </tp>
       <tp>
-        <v>-0.39</v>
+        <v>-0.39500000000000002</v>
         <stp/>
         <stp>_x0008_EUR3X6F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I38" s="7"/>
       </tp>
       <tp>
-        <v>-0.41699999999999998</v>
+        <v>-0.42399999999999999</v>
         <stp/>
         <stp>_x0008_EUR6X9F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H41" s="7"/>
       </tp>
       <tp>
-        <v>1.6643000000000001</v>
+        <v>1.6500000000000001</v>
         <stp/>
         <stp>_x0008_PLN6X9F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H53" s="6"/>
       </tp>
       <tp>
-        <v>1.61</v>
+        <v>1.6196000000000002</v>
         <stp/>
         <stp>_x0008_USD6X9F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H30" s="8"/>
       </tp>
       <tp>
-        <v>-0.42</v>
+        <v>-0.42199999999999999</v>
         <stp/>
         <stp>_x0008_EUR4X7F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H39" s="7"/>
       </tp>
       <tp>
-        <v>1.6744800000000002</v>
+        <v>1.68</v>
         <stp/>
         <stp>_x0008_PLN4X7F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H51" s="6"/>
       </tp>
       <tp>
-        <v>1.6673</v>
+        <v>1.68</v>
         <stp/>
         <stp>_x0008_USD4X7F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H28" s="8"/>
       </tp>
       <tp>
-        <v>-0.41300000000000003</v>
+        <v>-0.42</v>
         <stp/>
         <stp>_x0008_EUR5X8F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H40" s="7"/>
       </tp>
       <tp>
-        <v>1.6688000000000001</v>
+        <v>1.6600000000000001</v>
         <stp/>
         <stp>_x0008_PLN5X8F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H52" s="6"/>
       </tp>
       <tp>
-        <v>1.629</v>
+        <v>1.6500000000000001</v>
         <stp/>
         <stp>_x0008_USD5X8F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H29" s="8"/>
       </tp>
       <tp>
-        <v>-0.35000000000000003</v>
+        <v>-0.34</v>
         <stp/>
         <stp>_x0008_EUR2X8F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H50" s="7"/>
       </tp>
       <tp>
-        <v>-0.4</v>
+        <v>-0.40900000000000003</v>
         <stp/>
         <stp>_x0008_EUR2X5F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H37" s="7"/>
       </tp>
       <tp>
-        <v>1.62</v>
+        <v>1.61</v>
         <stp/>
         <stp>_x0008_PLN2X3F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H47" s="6"/>
       </tp>
       <tp>
-        <v>1.6836300000000002</v>
+        <v>1.679</v>
         <stp/>
         <stp>_x0008_PLN2X5F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H49" s="6"/>
@@ -1011,31 +1097,31 @@
         <tr r="H58" s="6"/>
       </tp>
       <tp>
-        <v>1.784</v>
+        <v>1.78</v>
         <stp/>
         <stp>_x0008_USD2X8F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H35" s="8"/>
       </tp>
       <tp>
-        <v>1.7670000000000001</v>
+        <v>1.7765000000000002</v>
         <stp/>
         <stp>_x0008_USD2X5F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H26" s="8"/>
       </tp>
       <tp>
-        <v>-0.33900000000000002</v>
+        <v>-0.35000000000000003</v>
         <stp/>
         <stp>_x0008_EUR3X9F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H52" s="7"/>
       </tp>
       <tp>
-        <v>-0.41000000000000003</v>
+        <v>-0.41500000000000004</v>
         <stp/>
         <stp>_x0008_EUR3X6F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H38" s="7"/>
       </tp>
       <tp>
-        <v>1.6822600000000001</v>
+        <v>1.69</v>
         <stp/>
         <stp>_x0008_PLN3X6F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H50" s="6"/>
@@ -1047,55 +1133,55 @@
         <tr r="H59" s="6"/>
       </tp>
       <tp>
-        <v>1.73</v>
+        <v>1.7284000000000002</v>
         <stp/>
         <stp>_x0008_USD3X9F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H36" s="8"/>
       </tp>
       <tp>
-        <v>1.7070000000000001</v>
+        <v>1.7194</v>
         <stp/>
         <stp>_x0008_USD3X6F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H27" s="8"/>
       </tp>
       <tp>
-        <v>-0.34</v>
+        <v>-0.34200000000000003</v>
         <stp/>
         <stp>_x0008_EUR1X7F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H49" s="7"/>
       </tp>
       <tp>
-        <v>-0.41000000000000003</v>
+        <v>-0.40200000000000002</v>
         <stp/>
         <stp>_x0008_EUR1X4F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H36" s="7"/>
       </tp>
       <tp>
-        <v>1.62</v>
+        <v>1.61</v>
         <stp/>
         <stp>_x0008_PLN1X2F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H46" s="6"/>
       </tp>
       <tp>
-        <v>1.7594800000000002</v>
+        <v>1.756</v>
         <stp/>
         <stp>_x0008_PLN1X7F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H57" s="6"/>
       </tp>
       <tp>
-        <v>1.6853300000000002</v>
+        <v>1.68</v>
         <stp/>
         <stp>_x0008_PLN1X4F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H48" s="6"/>
       </tp>
       <tp>
-        <v>1.851</v>
+        <v>1.8534000000000002</v>
         <stp/>
         <stp>_x0008_USD1X4F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H25" s="8"/>
       </tp>
       <tp>
-        <v>1.8432000000000002</v>
+        <v>1.8521000000000001</v>
         <stp/>
         <stp>_x0008_USD1X7F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H34" s="8"/>
@@ -1179,7 +1265,7 @@
         <tr r="G38" s="7"/>
       </tp>
       <tp>
-        <v>-0.39900000000000002</v>
+        <v>-0.4</v>
         <stp/>
         <stp>_x000B_EURIBOR3MD=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H7" s="7"/>
@@ -1245,13 +1331,13 @@
         <tr r="G36" s="7"/>
       </tp>
       <tp>
-        <v>-0.45100000000000001</v>
+        <v>-0.44800000000000001</v>
         <stp/>
         <stp>_x000B_EURIBOR1MD=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H6" s="7"/>
       </tp>
       <tp>
-        <v>-0.27900000000000003</v>
+        <v>-0.27800000000000002</v>
         <stp/>
         <stp>_x000B_EURIBOR1YD=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H9" s="7"/>
@@ -1305,7 +1391,7 @@
         <tr r="G41" s="7"/>
       </tp>
       <tp>
-        <v>-0.33800000000000002</v>
+        <v>-0.34200000000000003</v>
         <stp/>
         <stp>_x000B_EURIBOR6MD=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H8" s="7"/>
@@ -1347,7 +1433,7 @@
         <tr r="G40" s="7"/>
       </tp>
       <tp>
-        <v>1.9350000000000001</v>
+        <v>1.8980000000000001</v>
         <stp/>
         <stp>_x000B_PLNAB6W20Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H37" s="6"/>
@@ -1365,7 +1451,7 @@
         <tr r="G53" s="7"/>
       </tp>
       <tp>
-        <v>1.6120000000000001</v>
+        <v>1.645</v>
         <stp/>
         <stp>_x000B_USDAM3L10Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H22" s="8"/>
@@ -1377,31 +1463,31 @@
         <tr r="H23" s="6"/>
       </tp>
       <tp>
-        <v>1.6950000000000001</v>
+        <v>1.6580000000000001</v>
         <stp/>
         <stp>_x000B_PLNAB6W10Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H34" s="6"/>
       </tp>
       <tp>
-        <v>1.7250000000000001</v>
+        <v>1.6880000000000002</v>
         <stp/>
         <stp>_x000B_PLNAB6W12Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H35" s="6"/>
       </tp>
       <tp>
-        <v>1.8150000000000002</v>
+        <v>1.778</v>
         <stp/>
         <stp>_x000B_PLNAB6W15Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H36" s="6"/>
       </tp>
       <tp>
-        <v>-3.4000000000000002E-2</v>
+        <v>-2.4E-2</v>
         <stp/>
         <stp>_x000B_EURAB3E10Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H21" s="7"/>
       </tp>
       <tp>
-        <v>4.7E-2</v>
+        <v>4.6100000000000002E-2</v>
         <stp/>
         <stp>_x000B_EURAB6E10Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H33" s="7"/>
@@ -1490,6 +1576,48 @@
         <stp xml:space="preserve">	USD5X11F=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="G38" s="8"/>
       </tp>
+      <tp>
+        <v>1.78</v>
+        <stp/>
+        <stp>_x0006_PLN2Y=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H53" s="3"/>
+      </tp>
+      <tp>
+        <v>3.44</v>
+        <stp/>
+        <stp>_x0006_PLN1M=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I45" s="3"/>
+      </tp>
+      <tp>
+        <v>0.44</v>
+        <stp/>
+        <stp>_x0006_PLN2W=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H43" s="3"/>
+      </tp>
+      <tp>
+        <v>4.7300000000000004</v>
+        <stp/>
+        <stp>_x0006_PLN2M=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H46" s="3"/>
+      </tp>
+      <tp>
+        <v>38</v>
+        <stp/>
+        <stp>_x0006_PLN1Y=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I52" s="3"/>
+      </tp>
+      <tp>
+        <v>0.49</v>
+        <stp/>
+        <stp>_x0006_PLN3W=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H44" s="3"/>
+      </tp>
+      <tp>
+        <v>5</v>
+        <stp/>
+        <stp>_x0006_PLN3M=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H47" s="3"/>
+      </tp>
       <tp t="s">
         <v>1M</v>
         <stp/>
@@ -1502,12 +1630,90 @@
         <stp>_x000B_EURIBOR1YD=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="G9" s="7"/>
       </tp>
+      <tp>
+        <v>9.1</v>
+        <stp/>
+        <stp>_x0006_PLN3M=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I47" s="3"/>
+      </tp>
+      <tp>
+        <v>2.74</v>
+        <stp/>
+        <stp>_x0006_PLN3W=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I44" s="3"/>
+      </tp>
+      <tp>
+        <v>26</v>
+        <stp/>
+        <stp>_x0010_PL3WEU3E15Y=BHWW	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H34" s="3"/>
+      </tp>
+      <tp>
+        <v>24</v>
+        <stp/>
+        <stp>_x0010_PL3WEU3E10Y=BHWW	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H33" s="3"/>
+      </tp>
+      <tp>
+        <v>-2</v>
+        <stp/>
+        <stp>_x0006_PLN1Y=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H52" s="3"/>
+      </tp>
+      <tp>
+        <v>6.83</v>
+        <stp/>
+        <stp>_x0006_PLN2M=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I46" s="3"/>
+      </tp>
+      <tp>
+        <v>1.72</v>
+        <stp/>
+        <stp>_x0006_PLN2W=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I43" s="3"/>
+      </tp>
+      <tp>
+        <v>1.19</v>
+        <stp/>
+        <stp>_x0006_PLN1M=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H45" s="3"/>
+      </tp>
+      <tp>
+        <v>125.58</v>
+        <stp/>
+        <stp>_x0006_PLN2Y=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I53" s="3"/>
+      </tp>
       <tp t="s">
         <v>3M</v>
         <stp/>
         <stp>_x000B_EURIBOR3MD=_x0008_GV4_TEXT_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="G7" s="7"/>
       </tp>
+      <tp>
+        <v>12.02</v>
+        <stp/>
+        <stp>_x0006_PLN5M=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I49" s="3"/>
+      </tp>
+      <tp>
+        <v>14</v>
+        <stp/>
+        <stp>_x0006_PLN6M=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H50" s="3"/>
+      </tp>
+      <tp>
+        <v>9.75</v>
+        <stp/>
+        <stp>_x0006_PLN4M=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I48" s="3"/>
+      </tp>
+      <tp>
+        <v>5.25</v>
+        <stp/>
+        <stp>_x0006_PLN4M=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H48" s="3"/>
+      </tp>
       <tp t="s">
         <v>6M</v>
         <stp/>
@@ -1515,33 +1721,51 @@
         <tr r="G8" s="7"/>
       </tp>
       <tp>
-        <v>1.6520000000000001</v>
+        <v>22</v>
+        <stp/>
+        <stp>_x0006_PLN6M=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I50" s="3"/>
+      </tp>
+      <tp>
+        <v>7.22</v>
+        <stp/>
+        <stp>_x0006_PLN5M=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H49" s="3"/>
+      </tp>
+      <tp>
+        <v>21.6</v>
+        <stp/>
+        <stp>_x0006_PLN9M=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I51" s="3"/>
+      </tp>
+      <tp>
+        <v>1.6850000000000001</v>
         <stp/>
         <stp>_x000B_USDAM3L10Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F14" s="5"/>
         <tr r="I22" s="8"/>
       </tp>
       <tp>
-        <v>1.6900000000000002</v>
+        <v>1.732</v>
         <stp/>
         <stp>_x000B_USDAM3L12Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F15" s="5"/>
       </tp>
       <tp>
-        <v>1.754</v>
+        <v>1.7830000000000001</v>
         <stp/>
         <stp>_x000B_USDAM3L15Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F16" s="5"/>
       </tp>
       <tp>
-        <v>1.7650000000000001</v>
+        <v>1.728</v>
         <stp/>
         <stp>_x000B_PLNAB6W12Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F15" s="1"/>
         <tr r="I35" s="6"/>
       </tp>
       <tp>
-        <v>1.7350000000000001</v>
+        <v>1.6980000000000002</v>
         <stp/>
         <stp>_x000B_PLNAB6W10Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I34" s="6"/>
@@ -1550,41 +1774,53 @@
         <v>1.75</v>
         <stp/>
         <stp>_x000B_PLNAB3W10Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="F14" s="1"/>
         <tr r="I23" s="6"/>
-        <tr r="F14" s="1"/>
-      </tp>
-      <tp>
-        <v>1.855</v>
+      </tp>
+      <tp>
+        <v>1.8170000000000002</v>
         <stp/>
         <stp>_x000B_PLNAB6W15Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F16" s="1"/>
         <tr r="I36" s="6"/>
       </tp>
       <tp>
-        <v>0.30660000000000004</v>
+        <v>0.29770000000000002</v>
         <stp/>
         <stp>_x000B_EURAB6E15Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F16" s="2"/>
       </tp>
       <tp>
-        <v>0.1671</v>
+        <v>0.161</v>
         <stp/>
         <stp>_x000B_EURAB6E12Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F15" s="2"/>
       </tp>
       <tp>
-        <v>5.7000000000000002E-2</v>
+        <v>6.6100000000000006E-2</v>
         <stp/>
         <stp>_x000B_EURAB6E10Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F14" s="2"/>
         <tr r="I33" s="7"/>
       </tp>
       <tp>
-        <v>6.0000000000000001E-3</v>
+        <v>-1.9E-2</v>
         <stp/>
         <stp>_x000B_EURAB3E10Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I21" s="7"/>
       </tp>
+      <tp>
+        <v>32</v>
+        <stp/>
+        <stp>_x0010_PL3WEU3E15Y=BHWW	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I34" s="3"/>
+      </tp>
+      <tp>
+        <v>30</v>
+        <stp/>
+        <stp>_x0010_PL3WEU3E10Y=BHWW	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I33" s="3"/>
+      </tp>
       <tp t="s">
         <v xml:space="preserve">10Y   </v>
         <stp/>
@@ -1628,20 +1864,20 @@
         <tr r="G21" s="7"/>
       </tp>
       <tp>
-        <v>1.8090000000000002</v>
+        <v>1.8220000000000001</v>
         <stp/>
         <stp>_x000B_USDAM3L20Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F17" s="5"/>
       </tp>
       <tp>
-        <v>1.9750000000000001</v>
+        <v>1.9380000000000002</v>
         <stp/>
         <stp>_x000B_PLNAB6W20Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F17" s="1"/>
         <tr r="I37" s="6"/>
       </tp>
       <tp>
-        <v>0.43690000000000001</v>
+        <v>0.42470000000000002</v>
         <stp/>
         <stp>_x000B_EURAB6E20Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F17" s="2"/>
@@ -1653,83 +1889,203 @@
         <tr r="G37" s="6"/>
       </tp>
       <tp>
-        <v>1.8250000000000002</v>
+        <v>1.853</v>
         <stp/>
         <stp>_x000B_USDAM3L30Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F18" s="5"/>
       </tp>
       <tp>
-        <v>0.47490000000000004</v>
+        <v>0.45900000000000002</v>
         <stp/>
         <stp>_x000B_EURAB6E30Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F18" s="2"/>
       </tp>
       <tp>
-        <v>1.768</v>
+        <v>6.61</v>
+        <stp/>
+        <stp>_x0006_PLN9M=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H51" s="3"/>
+      </tp>
+      <tp>
+        <v>1.774</v>
         <stp/>
         <stp>_x000B_USDAM3L50Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F19" s="5"/>
       </tp>
       <tp>
-        <v>0.36410000000000003</v>
+        <v>0.34890000000000004</v>
         <stp/>
         <stp>_x000B_EURAB6E50Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F19" s="2"/>
       </tp>
       <tp>
-        <v>1.6995000000000002</v>
+        <v>1847.3400000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLN2Y=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H22" s="3"/>
+      </tp>
+      <tp>
+        <v>992.78</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLN1Y=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H21" s="3"/>
+      </tp>
+      <tp>
+        <v>1.7016300000000002</v>
         <stp/>
         <stp xml:space="preserve">
 USD1MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="F2" s="5"/>
         <tr r="H6" s="8"/>
-        <tr r="F2" s="5"/>
-      </tp>
-      <tp>
-        <v>1.9417500000000001</v>
+      </tp>
+      <tp>
+        <v>1.9416300000000002</v>
         <stp/>
         <stp xml:space="preserve">
 USD1YFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H10" s="8"/>
       </tp>
       <tp>
-        <v>-0.50286000000000008</v>
+        <v>-0.50114000000000003</v>
         <stp/>
         <stp xml:space="preserve">
 EUR1MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F2" s="2"/>
       </tp>
       <tp>
-        <v>1.9186300000000001</v>
+        <v>1.90863</v>
         <stp/>
         <stp xml:space="preserve">
 USD3MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="F3" s="5"/>
         <tr r="H8" s="8"/>
-        <tr r="F3" s="5"/>
-      </tp>
-      <tp>
-        <v>-0.44200000000000006</v>
+      </tp>
+      <tp>
+        <v>-0.43529000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 EUR3MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="F3" s="2"/>
       </tp>
       <tp>
-        <v>1.8420000000000001</v>
+        <v>1.8436300000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USD2MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H7" s="8"/>
       </tp>
       <tp>
-        <v>1.9191300000000002</v>
+        <v>796.2</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLN9M=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I20" s="3"/>
+      </tp>
+      <tp>
+        <v>526.25</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLN6M=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I19" s="3"/>
+      </tp>
+      <tp>
+        <v>88.8</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLN1M=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I14" s="3"/>
+      </tp>
+      <tp>
+        <v>276.78000000000003</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLN3M=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I16" s="3"/>
+      </tp>
+      <tp>
+        <v>201</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLN2M=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I15" s="3"/>
+      </tp>
+      <tp>
+        <v>36.53</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLN2W=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H12" s="3"/>
+      </tp>
+      <tp>
+        <v>56.19</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLN3W=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H13" s="3"/>
+      </tp>
+      <tp>
+        <v>17.61</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLNSW=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H11" s="3"/>
+      </tp>
+      <tp>
+        <v>5.056</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLNON=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I8" s="3"/>
+      </tp>
+      <tp>
+        <v>0.85</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLNTN=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I9" s="3"/>
+      </tp>
+      <tp>
+        <v>8.34</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLNSN=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I10" s="3"/>
+      </tp>
+      <tp>
+        <v>22</v>
+        <stp/>
+        <stp>_x000F_PL3WEU3E7Y=BHWW	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H32" s="3"/>
+      </tp>
+      <tp>
+        <v>19</v>
+        <stp/>
+        <stp>_x000F_PL3WEU3E4Y=BHWW	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H30" s="3"/>
+      </tp>
+      <tp>
+        <v>21</v>
+        <stp/>
+        <stp>_x000F_PL3WEU3E5Y=BHWW	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H31" s="3"/>
+      </tp>
+      <tp>
+        <v>15</v>
+        <stp/>
+        <stp>_x000F_PL3WEU3E2Y=BHWW	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H28" s="3"/>
+      </tp>
+      <tp>
+        <v>17</v>
+        <stp/>
+        <stp>_x000F_PL3WEU3E3Y=BHWW	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H29" s="3"/>
+      </tp>
+      <tp>
+        <v>13</v>
+        <stp/>
+        <stp>_x000F_PL3WEU3E1Y=BHWW	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H27" s="3"/>
+      </tp>
+      <tp>
+        <v>1.9142500000000002</v>
         <stp/>
         <stp xml:space="preserve">
 USD6MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="F4" s="5"/>
         <tr r="H9" s="8"/>
-        <tr r="F4" s="5"/>
-      </tp>
-      <tp>
-        <v>-0.39800000000000002</v>
+      </tp>
+      <tp>
+        <v>-0.39829000000000003</v>
         <stp/>
         <stp xml:space="preserve">
 EUR6MFSR=X	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1743,7 +2099,7 @@
         <tr r="I42" s="6"/>
       </tp>
       <tp>
-        <v>-4.8999999999999998E-3</v>
+        <v>-7.4000000000000003E-3</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E9Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1751,14 +2107,14 @@
         <tr r="I32" s="7"/>
       </tp>
       <tp>
-        <v>-7.2000000000000008E-2</v>
+        <v>-8.1000000000000003E-2</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB3E9Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I20" s="7"/>
       </tp>
       <tp>
-        <v>1.718</v>
+        <v>1.6780000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB6W9Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1769,11 +2125,11 @@
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W9Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="F13" s="1"/>
         <tr r="I22" s="6"/>
-        <tr r="F13" s="1"/>
-      </tp>
-      <tp>
-        <v>1.623</v>
+      </tp>
+      <tp>
+        <v>1.651</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L9Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1781,7 +2137,7 @@
         <tr r="I21" s="8"/>
       </tp>
       <tp>
-        <v>-6.4899999999999999E-2</v>
+        <v>-5.3100000000000001E-2</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E8Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1789,14 +2145,14 @@
         <tr r="I31" s="7"/>
       </tp>
       <tp>
-        <v>-0.13739999999999999</v>
+        <v>-0.14170000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB3E8Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I19" s="7"/>
       </tp>
       <tp>
-        <v>1.7100000000000002</v>
+        <v>1.6700000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB6W8Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1807,11 +2163,11 @@
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W8Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="F12" s="1"/>
         <tr r="I21" s="6"/>
-        <tr r="F12" s="1"/>
-      </tp>
-      <tp>
-        <v>1.5790000000000002</v>
+      </tp>
+      <tp>
+        <v>1.623</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L8Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1819,7 +2175,7 @@
         <tr r="I20" s="8"/>
       </tp>
       <tp>
-        <v>1.6800000000000002</v>
+        <v>1.6400000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB6W8Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1833,28 +2189,28 @@
         <tr r="H21" s="6"/>
       </tp>
       <tp>
-        <v>1.5738000000000001</v>
+        <v>1.5840000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L8Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H20" s="8"/>
       </tp>
       <tp>
-        <v>-6.8900000000000003E-2</v>
+        <v>-7.3099999999999998E-2</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E8Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H31" s="7"/>
       </tp>
       <tp>
-        <v>-0.1424</v>
+        <v>-0.1517</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB3E8Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H19" s="7"/>
       </tp>
       <tp>
-        <v>1.6880000000000002</v>
+        <v>1.6480000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB6W9Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1868,21 +2224,21 @@
         <tr r="H22" s="6"/>
       </tp>
       <tp>
-        <v>1.5830000000000002</v>
+        <v>1.611</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L9Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H21" s="8"/>
       </tp>
       <tp>
-        <v>-8.8999999999999999E-3</v>
+        <v>-1.7400000000000002E-2</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E9Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H32" s="7"/>
       </tp>
       <tp>
-        <v>-8.2000000000000003E-2</v>
+        <v>-8.6000000000000007E-2</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB3E9Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1896,7 +2252,85 @@
         <tr r="H42" s="6"/>
       </tp>
       <tp>
-        <v>-0.34129999999999999</v>
+        <v>4.056</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLNON=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H8" s="3"/>
+      </tp>
+      <tp>
+        <v>0.53</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLNTN=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H9" s="3"/>
+      </tp>
+      <tp>
+        <v>8.01</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLNSN=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H10" s="3"/>
+      </tp>
+      <tp>
+        <v>57.31</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLN3W=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I13" s="3"/>
+      </tp>
+      <tp>
+        <v>38.33</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLN2W=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I12" s="3"/>
+      </tp>
+      <tp>
+        <v>20.11</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLNSW=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I11" s="3"/>
+      </tp>
+      <tp>
+        <v>781.90000000000009</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLN9M=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H20" s="3"/>
+      </tp>
+      <tp>
+        <v>520.1</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLN6M=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H19" s="3"/>
+      </tp>
+      <tp>
+        <v>195.60000000000002</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLN2M=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H15" s="3"/>
+      </tp>
+      <tp>
+        <v>272.31</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLN3M=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H16" s="3"/>
+      </tp>
+      <tp>
+        <v>86.17</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLN1M=_x0003_BID_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="H14" s="3"/>
+      </tp>
+      <tp>
+        <v>1032.53</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLN1Y=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I21" s="3"/>
+      </tp>
+      <tp>
+        <v>2047.3400000000001</v>
+        <stp/>
+        <stp xml:space="preserve">	EURPLN2Y=_x0003_ASK_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I22" s="3"/>
+      </tp>
+      <tp>
+        <v>-0.34</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E1Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1904,14 +2338,14 @@
         <tr r="I24" s="7"/>
       </tp>
       <tp>
-        <v>-0.3957</v>
+        <v>-0.4</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB3E1Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I12" s="7"/>
       </tp>
       <tp>
-        <v>1.6920000000000002</v>
+        <v>1.6720000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB6W2Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1925,14 +2359,14 @@
         <tr r="H15" s="6"/>
       </tp>
       <tp>
-        <v>1.5610000000000002</v>
+        <v>1.5820000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L2Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H14" s="8"/>
       </tp>
       <tp>
-        <v>1.7100000000000002</v>
+        <v>1.7030000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W1Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1947,21 +2381,21 @@
         <tr r="I43" s="6"/>
       </tp>
       <tp>
-        <v>-0.35300000000000004</v>
+        <v>-0.35000000000000003</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E2Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H25" s="7"/>
       </tp>
       <tp>
-        <v>-0.4224</v>
+        <v>-0.42200000000000004</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB3E2Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H13" s="7"/>
       </tp>
       <tp>
-        <v>1.7310000000000001</v>
+        <v>1.7430000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L1Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1969,7 +2403,7 @@
         <tr r="I13" s="8"/>
       </tp>
       <tp>
-        <v>1.665</v>
+        <v>1.6320000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB6W3Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -1983,21 +2417,21 @@
         <tr r="H16" s="6"/>
       </tp>
       <tp>
-        <v>1.5279</v>
+        <v>1.538</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L3Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H15" s="8"/>
       </tp>
       <tp>
-        <v>-0.32800000000000001</v>
+        <v>-0.34590000000000004</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E3Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H26" s="7"/>
       </tp>
       <tp>
-        <v>-0.39980000000000004</v>
+        <v>-0.39900000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB3E3Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2018,7 +2452,7 @@
         <tr r="I40" s="6"/>
       </tp>
       <tp>
-        <v>-0.308</v>
+        <v>-0.2959</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E3Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2026,14 +2460,14 @@
         <tr r="I26" s="7"/>
       </tp>
       <tp>
-        <v>-0.38980000000000004</v>
+        <v>-0.39400000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB3E3Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I14" s="7"/>
       </tp>
       <tp>
-        <v>1.6950000000000001</v>
+        <v>1.663</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB6W3Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2044,11 +2478,11 @@
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W3Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="F7" s="1"/>
         <tr r="I16" s="6"/>
-        <tr r="F7" s="1"/>
-      </tp>
-      <tp>
-        <v>1.5330000000000001</v>
+      </tp>
+      <tp>
+        <v>1.5780000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L3Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2056,7 +2490,7 @@
         <tr r="I15" s="8"/>
       </tp>
       <tp>
-        <v>-0.33300000000000002</v>
+        <v>-0.34</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E2Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2064,7 +2498,7 @@
         <tr r="I25" s="7"/>
       </tp>
       <tp>
-        <v>-0.41240000000000004</v>
+        <v>-0.41600000000000004</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB3E2Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2078,21 +2512,21 @@
         <tr r="H43" s="6"/>
       </tp>
       <tp>
-        <v>1.6800000000000002</v>
+        <v>1.6720000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W1Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H14" s="6"/>
       </tp>
       <tp>
-        <v>1.6910000000000001</v>
+        <v>1.7030000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L1Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H13" s="8"/>
       </tp>
       <tp>
-        <v>1.7230000000000001</v>
+        <v>1.7030000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB6W2Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2103,25 +2537,25 @@
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W2Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="F6" s="1"/>
         <tr r="I15" s="6"/>
-        <tr r="F6" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.3448</v>
+      </tp>
+      <tp>
+        <v>-0.35000000000000003</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E1Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H24" s="7"/>
       </tp>
       <tp>
-        <v>-0.43570000000000003</v>
+        <v>-0.42000000000000004</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB3E1Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H12" s="7"/>
       </tp>
       <tp>
-        <v>1.601</v>
+        <v>1.6220000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L2Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2129,7 +2563,7 @@
         <tr r="I14" s="8"/>
       </tp>
       <tp>
-        <v>-0.22550000000000001</v>
+        <v>-0.23</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E5Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2137,14 +2571,14 @@
         <tr r="I28" s="7"/>
       </tp>
       <tp>
-        <v>-0.30399999999999999</v>
+        <v>-0.29000000000000004</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB3E5Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I16" s="7"/>
       </tp>
       <tp>
-        <v>1.6600000000000001</v>
+        <v>1.625</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB6W6Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2158,14 +2592,14 @@
         <tr r="H19" s="6"/>
       </tp>
       <tp>
-        <v>1.5130000000000001</v>
+        <v>1.5410000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L6Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H18" s="8"/>
       </tp>
       <tp>
-        <v>1.6850000000000001</v>
+        <v>1.653</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB6W5Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2176,18 +2610,18 @@
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W5Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="F9" s="1"/>
         <tr r="I18" s="6"/>
-        <tr r="F9" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.186</v>
+      </tp>
+      <tp>
+        <v>-0.1895</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E6Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H29" s="7"/>
       </tp>
       <tp>
-        <v>-0.26190000000000002</v>
+        <v>-0.26700000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB3E6Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2201,7 +2635,7 @@
         <tr r="H41" s="6"/>
       </tp>
       <tp>
-        <v>1.54</v>
+        <v>1.5670000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L5Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2209,7 +2643,43 @@
         <tr r="I17" s="8"/>
       </tp>
       <tp>
-        <v>-0.26930000000000004</v>
+        <v>27</v>
+        <stp/>
+        <stp>_x000F_PL3WEU3E5Y=BHWW	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I31" s="3"/>
+      </tp>
+      <tp>
+        <v>25</v>
+        <stp/>
+        <stp>_x000F_PL3WEU3E4Y=BHWW	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I30" s="3"/>
+      </tp>
+      <tp>
+        <v>28</v>
+        <stp/>
+        <stp>_x000F_PL3WEU3E7Y=BHWW	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I32" s="3"/>
+      </tp>
+      <tp>
+        <v>19</v>
+        <stp/>
+        <stp>_x000F_PL3WEU3E1Y=BHWW	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I27" s="3"/>
+      </tp>
+      <tp>
+        <v>23</v>
+        <stp/>
+        <stp>_x000F_PL3WEU3E3Y=BHWW	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I29" s="3"/>
+      </tp>
+      <tp>
+        <v>21</v>
+        <stp/>
+        <stp>_x000F_PL3WEU3E2Y=BHWW	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="I28" s="3"/>
+      </tp>
+      <tp>
+        <v>-0.27900000000000003</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E4Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2217,14 +2687,14 @@
         <tr r="I27" s="7"/>
       </tp>
       <tp>
-        <v>-0.35089999999999999</v>
+        <v>-0.35600000000000004</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB3E4Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I15" s="7"/>
       </tp>
       <tp>
-        <v>1.6700000000000002</v>
+        <v>1.6320000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB6W7Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2238,14 +2708,14 @@
         <tr r="H20" s="6"/>
       </tp>
       <tp>
-        <v>1.544</v>
+        <v>1.5670000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L7Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H19" s="8"/>
       </tp>
       <tp>
-        <v>1.6850000000000001</v>
+        <v>1.655</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB6W4Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2256,25 +2726,25 @@
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W4Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="F8" s="1"/>
         <tr r="I17" s="6"/>
-        <tr r="F8" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.12790000000000001</v>
+      </tp>
+      <tp>
+        <v>-0.13370000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E7Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H30" s="7"/>
       </tp>
       <tp>
-        <v>-0.2034</v>
+        <v>-0.21010000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB3E7Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H18" s="7"/>
       </tp>
       <tp>
-        <v>1.538</v>
+        <v>1.556</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L4Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2282,7 +2752,7 @@
         <tr r="I16" s="8"/>
       </tp>
       <tp>
-        <v>-0.12390000000000001</v>
+        <v>-0.11370000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E7Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2290,14 +2760,14 @@
         <tr r="I30" s="7"/>
       </tp>
       <tp>
-        <v>-0.19840000000000002</v>
+        <v>-0.2001</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB3E7Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I18" s="7"/>
       </tp>
       <tp>
-        <v>1.655</v>
+        <v>1.625</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB6W4Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2311,14 +2781,14 @@
         <tr r="H17" s="6"/>
       </tp>
       <tp>
-        <v>1.498</v>
+        <v>1.536</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L4Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H16" s="8"/>
       </tp>
       <tp>
-        <v>1.7000000000000002</v>
+        <v>1.663</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB6W7Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2329,25 +2799,25 @@
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W7Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="F11" s="1"/>
         <tr r="I20" s="6"/>
-        <tr r="F11" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.2893</v>
+      </tp>
+      <tp>
+        <v>-0.28400000000000003</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E4Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H27" s="7"/>
       </tp>
       <tp>
-        <v>-0.3609</v>
+        <v>-0.36599999999999999</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB3E4Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H15" s="7"/>
       </tp>
       <tp>
-        <v>1.5640000000000001</v>
+        <v>1.607</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L7Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2362,7 +2832,7 @@
         <tr r="I41" s="6"/>
       </tp>
       <tp>
-        <v>-0.17600000000000002</v>
+        <v>-0.17950000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E6Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2370,14 +2840,14 @@
         <tr r="I29" s="7"/>
       </tp>
       <tp>
-        <v>-0.25190000000000001</v>
+        <v>-0.25700000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB3E6Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I17" s="7"/>
       </tp>
       <tp>
-        <v>1.655</v>
+        <v>1.6220000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB6W5Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2391,14 +2861,14 @@
         <tr r="H18" s="6"/>
       </tp>
       <tp>
-        <v>1.5</v>
+        <v>1.5270000000000001</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L5Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H17" s="8"/>
       </tp>
       <tp>
-        <v>1.6900000000000002</v>
+        <v>1.655</v>
         <stp/>
         <stp xml:space="preserve">
 PLNAB6W6Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2409,25 +2879,25 @@
         <stp/>
         <stp xml:space="preserve">
 PLNAB3W6Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
+        <tr r="F10" s="1"/>
         <tr r="I19" s="6"/>
-        <tr r="F10" s="1"/>
-      </tp>
-      <tp>
-        <v>-0.23550000000000001</v>
+      </tp>
+      <tp>
+        <v>-0.24000000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB6E5Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H28" s="7"/>
       </tp>
       <tp>
-        <v>-0.314</v>
+        <v>-0.34</v>
         <stp/>
         <stp xml:space="preserve">
 EURAB3E5Y=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H16" s="7"/>
       </tp>
       <tp>
-        <v>1.5530000000000002</v>
+        <v>1.5810000000000002</v>
         <stp/>
         <stp xml:space="preserve">
 USDAM3L6Y=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
@@ -2638,13 +3108,13 @@
         <tr r="G4" s="8"/>
       </tp>
       <tp>
-        <v>4.3016000000000005</v>
+        <v>4.3105000000000002</v>
         <stp/>
         <stp xml:space="preserve">	EURPLN=D3	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
-        <tr r="F2" s="3"/>
-      </tp>
-      <tp>
-        <v>1.5680000000000001</v>
+        <tr r="H2" s="3"/>
+      </tp>
+      <tp>
+        <v>1.5920000000000001</v>
         <stp/>
         <stp xml:space="preserve">	USD8X11F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I32" s="8"/>
@@ -2662,37 +3132,37 @@
         <tr r="I43" s="7"/>
       </tp>
       <tp>
-        <v>1.601</v>
+        <v>1.6280000000000001</v>
         <stp/>
         <stp xml:space="preserve">	USD9X15F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I40" s="8"/>
       </tp>
       <tp>
-        <v>1.542</v>
+        <v>1.5791000000000002</v>
         <stp/>
         <stp xml:space="preserve">	USD9X12F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I33" s="8"/>
       </tp>
       <tp>
-        <v>1.6621700000000001</v>
+        <v>1.6600000000000001</v>
         <stp/>
         <stp xml:space="preserve">	PLN9X12F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I56" s="6"/>
       </tp>
       <tp>
-        <v>-0.39800000000000002</v>
+        <v>-0.42</v>
         <stp/>
         <stp xml:space="preserve">	EUR9X12F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I44" s="7"/>
       </tp>
       <tp>
-        <v>-0.34300000000000003</v>
+        <v>-0.34</v>
         <stp/>
         <stp xml:space="preserve">	EUR9X15F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I57" s="7"/>
       </tp>
       <tp>
-        <v>-0.27100000000000002</v>
+        <v>-0.26100000000000001</v>
         <stp/>
         <stp xml:space="preserve">	EUR2X14F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I51" s="7"/>
@@ -2712,7 +3182,7 @@
         <tr r="G6" s="8"/>
       </tp>
       <tp>
-        <v>-0.27100000000000002</v>
+        <v>-0.26500000000000001</v>
         <stp/>
         <stp xml:space="preserve">	EUR3X15F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I53" s="7"/>
@@ -2732,55 +3202,55 @@
         <tr r="G8" s="8"/>
       </tp>
       <tp>
-        <v>1.659</v>
+        <v>1.6850000000000001</v>
         <stp/>
         <stp xml:space="preserve">	USD6X12F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I39" s="8"/>
       </tp>
       <tp>
-        <v>1.7950200000000001</v>
+        <v>1.75</v>
         <stp/>
         <stp xml:space="preserve">	PLN6X12F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I62" s="6"/>
       </tp>
       <tp>
-        <v>-0.24399999999999999</v>
+        <v>-0.26</v>
         <stp/>
         <stp xml:space="preserve">	EUR6X18F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I60" s="7"/>
       </tp>
       <tp>
-        <v>-0.33</v>
+        <v>-0.34</v>
         <stp/>
         <stp xml:space="preserve">	EUR6X12F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I56" s="7"/>
       </tp>
       <tp>
-        <v>1.6062000000000001</v>
+        <v>1.6180000000000001</v>
         <stp/>
         <stp xml:space="preserve">	USD7X10F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I31" s="8"/>
       </tp>
       <tp>
-        <v>1.69</v>
+        <v>1.68</v>
         <stp/>
         <stp xml:space="preserve">	PLN7X10F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I54" s="6"/>
       </tp>
       <tp>
-        <v>-0.39100000000000001</v>
+        <v>-0.41000000000000003</v>
         <stp/>
         <stp xml:space="preserve">	EUR7X10F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I42" s="7"/>
       </tp>
       <tp>
-        <v>1.7110000000000001</v>
+        <v>1.744</v>
         <stp/>
         <stp xml:space="preserve">	USD4X10F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I37" s="8"/>
       </tp>
       <tp>
-        <v>1.8135900000000003</v>
+        <v>1.8009999999999999</v>
         <stp/>
         <stp xml:space="preserve">	PLN4X10F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I60" s="6"/>
@@ -2793,19 +3263,19 @@
         <tr r="G9" s="8"/>
       </tp>
       <tp>
-        <v>-0.33100000000000002</v>
+        <v>-0.33700000000000002</v>
         <stp/>
         <stp xml:space="preserve">	EUR4X10F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I54" s="7"/>
       </tp>
       <tp>
-        <v>1.6890000000000001</v>
+        <v>1.7050000000000001</v>
         <stp/>
         <stp xml:space="preserve">	USD5X11F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I38" s="8"/>
       </tp>
       <tp>
-        <v>1.8065</v>
+        <v>1.76</v>
         <stp/>
         <stp xml:space="preserve">	PLN5X11F=	SEC_ACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="I61" s="6"/>
@@ -2894,37 +3364,37 @@
         <tr r="G20" s="8"/>
       </tp>
       <tp>
-        <v>1.5609999999999999</v>
+        <v>1.5880000000000001</v>
         <stp/>
         <stp xml:space="preserve">	USD9X15F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H40" s="8"/>
       </tp>
       <tp>
-        <v>1.522</v>
+        <v>1.5391000000000001</v>
         <stp/>
         <stp xml:space="preserve">	USD9X12F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H33" s="8"/>
       </tp>
       <tp>
-        <v>1.6121700000000001</v>
+        <v>1.62</v>
         <stp/>
         <stp xml:space="preserve">	PLN9X12F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H56" s="6"/>
       </tp>
       <tp>
-        <v>-0.44800000000000001</v>
+        <v>-0.45</v>
         <stp/>
         <stp xml:space="preserve">	EUR9X12F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H44" s="7"/>
       </tp>
       <tp>
-        <v>-0.35299999999999998</v>
+        <v>-0.36</v>
         <stp/>
         <stp xml:space="preserve">	EUR9X15F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H57" s="7"/>
       </tp>
       <tp>
-        <v>1.548</v>
+        <v>1.5720000000000001</v>
         <stp/>
         <stp xml:space="preserve">	USD8X11F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H32" s="8"/>
@@ -2942,13 +3412,13 @@
         <tr r="H43" s="7"/>
       </tp>
       <tp>
-        <v>1.649</v>
+        <v>1.665</v>
         <stp/>
         <stp xml:space="preserve">	USD5X11F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H38" s="8"/>
       </tp>
       <tp>
-        <v>1.7465000000000002</v>
+        <v>1.74</v>
         <stp/>
         <stp xml:space="preserve">	PLN5X11F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H61" s="6"/>
@@ -3002,19 +3472,19 @@
         <tr r="G15" s="8"/>
       </tp>
       <tp>
-        <v>1.671</v>
+        <v>1.694</v>
         <stp/>
         <stp xml:space="preserve">	USD4X10F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H37" s="8"/>
       </tp>
       <tp>
-        <v>1.7535900000000002</v>
+        <v>1.7410000000000001</v>
         <stp/>
         <stp xml:space="preserve">	PLN4X10F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H60" s="6"/>
       </tp>
       <tp>
-        <v>-0.34100000000000003</v>
+        <v>-0.35699999999999998</v>
         <stp/>
         <stp xml:space="preserve">	EUR4X10F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H54" s="7"/>
@@ -3055,19 +3525,19 @@
         <tr r="G14" s="8"/>
       </tp>
       <tp>
-        <v>1.5662</v>
+        <v>1.5980000000000001</v>
         <stp/>
         <stp xml:space="preserve">	USD7X10F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H31" s="8"/>
       </tp>
       <tp>
-        <v>1.6500000000000001</v>
+        <v>1.6400000000000001</v>
         <stp/>
         <stp xml:space="preserve">	PLN7X10F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H54" s="6"/>
       </tp>
       <tp>
-        <v>-0.441</v>
+        <v>-0.43</v>
         <stp/>
         <stp xml:space="preserve">	EUR7X10F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H42" s="7"/>
@@ -3108,25 +3578,25 @@
         <tr r="G13" s="8"/>
       </tp>
       <tp>
-        <v>1.619</v>
+        <v>1.635</v>
         <stp/>
         <stp xml:space="preserve">	USD6X12F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H39" s="8"/>
       </tp>
       <tp>
-        <v>1.7350200000000002</v>
+        <v>1.73</v>
         <stp/>
         <stp xml:space="preserve">	PLN6X12F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H62" s="6"/>
       </tp>
       <tp>
-        <v>-0.29399999999999998</v>
+        <v>-0.28000000000000003</v>
         <stp/>
         <stp xml:space="preserve">	EUR6X18F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H60" s="7"/>
       </tp>
       <tp>
-        <v>-0.35000000000000003</v>
+        <v>-0.36</v>
         <stp/>
         <stp xml:space="preserve">	EUR6X12F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H56" s="7"/>
@@ -3209,7 +3679,7 @@
         <tr r="G18" s="8"/>
       </tp>
       <tp>
-        <v>-0.28100000000000003</v>
+        <v>-0.28500000000000003</v>
         <stp/>
         <stp xml:space="preserve">	EUR3X15F=	PRIMACT_1_x0003_IDNÿ_x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000__x0000_</stp>
         <tr r="H53" s="7"/>
@@ -3584,7 +4054,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3601,7 +4073,7 @@
       </c>
       <c r="E1" s="4">
         <f ca="1">TODAY()</f>
-        <v>43795</v>
+        <v>43796</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
@@ -3664,7 +4136,7 @@
       </c>
       <c r="F5" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W1Y=","SEC_ACT_1")</f>
-        <v>1.7100000000000002</v>
+        <v>1.7030000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3814,7 +4286,7 @@
       </c>
       <c r="F15" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W12Y=","SEC_ACT_1")</f>
-        <v>1.7650000000000001</v>
+        <v>1.728</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -3829,7 +4301,7 @@
       </c>
       <c r="F16" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W15Y=","SEC_ACT_1")</f>
-        <v>1.855</v>
+        <v>1.8170000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -3844,7 +4316,7 @@
       </c>
       <c r="F17" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W20Y=","SEC_ACT_1")</f>
-        <v>1.9750000000000001</v>
+        <v>1.9380000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -3868,7 +4340,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3885,7 +4359,7 @@
       </c>
       <c r="E1" s="4">
         <f ca="1">TODAY()</f>
-        <v>43795</v>
+        <v>43796</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
@@ -3903,7 +4377,7 @@
       </c>
       <c r="F2" s="3">
         <f>_xll.RtGet("IDN","EUR1MFSR=X","PRIMACT_1")</f>
-        <v>-0.50286000000000008</v>
+        <v>-0.50114000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -3918,7 +4392,7 @@
       </c>
       <c r="F3" s="3">
         <f>_xll.RtGet("IDN","EUR3MFSR=X","PRIMACT_1")</f>
-        <v>-0.44200000000000006</v>
+        <v>-0.43529000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -3933,7 +4407,7 @@
       </c>
       <c r="F4" s="3">
         <f>_xll.RtGet("IDN","EUR6MFSR=X","PRIMACT_1")</f>
-        <v>-0.39800000000000002</v>
+        <v>-0.39829000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -3948,7 +4422,7 @@
       </c>
       <c r="F5" s="3">
         <f>_xll.RtGet("IDN","EURAB6E1Y=","SEC_ACT_1")</f>
-        <v>-0.34129999999999999</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -3963,7 +4437,7 @@
       </c>
       <c r="F6" s="3">
         <f>_xll.RtGet("IDN","EURAB6E2Y=","SEC_ACT_1")</f>
-        <v>-0.33300000000000002</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -3978,7 +4452,7 @@
       </c>
       <c r="F7" s="3">
         <f>_xll.RtGet("IDN","EURAB6E3Y=","SEC_ACT_1")</f>
-        <v>-0.308</v>
+        <v>-0.2959</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -3993,7 +4467,7 @@
       </c>
       <c r="F8" s="3">
         <f>_xll.RtGet("IDN","EURAB6E4Y=","SEC_ACT_1")</f>
-        <v>-0.26930000000000004</v>
+        <v>-0.27900000000000003</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4008,7 +4482,7 @@
       </c>
       <c r="F9" s="3">
         <f>_xll.RtGet("IDN","EURAB6E5Y=","SEC_ACT_1")</f>
-        <v>-0.22550000000000001</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4023,7 +4497,7 @@
       </c>
       <c r="F10" s="3">
         <f>_xll.RtGet("IDN","EURAB6E6Y=","SEC_ACT_1")</f>
-        <v>-0.17600000000000002</v>
+        <v>-0.17950000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4038,7 +4512,7 @@
       </c>
       <c r="F11" s="3">
         <f>_xll.RtGet("IDN","EURAB6E7Y=","SEC_ACT_1")</f>
-        <v>-0.12390000000000001</v>
+        <v>-0.11370000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4053,7 +4527,7 @@
       </c>
       <c r="F12" s="3">
         <f>_xll.RtGet("IDN","EURAB6E8Y=","SEC_ACT_1")</f>
-        <v>-6.4899999999999999E-2</v>
+        <v>-5.3100000000000001E-2</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4068,7 +4542,7 @@
       </c>
       <c r="F13" s="3">
         <f>_xll.RtGet("IDN","EURAB6E9Y=","SEC_ACT_1")</f>
-        <v>-4.8999999999999998E-3</v>
+        <v>-7.4000000000000003E-3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4083,7 +4557,7 @@
       </c>
       <c r="F14" s="3">
         <f>_xll.RtGet("IDN","EURAB6E10Y=","SEC_ACT_1")</f>
-        <v>5.7000000000000002E-2</v>
+        <v>6.6100000000000006E-2</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4098,7 +4572,7 @@
       </c>
       <c r="F15" s="3">
         <f>_xll.RtGet("IDN","EURAB6E12Y=","SEC_ACT_1")</f>
-        <v>0.1671</v>
+        <v>0.161</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4113,7 +4587,7 @@
       </c>
       <c r="F16" s="3">
         <f>_xll.RtGet("IDN","EURAB6E15Y=","SEC_ACT_1")</f>
-        <v>0.30660000000000004</v>
+        <v>0.29770000000000002</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4128,7 +4602,7 @@
       </c>
       <c r="F17" s="3">
         <f>_xll.RtGet("IDN","EURAB6E20Y=","SEC_ACT_1")</f>
-        <v>0.43690000000000001</v>
+        <v>0.42470000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4143,7 +4617,7 @@
       </c>
       <c r="F18" s="3">
         <f>_xll.RtGet("IDN","EURAB6E30Y=","SEC_ACT_1")</f>
-        <v>0.47490000000000004</v>
+        <v>0.45900000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4158,7 +4632,7 @@
       </c>
       <c r="F19" s="3">
         <f>_xll.RtGet("IDN","EURAB6E50Y=","SEC_ACT_1")</f>
-        <v>0.36410000000000003</v>
+        <v>0.34890000000000004</v>
       </c>
     </row>
   </sheetData>
@@ -4187,7 +4661,7 @@
       </c>
       <c r="E1" s="4">
         <f ca="1">TODAY()</f>
-        <v>43795</v>
+        <v>43796</v>
       </c>
       <c r="F1" t="s">
         <v>16</v>
@@ -4205,7 +4679,7 @@
       </c>
       <c r="F2" s="3">
         <f>_xll.RtGet("IDN","USD1MFSR=X","PRIMACT_1")</f>
-        <v>1.6995000000000002</v>
+        <v>1.7016300000000002</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -4220,7 +4694,7 @@
       </c>
       <c r="F3" s="3">
         <f>_xll.RtGet("IDN","USD3MFSR=X","PRIMACT_1")</f>
-        <v>1.9186300000000001</v>
+        <v>1.90863</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -4235,7 +4709,7 @@
       </c>
       <c r="F4" s="3">
         <f>_xll.RtGet("IDN","USD6MFSR=X","PRIMACT_1")</f>
-        <v>1.9191300000000002</v>
+        <v>1.9142500000000002</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -4250,7 +4724,7 @@
       </c>
       <c r="F5" s="3">
         <f>_xll.RtGet("IDN","USDAM3L1Y=","SEC_ACT_1")</f>
-        <v>1.7310000000000001</v>
+        <v>1.7430000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -4265,7 +4739,7 @@
       </c>
       <c r="F6" s="3">
         <f>_xll.RtGet("IDN","USDAM3L2Y=","SEC_ACT_1")</f>
-        <v>1.601</v>
+        <v>1.6220000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -4280,7 +4754,7 @@
       </c>
       <c r="F7" s="3">
         <f>_xll.RtGet("IDN","USDAM3L3Y=","SEC_ACT_1")</f>
-        <v>1.5330000000000001</v>
+        <v>1.5780000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -4295,7 +4769,7 @@
       </c>
       <c r="F8" s="3">
         <f>_xll.RtGet("IDN","USDAM3L4Y=","SEC_ACT_1")</f>
-        <v>1.538</v>
+        <v>1.556</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -4310,7 +4784,7 @@
       </c>
       <c r="F9" s="3">
         <f>_xll.RtGet("IDN","USDAM3L5Y=","SEC_ACT_1")</f>
-        <v>1.54</v>
+        <v>1.5670000000000002</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -4325,7 +4799,7 @@
       </c>
       <c r="F10" s="3">
         <f>_xll.RtGet("IDN","USDAM3L6Y=","SEC_ACT_1")</f>
-        <v>1.5530000000000002</v>
+        <v>1.5810000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -4340,7 +4814,7 @@
       </c>
       <c r="F11" s="3">
         <f>_xll.RtGet("IDN","USDAM3L7Y=","SEC_ACT_1")</f>
-        <v>1.5640000000000001</v>
+        <v>1.607</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -4355,7 +4829,7 @@
       </c>
       <c r="F12" s="3">
         <f>_xll.RtGet("IDN","USDAM3L8Y=","SEC_ACT_1")</f>
-        <v>1.5790000000000002</v>
+        <v>1.623</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -4370,7 +4844,7 @@
       </c>
       <c r="F13" s="3">
         <f>_xll.RtGet("IDN","USDAM3L9Y=","SEC_ACT_1")</f>
-        <v>1.623</v>
+        <v>1.651</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -4385,7 +4859,7 @@
       </c>
       <c r="F14" s="3">
         <f>_xll.RtGet("IDN","USDAM3L10Y=","SEC_ACT_1")</f>
-        <v>1.6520000000000001</v>
+        <v>1.6850000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -4400,7 +4874,7 @@
       </c>
       <c r="F15" s="3">
         <f>_xll.RtGet("IDN","USDAM3L12Y=","SEC_ACT_1")</f>
-        <v>1.6900000000000002</v>
+        <v>1.732</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -4415,7 +4889,7 @@
       </c>
       <c r="F16" s="3">
         <f>_xll.RtGet("IDN","USDAM3L15Y=","SEC_ACT_1")</f>
-        <v>1.754</v>
+        <v>1.7830000000000001</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -4430,7 +4904,7 @@
       </c>
       <c r="F17" s="3">
         <f>_xll.RtGet("IDN","USDAM3L20Y=","SEC_ACT_1")</f>
-        <v>1.8090000000000002</v>
+        <v>1.8220000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -4445,7 +4919,7 @@
       </c>
       <c r="F18" s="3">
         <f>_xll.RtGet("IDN","USDAM3L30Y=","SEC_ACT_1")</f>
-        <v>1.8250000000000002</v>
+        <v>1.853</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -4460,7 +4934,7 @@
       </c>
       <c r="F19" s="3">
         <f>_xll.RtGet("IDN","USDAM3L50Y=","SEC_ACT_1")</f>
-        <v>1.768</v>
+        <v>1.774</v>
       </c>
     </row>
   </sheetData>
@@ -4472,7 +4946,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4482,11 +4956,11 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
-        <v>43797</v>
+        <v>43796</v>
       </c>
       <c r="G1" s="4">
         <f ca="1">TODAY()</f>
-        <v>43795</v>
+        <v>43796</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -4504,64 +4978,64 @@
       <c r="A3" t="s">
         <v>29</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="3">
         <v>1.31</v>
       </c>
-      <c r="C3">
-        <v>1.59</v>
+      <c r="C3" s="3">
+        <v>1.6</v>
       </c>
       <c r="E3" s="3">
         <f>(C3+B3)/2</f>
-        <v>1.4500000000000002</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="G3" t="str">
         <f>_xll.RtGet("IDN","WIPLNOND=X","GV4_TEXT")</f>
         <v>ON</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="3">
         <f>_xll.RtGet("IDN","WIPLNOND=X","PRIMACT_1")</f>
         <v>1.31</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="3">
         <f>_xll.RtGet("IDN","WIPLNOND=X","SEC_ACT_1")</f>
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>30</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>1.31</v>
       </c>
-      <c r="C4">
-        <v>1.59</v>
+      <c r="C4" s="3">
+        <v>1.6</v>
       </c>
       <c r="E4" s="3">
         <f t="shared" ref="E4:E67" si="0">(C4+B4)/2</f>
-        <v>1.4500000000000002</v>
+        <v>1.4550000000000001</v>
       </c>
       <c r="G4" t="str">
         <f>_xll.RtGet("IDN","WIPLNTND=X","GV4_TEXT")</f>
         <v>TN</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <f>_xll.RtGet("IDN","WIPLNTND=X","PRIMACT_1")</f>
         <v>1.31</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="3">
         <f>_xll.RtGet("IDN","WIPLNTND=X","SEC_ACT_1")</f>
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>1.3800000000000001</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>1.58</v>
       </c>
       <c r="E5" s="3">
@@ -4572,11 +5046,11 @@
         <f>_xll.RtGet("IDN","WIPLNSWD=X","GV4_TEXT")</f>
         <v>SW</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <f>_xll.RtGet("IDN","WIPLNSWD=X","PRIMACT_1")</f>
         <v>1.3800000000000001</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="3">
         <f>_xll.RtGet("IDN","WIPLNSWD=X","SEC_ACT_1")</f>
         <v>1.58</v>
       </c>
@@ -4585,10 +5059,10 @@
       <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="3">
         <v>1.4000000000000001</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>1.6</v>
       </c>
       <c r="E6" s="3">
@@ -4599,11 +5073,11 @@
         <f>_xll.RtGet("IDN","WIPLN2WD=X","GV4_TEXT")</f>
         <v>2W</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <f>_xll.RtGet("IDN","WIPLN2WD=X","PRIMACT_1")</f>
         <v>1.4000000000000001</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <f>_xll.RtGet("IDN","WIPLN2WD=X","SEC_ACT_1")</f>
         <v>1.6</v>
       </c>
@@ -4612,10 +5086,10 @@
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="3">
         <v>1.43</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
         <v>1.6300000000000001</v>
       </c>
       <c r="E7" s="3">
@@ -4626,11 +5100,11 @@
         <f>_xll.RtGet("IDN","WIPLN1MD=X","GV4_TEXT")</f>
         <v>1M</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <f>_xll.RtGet("IDN","WIPLN1MD=X","PRIMACT_1")</f>
         <v>1.43</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <f>_xll.RtGet("IDN","WIPLN1MD=X","SEC_ACT_1")</f>
         <v>1.6300000000000001</v>
       </c>
@@ -4639,10 +5113,10 @@
       <c r="A8" t="s">
         <v>1</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="3">
         <v>1.51</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="3">
         <v>1.71</v>
       </c>
       <c r="E8" s="3">
@@ -4653,11 +5127,11 @@
         <f>_xll.RtGet("IDN","WIPLN3MD=X","GV4_TEXT")</f>
         <v>3M</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <f>_xll.RtGet("IDN","WIPLN3MD=X","PRIMACT_1")</f>
         <v>1.51</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="3">
         <f>_xll.RtGet("IDN","WIPLN3MD=X","SEC_ACT_1")</f>
         <v>1.71</v>
       </c>
@@ -4666,10 +5140,10 @@
       <c r="A9" t="s">
         <v>2</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="3">
         <v>1.59</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="3">
         <v>1.79</v>
       </c>
       <c r="E9" s="3">
@@ -4680,11 +5154,11 @@
         <f>_xll.RtGet("IDN","WIPLN6MD=X","GV4_TEXT")</f>
         <v>6M</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <f>_xll.RtGet("IDN","WIPLN6MD=X","PRIMACT_1")</f>
         <v>1.59</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="3">
         <f>_xll.RtGet("IDN","WIPLN6MD=X","SEC_ACT_1")</f>
         <v>1.79</v>
       </c>
@@ -4693,10 +5167,10 @@
       <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="3">
         <v>1.6</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="3">
         <v>1.8</v>
       </c>
       <c r="E10" s="3">
@@ -4707,11 +5181,11 @@
         <f>_xll.RtGet("IDN","WIPLN9MD=X","GV4_TEXT")</f>
         <v>9M</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <f>_xll.RtGet("IDN","WIPLN9MD=X","PRIMACT_1")</f>
         <v>1.6</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="3">
         <f>_xll.RtGet("IDN","WIPLN9MD=X","SEC_ACT_1")</f>
         <v>1.8</v>
       </c>
@@ -4720,10 +5194,10 @@
       <c r="A11" t="s">
         <v>3</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="3">
         <v>1.6400000000000001</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="3">
         <v>1.84</v>
       </c>
       <c r="E11" s="3">
@@ -4734,68 +5208,74 @@
         <f>_xll.RtGet("IDN","WIPLN1YD=X","GV4_TEXT")</f>
         <v>1Y</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="3">
         <f>_xll.RtGet("IDN","WIPLN1YD=X","PRIMACT_1")</f>
         <v>1.6400000000000001</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="3">
         <f>_xll.RtGet("IDN","WIPLN1YD=X","SEC_ACT_1")</f>
         <v>1.84</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
       <c r="E12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C13" s="3"/>
       <c r="E13" s="3"/>
       <c r="G13" t="s">
         <v>25</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="I13" s="3"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B14">
-        <v>1.6780000000000002</v>
-      </c>
-      <c r="C14">
-        <v>1.7080000000000002</v>
+      <c r="B14" s="3">
+        <v>1.6720000000000002</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.7030000000000001</v>
       </c>
       <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>1.6930000000000001</v>
+        <v>1.6875</v>
       </c>
       <c r="G14" t="str">
         <f>_xll.RtGet("IDN","PLNAB3W1Y=","GV4_TEXT")</f>
         <v xml:space="preserve">1Y    </v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W1Y=","PRIMACT_1")</f>
-        <v>1.6800000000000002</v>
-      </c>
-      <c r="I14">
+        <v>1.6720000000000002</v>
+      </c>
+      <c r="I14" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W1Y=","SEC_ACT_1")</f>
-        <v>1.7100000000000002</v>
+        <v>1.7030000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="3">
         <v>1.6500000000000001</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="3">
         <v>1.6700000000000002</v>
       </c>
       <c r="E15" s="3">
@@ -4806,11 +5286,11 @@
         <f>_xll.RtGet("IDN","PLNAB3W2Y=","GV4_TEXT")</f>
         <v xml:space="preserve">2Y    </v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W2Y=","PRIMACT_1")</f>
         <v>1.6500000000000001</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W2Y=","SEC_ACT_1")</f>
         <v>1.6700000000000002</v>
       </c>
@@ -4819,10 +5299,10 @@
       <c r="A16" t="s">
         <v>36</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="3">
         <v>1.6300000000000001</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>1.6500000000000001</v>
       </c>
       <c r="E16" s="3">
@@ -4833,11 +5313,11 @@
         <f>_xll.RtGet("IDN","PLNAB3W3Y=","GV4_TEXT")</f>
         <v xml:space="preserve">3Y    </v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W3Y=","PRIMACT_1")</f>
         <v>1.6300000000000001</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W3Y=","SEC_ACT_1")</f>
         <v>1.6500000000000001</v>
       </c>
@@ -4846,10 +5326,10 @@
       <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="3">
         <v>1.6400000000000001</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="3">
         <v>1.6600000000000001</v>
       </c>
       <c r="E17" s="3">
@@ -4860,11 +5340,11 @@
         <f>_xll.RtGet("IDN","PLNAB3W4Y=","GV4_TEXT")</f>
         <v xml:space="preserve">4Y    </v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W4Y=","PRIMACT_1")</f>
         <v>1.6400000000000001</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W4Y=","SEC_ACT_1")</f>
         <v>1.6600000000000001</v>
       </c>
@@ -4873,10 +5353,10 @@
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="3">
         <v>1.6600000000000001</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>1.6800000000000002</v>
       </c>
       <c r="E18" s="3">
@@ -4887,11 +5367,11 @@
         <f>_xll.RtGet("IDN","PLNAB3W5Y=","GV4_TEXT")</f>
         <v xml:space="preserve">5Y    </v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W5Y=","PRIMACT_1")</f>
         <v>1.6600000000000001</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W5Y=","SEC_ACT_1")</f>
         <v>1.6800000000000002</v>
       </c>
@@ -4900,10 +5380,10 @@
       <c r="A19" t="s">
         <v>39</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="3">
         <v>1.6800000000000002</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="3">
         <v>1.7000000000000002</v>
       </c>
       <c r="E19" s="3">
@@ -4914,11 +5394,11 @@
         <f>_xll.RtGet("IDN","PLNAB3W6Y=","GV4_TEXT")</f>
         <v xml:space="preserve">6Y    </v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W6Y=","PRIMACT_1")</f>
         <v>1.6800000000000002</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W6Y=","SEC_ACT_1")</f>
         <v>1.7000000000000002</v>
       </c>
@@ -4927,10 +5407,10 @@
       <c r="A20" t="s">
         <v>40</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="3">
         <v>1.6900000000000002</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="3">
         <v>1.7100000000000002</v>
       </c>
       <c r="E20" s="3">
@@ -4941,11 +5421,11 @@
         <f>_xll.RtGet("IDN","PLNAB3W7Y=","GV4_TEXT")</f>
         <v xml:space="preserve">7Y    </v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W7Y=","PRIMACT_1")</f>
         <v>1.6900000000000002</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W7Y=","SEC_ACT_1")</f>
         <v>1.7100000000000002</v>
       </c>
@@ -4954,10 +5434,10 @@
       <c r="A21" t="s">
         <v>41</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="3">
         <v>1.7100000000000002</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="3">
         <v>1.73</v>
       </c>
       <c r="E21" s="3">
@@ -4968,11 +5448,11 @@
         <f>_xll.RtGet("IDN","PLNAB3W8Y=","GV4_TEXT")</f>
         <v xml:space="preserve">8Y    </v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W8Y=","PRIMACT_1")</f>
         <v>1.7100000000000002</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W8Y=","SEC_ACT_1")</f>
         <v>1.73</v>
       </c>
@@ -4981,10 +5461,10 @@
       <c r="A22" t="s">
         <v>42</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="3">
         <v>1.7100000000000002</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>1.73</v>
       </c>
       <c r="E22" s="3">
@@ -4995,11 +5475,11 @@
         <f>_xll.RtGet("IDN","PLNAB3W9Y=","GV4_TEXT")</f>
         <v xml:space="preserve">9Y    </v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W9Y=","PRIMACT_1")</f>
         <v>1.7100000000000002</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W9Y=","SEC_ACT_1")</f>
         <v>1.73</v>
       </c>
@@ -5008,10 +5488,10 @@
       <c r="A23" t="s">
         <v>43</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="3">
         <v>1.73</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>1.75</v>
       </c>
       <c r="E23" s="3">
@@ -5022,383 +5502,395 @@
         <f>_xll.RtGet("IDN","PLNAB3W10Y=","GV4_TEXT")</f>
         <v xml:space="preserve">10Y   </v>
       </c>
-      <c r="H23">
+      <c r="H23" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W10Y=","PRIMACT_1")</f>
         <v>1.73</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="3">
         <f>_xll.RtGet("IDN","PLNAB3W10Y=","SEC_ACT_1")</f>
         <v>1.75</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
       <c r="E24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C25" s="3"/>
       <c r="E25" s="3"/>
       <c r="G25" t="s">
         <v>25</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="I25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>35</v>
       </c>
-      <c r="B26">
-        <v>1.6950000000000001</v>
-      </c>
-      <c r="C26">
-        <v>1.7250000000000001</v>
+      <c r="B26" s="3">
+        <v>1.6720000000000002</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1.7030000000000001</v>
       </c>
       <c r="E26" s="3">
         <f t="shared" si="0"/>
-        <v>1.71</v>
+        <v>1.6875</v>
       </c>
       <c r="G26" t="str">
         <f>_xll.RtGet("IDN","PLNAB6W2Y=","GV4_TEXT")</f>
         <v xml:space="preserve">2Y    </v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W2Y=","PRIMACT_1")</f>
-        <v>1.6920000000000002</v>
-      </c>
-      <c r="I26">
+        <v>1.6720000000000002</v>
+      </c>
+      <c r="I26" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W2Y=","SEC_ACT_1")</f>
-        <v>1.7230000000000001</v>
+        <v>1.7030000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>36</v>
       </c>
-      <c r="B27">
-        <v>1.6680000000000001</v>
-      </c>
-      <c r="C27">
-        <v>1.6980000000000002</v>
+      <c r="B27" s="3">
+        <v>1.6320000000000001</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1.663</v>
       </c>
       <c r="E27" s="3">
         <f t="shared" si="0"/>
-        <v>1.6830000000000003</v>
+        <v>1.6475</v>
       </c>
       <c r="G27" t="str">
         <f>_xll.RtGet("IDN","PLNAB6W3Y=","GV4_TEXT")</f>
         <v xml:space="preserve">3Y    </v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W3Y=","PRIMACT_1")</f>
-        <v>1.665</v>
-      </c>
-      <c r="I27">
+        <v>1.6320000000000001</v>
+      </c>
+      <c r="I27" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W3Y=","SEC_ACT_1")</f>
-        <v>1.6950000000000001</v>
+        <v>1.663</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
-      <c r="B28">
-        <v>1.6600000000000001</v>
-      </c>
-      <c r="C28">
-        <v>1.6900000000000002</v>
+      <c r="B28" s="3">
+        <v>1.625</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1.655</v>
       </c>
       <c r="E28" s="3">
         <f t="shared" si="0"/>
-        <v>1.6750000000000003</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="G28" t="str">
         <f>_xll.RtGet("IDN","PLNAB6W4Y=","GV4_TEXT")</f>
         <v xml:space="preserve">4Y    </v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W4Y=","PRIMACT_1")</f>
+        <v>1.625</v>
+      </c>
+      <c r="I28" s="3">
+        <f>_xll.RtGet("IDN","PLNAB6W4Y=","SEC_ACT_1")</f>
         <v>1.655</v>
-      </c>
-      <c r="I28">
-        <f>_xll.RtGet("IDN","PLNAB6W4Y=","SEC_ACT_1")</f>
-        <v>1.6850000000000001</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>38</v>
       </c>
-      <c r="B29">
-        <v>1.6600000000000001</v>
-      </c>
-      <c r="C29">
-        <v>1.6900000000000002</v>
+      <c r="B29" s="3">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1.653</v>
       </c>
       <c r="E29" s="3">
         <f t="shared" si="0"/>
-        <v>1.6750000000000003</v>
+        <v>1.6375000000000002</v>
       </c>
       <c r="G29" t="str">
         <f>_xll.RtGet("IDN","PLNAB6W5Y=","GV4_TEXT")</f>
         <v xml:space="preserve">5Y    </v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W5Y=","PRIMACT_1")</f>
-        <v>1.655</v>
-      </c>
-      <c r="I29">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="I29" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W5Y=","SEC_ACT_1")</f>
-        <v>1.6850000000000001</v>
+        <v>1.653</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>39</v>
       </c>
-      <c r="B30">
-        <v>1.6680000000000001</v>
-      </c>
-      <c r="C30">
-        <v>1.6980000000000002</v>
+      <c r="B30" s="3">
+        <v>1.625</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1.655</v>
       </c>
       <c r="E30" s="3">
         <f t="shared" si="0"/>
-        <v>1.6830000000000003</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="G30" t="str">
         <f>_xll.RtGet("IDN","PLNAB6W6Y=","GV4_TEXT")</f>
         <v xml:space="preserve">6Y    </v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W6Y=","PRIMACT_1")</f>
-        <v>1.6600000000000001</v>
-      </c>
-      <c r="I30">
+        <v>1.625</v>
+      </c>
+      <c r="I30" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W6Y=","SEC_ACT_1")</f>
-        <v>1.6900000000000002</v>
+        <v>1.655</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>40</v>
       </c>
-      <c r="B31">
-        <v>1.6780000000000002</v>
-      </c>
-      <c r="C31">
-        <v>1.7080000000000002</v>
+      <c r="B31" s="3">
+        <v>1.6320000000000001</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1.663</v>
       </c>
       <c r="E31" s="3">
         <f t="shared" si="0"/>
-        <v>1.6930000000000001</v>
+        <v>1.6475</v>
       </c>
       <c r="G31" t="str">
         <f>_xll.RtGet("IDN","PLNAB6W7Y=","GV4_TEXT")</f>
         <v xml:space="preserve">7Y    </v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W7Y=","PRIMACT_1")</f>
-        <v>1.6700000000000002</v>
-      </c>
-      <c r="I31">
+        <v>1.6320000000000001</v>
+      </c>
+      <c r="I31" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W7Y=","SEC_ACT_1")</f>
-        <v>1.7000000000000002</v>
+        <v>1.663</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>41</v>
       </c>
-      <c r="B32">
-        <v>1.6880000000000002</v>
-      </c>
-      <c r="C32">
-        <v>1.718</v>
+      <c r="B32" s="3">
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1.6700000000000002</v>
       </c>
       <c r="E32" s="3">
         <f t="shared" si="0"/>
-        <v>1.7030000000000001</v>
+        <v>1.6550000000000002</v>
       </c>
       <c r="G32" t="str">
         <f>_xll.RtGet("IDN","PLNAB6W8Y=","GV4_TEXT")</f>
         <v xml:space="preserve">8Y    </v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W8Y=","PRIMACT_1")</f>
-        <v>1.6800000000000002</v>
-      </c>
-      <c r="I32">
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="I32" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W8Y=","SEC_ACT_1")</f>
-        <v>1.7100000000000002</v>
+        <v>1.6700000000000002</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>42</v>
       </c>
-      <c r="B33">
-        <v>1.6950000000000001</v>
-      </c>
-      <c r="C33">
-        <v>1.7250000000000001</v>
+      <c r="B33" s="3">
+        <v>1.6480000000000001</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1.6780000000000002</v>
       </c>
       <c r="E33" s="3">
         <f t="shared" si="0"/>
-        <v>1.71</v>
+        <v>1.6630000000000003</v>
       </c>
       <c r="G33" t="str">
         <f>_xll.RtGet("IDN","PLNAB6W9Y=","GV4_TEXT")</f>
         <v xml:space="preserve">9Y    </v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W9Y=","PRIMACT_1")</f>
-        <v>1.6880000000000002</v>
-      </c>
-      <c r="I33">
+        <v>1.6480000000000001</v>
+      </c>
+      <c r="I33" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W9Y=","SEC_ACT_1")</f>
-        <v>1.718</v>
+        <v>1.6780000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>43</v>
       </c>
-      <c r="B34">
-        <v>1.7020000000000002</v>
-      </c>
-      <c r="C34">
-        <v>1.742</v>
+      <c r="B34" s="3">
+        <v>1.6580000000000001</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1.6980000000000002</v>
       </c>
       <c r="E34" s="3">
         <f t="shared" si="0"/>
-        <v>1.722</v>
+        <v>1.6780000000000002</v>
       </c>
       <c r="G34" t="str">
         <f>_xll.RtGet("IDN","PLNAB6W10Y=","GV4_TEXT")</f>
         <v xml:space="preserve">10Y   </v>
       </c>
-      <c r="H34">
+      <c r="H34" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W10Y=","PRIMACT_1")</f>
-        <v>1.6950000000000001</v>
-      </c>
-      <c r="I34">
+        <v>1.6580000000000001</v>
+      </c>
+      <c r="I34" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W10Y=","SEC_ACT_1")</f>
-        <v>1.7350000000000001</v>
+        <v>1.6980000000000002</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>44</v>
       </c>
-      <c r="B35">
-        <v>1.732</v>
-      </c>
-      <c r="C35">
-        <v>1.7730000000000001</v>
+      <c r="B35" s="3">
+        <v>1.6880000000000002</v>
+      </c>
+      <c r="C35" s="3">
+        <v>1.728</v>
       </c>
       <c r="E35" s="3">
         <f t="shared" si="0"/>
-        <v>1.7524999999999999</v>
+        <v>1.7080000000000002</v>
       </c>
       <c r="G35" t="str">
         <f>_xll.RtGet("IDN","PLNAB6W12Y=","GV4_TEXT")</f>
         <v xml:space="preserve">12Y   </v>
       </c>
-      <c r="H35">
+      <c r="H35" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W12Y=","PRIMACT_1")</f>
-        <v>1.7250000000000001</v>
-      </c>
-      <c r="I35">
+        <v>1.6880000000000002</v>
+      </c>
+      <c r="I35" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W12Y=","SEC_ACT_1")</f>
-        <v>1.7650000000000001</v>
+        <v>1.728</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>45</v>
       </c>
-      <c r="B36">
-        <v>1.8230000000000002</v>
-      </c>
-      <c r="C36">
-        <v>1.863</v>
+      <c r="B36" s="3">
+        <v>1.778</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1.8170000000000002</v>
       </c>
       <c r="E36" s="3">
         <f t="shared" si="0"/>
-        <v>1.843</v>
+        <v>1.7975000000000001</v>
       </c>
       <c r="G36" t="str">
         <f>_xll.RtGet("IDN","PLNAB6W15Y=","GV4_TEXT")</f>
         <v xml:space="preserve">15Y   </v>
       </c>
-      <c r="H36">
+      <c r="H36" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W15Y=","PRIMACT_1")</f>
-        <v>1.8150000000000002</v>
-      </c>
-      <c r="I36">
+        <v>1.778</v>
+      </c>
+      <c r="I36" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W15Y=","SEC_ACT_1")</f>
-        <v>1.855</v>
+        <v>1.8170000000000002</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
-      <c r="B37">
-        <v>1.9420000000000002</v>
-      </c>
-      <c r="C37">
-        <v>1.982</v>
+      <c r="B37" s="3">
+        <v>1.8980000000000001</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1.9380000000000002</v>
       </c>
       <c r="E37" s="3">
         <f t="shared" si="0"/>
-        <v>1.9620000000000002</v>
+        <v>1.9180000000000001</v>
       </c>
       <c r="G37" t="str">
         <f>_xll.RtGet("IDN","PLNAB6W20Y=","GV4_TEXT")</f>
         <v xml:space="preserve">20Y   </v>
       </c>
-      <c r="H37">
+      <c r="H37" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W20Y=","PRIMACT_1")</f>
-        <v>1.9350000000000001</v>
-      </c>
-      <c r="I37">
+        <v>1.8980000000000001</v>
+      </c>
+      <c r="I37" s="3">
         <f>_xll.RtGet("IDN","PLNAB6W20Y=","SEC_ACT_1")</f>
-        <v>1.9750000000000001</v>
+        <v>1.9380000000000002</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
       <c r="E38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>25</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="C39" s="3"/>
       <c r="E39" s="3"/>
       <c r="G39" t="s">
         <v>25</v>
       </c>
-      <c r="H39" t="s">
+      <c r="H39" s="3" t="s">
         <v>0</v>
       </c>
+      <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>79</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>1.6300000000000001</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>1.6600000000000001</v>
       </c>
       <c r="E40" s="3">
@@ -5409,11 +5901,11 @@
         <f>_xll.RtGet("IDN","PLNAB1W3M=","GV4_TEXT")</f>
         <v xml:space="preserve">3M    </v>
       </c>
-      <c r="H40">
+      <c r="H40" s="3">
         <f>_xll.RtGet("IDN","PLNAB1W3M=","PRIMACT_1")</f>
         <v>1.6300000000000001</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="3">
         <f>_xll.RtGet("IDN","PLNAB1W3M=","SEC_ACT_1")</f>
         <v>1.6600000000000001</v>
       </c>
@@ -5422,10 +5914,10 @@
       <c r="A41" t="s">
         <v>80</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="3">
         <v>1.6400000000000001</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>1.6700000000000002</v>
       </c>
       <c r="E41" s="3">
@@ -5436,11 +5928,11 @@
         <f>_xll.RtGet("IDN","PLNAB1W6M=","GV4_TEXT")</f>
         <v xml:space="preserve">6M    </v>
       </c>
-      <c r="H41">
+      <c r="H41" s="3">
         <f>_xll.RtGet("IDN","PLNAB1W6M=","PRIMACT_1")</f>
         <v>1.6400000000000001</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="3">
         <f>_xll.RtGet("IDN","PLNAB1W6M=","SEC_ACT_1")</f>
         <v>1.6700000000000002</v>
       </c>
@@ -5449,10 +5941,10 @@
       <c r="A42" t="s">
         <v>81</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>1.6400000000000001</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>1.6700000000000002</v>
       </c>
       <c r="E42" s="3">
@@ -5463,11 +5955,11 @@
         <f>_xll.RtGet("IDN","PLNAB1W9M=","GV4_TEXT")</f>
         <v xml:space="preserve">9M    </v>
       </c>
-      <c r="H42">
+      <c r="H42" s="3">
         <f>_xll.RtGet("IDN","PLNAB1W9M=","PRIMACT_1")</f>
         <v>1.6400000000000001</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="3">
         <f>_xll.RtGet("IDN","PLNAB1W9M=","SEC_ACT_1")</f>
         <v>1.6700000000000002</v>
       </c>
@@ -5476,10 +5968,10 @@
       <c r="A43" t="s">
         <v>34</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>1.6400000000000001</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>1.6700000000000002</v>
       </c>
       <c r="E43" s="3">
@@ -5490,36 +5982,44 @@
         <f>_xll.RtGet("IDN","PLNAB1W1Y=","GV4_TEXT")</f>
         <v xml:space="preserve">1Y    </v>
       </c>
-      <c r="H43">
+      <c r="H43" s="3">
         <f>_xll.RtGet("IDN","PLNAB1W1Y=","PRIMACT_1")</f>
         <v>1.6400000000000001</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="3">
         <f>_xll.RtGet("IDN","PLNAB1W1Y=","SEC_ACT_1")</f>
         <v>1.6700000000000002</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
       <c r="E44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>24</v>
       </c>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
       <c r="E45" s="3"/>
       <c r="G45" t="s">
         <v>24</v>
       </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>47</v>
       </c>
-      <c r="B46">
-        <v>1.62</v>
-      </c>
-      <c r="C46">
-        <v>1.6600000000000001</v>
+      <c r="B46" s="3">
+        <v>1.61</v>
+      </c>
+      <c r="C46" s="3">
+        <v>1.67</v>
       </c>
       <c r="E46" s="3">
         <f t="shared" si="0"/>
@@ -5529,24 +6029,24 @@
         <f>_xll.RtGet("IDN","PLN1X2F=","GV4_TEXT")</f>
         <v>1X2</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="3">
         <f>_xll.RtGet("IDN","PLN1X2F=","PRIMACT_1")</f>
-        <v>1.62</v>
-      </c>
-      <c r="I46">
+        <v>1.61</v>
+      </c>
+      <c r="I46" s="3">
         <f>_xll.RtGet("IDN","PLN1X2F=","SEC_ACT_1")</f>
-        <v>1.6600000000000001</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>48</v>
       </c>
-      <c r="B47">
-        <v>1.62</v>
-      </c>
-      <c r="C47">
-        <v>1.6600000000000001</v>
+      <c r="B47" s="3">
+        <v>1.61</v>
+      </c>
+      <c r="C47" s="3">
+        <v>1.67</v>
       </c>
       <c r="E47" s="3">
         <f t="shared" si="0"/>
@@ -5556,227 +6056,227 @@
         <f>_xll.RtGet("IDN","PLN2X3F=","GV4_TEXT")</f>
         <v>2X3</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="3">
         <f>_xll.RtGet("IDN","PLN2X3F=","PRIMACT_1")</f>
-        <v>1.62</v>
-      </c>
-      <c r="I47">
+        <v>1.61</v>
+      </c>
+      <c r="I47" s="3">
         <f>_xll.RtGet("IDN","PLN2X3F=","SEC_ACT_1")</f>
-        <v>1.6600000000000001</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>49</v>
       </c>
-      <c r="B48">
-        <v>1.6849800000000001</v>
-      </c>
-      <c r="C48">
-        <v>1.7349800000000002</v>
+      <c r="B48" s="3">
+        <v>1.68</v>
+      </c>
+      <c r="C48" s="3">
+        <v>1.74</v>
       </c>
       <c r="E48" s="3">
         <f t="shared" si="0"/>
-        <v>1.7099800000000003</v>
+        <v>1.71</v>
       </c>
       <c r="G48" t="str">
         <f>_xll.RtGet("IDN","PLN1X4F=","GV4_TEXT")</f>
         <v>1X4</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="3">
         <f>_xll.RtGet("IDN","PLN1X4F=","PRIMACT_1")</f>
-        <v>1.6853300000000002</v>
-      </c>
-      <c r="I48">
+        <v>1.68</v>
+      </c>
+      <c r="I48" s="3">
         <f>_xll.RtGet("IDN","PLN1X4F=","SEC_ACT_1")</f>
-        <v>1.73533</v>
+        <v>1.74</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>50</v>
       </c>
-      <c r="B49">
-        <v>1.6830100000000001</v>
-      </c>
-      <c r="C49">
-        <v>1.7330100000000002</v>
+      <c r="B49" s="3">
+        <v>1.679</v>
+      </c>
+      <c r="C49" s="3">
+        <v>1.7390000000000001</v>
       </c>
       <c r="E49" s="3">
         <f t="shared" si="0"/>
-        <v>1.7080100000000003</v>
+        <v>1.7090000000000001</v>
       </c>
       <c r="G49" t="str">
         <f>_xll.RtGet("IDN","PLN2X5F=","GV4_TEXT")</f>
         <v>2X5</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="3">
         <f>_xll.RtGet("IDN","PLN2X5F=","PRIMACT_1")</f>
-        <v>1.6836300000000002</v>
-      </c>
-      <c r="I49">
+        <v>1.679</v>
+      </c>
+      <c r="I49" s="3">
         <f>_xll.RtGet("IDN","PLN2X5F=","SEC_ACT_1")</f>
-        <v>1.7336300000000002</v>
+        <v>1.7390000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>51</v>
       </c>
-      <c r="B50">
-        <v>1.6814600000000002</v>
-      </c>
-      <c r="C50">
-        <v>1.7314600000000002</v>
+      <c r="B50" s="3">
+        <v>1.69</v>
+      </c>
+      <c r="C50" s="3">
+        <v>1.73</v>
       </c>
       <c r="E50" s="3">
         <f t="shared" si="0"/>
-        <v>1.7064600000000003</v>
+        <v>1.71</v>
       </c>
       <c r="G50" t="str">
         <f>_xll.RtGet("IDN","PLN3X6F=","GV4_TEXT")</f>
         <v>3X6</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="3">
         <f>_xll.RtGet("IDN","PLN3X6F=","PRIMACT_1")</f>
-        <v>1.6822600000000001</v>
-      </c>
-      <c r="I50">
+        <v>1.69</v>
+      </c>
+      <c r="I50" s="3">
         <f>_xll.RtGet("IDN","PLN3X6F=","SEC_ACT_1")</f>
-        <v>1.7322600000000001</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>52</v>
       </c>
-      <c r="B51">
-        <v>1.6736400000000002</v>
-      </c>
-      <c r="C51">
-        <v>1.7236400000000001</v>
+      <c r="B51" s="3">
+        <v>1.68</v>
+      </c>
+      <c r="C51" s="3">
+        <v>1.73</v>
       </c>
       <c r="E51" s="3">
         <f t="shared" si="0"/>
-        <v>1.6986400000000001</v>
+        <v>1.7050000000000001</v>
       </c>
       <c r="G51" t="str">
         <f>_xll.RtGet("IDN","PLN4X7F=","GV4_TEXT")</f>
         <v>4X7</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="3">
         <f>_xll.RtGet("IDN","PLN4X7F=","PRIMACT_1")</f>
-        <v>1.6744800000000002</v>
-      </c>
-      <c r="I51">
+        <v>1.68</v>
+      </c>
+      <c r="I51" s="3">
         <f>_xll.RtGet("IDN","PLN4X7F=","SEC_ACT_1")</f>
-        <v>1.7244800000000002</v>
+        <v>1.73</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>53</v>
       </c>
-      <c r="B52">
-        <v>1.6681000000000001</v>
-      </c>
-      <c r="C52">
-        <v>1.7181000000000002</v>
+      <c r="B52" s="3">
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="C52" s="3">
+        <v>1.71</v>
       </c>
       <c r="E52" s="3">
         <f t="shared" si="0"/>
-        <v>1.6931000000000003</v>
+        <v>1.6850000000000001</v>
       </c>
       <c r="G52" t="str">
         <f>_xll.RtGet("IDN","PLN5X8F=","GV4_TEXT")</f>
         <v>5X8</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="3">
         <f>_xll.RtGet("IDN","PLN5X8F=","PRIMACT_1")</f>
-        <v>1.6688000000000001</v>
-      </c>
-      <c r="I52">
+        <v>1.6600000000000001</v>
+      </c>
+      <c r="I52" s="3">
         <f>_xll.RtGet("IDN","PLN5X8F=","SEC_ACT_1")</f>
-        <v>1.7188000000000001</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>54</v>
       </c>
-      <c r="B53">
-        <v>1.6639300000000001</v>
-      </c>
-      <c r="C53">
-        <v>1.7139300000000002</v>
+      <c r="B53" s="3">
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1.69</v>
       </c>
       <c r="E53" s="3">
         <f t="shared" si="0"/>
-        <v>1.68893</v>
+        <v>1.67</v>
       </c>
       <c r="G53" t="str">
         <f>_xll.RtGet("IDN","PLN6X9F=","GV4_TEXT")</f>
         <v>6X9</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="3">
         <f>_xll.RtGet("IDN","PLN6X9F=","PRIMACT_1")</f>
-        <v>1.6643000000000001</v>
-      </c>
-      <c r="I53">
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="I53" s="3">
         <f>_xll.RtGet("IDN","PLN6X9F=","SEC_ACT_1")</f>
-        <v>1.7143000000000002</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>55</v>
       </c>
-      <c r="B54">
-        <v>1.6500000000000001</v>
-      </c>
-      <c r="C54">
-        <v>1.69</v>
+      <c r="B54" s="3">
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="C54" s="3">
+        <v>1.68</v>
       </c>
       <c r="E54" s="3">
         <f t="shared" si="0"/>
-        <v>1.67</v>
+        <v>1.6600000000000001</v>
       </c>
       <c r="G54" t="str">
         <f>_xll.RtGet("IDN","PLN7X10F=","GV4_TEXT")</f>
         <v>7X10</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="3">
         <f>_xll.RtGet("IDN","PLN7X10F=","PRIMACT_1")</f>
-        <v>1.6500000000000001</v>
-      </c>
-      <c r="I54">
+        <v>1.6400000000000001</v>
+      </c>
+      <c r="I54" s="3">
         <f>_xll.RtGet("IDN","PLN7X10F=","SEC_ACT_1")</f>
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>56</v>
       </c>
-      <c r="B55">
-        <v>1.6400000000000001</v>
-      </c>
-      <c r="C55">
-        <v>1.68</v>
+      <c r="B55" s="3">
+        <v>1.6300000000000001</v>
+      </c>
+      <c r="C55" s="3">
+        <v>1.67</v>
       </c>
       <c r="E55" s="3">
         <f t="shared" si="0"/>
-        <v>1.6600000000000001</v>
+        <v>1.65</v>
       </c>
       <c r="G55" t="str">
         <f>_xll.RtGet("IDN","PLN8X11F=","GV4_TEXT")</f>
         <v>8X11</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="3">
         <f>_xll.RtGet("IDN","PLN8X11F=","PRIMACT_1")</f>
         <v>1.6300000000000001</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="3">
         <f>_xll.RtGet("IDN","PLN8X11F=","SEC_ACT_1")</f>
         <v>1.67</v>
       </c>
@@ -5785,64 +6285,64 @@
       <c r="A56" t="s">
         <v>57</v>
       </c>
-      <c r="B56">
-        <v>1.6140700000000001</v>
-      </c>
-      <c r="C56">
-        <v>1.6640700000000002</v>
+      <c r="B56" s="3">
+        <v>1.62</v>
+      </c>
+      <c r="C56" s="3">
+        <v>1.6600000000000001</v>
       </c>
       <c r="E56" s="3">
         <f t="shared" si="0"/>
-        <v>1.6390700000000002</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="G56" t="str">
         <f>_xll.RtGet("IDN","PLN9X12F=","GV4_TEXT")</f>
         <v>9X12</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="3">
         <f>_xll.RtGet("IDN","PLN9X12F=","PRIMACT_1")</f>
-        <v>1.6121700000000001</v>
-      </c>
-      <c r="I56">
+        <v>1.62</v>
+      </c>
+      <c r="I56" s="3">
         <f>_xll.RtGet("IDN","PLN9X12F=","SEC_ACT_1")</f>
-        <v>1.6621700000000001</v>
+        <v>1.6600000000000001</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>58</v>
       </c>
-      <c r="B57">
-        <v>1.7595200000000002</v>
-      </c>
-      <c r="C57">
-        <v>1.8195200000000002</v>
+      <c r="B57" s="3">
+        <v>1.756</v>
+      </c>
+      <c r="C57" s="3">
+        <v>1.8160000000000001</v>
       </c>
       <c r="E57" s="3">
         <f t="shared" si="0"/>
-        <v>1.7895200000000002</v>
+        <v>1.786</v>
       </c>
       <c r="G57" t="str">
         <f>_xll.RtGet("IDN","PLN1X7F=","GV4_TEXT")</f>
         <v>1X7</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="3">
         <f>_xll.RtGet("IDN","PLN1X7F=","PRIMACT_1")</f>
-        <v>1.7594800000000002</v>
-      </c>
-      <c r="I57">
+        <v>1.756</v>
+      </c>
+      <c r="I57" s="3">
         <f>_xll.RtGet("IDN","PLN1X7F=","SEC_ACT_1")</f>
-        <v>1.8194800000000002</v>
+        <v>1.8160000000000001</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>59</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="3">
         <v>1.78</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="3">
         <v>1.8</v>
       </c>
       <c r="E58" s="3">
@@ -5853,11 +6353,11 @@
         <f>_xll.RtGet("IDN","PLN2X8F=","GV4_TEXT")</f>
         <v>2X8</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="3">
         <f>_xll.RtGet("IDN","PLN2X8F=","PRIMACT_1")</f>
         <v>1.78</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="3">
         <f>_xll.RtGet("IDN","PLN2X8F=","SEC_ACT_1")</f>
         <v>1.8</v>
       </c>
@@ -5866,10 +6366,10 @@
       <c r="A59" t="s">
         <v>60</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="3">
         <v>1.77</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
         <v>1.79</v>
       </c>
       <c r="E59" s="3">
@@ -5880,11 +6380,11 @@
         <f>_xll.RtGet("IDN","PLN3X9F=","GV4_TEXT")</f>
         <v>3X9</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="3">
         <f>_xll.RtGet("IDN","PLN3X9F=","PRIMACT_1")</f>
         <v>1.77</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="3">
         <f>_xll.RtGet("IDN","PLN3X9F=","SEC_ACT_1")</f>
         <v>1.79</v>
       </c>
@@ -5893,243 +6393,243 @@
       <c r="A60" t="s">
         <v>61</v>
       </c>
-      <c r="B60">
-        <v>1.7538500000000001</v>
-      </c>
-      <c r="C60">
-        <v>1.8138500000000002</v>
+      <c r="B60" s="3">
+        <v>1.7410000000000001</v>
+      </c>
+      <c r="C60" s="3">
+        <v>1.8009999999999999</v>
       </c>
       <c r="E60" s="3">
         <f t="shared" si="0"/>
-        <v>1.7838500000000002</v>
+        <v>1.7709999999999999</v>
       </c>
       <c r="G60" t="str">
         <f>_xll.RtGet("IDN","PLN4X10F=","GV4_TEXT")</f>
         <v>4X10</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="3">
         <f>_xll.RtGet("IDN","PLN4X10F=","PRIMACT_1")</f>
-        <v>1.7535900000000002</v>
-      </c>
-      <c r="I60">
+        <v>1.7410000000000001</v>
+      </c>
+      <c r="I60" s="3">
         <f>_xll.RtGet("IDN","PLN4X10F=","SEC_ACT_1")</f>
-        <v>1.8135900000000003</v>
+        <v>1.8009999999999999</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>62</v>
       </c>
-      <c r="B61">
-        <v>1.7469000000000001</v>
-      </c>
-      <c r="C61">
-        <v>1.8069000000000002</v>
+      <c r="B61" s="3">
+        <v>1.74</v>
+      </c>
+      <c r="C61" s="3">
+        <v>1.76</v>
       </c>
       <c r="E61" s="3">
         <f t="shared" si="0"/>
-        <v>1.7769000000000001</v>
+        <v>1.75</v>
       </c>
       <c r="G61" t="str">
         <f>_xll.RtGet("IDN","PLN5X11F=","GV4_TEXT")</f>
         <v>5X11</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="3">
         <f>_xll.RtGet("IDN","PLN5X11F=","PRIMACT_1")</f>
-        <v>1.7465000000000002</v>
-      </c>
-      <c r="I61">
+        <v>1.74</v>
+      </c>
+      <c r="I61" s="3">
         <f>_xll.RtGet("IDN","PLN5X11F=","SEC_ACT_1")</f>
-        <v>1.8065</v>
+        <v>1.76</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>63</v>
       </c>
-      <c r="B62">
-        <v>1.7356300000000002</v>
-      </c>
-      <c r="C62">
-        <v>1.7956300000000001</v>
+      <c r="B62" s="3">
+        <v>1.73</v>
+      </c>
+      <c r="C62" s="3">
+        <v>1.75</v>
       </c>
       <c r="E62" s="3">
         <f t="shared" si="0"/>
-        <v>1.7656300000000003</v>
+        <v>1.74</v>
       </c>
       <c r="G62" t="str">
         <f>_xll.RtGet("IDN","PLN6X12F=","GV4_TEXT")</f>
         <v>6X12</v>
       </c>
-      <c r="H62">
+      <c r="H62" s="3">
         <f>_xll.RtGet("IDN","PLN6X12F=","PRIMACT_1")</f>
-        <v>1.7350200000000002</v>
-      </c>
-      <c r="I62">
+        <v>1.73</v>
+      </c>
+      <c r="I62" s="3">
         <f>_xll.RtGet("IDN","PLN6X12F=","SEC_ACT_1")</f>
-        <v>1.7950200000000001</v>
+        <v>1.75</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>64</v>
       </c>
-      <c r="B63">
-        <v>1.55444</v>
-      </c>
-      <c r="C63">
-        <v>1.6044400000000001</v>
+      <c r="B63" s="3">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="C63" s="3">
+        <v>1.615</v>
       </c>
       <c r="E63" s="3">
         <f t="shared" si="0"/>
-        <v>1.57944</v>
+        <v>1.585</v>
       </c>
       <c r="G63" t="str">
         <f>_xll.RtGet("IDN","PLN12X15F=","GV4_TEXT")</f>
         <v>12X15</v>
       </c>
-      <c r="H63">
+      <c r="H63" s="3">
         <f>_xll.RtGet("IDN","PLN12X15F=","PRIMACT_1")</f>
-        <v>1.5490900000000001</v>
-      </c>
-      <c r="I63">
+        <v>1.5549999999999999</v>
+      </c>
+      <c r="I63" s="3">
         <f>_xll.RtGet("IDN","PLN12X15F=","SEC_ACT_1")</f>
-        <v>1.5990900000000001</v>
+        <v>1.615</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>65</v>
       </c>
-      <c r="B64">
-        <v>1.55</v>
-      </c>
-      <c r="C64">
-        <v>1.59</v>
+      <c r="B64" s="3">
+        <v>1.5050000000000001</v>
+      </c>
+      <c r="C64" s="3">
+        <v>1.5649999999999999</v>
       </c>
       <c r="E64" s="3">
         <f t="shared" si="0"/>
-        <v>1.57</v>
+        <v>1.5350000000000001</v>
       </c>
       <c r="G64" t="str">
         <f>_xll.RtGet("IDN","PLN15X18F=","GV4_TEXT")</f>
         <v>15X18</v>
       </c>
-      <c r="H64">
+      <c r="H64" s="3">
         <f>_xll.RtGet("IDN","PLN15X18F=","PRIMACT_1")</f>
-        <v>1.5098800000000001</v>
-      </c>
-      <c r="I64">
+        <v>1.5050000000000001</v>
+      </c>
+      <c r="I64" s="3">
         <f>_xll.RtGet("IDN","PLN15X18F=","SEC_ACT_1")</f>
-        <v>1.5598800000000002</v>
+        <v>1.5649999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>66</v>
       </c>
-      <c r="B65">
-        <v>1.5050000000000001</v>
-      </c>
-      <c r="C65">
-        <v>1.5449999999999999</v>
+      <c r="B65" s="3">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="C65" s="3">
+        <v>1.5150000000000001</v>
       </c>
       <c r="E65" s="3">
         <f t="shared" si="0"/>
-        <v>1.5249999999999999</v>
+        <v>1.4850000000000001</v>
       </c>
       <c r="G65" t="str">
         <f>_xll.RtGet("IDN","PLN18X21F=","GV4_TEXT")</f>
         <v>18X21</v>
       </c>
-      <c r="H65">
+      <c r="H65" s="3">
         <f>_xll.RtGet("IDN","PLN18X21F=","PRIMACT_1")</f>
-        <v>1.49272</v>
-      </c>
-      <c r="I65">
+        <v>1.4550000000000001</v>
+      </c>
+      <c r="I65" s="3">
         <f>_xll.RtGet("IDN","PLN18X21F=","SEC_ACT_1")</f>
-        <v>1.5427200000000001</v>
+        <v>1.5150000000000001</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>67</v>
       </c>
-      <c r="B66">
-        <v>1.4550000000000001</v>
-      </c>
-      <c r="C66">
-        <v>1.4950000000000001</v>
+      <c r="B66" s="3">
+        <v>1.405</v>
+      </c>
+      <c r="C66" s="3">
+        <v>1.4650000000000001</v>
       </c>
       <c r="E66" s="3">
         <f t="shared" si="0"/>
-        <v>1.4750000000000001</v>
+        <v>1.4350000000000001</v>
       </c>
       <c r="G66" t="str">
         <f>_xll.RtGet("IDN","PLN21X24F=","GV4_TEXT")</f>
         <v>21X24</v>
       </c>
-      <c r="H66">
+      <c r="H66" s="3">
         <f>_xll.RtGet("IDN","PLN21X24F=","PRIMACT_1")</f>
-        <v>1.4884000000000002</v>
-      </c>
-      <c r="I66">
+        <v>1.405</v>
+      </c>
+      <c r="I66" s="3">
         <f>_xll.RtGet("IDN","PLN21X24F=","SEC_ACT_1")</f>
-        <v>1.5384</v>
+        <v>1.4650000000000001</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>68</v>
       </c>
-      <c r="B67">
-        <v>1.6600000000000001</v>
-      </c>
-      <c r="C67">
-        <v>1.7000000000000002</v>
+      <c r="B67" s="3">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="C67" s="3">
+        <v>1.6819999999999999</v>
       </c>
       <c r="E67" s="3">
         <f t="shared" si="0"/>
-        <v>1.6800000000000002</v>
+        <v>1.6520000000000001</v>
       </c>
       <c r="G67" t="str">
         <f>_xll.RtGet("IDN","PLN12X18F=","GV4_TEXT")</f>
         <v>12X18</v>
       </c>
-      <c r="H67">
+      <c r="H67" s="3">
         <f>_xll.RtGet("IDN","PLN12X18F=","PRIMACT_1")</f>
-        <v>1.6262500000000002</v>
-      </c>
-      <c r="I67">
+        <v>1.6220000000000001</v>
+      </c>
+      <c r="I67" s="3">
         <f>_xll.RtGet("IDN","PLN12X18F=","SEC_ACT_1")</f>
-        <v>1.6862500000000002</v>
+        <v>1.6819999999999999</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>69</v>
       </c>
-      <c r="B68">
-        <v>1.57</v>
-      </c>
-      <c r="C68">
-        <v>1.61</v>
+      <c r="B68" s="3">
+        <v>1.5230000000000001</v>
+      </c>
+      <c r="C68" s="3">
+        <v>1.583</v>
       </c>
       <c r="E68" s="3">
         <f t="shared" ref="E68" si="1">(C68+B68)/2</f>
-        <v>1.59</v>
+        <v>1.5529999999999999</v>
       </c>
       <c r="G68" t="str">
         <f>_xll.RtGet("IDN","PLN18X24F=","GV4_TEXT")</f>
         <v>18X24</v>
       </c>
-      <c r="H68">
+      <c r="H68" s="3">
         <f>_xll.RtGet("IDN","PLN18X24F=","PRIMACT_1")</f>
-        <v>1.5683200000000002</v>
-      </c>
-      <c r="I68">
+        <v>1.5230000000000001</v>
+      </c>
+      <c r="I68" s="3">
         <f>_xll.RtGet("IDN","PLN18X24F=","SEC_ACT_1")</f>
-        <v>1.6283200000000002</v>
+        <v>1.583</v>
       </c>
     </row>
   </sheetData>
@@ -6142,7 +6642,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C61"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6152,11 +6654,11 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
-        <v>43797</v>
+        <v>43796</v>
       </c>
       <c r="G1" s="4">
         <f ca="1">TODAY()</f>
-        <v>43795</v>
+        <v>43796</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -6177,29 +6679,32 @@
       <c r="A4" t="s">
         <v>27</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="3">
         <v>-0.44800000000000001</v>
       </c>
-      <c r="E4">
+      <c r="C4" s="3"/>
+      <c r="E4" s="3">
         <f>B4</f>
         <v>-0.44800000000000001</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <f>_xll.RtGet("IDN","EONIA=","PRIMACT_1")</f>
         <v>-0.44800000000000001</v>
       </c>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="3">
         <v>-0.499</v>
       </c>
-      <c r="E5">
+      <c r="C5" s="3"/>
+      <c r="E5" s="3">
         <f t="shared" ref="E5:E9" si="0">B5</f>
         <v>-0.499</v>
       </c>
@@ -6207,101 +6712,115 @@
         <f>_xll.RtGet("IDN","EURIBORSWD=","GV4_TEXT")</f>
         <v>SW</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <f>_xll.RtGet("IDN","EURIBORSWD=","PRIMACT_1")</f>
         <v>-0.499</v>
       </c>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B6">
-        <v>-0.45100000000000001</v>
-      </c>
-      <c r="E6">
+      <c r="B6" s="3">
+        <v>-0.44800000000000001</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>-0.45100000000000001</v>
+        <v>-0.44800000000000001</v>
       </c>
       <c r="G6" t="str">
         <f>_xll.RtGet("IDN","EURIBOR1MD=","GV4_TEXT")</f>
         <v>1M</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <f>_xll.RtGet("IDN","EURIBOR1MD=","PRIMACT_1")</f>
-        <v>-0.45100000000000001</v>
-      </c>
+        <v>-0.44800000000000001</v>
+      </c>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
-      <c r="B7">
-        <v>-0.39900000000000002</v>
-      </c>
-      <c r="E7">
+      <c r="B7" s="3">
+        <v>-0.4</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>-0.39900000000000002</v>
+        <v>-0.4</v>
       </c>
       <c r="G7" t="str">
         <f>_xll.RtGet("IDN","EURIBOR3MD=","GV4_TEXT")</f>
         <v>3M</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <f>_xll.RtGet("IDN","EURIBOR3MD=","PRIMACT_1")</f>
-        <v>-0.39900000000000002</v>
-      </c>
+        <v>-0.4</v>
+      </c>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
-      <c r="B8">
-        <v>-0.33800000000000002</v>
-      </c>
-      <c r="E8">
+      <c r="B8" s="3">
+        <v>-0.34200000000000003</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>-0.33800000000000002</v>
+        <v>-0.34200000000000003</v>
       </c>
       <c r="G8" t="str">
         <f>_xll.RtGet("IDN","EURIBOR6MD=","GV4_TEXT")</f>
         <v>6M</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <f>_xll.RtGet("IDN","EURIBOR6MD=","PRIMACT_1")</f>
-        <v>-0.33800000000000002</v>
-      </c>
+        <v>-0.34200000000000003</v>
+      </c>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>3</v>
       </c>
-      <c r="B9">
-        <v>-0.27900000000000003</v>
-      </c>
-      <c r="E9">
+      <c r="B9" s="3">
+        <v>-0.27800000000000002</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>-0.27900000000000003</v>
+        <v>-0.27800000000000002</v>
       </c>
       <c r="G9" t="str">
         <f>_xll.RtGet("IDN","EURIBOR1YD=","GV4_TEXT")</f>
         <v>1Y</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <f>_xll.RtGet("IDN","EURIBOR1YD=","PRIMACT_1")</f>
-        <v>-0.27900000000000003</v>
-      </c>
+        <v>-0.27800000000000002</v>
+      </c>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="E10" s="3"/>
       <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>25</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="G11" t="s">
         <v>25</v>
       </c>
@@ -6313,282 +6832,287 @@
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12">
-        <v>-0.41110000000000002</v>
-      </c>
-      <c r="C12">
-        <v>-0.4078</v>
-      </c>
-      <c r="E12">
+      <c r="B12" s="3">
+        <v>-0.41260000000000002</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-0.40940000000000004</v>
+      </c>
+      <c r="E12" s="3">
         <f>(C12+B12)/2</f>
-        <v>-0.40944999999999998</v>
+        <v>-0.41100000000000003</v>
       </c>
       <c r="G12" t="str">
         <f>_xll.RtGet("IDN","EURAB3E1Y=","GV4_TEXT")</f>
         <v xml:space="preserve">1Y    </v>
       </c>
-      <c r="H12">
+      <c r="H12" s="3">
         <f>_xll.RtGet("IDN","EURAB3E1Y=","PRIMACT_1")</f>
-        <v>-0.43570000000000003</v>
-      </c>
-      <c r="I12">
+        <v>-0.42000000000000004</v>
+      </c>
+      <c r="I12" s="3">
         <f>_xll.RtGet("IDN","EURAB3E1Y=","SEC_ACT_1")</f>
-        <v>-0.3957</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13">
-        <v>-0.44220000000000004</v>
-      </c>
-      <c r="C13">
-        <v>-0.39219999999999999</v>
-      </c>
-      <c r="E13">
+      <c r="B13" s="3">
+        <v>-0.43920000000000003</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-0.3992</v>
+      </c>
+      <c r="E13" s="3">
         <f t="shared" ref="E13:E21" si="1">(C13+B13)/2</f>
-        <v>-0.41720000000000002</v>
+        <v>-0.41920000000000002</v>
       </c>
       <c r="G13" t="str">
         <f>_xll.RtGet("IDN","EURAB3E2Y=","GV4_TEXT")</f>
         <v xml:space="preserve">2Y    </v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <f>_xll.RtGet("IDN","EURAB3E2Y=","PRIMACT_1")</f>
-        <v>-0.4224</v>
-      </c>
-      <c r="I13">
+        <v>-0.42200000000000004</v>
+      </c>
+      <c r="I13" s="3">
         <f>_xll.RtGet("IDN","EURAB3E2Y=","SEC_ACT_1")</f>
-        <v>-0.41240000000000004</v>
+        <v>-0.41600000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14">
-        <v>-0.41300000000000003</v>
-      </c>
-      <c r="C14">
-        <v>-0.372</v>
-      </c>
-      <c r="E14">
+      <c r="B14" s="3">
+        <v>-0.41700000000000004</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-0.377</v>
+      </c>
+      <c r="E14" s="3">
         <f t="shared" si="1"/>
-        <v>-0.39250000000000002</v>
+        <v>-0.39700000000000002</v>
       </c>
       <c r="G14" t="str">
         <f>_xll.RtGet("IDN","EURAB3E3Y=","GV4_TEXT")</f>
         <v xml:space="preserve">3Y    </v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <f>_xll.RtGet("IDN","EURAB3E3Y=","PRIMACT_1")</f>
-        <v>-0.39980000000000004</v>
-      </c>
-      <c r="I14">
+        <v>-0.39900000000000002</v>
+      </c>
+      <c r="I14" s="3">
         <f>_xll.RtGet("IDN","EURAB3E3Y=","SEC_ACT_1")</f>
-        <v>-0.38980000000000004</v>
+        <v>-0.39400000000000002</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B15">
-        <v>-0.37490000000000001</v>
-      </c>
-      <c r="C15">
-        <v>-0.33490000000000003</v>
-      </c>
-      <c r="E15">
+      <c r="B15" s="3">
+        <v>-0.36300000000000004</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-0.35800000000000004</v>
+      </c>
+      <c r="E15" s="3">
         <f t="shared" si="1"/>
-        <v>-0.35489999999999999</v>
+        <v>-0.36050000000000004</v>
       </c>
       <c r="G15" t="str">
         <f>_xll.RtGet("IDN","EURAB3E4Y=","GV4_TEXT")</f>
         <v xml:space="preserve">4Y    </v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <f>_xll.RtGet("IDN","EURAB3E4Y=","PRIMACT_1")</f>
-        <v>-0.3609</v>
-      </c>
-      <c r="I15">
+        <v>-0.36599999999999999</v>
+      </c>
+      <c r="I15" s="3">
         <f>_xll.RtGet("IDN","EURAB3E4Y=","SEC_ACT_1")</f>
-        <v>-0.35089999999999999</v>
+        <v>-0.35600000000000004</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16">
-        <v>-0.309</v>
-      </c>
-      <c r="C16">
-        <v>-0.30399999999999999</v>
-      </c>
-      <c r="E16">
+      <c r="B16" s="3">
+        <v>-0.32040000000000002</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-0.31040000000000001</v>
+      </c>
+      <c r="E16" s="3">
         <f t="shared" si="1"/>
-        <v>-0.30649999999999999</v>
+        <v>-0.31540000000000001</v>
       </c>
       <c r="G16" t="str">
         <f>_xll.RtGet("IDN","EURAB3E5Y=","GV4_TEXT")</f>
         <v xml:space="preserve">5Y    </v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <f>_xll.RtGet("IDN","EURAB3E5Y=","PRIMACT_1")</f>
-        <v>-0.314</v>
-      </c>
-      <c r="I16">
+        <v>-0.34</v>
+      </c>
+      <c r="I16" s="3">
         <f>_xll.RtGet("IDN","EURAB3E5Y=","SEC_ACT_1")</f>
-        <v>-0.30399999999999999</v>
+        <v>-0.29000000000000004</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17">
-        <v>-0.2737</v>
-      </c>
-      <c r="C17">
-        <v>-0.23370000000000002</v>
-      </c>
-      <c r="E17">
+      <c r="B17" s="3">
+        <v>-0.28220000000000001</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-0.2422</v>
+      </c>
+      <c r="E17" s="3">
         <f t="shared" si="1"/>
-        <v>-0.25370000000000004</v>
+        <v>-0.26219999999999999</v>
       </c>
       <c r="G17" t="str">
         <f>_xll.RtGet("IDN","EURAB3E6Y=","GV4_TEXT")</f>
         <v xml:space="preserve">6Y    </v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <f>_xll.RtGet("IDN","EURAB3E6Y=","PRIMACT_1")</f>
-        <v>-0.26190000000000002</v>
-      </c>
-      <c r="I17">
+        <v>-0.26700000000000002</v>
+      </c>
+      <c r="I17" s="3">
         <f>_xll.RtGet("IDN","EURAB3E6Y=","SEC_ACT_1")</f>
-        <v>-0.25190000000000001</v>
+        <v>-0.25700000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18">
-        <v>-0.21450000000000002</v>
-      </c>
-      <c r="C18">
-        <v>-0.17450000000000002</v>
-      </c>
-      <c r="E18">
+      <c r="B18" s="3">
+        <v>-0.2112</v>
+      </c>
+      <c r="C18" s="3">
+        <v>-0.20120000000000002</v>
+      </c>
+      <c r="E18" s="3">
         <f t="shared" si="1"/>
-        <v>-0.19450000000000001</v>
+        <v>-0.20619999999999999</v>
       </c>
       <c r="G18" t="str">
         <f>_xll.RtGet("IDN","EURAB3E7Y=","GV4_TEXT")</f>
         <v xml:space="preserve">7Y    </v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <f>_xll.RtGet("IDN","EURAB3E7Y=","PRIMACT_1")</f>
-        <v>-0.2034</v>
-      </c>
-      <c r="I18">
+        <v>-0.21010000000000001</v>
+      </c>
+      <c r="I18" s="3">
         <f>_xll.RtGet("IDN","EURAB3E7Y=","SEC_ACT_1")</f>
-        <v>-0.19840000000000002</v>
+        <v>-0.2001</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19">
-        <v>-0.153</v>
-      </c>
-      <c r="C19">
-        <v>-0.113</v>
-      </c>
-      <c r="E19">
+      <c r="B19" s="3">
+        <v>-0.15629999999999999</v>
+      </c>
+      <c r="C19" s="3">
+        <v>-0.1363</v>
+      </c>
+      <c r="E19" s="3">
         <f t="shared" si="1"/>
-        <v>-0.13300000000000001</v>
+        <v>-0.14629999999999999</v>
       </c>
       <c r="G19" t="str">
         <f>_xll.RtGet("IDN","EURAB3E8Y=","GV4_TEXT")</f>
         <v xml:space="preserve">8Y    </v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <f>_xll.RtGet("IDN","EURAB3E8Y=","PRIMACT_1")</f>
-        <v>-0.1424</v>
-      </c>
-      <c r="I19">
+        <v>-0.1517</v>
+      </c>
+      <c r="I19" s="3">
         <f>_xll.RtGet("IDN","EURAB3E8Y=","SEC_ACT_1")</f>
-        <v>-0.13739999999999999</v>
+        <v>-0.14170000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20">
-        <v>-7.640000000000001E-2</v>
-      </c>
-      <c r="C20">
-        <v>-6.6400000000000001E-2</v>
-      </c>
-      <c r="E20">
+      <c r="B20" s="3">
+        <v>-0.10300000000000001</v>
+      </c>
+      <c r="C20" s="3">
+        <v>-6.3E-2</v>
+      </c>
+      <c r="E20" s="3">
         <f t="shared" si="1"/>
-        <v>-7.1400000000000005E-2</v>
+        <v>-8.3000000000000004E-2</v>
       </c>
       <c r="G20" t="str">
         <f>_xll.RtGet("IDN","EURAB3E9Y=","GV4_TEXT")</f>
         <v xml:space="preserve">9Y    </v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <f>_xll.RtGet("IDN","EURAB3E9Y=","PRIMACT_1")</f>
-        <v>-8.2000000000000003E-2</v>
-      </c>
-      <c r="I20">
+        <v>-8.6000000000000007E-2</v>
+      </c>
+      <c r="I20" s="3">
         <f>_xll.RtGet("IDN","EURAB3E9Y=","SEC_ACT_1")</f>
-        <v>-7.2000000000000008E-2</v>
+        <v>-8.1000000000000003E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21">
-        <v>-1.43E-2</v>
-      </c>
-      <c r="C21">
-        <v>-4.3E-3</v>
-      </c>
-      <c r="E21">
+      <c r="B21" s="3">
+        <v>-2.6100000000000002E-2</v>
+      </c>
+      <c r="C21" s="3">
+        <v>-1.61E-2</v>
+      </c>
+      <c r="E21" s="3">
         <f t="shared" si="1"/>
-        <v>-9.2999999999999992E-3</v>
+        <v>-2.1100000000000001E-2</v>
       </c>
       <c r="G21" t="str">
         <f>_xll.RtGet("IDN","EURAB3E10Y=","GV4_TEXT")</f>
         <v xml:space="preserve">10Y   </v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <f>_xll.RtGet("IDN","EURAB3E10Y=","PRIMACT_1")</f>
-        <v>-3.4000000000000002E-2</v>
-      </c>
-      <c r="I21">
+        <v>-2.4E-2</v>
+      </c>
+      <c r="I21" s="3">
         <f>_xll.RtGet("IDN","EURAB3E10Y=","SEC_ACT_1")</f>
-        <v>6.0000000000000001E-3</v>
+        <v>-1.9E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="E22" s="3"/>
       <c r="G22" s="4"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>25</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>2</v>
       </c>
+      <c r="C23" s="3"/>
+      <c r="E23" s="3"/>
       <c r="G23" t="s">
         <v>25</v>
       </c>
@@ -6600,399 +7124,411 @@
       <c r="A24" t="s">
         <v>34</v>
       </c>
-      <c r="B24">
-        <v>-0.34390000000000004</v>
-      </c>
-      <c r="C24">
-        <v>-0.34040000000000004</v>
-      </c>
-      <c r="E24">
+      <c r="B24" s="3">
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="C24" s="3">
+        <v>-0.34</v>
+      </c>
+      <c r="E24" s="3">
         <f t="shared" ref="E24:E33" si="2">(C24+B24)/2</f>
-        <v>-0.34215000000000007</v>
+        <v>-0.34500000000000003</v>
       </c>
       <c r="G24" t="str">
         <f>_xll.RtGet("IDN","EURAB6E1Y=","GV4_TEXT")</f>
         <v xml:space="preserve">1Y    </v>
       </c>
-      <c r="H24">
+      <c r="H24" s="3">
         <f>_xll.RtGet("IDN","EURAB6E1Y=","PRIMACT_1")</f>
-        <v>-0.3448</v>
-      </c>
-      <c r="I24">
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="I24" s="3">
         <f>_xll.RtGet("IDN","EURAB6E1Y=","SEC_ACT_1")</f>
-        <v>-0.34129999999999999</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>35</v>
       </c>
-      <c r="B25">
-        <v>-0.35100000000000003</v>
-      </c>
-      <c r="C25">
-        <v>-0.33100000000000002</v>
-      </c>
-      <c r="E25">
+      <c r="B25" s="3">
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="C25" s="3">
+        <v>-0.34</v>
+      </c>
+      <c r="E25" s="3">
         <f t="shared" si="2"/>
-        <v>-0.34100000000000003</v>
+        <v>-0.34500000000000003</v>
       </c>
       <c r="G25" t="str">
         <f>_xll.RtGet("IDN","EURAB6E2Y=","GV4_TEXT")</f>
         <v xml:space="preserve">2Y    </v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <f>_xll.RtGet("IDN","EURAB6E2Y=","PRIMACT_1")</f>
-        <v>-0.35300000000000004</v>
-      </c>
-      <c r="I25">
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="I25" s="3">
         <f>_xll.RtGet("IDN","EURAB6E2Y=","SEC_ACT_1")</f>
-        <v>-0.33300000000000002</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>36</v>
       </c>
-      <c r="B26">
-        <v>-0.32500000000000001</v>
-      </c>
-      <c r="C26">
-        <v>-0.30499999999999999</v>
-      </c>
-      <c r="E26">
+      <c r="B26" s="3">
+        <v>-0.32300000000000001</v>
+      </c>
+      <c r="C26" s="3">
+        <v>-0.318</v>
+      </c>
+      <c r="E26" s="3">
         <f t="shared" si="2"/>
-        <v>-0.315</v>
+        <v>-0.32050000000000001</v>
       </c>
       <c r="G26" t="str">
         <f>_xll.RtGet("IDN","EURAB6E3Y=","GV4_TEXT")</f>
         <v xml:space="preserve">3Y    </v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <f>_xll.RtGet("IDN","EURAB6E3Y=","PRIMACT_1")</f>
-        <v>-0.32800000000000001</v>
-      </c>
-      <c r="I26">
+        <v>-0.34590000000000004</v>
+      </c>
+      <c r="I26" s="3">
         <f>_xll.RtGet("IDN","EURAB6E3Y=","SEC_ACT_1")</f>
-        <v>-0.308</v>
+        <v>-0.2959</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
-      <c r="B27">
-        <v>-0.28100000000000003</v>
-      </c>
-      <c r="C27">
-        <v>-0.27100000000000002</v>
-      </c>
-      <c r="E27">
+      <c r="B27" s="3">
+        <v>-0.28939999999999999</v>
+      </c>
+      <c r="C27" s="3">
+        <v>-0.26940000000000003</v>
+      </c>
+      <c r="E27" s="3">
         <f t="shared" si="2"/>
-        <v>-0.27600000000000002</v>
+        <v>-0.27939999999999998</v>
       </c>
       <c r="G27" t="str">
         <f>_xll.RtGet("IDN","EURAB6E4Y=","GV4_TEXT")</f>
         <v xml:space="preserve">4Y    </v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <f>_xll.RtGet("IDN","EURAB6E4Y=","PRIMACT_1")</f>
-        <v>-0.2893</v>
-      </c>
-      <c r="I27">
+        <v>-0.28400000000000003</v>
+      </c>
+      <c r="I27" s="3">
         <f>_xll.RtGet("IDN","EURAB6E4Y=","SEC_ACT_1")</f>
-        <v>-0.26930000000000004</v>
+        <v>-0.27900000000000003</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="B28">
-        <v>-0.23</v>
-      </c>
-      <c r="C28">
-        <v>-0.22500000000000001</v>
-      </c>
-      <c r="E28">
+      <c r="B28" s="3">
+        <v>-0.2412</v>
+      </c>
+      <c r="C28" s="3">
+        <v>-0.23120000000000002</v>
+      </c>
+      <c r="E28" s="3">
         <f t="shared" si="2"/>
-        <v>-0.22750000000000001</v>
+        <v>-0.23620000000000002</v>
       </c>
       <c r="G28" t="str">
         <f>_xll.RtGet("IDN","EURAB6E5Y=","GV4_TEXT")</f>
         <v xml:space="preserve">5Y    </v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <f>_xll.RtGet("IDN","EURAB6E5Y=","PRIMACT_1")</f>
-        <v>-0.23550000000000001</v>
-      </c>
-      <c r="I28">
+        <v>-0.24000000000000002</v>
+      </c>
+      <c r="I28" s="3">
         <f>_xll.RtGet("IDN","EURAB6E5Y=","SEC_ACT_1")</f>
-        <v>-0.22550000000000001</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>39</v>
       </c>
-      <c r="B29">
-        <v>-0.182</v>
-      </c>
-      <c r="C29">
-        <v>-0.17200000000000001</v>
-      </c>
-      <c r="E29">
+      <c r="B29" s="3">
+        <v>-0.19450000000000001</v>
+      </c>
+      <c r="C29" s="3">
+        <v>-0.17450000000000002</v>
+      </c>
+      <c r="E29" s="3">
         <f t="shared" si="2"/>
-        <v>-0.17699999999999999</v>
+        <v>-0.1845</v>
       </c>
       <c r="G29" t="str">
         <f>_xll.RtGet("IDN","EURAB6E6Y=","GV4_TEXT")</f>
         <v xml:space="preserve">6Y    </v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <f>_xll.RtGet("IDN","EURAB6E6Y=","PRIMACT_1")</f>
-        <v>-0.186</v>
-      </c>
-      <c r="I29">
+        <v>-0.1895</v>
+      </c>
+      <c r="I29" s="3">
         <f>_xll.RtGet("IDN","EURAB6E6Y=","SEC_ACT_1")</f>
-        <v>-0.17600000000000002</v>
+        <v>-0.17950000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>40</v>
       </c>
-      <c r="B30">
-        <v>-0.12710000000000002</v>
-      </c>
-      <c r="C30">
-        <v>-0.11710000000000001</v>
-      </c>
-      <c r="E30">
+      <c r="B30" s="3">
+        <v>-0.14600000000000002</v>
+      </c>
+      <c r="C30" s="3">
+        <v>-0.11600000000000001</v>
+      </c>
+      <c r="E30" s="3">
         <f t="shared" si="2"/>
-        <v>-0.12210000000000001</v>
+        <v>-0.13100000000000001</v>
       </c>
       <c r="G30" t="str">
         <f>_xll.RtGet("IDN","EURAB6E7Y=","GV4_TEXT")</f>
         <v xml:space="preserve">7Y    </v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <f>_xll.RtGet("IDN","EURAB6E7Y=","PRIMACT_1")</f>
-        <v>-0.12790000000000001</v>
-      </c>
-      <c r="I30">
+        <v>-0.13370000000000001</v>
+      </c>
+      <c r="I30" s="3">
         <f>_xll.RtGet("IDN","EURAB6E7Y=","SEC_ACT_1")</f>
-        <v>-0.12390000000000001</v>
+        <v>-0.11370000000000001</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>41</v>
       </c>
-      <c r="B31">
-        <v>-7.1000000000000008E-2</v>
-      </c>
-      <c r="C31">
-        <v>-5.1000000000000004E-2</v>
-      </c>
-      <c r="E31">
+      <c r="B31" s="3">
+        <v>-7.4999999999999997E-2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="E31" s="3">
         <f t="shared" si="2"/>
-        <v>-6.1000000000000006E-2</v>
+        <v>-7.2500000000000009E-2</v>
       </c>
       <c r="G31" t="str">
         <f>_xll.RtGet("IDN","EURAB6E8Y=","GV4_TEXT")</f>
         <v xml:space="preserve">8Y    </v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <f>_xll.RtGet("IDN","EURAB6E8Y=","PRIMACT_1")</f>
-        <v>-6.8900000000000003E-2</v>
-      </c>
-      <c r="I31">
+        <v>-7.3099999999999998E-2</v>
+      </c>
+      <c r="I31" s="3">
         <f>_xll.RtGet("IDN","EURAB6E8Y=","SEC_ACT_1")</f>
-        <v>-6.4899999999999999E-2</v>
+        <v>-5.3100000000000001E-2</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>42</v>
       </c>
-      <c r="B32">
-        <v>-0.01</v>
-      </c>
-      <c r="C32">
-        <v>0.01</v>
-      </c>
-      <c r="E32">
+      <c r="B32" s="3">
+        <v>-2.3700000000000002E-2</v>
+      </c>
+      <c r="C32" s="3">
+        <v>-3.7000000000000002E-3</v>
+      </c>
+      <c r="E32" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>-1.37E-2</v>
       </c>
       <c r="G32" t="str">
         <f>_xll.RtGet("IDN","EURAB6E9Y=","GV4_TEXT")</f>
         <v xml:space="preserve">9Y    </v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <f>_xll.RtGet("IDN","EURAB6E9Y=","PRIMACT_1")</f>
-        <v>-8.8999999999999999E-3</v>
-      </c>
-      <c r="I32">
+        <v>-1.7400000000000002E-2</v>
+      </c>
+      <c r="I32" s="3">
         <f>_xll.RtGet("IDN","EURAB6E9Y=","SEC_ACT_1")</f>
-        <v>-4.8999999999999998E-3</v>
+        <v>-7.4000000000000003E-3</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>43</v>
       </c>
-      <c r="B33">
-        <v>4.9000000000000002E-2</v>
-      </c>
-      <c r="C33">
-        <v>6.9000000000000006E-2</v>
-      </c>
-      <c r="E33">
+      <c r="B33" s="3">
+        <v>2.64E-2</v>
+      </c>
+      <c r="C33" s="3">
+        <v>6.6400000000000001E-2</v>
+      </c>
+      <c r="E33" s="3">
         <f t="shared" si="2"/>
-        <v>5.9000000000000004E-2</v>
+        <v>4.6399999999999997E-2</v>
       </c>
       <c r="G33" t="str">
         <f>_xll.RtGet("IDN","EURAB6E10Y=","GV4_TEXT")</f>
         <v xml:space="preserve">10Y   </v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <f>_xll.RtGet("IDN","EURAB6E10Y=","PRIMACT_1")</f>
-        <v>4.7E-2</v>
-      </c>
-      <c r="I33">
+        <v>4.6100000000000002E-2</v>
+      </c>
+      <c r="I33" s="3">
         <f>_xll.RtGet("IDN","EURAB6E10Y=","SEC_ACT_1")</f>
-        <v>5.7000000000000002E-2</v>
-      </c>
+        <v>6.6100000000000006E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>24</v>
       </c>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="E35" s="3"/>
       <c r="G35" t="s">
         <v>24</v>
       </c>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>49</v>
       </c>
-      <c r="B36">
-        <v>-0.41100000000000003</v>
-      </c>
-      <c r="C36">
-        <v>-0.39100000000000001</v>
-      </c>
-      <c r="E36">
+      <c r="B36" s="3">
+        <v>-0.40200000000000002</v>
+      </c>
+      <c r="C36" s="3">
+        <v>-0.38200000000000001</v>
+      </c>
+      <c r="E36" s="3">
         <f t="shared" ref="E36:E61" si="3">(C36+B36)/2</f>
-        <v>-0.40100000000000002</v>
+        <v>-0.39200000000000002</v>
       </c>
       <c r="G36" t="str">
         <f>_xll.RtGet("IDN","EUR1X4F=","GV4_TEXT")</f>
         <v>1X4</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="3">
         <f>_xll.RtGet("IDN","EUR1X4F=","PRIMACT_1")</f>
-        <v>-0.41000000000000003</v>
-      </c>
-      <c r="I36">
+        <v>-0.40200000000000002</v>
+      </c>
+      <c r="I36" s="3">
         <f>_xll.RtGet("IDN","EUR1X4F=","SEC_ACT_1")</f>
-        <v>-0.39</v>
+        <v>-0.38200000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>50</v>
       </c>
-      <c r="B37">
-        <v>-0.41000000000000003</v>
-      </c>
-      <c r="C37">
-        <v>-0.39</v>
-      </c>
-      <c r="E37">
+      <c r="B37" s="3">
+        <v>-0.40900000000000003</v>
+      </c>
+      <c r="C37" s="3">
+        <v>-0.38900000000000001</v>
+      </c>
+      <c r="E37" s="3">
         <f t="shared" si="3"/>
-        <v>-0.4</v>
+        <v>-0.39900000000000002</v>
       </c>
       <c r="G37" t="str">
         <f>_xll.RtGet("IDN","EUR2X5F=","GV4_TEXT")</f>
         <v>2X5</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="3">
         <f>_xll.RtGet("IDN","EUR2X5F=","PRIMACT_1")</f>
-        <v>-0.4</v>
-      </c>
-      <c r="I37">
+        <v>-0.40900000000000003</v>
+      </c>
+      <c r="I37" s="3">
         <f>_xll.RtGet("IDN","EUR2X5F=","SEC_ACT_1")</f>
-        <v>-0.38</v>
+        <v>-0.38900000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>51</v>
       </c>
-      <c r="B38">
-        <v>-0.41000000000000003</v>
-      </c>
-      <c r="C38">
-        <v>-0.39</v>
-      </c>
-      <c r="E38">
+      <c r="B38" s="3">
+        <v>-0.41500000000000004</v>
+      </c>
+      <c r="C38" s="3">
+        <v>-0.39500000000000002</v>
+      </c>
+      <c r="E38" s="3">
         <f t="shared" si="3"/>
-        <v>-0.4</v>
+        <v>-0.40500000000000003</v>
       </c>
       <c r="G38" t="str">
         <f>_xll.RtGet("IDN","EUR3X6F=","GV4_TEXT")</f>
         <v>3X6</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="3">
         <f>_xll.RtGet("IDN","EUR3X6F=","PRIMACT_1")</f>
-        <v>-0.41000000000000003</v>
-      </c>
-      <c r="I38">
+        <v>-0.41500000000000004</v>
+      </c>
+      <c r="I38" s="3">
         <f>_xll.RtGet("IDN","EUR3X6F=","SEC_ACT_1")</f>
-        <v>-0.39</v>
+        <v>-0.39500000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>52</v>
       </c>
-      <c r="B39">
-        <v>-0.41000000000000003</v>
-      </c>
-      <c r="C39">
-        <v>-0.39</v>
-      </c>
-      <c r="E39">
+      <c r="B39" s="3">
+        <v>-0.42199999999999999</v>
+      </c>
+      <c r="C39" s="3">
+        <v>-0.40200000000000002</v>
+      </c>
+      <c r="E39" s="3">
         <f t="shared" si="3"/>
-        <v>-0.4</v>
+        <v>-0.41200000000000003</v>
       </c>
       <c r="G39" t="str">
         <f>_xll.RtGet("IDN","EUR4X7F=","GV4_TEXT")</f>
         <v>4X7</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="3">
         <f>_xll.RtGet("IDN","EUR4X7F=","PRIMACT_1")</f>
-        <v>-0.42</v>
-      </c>
-      <c r="I39">
+        <v>-0.42199999999999999</v>
+      </c>
+      <c r="I39" s="3">
         <f>_xll.RtGet("IDN","EUR4X7F=","SEC_ACT_1")</f>
-        <v>-0.4</v>
+        <v>-0.40200000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="3">
         <v>-0.42</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>-0.4</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="3">
         <f t="shared" si="3"/>
         <v>-0.41000000000000003</v>
       </c>
@@ -7000,53 +7536,53 @@
         <f>_xll.RtGet("IDN","EUR5X8F=","GV4_TEXT")</f>
         <v>5X8</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="3">
         <f>_xll.RtGet("IDN","EUR5X8F=","PRIMACT_1")</f>
-        <v>-0.41300000000000003</v>
-      </c>
-      <c r="I40">
+        <v>-0.42</v>
+      </c>
+      <c r="I40" s="3">
         <f>_xll.RtGet("IDN","EUR5X8F=","SEC_ACT_1")</f>
-        <v>-0.40300000000000002</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>54</v>
       </c>
-      <c r="B41">
-        <v>-0.42099999999999999</v>
-      </c>
-      <c r="C41">
-        <v>-0.40100000000000002</v>
-      </c>
-      <c r="E41">
+      <c r="B41" s="3">
+        <v>-0.442</v>
+      </c>
+      <c r="C41" s="3">
+        <v>-0.39200000000000002</v>
+      </c>
+      <c r="E41" s="3">
         <f t="shared" si="3"/>
-        <v>-0.41100000000000003</v>
+        <v>-0.41700000000000004</v>
       </c>
       <c r="G41" t="str">
         <f>_xll.RtGet("IDN","EUR6X9F=","GV4_TEXT")</f>
         <v>6X9</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="3">
         <f>_xll.RtGet("IDN","EUR6X9F=","PRIMACT_1")</f>
-        <v>-0.41699999999999998</v>
-      </c>
-      <c r="I41">
+        <v>-0.42399999999999999</v>
+      </c>
+      <c r="I41" s="3">
         <f>_xll.RtGet("IDN","EUR6X9F=","SEC_ACT_1")</f>
-        <v>-0.40700000000000003</v>
+        <v>-0.40400000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>55</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="3">
         <v>-0.43</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>-0.41000000000000003</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="3">
         <f t="shared" si="3"/>
         <v>-0.42000000000000004</v>
       </c>
@@ -7054,26 +7590,26 @@
         <f>_xll.RtGet("IDN","EUR7X10F=","GV4_TEXT")</f>
         <v>7X10</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="3">
         <f>_xll.RtGet("IDN","EUR7X10F=","PRIMACT_1")</f>
-        <v>-0.441</v>
-      </c>
-      <c r="I42">
+        <v>-0.43</v>
+      </c>
+      <c r="I42" s="3">
         <f>_xll.RtGet("IDN","EUR7X10F=","SEC_ACT_1")</f>
-        <v>-0.39100000000000001</v>
+        <v>-0.41000000000000003</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>56</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="3">
         <v>-0.43</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>-0.41000000000000003</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="3">
         <f t="shared" si="3"/>
         <v>-0.42000000000000004</v>
       </c>
@@ -7081,11 +7617,11 @@
         <f>_xll.RtGet("IDN","EUR8X11F=","GV4_TEXT")</f>
         <v>8X11</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="3">
         <f>_xll.RtGet("IDN","EUR8X11F=","PRIMACT_1")</f>
         <v>-0.43</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="3">
         <f>_xll.RtGet("IDN","EUR8X11F=","SEC_ACT_1")</f>
         <v>-0.41000000000000003</v>
       </c>
@@ -7094,67 +7630,67 @@
       <c r="A44" t="s">
         <v>57</v>
       </c>
-      <c r="B44">
-        <v>-0.43</v>
-      </c>
-      <c r="C44">
-        <v>-0.41000000000000003</v>
-      </c>
-      <c r="E44">
+      <c r="B44" s="3">
+        <v>-0.45</v>
+      </c>
+      <c r="C44" s="3">
+        <v>-0.42</v>
+      </c>
+      <c r="E44" s="3">
         <f t="shared" si="3"/>
-        <v>-0.42000000000000004</v>
+        <v>-0.435</v>
       </c>
       <c r="G44" t="str">
         <f>_xll.RtGet("IDN","EUR9X12F=","GV4_TEXT")</f>
         <v>9X12</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="3">
         <f>_xll.RtGet("IDN","EUR9X12F=","PRIMACT_1")</f>
-        <v>-0.44800000000000001</v>
-      </c>
-      <c r="I44">
+        <v>-0.45</v>
+      </c>
+      <c r="I44" s="3">
         <f>_xll.RtGet("IDN","EUR9X12F=","SEC_ACT_1")</f>
-        <v>-0.39800000000000002</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>64</v>
       </c>
-      <c r="B45">
-        <v>-0.435</v>
-      </c>
-      <c r="C45">
-        <v>-0.41500000000000004</v>
-      </c>
-      <c r="E45">
+      <c r="B45" s="3">
+        <v>-0.44</v>
+      </c>
+      <c r="C45" s="3">
+        <v>-0.42</v>
+      </c>
+      <c r="E45" s="3">
         <f t="shared" si="3"/>
-        <v>-0.42500000000000004</v>
+        <v>-0.43</v>
       </c>
       <c r="G45" t="str">
         <f>_xll.RtGet("IDN","EUR12X15F=","GV4_TEXT")</f>
         <v>12X15</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="3">
         <f>_xll.RtGet("IDN","EUR12X15F=","PRIMACT_1")</f>
-        <v>-0.45200000000000001</v>
-      </c>
-      <c r="I45">
+        <v>-0.44</v>
+      </c>
+      <c r="I45" s="3">
         <f>_xll.RtGet("IDN","EUR12X15F=","SEC_ACT_1")</f>
-        <v>-0.40200000000000002</v>
+        <v>-0.42</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>65</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="3">
         <v>-0.44</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>-0.39</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="3">
         <f t="shared" si="3"/>
         <v>-0.41500000000000004</v>
       </c>
@@ -7162,11 +7698,11 @@
         <f>_xll.RtGet("IDN","EUR15X18F=","GV4_TEXT")</f>
         <v>15X18</v>
       </c>
-      <c r="H46">
+      <c r="H46" s="3">
         <f>_xll.RtGet("IDN","EUR15X18F=","PRIMACT_1")</f>
         <v>-0.44</v>
       </c>
-      <c r="I46">
+      <c r="I46" s="3">
         <f>_xll.RtGet("IDN","EUR15X18F=","SEC_ACT_1")</f>
         <v>-0.39</v>
       </c>
@@ -7175,13 +7711,13 @@
       <c r="A47" t="s">
         <v>66</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="3">
         <v>-0.43</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="3">
         <v>-0.38</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="3">
         <f t="shared" si="3"/>
         <v>-0.40500000000000003</v>
       </c>
@@ -7189,11 +7725,11 @@
         <f>_xll.RtGet("IDN","EUR18X21F=","GV4_TEXT")</f>
         <v>18X21</v>
       </c>
-      <c r="H47">
+      <c r="H47" s="3">
         <f>_xll.RtGet("IDN","EUR18X21F=","PRIMACT_1")</f>
         <v>-0.43</v>
       </c>
-      <c r="I47">
+      <c r="I47" s="3">
         <f>_xll.RtGet("IDN","EUR18X21F=","SEC_ACT_1")</f>
         <v>-0.38</v>
       </c>
@@ -7202,25 +7738,25 @@
       <c r="A48" t="s">
         <v>67</v>
       </c>
-      <c r="B48">
-        <v>-0.41000000000000003</v>
-      </c>
-      <c r="C48">
-        <v>-0.36</v>
-      </c>
-      <c r="E48">
+      <c r="B48" s="3">
+        <v>-0.42</v>
+      </c>
+      <c r="C48" s="3">
+        <v>-0.37</v>
+      </c>
+      <c r="E48" s="3">
         <f t="shared" si="3"/>
-        <v>-0.38500000000000001</v>
+        <v>-0.39500000000000002</v>
       </c>
       <c r="G48" t="str">
         <f>_xll.RtGet("IDN","EUR21X24F=","GV4_TEXT")</f>
         <v>21X24</v>
       </c>
-      <c r="H48">
+      <c r="H48" s="3">
         <f>_xll.RtGet("IDN","EUR21X24F=","PRIMACT_1")</f>
         <v>-0.42</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="3">
         <f>_xll.RtGet("IDN","EUR21X24F=","SEC_ACT_1")</f>
         <v>-0.37</v>
       </c>
@@ -7229,40 +7765,40 @@
       <c r="A49" t="s">
         <v>58</v>
       </c>
-      <c r="B49">
-        <v>-0.34</v>
-      </c>
-      <c r="C49">
-        <v>-0.32</v>
-      </c>
-      <c r="E49">
+      <c r="B49" s="3">
+        <v>-0.34200000000000003</v>
+      </c>
+      <c r="C49" s="3">
+        <v>-0.32200000000000001</v>
+      </c>
+      <c r="E49" s="3">
         <f t="shared" si="3"/>
-        <v>-0.33</v>
+        <v>-0.33200000000000002</v>
       </c>
       <c r="G49" t="str">
         <f>_xll.RtGet("IDN","EUR1X7F=","GV4_TEXT")</f>
         <v>1X7</v>
       </c>
-      <c r="H49">
+      <c r="H49" s="3">
         <f>_xll.RtGet("IDN","EUR1X7F=","PRIMACT_1")</f>
-        <v>-0.34</v>
-      </c>
-      <c r="I49">
+        <v>-0.34200000000000003</v>
+      </c>
+      <c r="I49" s="3">
         <f>_xll.RtGet("IDN","EUR1X7F=","SEC_ACT_1")</f>
-        <v>-0.32</v>
+        <v>-0.32200000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>59</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="3">
         <v>-0.34</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>-0.32</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="3">
         <f t="shared" si="3"/>
         <v>-0.33</v>
       </c>
@@ -7270,134 +7806,134 @@
         <f>_xll.RtGet("IDN","EUR2X8F=","GV4_TEXT")</f>
         <v>2X8</v>
       </c>
-      <c r="H50">
+      <c r="H50" s="3">
         <f>_xll.RtGet("IDN","EUR2X8F=","PRIMACT_1")</f>
-        <v>-0.35000000000000003</v>
-      </c>
-      <c r="I50">
+        <v>-0.34</v>
+      </c>
+      <c r="I50" s="3">
         <f>_xll.RtGet("IDN","EUR2X8F=","SEC_ACT_1")</f>
-        <v>-0.31</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>70</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="3">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
+        <v>-0.26</v>
+      </c>
+      <c r="E51" s="3">
+        <f t="shared" si="3"/>
         <v>-0.27</v>
-      </c>
-      <c r="E51">
-        <f t="shared" si="3"/>
-        <v>-0.27500000000000002</v>
       </c>
       <c r="G51" t="str">
         <f>_xll.RtGet("IDN","EUR2X14F=","GV4_TEXT")</f>
         <v>2X14</v>
       </c>
-      <c r="H51">
+      <c r="H51" s="3">
         <f>_xll.RtGet("IDN","EUR2X14F=","PRIMACT_1")</f>
         <v>-0.28100000000000003</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="3">
         <f>_xll.RtGet("IDN","EUR2X14F=","SEC_ACT_1")</f>
-        <v>-0.27100000000000002</v>
+        <v>-0.26100000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>60</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="3">
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="C52" s="3">
+        <v>-0.33</v>
+      </c>
+      <c r="E52" s="3">
+        <f t="shared" si="3"/>
         <v>-0.34</v>
-      </c>
-      <c r="C52">
-        <v>-0.32</v>
-      </c>
-      <c r="E52">
-        <f t="shared" si="3"/>
-        <v>-0.33</v>
       </c>
       <c r="G52" t="str">
         <f>_xll.RtGet("IDN","EUR3X9F=","GV4_TEXT")</f>
         <v>3X9</v>
       </c>
-      <c r="H52">
+      <c r="H52" s="3">
         <f>_xll.RtGet("IDN","EUR3X9F=","PRIMACT_1")</f>
-        <v>-0.33900000000000002</v>
-      </c>
-      <c r="I52">
+        <v>-0.35000000000000003</v>
+      </c>
+      <c r="I52" s="3">
         <f>_xll.RtGet("IDN","EUR3X9F=","SEC_ACT_1")</f>
-        <v>-0.32900000000000001</v>
+        <v>-0.33</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>71</v>
       </c>
-      <c r="B53">
-        <v>-0.27900000000000003</v>
-      </c>
-      <c r="C53">
-        <v>-0.26900000000000002</v>
-      </c>
-      <c r="E53">
+      <c r="B53" s="3">
+        <v>-0.28500000000000003</v>
+      </c>
+      <c r="C53" s="3">
+        <v>-0.26500000000000001</v>
+      </c>
+      <c r="E53" s="3">
         <f t="shared" si="3"/>
-        <v>-0.27400000000000002</v>
+        <v>-0.27500000000000002</v>
       </c>
       <c r="G53" t="str">
         <f>_xll.RtGet("IDN","EUR3X15F=","GV4_TEXT")</f>
         <v>3X15</v>
       </c>
-      <c r="H53">
+      <c r="H53" s="3">
         <f>_xll.RtGet("IDN","EUR3X15F=","PRIMACT_1")</f>
-        <v>-0.28100000000000003</v>
-      </c>
-      <c r="I53">
+        <v>-0.28500000000000003</v>
+      </c>
+      <c r="I53" s="3">
         <f>_xll.RtGet("IDN","EUR3X15F=","SEC_ACT_1")</f>
-        <v>-0.27100000000000002</v>
+        <v>-0.26500000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>61</v>
       </c>
-      <c r="B54">
-        <v>-0.35000000000000003</v>
-      </c>
-      <c r="C54">
-        <v>-0.33</v>
-      </c>
-      <c r="E54">
+      <c r="B54" s="3">
+        <v>-0.35699999999999998</v>
+      </c>
+      <c r="C54" s="3">
+        <v>-0.33700000000000002</v>
+      </c>
+      <c r="E54" s="3">
         <f t="shared" si="3"/>
-        <v>-0.34</v>
+        <v>-0.34699999999999998</v>
       </c>
       <c r="G54" t="str">
         <f>_xll.RtGet("IDN","EUR4X10F=","GV4_TEXT")</f>
         <v>4X10</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="3">
         <f>_xll.RtGet("IDN","EUR4X10F=","PRIMACT_1")</f>
-        <v>-0.34100000000000003</v>
-      </c>
-      <c r="I54">
+        <v>-0.35699999999999998</v>
+      </c>
+      <c r="I54" s="3">
         <f>_xll.RtGet("IDN","EUR4X10F=","SEC_ACT_1")</f>
-        <v>-0.33100000000000002</v>
+        <v>-0.33700000000000002</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>62</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="3">
         <v>-0.35000000000000003</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="3">
         <v>-0.33</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="3">
         <f t="shared" si="3"/>
         <v>-0.34</v>
       </c>
@@ -7405,11 +7941,11 @@
         <f>_xll.RtGet("IDN","EUR5X11F=","GV4_TEXT")</f>
         <v>5X11</v>
       </c>
-      <c r="H55">
+      <c r="H55" s="3">
         <f>_xll.RtGet("IDN","EUR5X11F=","PRIMACT_1")</f>
         <v>-0.35000000000000003</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="3">
         <f>_xll.RtGet("IDN","EUR5X11F=","SEC_ACT_1")</f>
         <v>-0.33</v>
       </c>
@@ -7418,40 +7954,40 @@
       <c r="A56" t="s">
         <v>63</v>
       </c>
-      <c r="B56">
-        <v>-0.35000000000000003</v>
-      </c>
-      <c r="C56">
-        <v>-0.33</v>
-      </c>
-      <c r="E56">
+      <c r="B56" s="3">
+        <v>-0.36</v>
+      </c>
+      <c r="C56" s="3">
+        <v>-0.34</v>
+      </c>
+      <c r="E56" s="3">
         <f t="shared" si="3"/>
-        <v>-0.34</v>
+        <v>-0.35</v>
       </c>
       <c r="G56" t="str">
         <f>_xll.RtGet("IDN","EUR6X12F=","GV4_TEXT")</f>
         <v>6X12</v>
       </c>
-      <c r="H56">
+      <c r="H56" s="3">
         <f>_xll.RtGet("IDN","EUR6X12F=","PRIMACT_1")</f>
-        <v>-0.35000000000000003</v>
-      </c>
-      <c r="I56">
+        <v>-0.36</v>
+      </c>
+      <c r="I56" s="3">
         <f>_xll.RtGet("IDN","EUR6X12F=","SEC_ACT_1")</f>
-        <v>-0.33</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>72</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="3">
         <v>-0.36</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
         <v>-0.34</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="3">
         <f t="shared" si="3"/>
         <v>-0.35</v>
       </c>
@@ -7459,80 +7995,80 @@
         <f>_xll.RtGet("IDN","EUR9X15F=","GV4_TEXT")</f>
         <v>9X15</v>
       </c>
-      <c r="H57">
+      <c r="H57" s="3">
         <f>_xll.RtGet("IDN","EUR9X15F=","PRIMACT_1")</f>
-        <v>-0.35299999999999998</v>
-      </c>
-      <c r="I57">
+        <v>-0.36</v>
+      </c>
+      <c r="I57" s="3">
         <f>_xll.RtGet("IDN","EUR9X15F=","SEC_ACT_1")</f>
-        <v>-0.34300000000000003</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>68</v>
       </c>
-      <c r="B58">
-        <v>-0.35100000000000003</v>
-      </c>
-      <c r="C58">
-        <v>-0.34100000000000003</v>
-      </c>
-      <c r="E58">
+      <c r="B58" s="3">
+        <v>-0.36</v>
+      </c>
+      <c r="C58" s="3">
+        <v>-0.34</v>
+      </c>
+      <c r="E58" s="3">
         <f t="shared" si="3"/>
-        <v>-0.34600000000000003</v>
+        <v>-0.35</v>
       </c>
       <c r="G58" t="str">
         <f>_xll.RtGet("IDN","EUR12X18F=","GV4_TEXT")</f>
         <v>12X18</v>
       </c>
-      <c r="H58">
+      <c r="H58" s="3">
         <f>_xll.RtGet("IDN","EUR12X18F=","PRIMACT_1")</f>
-        <v>-0.35299999999999998</v>
-      </c>
-      <c r="I58">
+        <v>-0.36</v>
+      </c>
+      <c r="I58" s="3">
         <f>_xll.RtGet("IDN","EUR12X18F=","SEC_ACT_1")</f>
-        <v>-0.34300000000000003</v>
+        <v>-0.34</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>69</v>
       </c>
-      <c r="B59">
-        <v>-0.34900000000000003</v>
-      </c>
-      <c r="C59">
-        <v>-0.29899999999999999</v>
-      </c>
-      <c r="E59">
+      <c r="B59" s="3">
+        <v>-0.34</v>
+      </c>
+      <c r="C59" s="3">
+        <v>-0.32</v>
+      </c>
+      <c r="E59" s="3">
         <f t="shared" si="3"/>
-        <v>-0.32400000000000001</v>
+        <v>-0.33</v>
       </c>
       <c r="G59" t="str">
         <f>_xll.RtGet("IDN","EUR18X24F=","GV4_TEXT")</f>
         <v>18X24</v>
       </c>
-      <c r="H59">
+      <c r="H59" s="3">
         <f>_xll.RtGet("IDN","EUR18X24F=","PRIMACT_1")</f>
-        <v>-0.33100000000000002</v>
-      </c>
-      <c r="I59">
+        <v>-0.34</v>
+      </c>
+      <c r="I59" s="3">
         <f>_xll.RtGet("IDN","EUR18X24F=","SEC_ACT_1")</f>
-        <v>-0.311</v>
+        <v>-0.32</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>73</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="3">
         <v>-0.28000000000000003</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="3">
         <v>-0.26</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="3">
         <f t="shared" si="3"/>
         <v>-0.27</v>
       </c>
@@ -7540,40 +8076,40 @@
         <f>_xll.RtGet("IDN","EUR6X18F=","GV4_TEXT")</f>
         <v>6X18</v>
       </c>
-      <c r="H60">
+      <c r="H60" s="3">
         <f>_xll.RtGet("IDN","EUR6X18F=","PRIMACT_1")</f>
-        <v>-0.29399999999999998</v>
-      </c>
-      <c r="I60">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="I60" s="3">
         <f>_xll.RtGet("IDN","EUR6X18F=","SEC_ACT_1")</f>
-        <v>-0.24399999999999999</v>
+        <v>-0.26</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>74</v>
       </c>
-      <c r="B61">
-        <v>-0.26300000000000001</v>
-      </c>
-      <c r="C61">
-        <v>-0.253</v>
-      </c>
-      <c r="E61">
+      <c r="B61" s="3">
+        <v>-0.27</v>
+      </c>
+      <c r="C61" s="3">
+        <v>-0.25</v>
+      </c>
+      <c r="E61" s="3">
         <f t="shared" si="3"/>
-        <v>-0.25800000000000001</v>
+        <v>-0.26</v>
       </c>
       <c r="G61" t="str">
         <f>_xll.RtGet("IDN","EUR12X24F=","GV4_TEXT")</f>
         <v>12X24</v>
       </c>
-      <c r="H61">
+      <c r="H61" s="3">
         <f>_xll.RtGet("IDN","EUR12X24F=","PRIMACT_1")</f>
-        <v>-0.26600000000000001</v>
-      </c>
-      <c r="I61">
+        <v>-0.27</v>
+      </c>
+      <c r="I61" s="3">
         <f>_xll.RtGet("IDN","EUR12X24F=","SEC_ACT_1")</f>
-        <v>-0.25600000000000001</v>
+        <v>-0.25</v>
       </c>
     </row>
   </sheetData>
@@ -7595,11 +8131,11 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
-        <v>43797</v>
+        <v>43796</v>
       </c>
       <c r="G1" s="4">
         <f ca="1">TODAY()</f>
-        <v>43795</v>
+        <v>43796</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -7617,145 +8153,171 @@
       <c r="A4" t="s">
         <v>75</v>
       </c>
-      <c r="B4">
-        <v>1.5338800000000001</v>
-      </c>
-      <c r="E4">
-        <v>1.5338800000000001</v>
+      <c r="B4" s="3">
+        <v>1.538</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="E4" s="3">
+        <f>B4</f>
+        <v>1.538</v>
       </c>
       <c r="G4" t="str">
         <f>_xll.RtGet("IDN","USDONFSR=X","GV4_TEXT")</f>
         <v xml:space="preserve">ON    </v>
       </c>
-      <c r="H4">
+      <c r="H4" s="3">
         <f>_xll.RtGet("IDN","USDONFSR=X","PRIMACT_1")</f>
-        <v>1.5361300000000002</v>
-      </c>
+        <v>1.538</v>
+      </c>
+      <c r="I4" s="3"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>76</v>
       </c>
-      <c r="B5">
-        <v>1.5897500000000002</v>
-      </c>
-      <c r="E5">
-        <v>1.5338800000000001</v>
+      <c r="B5" s="3">
+        <v>1.5981300000000001</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="E5" s="3">
+        <f t="shared" ref="E5:E10" si="0">B5</f>
+        <v>1.5981300000000001</v>
       </c>
       <c r="G5" t="str">
         <f>_xll.RtGet("IDN","USDSWFSR=X","GV4_TEXT")</f>
         <v xml:space="preserve">SW    </v>
       </c>
-      <c r="H5">
+      <c r="H5" s="3">
         <f>_xll.RtGet("IDN","USDSWFSR=X","PRIMACT_1")</f>
-        <v>1.5970000000000002</v>
-      </c>
+        <v>1.5981300000000001</v>
+      </c>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>77</v>
       </c>
-      <c r="B6">
-        <v>1.7027500000000002</v>
-      </c>
-      <c r="E6">
-        <v>1.5338800000000001</v>
+      <c r="B6" s="3">
+        <v>1.7016300000000002</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7016300000000002</v>
       </c>
       <c r="G6" t="str">
         <f>_xll.RtGet("IDN","USD1MFSR=X","GV4_TEXT")</f>
         <v xml:space="preserve">1M    </v>
       </c>
-      <c r="H6">
+      <c r="H6" s="3">
         <f>_xll.RtGet("IDN","USD1MFSR=X","PRIMACT_1")</f>
-        <v>1.6995000000000002</v>
-      </c>
+        <v>1.7016300000000002</v>
+      </c>
+      <c r="I6" s="3"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>78</v>
       </c>
-      <c r="B7">
-        <v>1.8367500000000001</v>
-      </c>
-      <c r="E7">
-        <v>1.5338800000000001</v>
+      <c r="B7" s="3">
+        <v>1.8436300000000001</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8436300000000001</v>
       </c>
       <c r="G7" t="str">
         <f>_xll.RtGet("IDN","USD2MFSR=X","GV4_TEXT")</f>
         <v xml:space="preserve">2M    </v>
       </c>
-      <c r="H7">
+      <c r="H7" s="3">
         <f>_xll.RtGet("IDN","USD2MFSR=X","PRIMACT_1")</f>
-        <v>1.8420000000000001</v>
-      </c>
+        <v>1.8436300000000001</v>
+      </c>
+      <c r="I7" s="3"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>79</v>
       </c>
-      <c r="B8">
-        <v>1.9172500000000001</v>
-      </c>
-      <c r="E8">
-        <v>1.5338800000000001</v>
+      <c r="B8" s="3">
+        <v>1.90863</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>1.90863</v>
       </c>
       <c r="G8" t="str">
         <f>_xll.RtGet("IDN","USD3MFSR=X","GV4_TEXT")</f>
         <v xml:space="preserve">3M    </v>
       </c>
-      <c r="H8">
+      <c r="H8" s="3">
         <f>_xll.RtGet("IDN","USD3MFSR=X","PRIMACT_1")</f>
-        <v>1.9186300000000001</v>
-      </c>
+        <v>1.90863</v>
+      </c>
+      <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>80</v>
       </c>
-      <c r="B9">
-        <v>1.9072500000000001</v>
-      </c>
-      <c r="E9">
-        <v>1.5338800000000001</v>
+      <c r="B9" s="3">
+        <v>1.9142500000000002</v>
+      </c>
+      <c r="C9" s="3"/>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9142500000000002</v>
       </c>
       <c r="G9" t="str">
         <f>_xll.RtGet("IDN","USD6MFSR=X","GV4_TEXT")</f>
         <v xml:space="preserve">6M    </v>
       </c>
-      <c r="H9">
+      <c r="H9" s="3">
         <f>_xll.RtGet("IDN","USD6MFSR=X","PRIMACT_1")</f>
-        <v>1.9191300000000002</v>
-      </c>
+        <v>1.9142500000000002</v>
+      </c>
+      <c r="I9" s="3"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B10">
-        <v>1.9148800000000001</v>
-      </c>
-      <c r="E10">
-        <v>1.5338800000000001</v>
+      <c r="B10" s="3">
+        <v>1.9416300000000002</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.9416300000000002</v>
       </c>
       <c r="G10" t="str">
         <f>_xll.RtGet("IDN","USD1YFSR=X","GV4_TEXT")</f>
         <v xml:space="preserve">1Y    </v>
       </c>
-      <c r="H10">
+      <c r="H10" s="3">
         <f>_xll.RtGet("IDN","USD1YFSR=X","PRIMACT_1")</f>
-        <v>1.9417500000000001</v>
-      </c>
+        <v>1.9416300000000002</v>
+      </c>
+      <c r="I10" s="3"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="E11" s="3"/>
       <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>25</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>1</v>
       </c>
+      <c r="C12" s="3"/>
+      <c r="E12" s="3"/>
       <c r="G12" t="s">
         <v>25</v>
       </c>
@@ -7767,845 +8329,857 @@
       <c r="A13" t="s">
         <v>34</v>
       </c>
-      <c r="B13">
-        <v>1.7070000000000001</v>
-      </c>
-      <c r="C13">
-        <v>1.7270000000000001</v>
-      </c>
-      <c r="E13">
+      <c r="B13" s="3">
+        <v>1.7020000000000002</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1.742</v>
+      </c>
+      <c r="E13" s="3">
         <f>(C13+B13)/2</f>
-        <v>1.7170000000000001</v>
+        <v>1.722</v>
       </c>
       <c r="G13" t="str">
         <f>_xll.RtGet("IDN","USDAM3L1Y=","GV4_TEXT")</f>
         <v xml:space="preserve">1Y    </v>
       </c>
-      <c r="H13">
+      <c r="H13" s="3">
         <f>_xll.RtGet("IDN","USDAM3L1Y=","PRIMACT_1")</f>
-        <v>1.6910000000000001</v>
-      </c>
-      <c r="I13">
+        <v>1.7030000000000001</v>
+      </c>
+      <c r="I13" s="3">
         <f>_xll.RtGet("IDN","USDAM3L1Y=","SEC_ACT_1")</f>
-        <v>1.7310000000000001</v>
+        <v>1.7430000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>35</v>
       </c>
-      <c r="B14">
-        <v>1.5590000000000002</v>
-      </c>
-      <c r="C14">
-        <v>1.599</v>
-      </c>
-      <c r="E14">
-        <f t="shared" ref="E14:E22" si="0">(C14+B14)/2</f>
-        <v>1.5790000000000002</v>
+      <c r="B14" s="3">
+        <v>1.5951000000000002</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1.5995000000000001</v>
+      </c>
+      <c r="E14" s="3">
+        <f t="shared" ref="E14:E22" si="1">(C14+B14)/2</f>
+        <v>1.5973000000000002</v>
       </c>
       <c r="G14" t="str">
         <f>_xll.RtGet("IDN","USDAM3L2Y=","GV4_TEXT")</f>
         <v xml:space="preserve">2Y    </v>
       </c>
-      <c r="H14">
+      <c r="H14" s="3">
         <f>_xll.RtGet("IDN","USDAM3L2Y=","PRIMACT_1")</f>
-        <v>1.5610000000000002</v>
-      </c>
-      <c r="I14">
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="I14" s="3">
         <f>_xll.RtGet("IDN","USDAM3L2Y=","SEC_ACT_1")</f>
-        <v>1.601</v>
+        <v>1.6220000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15">
-        <v>1.522</v>
-      </c>
-      <c r="C15">
-        <v>1.5620000000000001</v>
-      </c>
-      <c r="E15">
-        <f t="shared" si="0"/>
-        <v>1.542</v>
+      <c r="B15" s="3">
+        <v>1.5518000000000001</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1.5570000000000002</v>
+      </c>
+      <c r="E15" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5544000000000002</v>
       </c>
       <c r="G15" t="str">
         <f>_xll.RtGet("IDN","USDAM3L3Y=","GV4_TEXT")</f>
         <v xml:space="preserve">3Y    </v>
       </c>
-      <c r="H15">
+      <c r="H15" s="3">
         <f>_xll.RtGet("IDN","USDAM3L3Y=","PRIMACT_1")</f>
-        <v>1.5279</v>
-      </c>
-      <c r="I15">
+        <v>1.538</v>
+      </c>
+      <c r="I15" s="3">
         <f>_xll.RtGet("IDN","USDAM3L3Y=","SEC_ACT_1")</f>
-        <v>1.5330000000000001</v>
+        <v>1.5780000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="B16">
-        <v>1.508</v>
-      </c>
-      <c r="C16">
-        <v>1.548</v>
-      </c>
-      <c r="E16">
-        <f t="shared" si="0"/>
-        <v>1.528</v>
+      <c r="B16" s="3">
+        <v>1.5409000000000002</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1.5463</v>
+      </c>
+      <c r="E16" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5436000000000001</v>
       </c>
       <c r="G16" t="str">
         <f>_xll.RtGet("IDN","USDAM3L4Y=","GV4_TEXT")</f>
         <v xml:space="preserve">4Y    </v>
       </c>
-      <c r="H16">
+      <c r="H16" s="3">
         <f>_xll.RtGet("IDN","USDAM3L4Y=","PRIMACT_1")</f>
-        <v>1.498</v>
-      </c>
-      <c r="I16">
+        <v>1.536</v>
+      </c>
+      <c r="I16" s="3">
         <f>_xll.RtGet("IDN","USDAM3L4Y=","SEC_ACT_1")</f>
-        <v>1.538</v>
+        <v>1.556</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17">
-        <v>1.5110000000000001</v>
-      </c>
-      <c r="C17">
-        <v>1.5510000000000002</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>1.5310000000000001</v>
+      <c r="B17" s="3">
+        <v>1.53</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1.57</v>
+      </c>
+      <c r="E17" s="3">
+        <f t="shared" si="1"/>
+        <v>1.55</v>
       </c>
       <c r="G17" t="str">
         <f>_xll.RtGet("IDN","USDAM3L5Y=","GV4_TEXT")</f>
         <v xml:space="preserve">5Y    </v>
       </c>
-      <c r="H17">
+      <c r="H17" s="3">
         <f>_xll.RtGet("IDN","USDAM3L5Y=","PRIMACT_1")</f>
-        <v>1.5</v>
-      </c>
-      <c r="I17">
+        <v>1.5270000000000001</v>
+      </c>
+      <c r="I17" s="3">
         <f>_xll.RtGet("IDN","USDAM3L5Y=","SEC_ACT_1")</f>
-        <v>1.54</v>
+        <v>1.5670000000000002</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
-      <c r="B18">
-        <v>1.524</v>
-      </c>
-      <c r="C18">
-        <v>1.5640000000000001</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>1.544</v>
+      <c r="B18" s="3">
+        <v>1.5450000000000002</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1.5850000000000002</v>
+      </c>
+      <c r="E18" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5650000000000002</v>
       </c>
       <c r="G18" t="str">
         <f>_xll.RtGet("IDN","USDAM3L6Y=","GV4_TEXT")</f>
         <v xml:space="preserve">6Y    </v>
       </c>
-      <c r="H18">
+      <c r="H18" s="3">
         <f>_xll.RtGet("IDN","USDAM3L6Y=","PRIMACT_1")</f>
-        <v>1.5130000000000001</v>
-      </c>
-      <c r="I18">
+        <v>1.5410000000000001</v>
+      </c>
+      <c r="I18" s="3">
         <f>_xll.RtGet("IDN","USDAM3L6Y=","SEC_ACT_1")</f>
-        <v>1.5530000000000002</v>
+        <v>1.5810000000000002</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>40</v>
       </c>
-      <c r="B19">
-        <v>1.5490000000000002</v>
-      </c>
-      <c r="C19">
-        <v>1.589</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>1.569</v>
+      <c r="B19" s="3">
+        <v>1.5630000000000002</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1.603</v>
+      </c>
+      <c r="E19" s="3">
+        <f t="shared" si="1"/>
+        <v>1.5830000000000002</v>
       </c>
       <c r="G19" t="str">
         <f>_xll.RtGet("IDN","USDAM3L7Y=","GV4_TEXT")</f>
         <v xml:space="preserve">7Y    </v>
       </c>
-      <c r="H19">
+      <c r="H19" s="3">
         <f>_xll.RtGet("IDN","USDAM3L7Y=","PRIMACT_1")</f>
-        <v>1.544</v>
-      </c>
-      <c r="I19">
+        <v>1.5670000000000002</v>
+      </c>
+      <c r="I19" s="3">
         <f>_xll.RtGet("IDN","USDAM3L7Y=","SEC_ACT_1")</f>
-        <v>1.5640000000000001</v>
+        <v>1.607</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>41</v>
       </c>
-      <c r="B20">
-        <v>1.5670000000000002</v>
-      </c>
-      <c r="C20">
-        <v>1.607</v>
-      </c>
-      <c r="E20">
-        <f t="shared" si="0"/>
-        <v>1.5870000000000002</v>
+      <c r="B20" s="3">
+        <v>1.591</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1.631</v>
+      </c>
+      <c r="E20" s="3">
+        <f t="shared" si="1"/>
+        <v>1.611</v>
       </c>
       <c r="G20" t="str">
         <f>_xll.RtGet("IDN","USDAM3L8Y=","GV4_TEXT")</f>
         <v xml:space="preserve">8Y    </v>
       </c>
-      <c r="H20">
+      <c r="H20" s="3">
         <f>_xll.RtGet("IDN","USDAM3L8Y=","PRIMACT_1")</f>
-        <v>1.5738000000000001</v>
-      </c>
-      <c r="I20">
+        <v>1.5840000000000001</v>
+      </c>
+      <c r="I20" s="3">
         <f>_xll.RtGet("IDN","USDAM3L8Y=","SEC_ACT_1")</f>
-        <v>1.5790000000000002</v>
+        <v>1.623</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>42</v>
       </c>
-      <c r="B21">
-        <v>1.5940000000000001</v>
-      </c>
-      <c r="C21">
-        <v>1.6340000000000001</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>1.6140000000000001</v>
+      <c r="B21" s="3">
+        <v>1.6180000000000001</v>
+      </c>
+      <c r="C21" s="3">
+        <v>1.657</v>
+      </c>
+      <c r="E21" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6375000000000002</v>
       </c>
       <c r="G21" t="str">
         <f>_xll.RtGet("IDN","USDAM3L9Y=","GV4_TEXT")</f>
         <v xml:space="preserve">9Y    </v>
       </c>
-      <c r="H21">
+      <c r="H21" s="3">
         <f>_xll.RtGet("IDN","USDAM3L9Y=","PRIMACT_1")</f>
-        <v>1.5830000000000002</v>
-      </c>
-      <c r="I21">
+        <v>1.611</v>
+      </c>
+      <c r="I21" s="3">
         <f>_xll.RtGet("IDN","USDAM3L9Y=","SEC_ACT_1")</f>
-        <v>1.623</v>
+        <v>1.651</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>43</v>
       </c>
-      <c r="B22">
-        <v>1.625</v>
-      </c>
-      <c r="C22">
-        <v>1.665</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
+      <c r="B22" s="3">
         <v>1.645</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1.6840000000000002</v>
+      </c>
+      <c r="E22" s="3">
+        <f t="shared" si="1"/>
+        <v>1.6645000000000001</v>
       </c>
       <c r="G22" t="str">
         <f>_xll.RtGet("IDN","USDAM3L10Y=","GV4_TEXT")</f>
         <v xml:space="preserve">10Y   </v>
       </c>
-      <c r="H22">
+      <c r="H22" s="3">
         <f>_xll.RtGet("IDN","USDAM3L10Y=","PRIMACT_1")</f>
-        <v>1.6120000000000001</v>
-      </c>
-      <c r="I22">
+        <v>1.645</v>
+      </c>
+      <c r="I22" s="3">
         <f>_xll.RtGet("IDN","USDAM3L10Y=","SEC_ACT_1")</f>
-        <v>1.6520000000000001</v>
-      </c>
+        <v>1.6850000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>24</v>
       </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="E24" s="3"/>
       <c r="G24" t="s">
         <v>24</v>
       </c>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
-      <c r="B25">
-        <v>1.867</v>
-      </c>
-      <c r="C25">
-        <v>1.907</v>
-      </c>
-      <c r="E25">
-        <f t="shared" ref="E25:E45" si="1">(C25+B25)/2</f>
-        <v>1.887</v>
+      <c r="B25" s="3">
+        <v>1.8535000000000001</v>
+      </c>
+      <c r="C25" s="3">
+        <v>1.8935000000000002</v>
+      </c>
+      <c r="E25" s="3">
+        <f t="shared" ref="E25:E45" si="2">(C25+B25)/2</f>
+        <v>1.8735000000000002</v>
       </c>
       <c r="G25" t="str">
         <f>_xll.RtGet("IDN","USD1X4F=","GV4_TEXT")</f>
         <v>1X4</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="3">
         <f>_xll.RtGet("IDN","USD1X4F=","PRIMACT_1")</f>
-        <v>1.851</v>
-      </c>
-      <c r="I25">
+        <v>1.8534000000000002</v>
+      </c>
+      <c r="I25" s="3">
         <f>_xll.RtGet("IDN","USD1X4F=","SEC_ACT_1")</f>
-        <v>1.891</v>
+        <v>1.8934000000000002</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>50</v>
       </c>
-      <c r="B26">
-        <v>1.7847000000000002</v>
-      </c>
-      <c r="C26">
-        <v>1.8247</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="1"/>
-        <v>1.8047</v>
+      <c r="B26" s="3">
+        <v>1.7770000000000001</v>
+      </c>
+      <c r="C26" s="3">
+        <v>1.8170000000000002</v>
+      </c>
+      <c r="E26" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7970000000000002</v>
       </c>
       <c r="G26" t="str">
         <f>_xll.RtGet("IDN","USD2X5F=","GV4_TEXT")</f>
         <v>2X5</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="3">
         <f>_xll.RtGet("IDN","USD2X5F=","PRIMACT_1")</f>
-        <v>1.7670000000000001</v>
-      </c>
-      <c r="I26">
+        <v>1.7765000000000002</v>
+      </c>
+      <c r="I26" s="3">
         <f>_xll.RtGet("IDN","USD2X5F=","SEC_ACT_1")</f>
-        <v>1.8069999999999999</v>
+        <v>1.8165</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>51</v>
       </c>
-      <c r="B27">
-        <v>1.7231000000000001</v>
-      </c>
-      <c r="C27">
-        <v>1.7631000000000001</v>
-      </c>
-      <c r="E27">
-        <f t="shared" si="1"/>
-        <v>1.7431000000000001</v>
+      <c r="B27" s="3">
+        <v>1.726</v>
+      </c>
+      <c r="C27" s="3">
+        <v>1.756</v>
+      </c>
+      <c r="E27" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7410000000000001</v>
       </c>
       <c r="G27" t="str">
         <f>_xll.RtGet("IDN","USD3X6F=","GV4_TEXT")</f>
         <v>3X6</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="3">
         <f>_xll.RtGet("IDN","USD3X6F=","PRIMACT_1")</f>
-        <v>1.7070000000000001</v>
-      </c>
-      <c r="I27">
+        <v>1.7194</v>
+      </c>
+      <c r="I27" s="3">
         <f>_xll.RtGet("IDN","USD3X6F=","SEC_ACT_1")</f>
-        <v>1.7470000000000001</v>
+        <v>1.7594000000000001</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>52</v>
       </c>
-      <c r="B28">
-        <v>1.6799000000000002</v>
-      </c>
-      <c r="C28">
-        <v>1.7199</v>
-      </c>
-      <c r="E28">
-        <f t="shared" si="1"/>
-        <v>1.6999</v>
+      <c r="B28" s="3">
+        <v>1.681</v>
+      </c>
+      <c r="C28" s="3">
+        <v>1.7210000000000001</v>
+      </c>
+      <c r="E28" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7010000000000001</v>
       </c>
       <c r="G28" t="str">
         <f>_xll.RtGet("IDN","USD4X7F=","GV4_TEXT")</f>
         <v>4X7</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="3">
         <f>_xll.RtGet("IDN","USD4X7F=","PRIMACT_1")</f>
-        <v>1.6673</v>
-      </c>
-      <c r="I28">
+        <v>1.68</v>
+      </c>
+      <c r="I28" s="3">
         <f>_xll.RtGet("IDN","USD4X7F=","SEC_ACT_1")</f>
-        <v>1.7073</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>53</v>
       </c>
-      <c r="B29">
-        <v>1.6441000000000001</v>
-      </c>
-      <c r="C29">
-        <v>1.6841000000000002</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="1"/>
-        <v>1.6641000000000001</v>
+      <c r="B29" s="3">
+        <v>1.651</v>
+      </c>
+      <c r="C29" s="3">
+        <v>1.6910000000000001</v>
+      </c>
+      <c r="E29" s="3">
+        <f t="shared" si="2"/>
+        <v>1.671</v>
       </c>
       <c r="G29" t="str">
         <f>_xll.RtGet("IDN","USD5X8F=","GV4_TEXT")</f>
         <v>5X8</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="3">
         <f>_xll.RtGet("IDN","USD5X8F=","PRIMACT_1")</f>
-        <v>1.629</v>
-      </c>
-      <c r="I29">
+        <v>1.6500000000000001</v>
+      </c>
+      <c r="I29" s="3">
         <f>_xll.RtGet("IDN","USD5X8F=","SEC_ACT_1")</f>
-        <v>1.669</v>
+        <v>1.6900000000000002</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>54</v>
       </c>
-      <c r="B30">
-        <v>1.6106</v>
-      </c>
-      <c r="C30">
-        <v>1.6506000000000001</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="1"/>
-        <v>1.6306</v>
+      <c r="B30" s="3">
+        <v>1.6206</v>
+      </c>
+      <c r="C30" s="3">
+        <v>1.6606000000000001</v>
+      </c>
+      <c r="E30" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6406000000000001</v>
       </c>
       <c r="G30" t="str">
         <f>_xll.RtGet("IDN","USD6X9F=","GV4_TEXT")</f>
         <v>6X9</v>
       </c>
-      <c r="H30">
+      <c r="H30" s="3">
         <f>_xll.RtGet("IDN","USD6X9F=","PRIMACT_1")</f>
-        <v>1.61</v>
-      </c>
-      <c r="I30">
+        <v>1.6196000000000002</v>
+      </c>
+      <c r="I30" s="3">
         <f>_xll.RtGet("IDN","USD6X9F=","SEC_ACT_1")</f>
-        <v>1.6300000000000001</v>
+        <v>1.6596000000000002</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>55</v>
       </c>
-      <c r="B31">
-        <v>1.5761000000000001</v>
-      </c>
-      <c r="C31">
-        <v>1.6161000000000001</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="1"/>
-        <v>1.5961000000000001</v>
+      <c r="B31" s="3">
+        <v>1.59</v>
+      </c>
+      <c r="C31" s="3">
+        <v>1.6300000000000001</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="2"/>
+        <v>1.61</v>
       </c>
       <c r="G31" t="str">
         <f>_xll.RtGet("IDN","USD7X10F=","GV4_TEXT")</f>
         <v>7X10</v>
       </c>
-      <c r="H31">
+      <c r="H31" s="3">
         <f>_xll.RtGet("IDN","USD7X10F=","PRIMACT_1")</f>
-        <v>1.5662</v>
-      </c>
-      <c r="I31">
+        <v>1.5980000000000001</v>
+      </c>
+      <c r="I31" s="3">
         <f>_xll.RtGet("IDN","USD7X10F=","SEC_ACT_1")</f>
-        <v>1.6062000000000001</v>
+        <v>1.6180000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>56</v>
       </c>
-      <c r="B32">
-        <v>1.5569999999999999</v>
-      </c>
-      <c r="C32">
-        <v>1.577</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="1"/>
-        <v>1.5669999999999999</v>
+      <c r="B32" s="3">
+        <v>1.573</v>
+      </c>
+      <c r="C32" s="3">
+        <v>1.593</v>
+      </c>
+      <c r="E32" s="3">
+        <f t="shared" si="2"/>
+        <v>1.583</v>
       </c>
       <c r="G32" t="str">
         <f>_xll.RtGet("IDN","USD8X11F=","GV4_TEXT")</f>
         <v>8X11</v>
       </c>
-      <c r="H32">
+      <c r="H32" s="3">
         <f>_xll.RtGet("IDN","USD8X11F=","PRIMACT_1")</f>
-        <v>1.548</v>
-      </c>
-      <c r="I32">
+        <v>1.5720000000000001</v>
+      </c>
+      <c r="I32" s="3">
         <f>_xll.RtGet("IDN","USD8X11F=","SEC_ACT_1")</f>
-        <v>1.5680000000000001</v>
+        <v>1.5920000000000001</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>57</v>
       </c>
-      <c r="B33">
-        <v>1.5214000000000001</v>
-      </c>
-      <c r="C33">
-        <v>1.5614000000000001</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="1"/>
-        <v>1.5414000000000001</v>
+      <c r="B33" s="3">
+        <v>1.5393000000000001</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1.5793000000000001</v>
+      </c>
+      <c r="E33" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5593000000000001</v>
       </c>
       <c r="G33" t="str">
         <f>_xll.RtGet("IDN","USD9X12F=","GV4_TEXT")</f>
         <v>9X12</v>
       </c>
-      <c r="H33">
+      <c r="H33" s="3">
         <f>_xll.RtGet("IDN","USD9X12F=","PRIMACT_1")</f>
-        <v>1.522</v>
-      </c>
-      <c r="I33">
+        <v>1.5391000000000001</v>
+      </c>
+      <c r="I33" s="3">
         <f>_xll.RtGet("IDN","USD9X12F=","SEC_ACT_1")</f>
-        <v>1.542</v>
+        <v>1.5791000000000002</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>58</v>
       </c>
-      <c r="B34">
-        <v>1.8565</v>
-      </c>
-      <c r="C34">
-        <v>1.9165000000000001</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>1.8865000000000001</v>
+      <c r="B34" s="3">
+        <v>1.865</v>
+      </c>
+      <c r="C34" s="3">
+        <v>1.905</v>
+      </c>
+      <c r="E34" s="3">
+        <f t="shared" si="2"/>
+        <v>1.885</v>
       </c>
       <c r="G34" t="str">
         <f>_xll.RtGet("IDN","USD1X7F=","GV4_TEXT")</f>
         <v>1X7</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="3">
         <f>_xll.RtGet("IDN","USD1X7F=","PRIMACT_1")</f>
-        <v>1.8432000000000002</v>
-      </c>
-      <c r="I34">
+        <v>1.8521000000000001</v>
+      </c>
+      <c r="I34" s="3">
         <f>_xll.RtGet("IDN","USD1X7F=","SEC_ACT_1")</f>
-        <v>1.9032</v>
+        <v>1.9121000000000001</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>59</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="3">
         <v>1.7811000000000001</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>1.8411000000000002</v>
       </c>
-      <c r="E35">
-        <f t="shared" si="1"/>
+      <c r="E35" s="3">
+        <f t="shared" si="2"/>
         <v>1.8111000000000002</v>
       </c>
       <c r="G35" t="str">
         <f>_xll.RtGet("IDN","USD2X8F=","GV4_TEXT")</f>
         <v>2X8</v>
       </c>
-      <c r="H35">
+      <c r="H35" s="3">
         <f>_xll.RtGet("IDN","USD2X8F=","PRIMACT_1")</f>
-        <v>1.784</v>
-      </c>
-      <c r="I35">
+        <v>1.78</v>
+      </c>
+      <c r="I35" s="3">
         <f>_xll.RtGet("IDN","USD2X8F=","SEC_ACT_1")</f>
-        <v>1.8240000000000001</v>
+        <v>1.84</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>60</v>
       </c>
-      <c r="B36">
-        <v>1.7257</v>
-      </c>
-      <c r="C36">
-        <v>1.7857000000000001</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="1"/>
-        <v>1.7557</v>
+      <c r="B36" s="3">
+        <v>1.7490000000000001</v>
+      </c>
+      <c r="C36" s="3">
+        <v>1.7890000000000001</v>
+      </c>
+      <c r="E36" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7690000000000001</v>
       </c>
       <c r="G36" t="str">
         <f>_xll.RtGet("IDN","USD3X9F=","GV4_TEXT")</f>
         <v>3X9</v>
       </c>
-      <c r="H36">
+      <c r="H36" s="3">
         <f>_xll.RtGet("IDN","USD3X9F=","PRIMACT_1")</f>
-        <v>1.73</v>
-      </c>
-      <c r="I36">
+        <v>1.7284000000000002</v>
+      </c>
+      <c r="I36" s="3">
         <f>_xll.RtGet("IDN","USD3X9F=","SEC_ACT_1")</f>
-        <v>1.77</v>
+        <v>1.7884</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>61</v>
       </c>
-      <c r="B37">
-        <v>1.7</v>
-      </c>
-      <c r="C37">
-        <v>1.72</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="1"/>
-        <v>1.71</v>
+      <c r="B37" s="3">
+        <v>1.7010000000000001</v>
+      </c>
+      <c r="C37" s="3">
+        <v>1.7410000000000001</v>
+      </c>
+      <c r="E37" s="3">
+        <f t="shared" si="2"/>
+        <v>1.7210000000000001</v>
       </c>
       <c r="G37" t="str">
         <f>_xll.RtGet("IDN","USD4X10F=","GV4_TEXT")</f>
         <v>4X10</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="3">
         <f>_xll.RtGet("IDN","USD4X10F=","PRIMACT_1")</f>
-        <v>1.671</v>
-      </c>
-      <c r="I37">
+        <v>1.694</v>
+      </c>
+      <c r="I37" s="3">
         <f>_xll.RtGet("IDN","USD4X10F=","SEC_ACT_1")</f>
-        <v>1.7110000000000001</v>
+        <v>1.744</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>62</v>
       </c>
-      <c r="B38">
-        <v>1.659</v>
-      </c>
-      <c r="C38">
-        <v>1.6990000000000001</v>
-      </c>
-      <c r="E38">
-        <f t="shared" si="1"/>
-        <v>1.679</v>
+      <c r="B38" s="3">
+        <v>1.671</v>
+      </c>
+      <c r="C38" s="3">
+        <v>1.7110000000000001</v>
+      </c>
+      <c r="E38" s="3">
+        <f t="shared" si="2"/>
+        <v>1.6910000000000001</v>
       </c>
       <c r="G38" t="str">
         <f>_xll.RtGet("IDN","USD5X11F=","GV4_TEXT")</f>
         <v>5X11</v>
       </c>
-      <c r="H38">
+      <c r="H38" s="3">
         <f>_xll.RtGet("IDN","USD5X11F=","PRIMACT_1")</f>
-        <v>1.649</v>
-      </c>
-      <c r="I38">
+        <v>1.665</v>
+      </c>
+      <c r="I38" s="3">
         <f>_xll.RtGet("IDN","USD5X11F=","SEC_ACT_1")</f>
-        <v>1.6890000000000001</v>
+        <v>1.7050000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>63</v>
       </c>
-      <c r="B39">
-        <v>1.621</v>
-      </c>
-      <c r="C39">
-        <v>1.671</v>
-      </c>
-      <c r="E39">
-        <f t="shared" si="1"/>
-        <v>1.6459999999999999</v>
+      <c r="B39" s="3">
+        <v>1.643</v>
+      </c>
+      <c r="C39" s="3">
+        <v>1.6830000000000001</v>
+      </c>
+      <c r="E39" s="3">
+        <f t="shared" si="2"/>
+        <v>1.663</v>
       </c>
       <c r="G39" t="str">
         <f>_xll.RtGet("IDN","USD6X12F=","GV4_TEXT")</f>
         <v>6X12</v>
       </c>
-      <c r="H39">
+      <c r="H39" s="3">
         <f>_xll.RtGet("IDN","USD6X12F=","PRIMACT_1")</f>
-        <v>1.619</v>
-      </c>
-      <c r="I39">
+        <v>1.635</v>
+      </c>
+      <c r="I39" s="3">
         <f>_xll.RtGet("IDN","USD6X12F=","SEC_ACT_1")</f>
-        <v>1.659</v>
+        <v>1.6850000000000001</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>72</v>
       </c>
-      <c r="B40">
-        <v>1.569</v>
-      </c>
-      <c r="C40">
-        <v>1.609</v>
-      </c>
-      <c r="E40">
-        <f t="shared" si="1"/>
-        <v>1.589</v>
+      <c r="B40" s="3">
+        <v>1.587</v>
+      </c>
+      <c r="C40" s="3">
+        <v>1.627</v>
+      </c>
+      <c r="E40" s="3">
+        <f t="shared" si="2"/>
+        <v>1.607</v>
       </c>
       <c r="G40" t="str">
         <f>_xll.RtGet("IDN","USD9X15F=","GV4_TEXT")</f>
         <v>9X15</v>
       </c>
-      <c r="H40">
+      <c r="H40" s="3">
         <f>_xll.RtGet("IDN","USD9X15F=","PRIMACT_1")</f>
-        <v>1.5609999999999999</v>
-      </c>
-      <c r="I40">
+        <v>1.5880000000000001</v>
+      </c>
+      <c r="I40" s="3">
         <f>_xll.RtGet("IDN","USD9X15F=","SEC_ACT_1")</f>
-        <v>1.601</v>
+        <v>1.6280000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>68</v>
       </c>
-      <c r="B41">
-        <v>1.524</v>
-      </c>
-      <c r="C41">
-        <v>1.5640000000000001</v>
-      </c>
-      <c r="E41">
-        <f t="shared" si="1"/>
-        <v>1.544</v>
+      <c r="B41" s="3">
+        <v>1.546</v>
+      </c>
+      <c r="C41" s="3">
+        <v>1.5860000000000001</v>
+      </c>
+      <c r="E41" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5660000000000001</v>
       </c>
       <c r="G41" t="str">
         <f>_xll.RtGet("IDN","USD12X18F=","GV4_TEXT")</f>
         <v>12X18</v>
       </c>
-      <c r="H41">
+      <c r="H41" s="3">
         <f>_xll.RtGet("IDN","USD12X18F=","PRIMACT_1")</f>
-        <v>1.5230000000000001</v>
-      </c>
-      <c r="I41">
+        <v>1.544</v>
+      </c>
+      <c r="I41" s="3">
         <f>_xll.RtGet("IDN","USD12X18F=","SEC_ACT_1")</f>
-        <v>1.5630000000000002</v>
+        <v>1.5840000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>64</v>
       </c>
-      <c r="B42">
-        <v>1.4911000000000001</v>
-      </c>
-      <c r="C42">
-        <v>1.5311000000000001</v>
-      </c>
-      <c r="E42">
-        <f t="shared" si="1"/>
-        <v>1.5111000000000001</v>
+      <c r="B42" s="3">
+        <v>1.5170000000000001</v>
+      </c>
+      <c r="C42" s="3">
+        <v>1.5570000000000002</v>
+      </c>
+      <c r="E42" s="3">
+        <f t="shared" si="2"/>
+        <v>1.5370000000000001</v>
       </c>
       <c r="G42" t="str">
         <f>_xll.RtGet("IDN","USD12X15F=","GV4_TEXT")</f>
         <v>12X15</v>
       </c>
-      <c r="H42">
+      <c r="H42" s="3">
         <f>_xll.RtGet("IDN","USD12X15F=","PRIMACT_1")</f>
-        <v>1.488</v>
-      </c>
-      <c r="I42">
+        <v>1.5111000000000001</v>
+      </c>
+      <c r="I42" s="3">
         <f>_xll.RtGet("IDN","USD12X15F=","SEC_ACT_1")</f>
-        <v>1.528</v>
+        <v>1.5511000000000001</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>65</v>
       </c>
-      <c r="B43">
-        <v>1.4266000000000001</v>
-      </c>
-      <c r="C43">
-        <v>1.4666000000000001</v>
-      </c>
-      <c r="E43">
-        <f t="shared" si="1"/>
-        <v>1.4466000000000001</v>
+      <c r="B43" s="3">
+        <v>1.4470000000000001</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1.4870000000000001</v>
+      </c>
+      <c r="E43" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4670000000000001</v>
       </c>
       <c r="G43" t="str">
         <f>_xll.RtGet("IDN","USD15X18F=","GV4_TEXT")</f>
         <v>15X18</v>
       </c>
-      <c r="H43">
+      <c r="H43" s="3">
         <f>_xll.RtGet("IDN","USD15X18F=","PRIMACT_1")</f>
-        <v>1.4198000000000002</v>
-      </c>
-      <c r="I43">
+        <v>1.454</v>
+      </c>
+      <c r="I43" s="3">
         <f>_xll.RtGet("IDN","USD15X18F=","SEC_ACT_1")</f>
-        <v>1.4598</v>
+        <v>1.474</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>66</v>
       </c>
-      <c r="B44">
-        <v>1.407</v>
-      </c>
-      <c r="C44">
+      <c r="B44" s="3">
         <v>1.427</v>
       </c>
-      <c r="E44">
-        <f t="shared" si="1"/>
-        <v>1.417</v>
+      <c r="C44" s="3">
+        <v>1.4470000000000001</v>
+      </c>
+      <c r="E44" s="3">
+        <f t="shared" si="2"/>
+        <v>1.4370000000000001</v>
       </c>
       <c r="G44" t="str">
         <f>_xll.RtGet("IDN","USD18X21F=","GV4_TEXT")</f>
         <v>18X21</v>
       </c>
-      <c r="H44">
+      <c r="H44" s="3">
         <f>_xll.RtGet("IDN","USD18X21F=","PRIMACT_1")</f>
-        <v>1.4000000000000001</v>
-      </c>
-      <c r="I44">
+        <v>1.425</v>
+      </c>
+      <c r="I44" s="3">
         <f>_xll.RtGet("IDN","USD18X21F=","SEC_ACT_1")</f>
-        <v>1.42</v>
+        <v>1.4450000000000001</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>69</v>
       </c>
-      <c r="B45">
-        <v>1.4630000000000001</v>
-      </c>
-      <c r="C45">
-        <v>1.5030000000000001</v>
-      </c>
-      <c r="E45">
-        <f t="shared" si="1"/>
-        <v>1.4830000000000001</v>
+      <c r="B45" s="3">
+        <v>1.464</v>
+      </c>
+      <c r="C45" s="3">
+        <v>1.504</v>
+      </c>
+      <c r="E45" s="3">
+        <f t="shared" si="2"/>
+        <v>1.484</v>
       </c>
       <c r="G45" t="str">
         <f>_xll.RtGet("IDN","USD18X24F=","GV4_TEXT")</f>
         <v>18X24</v>
       </c>
-      <c r="H45">
+      <c r="H45" s="3">
         <f>_xll.RtGet("IDN","USD18X24F=","PRIMACT_1")</f>
-        <v>1.4550000000000001</v>
-      </c>
-      <c r="I45">
+        <v>1.4730000000000001</v>
+      </c>
+      <c r="I45" s="3">
         <f>_xll.RtGet("IDN","USD18X24F=","SEC_ACT_1")</f>
-        <v>1.4950000000000001</v>
+        <v>1.5130000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -8615,197 +9189,1122 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="9" width="9.42578125" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4">
-        <v>43795</v>
-      </c>
-      <c r="E1" s="4">
+        <v>43796</v>
+      </c>
+      <c r="G1" s="4">
         <f ca="1">TODAY()</f>
-        <v>43795</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>43796</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>19</v>
       </c>
       <c r="B2">
-        <v>4.3029999999999999</v>
-      </c>
-      <c r="E2" t="s">
+        <v>4.3105000000000002</v>
+      </c>
+      <c r="G2" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="2">
+      <c r="H2" s="2">
         <f>_xll.RtGet("IDN","EURPLN=D3","PRIMACT_1")</f>
-        <v>4.3016000000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4.3105000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B3">
-        <v>3.9073000000000002</v>
-      </c>
-      <c r="E3" t="s">
+        <v>3.9197000000000002</v>
+      </c>
+      <c r="G3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="2">
+      <c r="H3" s="2">
         <f>_xll.RtGet("IDN","PLN=","SEC_ACT_1")</f>
-        <v>3.9026000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B4">
-        <v>1.1015000000000001</v>
-      </c>
-      <c r="E4" t="s">
+        <v>1.1002000000000001</v>
+      </c>
+      <c r="G4" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="2">
+      <c r="H4" s="2">
         <f>_xll.RtGet("IDN","EUR=","SEC_ACT_1")</f>
-        <v>1.1025</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.1003000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8">
+        <v>4.056</v>
+      </c>
+      <c r="C8">
+        <v>5.056</v>
+      </c>
+      <c r="E8">
+        <f>(B8+C8)/2</f>
+        <v>4.556</v>
+      </c>
+      <c r="G8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="3">
+        <f>_xll.RtGet("IDN","EURPLNON=","BID")</f>
+        <v>4.056</v>
+      </c>
+      <c r="I8" s="3">
+        <f>_xll.RtGet("IDN","EURPLNON=","ASK")</f>
+        <v>5.056</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9">
+        <v>0.53</v>
+      </c>
+      <c r="C9">
+        <v>0.85</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:E22" si="0">(B9+C9)/2</f>
+        <v>0.69</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="3">
+        <f>_xll.RtGet("IDN","EURPLNTN=","BID")</f>
+        <v>0.53</v>
+      </c>
+      <c r="I9" s="3">
+        <f>_xll.RtGet("IDN","EURPLNTN=","ASK")</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10">
+        <v>7.99</v>
+      </c>
+      <c r="C10">
+        <v>8.4</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>8.1950000000000003</v>
+      </c>
+      <c r="G10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="3">
+        <f>_xll.RtGet("IDN","EURPLNSN=","BID")</f>
+        <v>8.01</v>
+      </c>
+      <c r="I10" s="3">
+        <f>_xll.RtGet("IDN","EURPLNSN=","ASK")</f>
+        <v>8.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11">
+        <v>18.2</v>
+      </c>
+      <c r="C11">
+        <v>19.400000000000002</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>18.8</v>
+      </c>
+      <c r="G11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H11" s="3">
+        <f>_xll.RtGet("IDN","EURPLNSW=","BID")</f>
+        <v>17.61</v>
+      </c>
+      <c r="I11" s="3">
+        <f>_xll.RtGet("IDN","EURPLNSW=","ASK")</f>
+        <v>20.11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12">
+        <v>36.619999999999997</v>
+      </c>
+      <c r="C12">
+        <v>38.14</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>37.379999999999995</v>
+      </c>
+      <c r="G12" t="s">
+        <v>32</v>
+      </c>
+      <c r="H12" s="3">
+        <f>_xll.RtGet("IDN","EURPLN2W=","BID")</f>
+        <v>36.53</v>
+      </c>
+      <c r="I12" s="3">
+        <f>_xll.RtGet("IDN","EURPLN2W=","ASK")</f>
+        <v>38.33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B13">
+        <v>54.63</v>
+      </c>
+      <c r="C13">
+        <v>57.6</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>56.115000000000002</v>
+      </c>
+      <c r="G13" t="s">
+        <v>86</v>
+      </c>
+      <c r="H13" s="3">
+        <f>_xll.RtGet("IDN","EURPLN3W=","BID")</f>
+        <v>56.19</v>
+      </c>
+      <c r="I13" s="3">
+        <f>_xll.RtGet("IDN","EURPLN3W=","ASK")</f>
+        <v>57.31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>86.22</v>
+      </c>
+      <c r="C14">
+        <v>89.22</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="0"/>
+        <v>87.72</v>
+      </c>
+      <c r="G14" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <f>_xll.RtGet("IDN","EURPLN1M=","BID")</f>
+        <v>86.17</v>
+      </c>
+      <c r="I14" s="3">
+        <f>_xll.RtGet("IDN","EURPLN1M=","ASK")</f>
+        <v>88.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15">
+        <v>196.36</v>
+      </c>
+      <c r="C15">
+        <v>200.36</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="0"/>
+        <v>198.36</v>
+      </c>
+      <c r="G15" t="s">
+        <v>87</v>
+      </c>
+      <c r="H15" s="3">
+        <f>_xll.RtGet("IDN","EURPLN2M=","BID")</f>
+        <v>195.60000000000002</v>
+      </c>
+      <c r="I15" s="3">
+        <f>_xll.RtGet("IDN","EURPLN2M=","ASK")</f>
+        <v>201</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>271.23</v>
+      </c>
+      <c r="C16">
+        <v>277.23</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="0"/>
+        <v>274.23</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <f>_xll.RtGet("IDN","EURPLN3M=","BID")</f>
+        <v>272.31</v>
+      </c>
+      <c r="I16" s="3">
+        <f>_xll.RtGet("IDN","EURPLN3M=","ASK")</f>
+        <v>276.78000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17">
+        <v>353.32</v>
+      </c>
+      <c r="C17">
+        <v>361.01000000000005</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="0"/>
+        <v>357.16500000000002</v>
+      </c>
+      <c r="G17" t="s">
+        <v>88</v>
+      </c>
+      <c r="H17" s="3">
+        <f>H16+(H19-H16)/3</f>
+        <v>354.90666666666669</v>
+      </c>
+      <c r="I17" s="3">
+        <f>I16+(I19-I16)/3</f>
+        <v>359.93666666666667</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18">
+        <v>435.40999999999997</v>
+      </c>
+      <c r="C18">
+        <v>444.79000000000008</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="0"/>
+        <v>440.1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>89</v>
+      </c>
+      <c r="H18" s="3">
+        <f>H17+(H19-H17)/2</f>
+        <v>437.50333333333333</v>
+      </c>
+      <c r="I18" s="3">
+        <f>I17+(I19-I17)/2</f>
+        <v>443.09333333333336</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>517.5</v>
+      </c>
+      <c r="C19">
+        <v>528.57000000000005</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="0"/>
+        <v>523.03500000000008</v>
+      </c>
+      <c r="G19" t="s">
+        <v>2</v>
+      </c>
+      <c r="H19" s="3">
+        <f>_xll.RtGet("IDN","EURPLN6M=","BID")</f>
+        <v>520.1</v>
+      </c>
+      <c r="I19" s="3">
+        <f>_xll.RtGet("IDN","EURPLN6M=","ASK")</f>
+        <v>526.25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20">
+        <v>782.30000000000007</v>
+      </c>
+      <c r="C20">
+        <v>796.6</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="0"/>
+        <v>789.45</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="3">
+        <f>_xll.RtGet("IDN","EURPLN9M=","BID")</f>
+        <v>781.90000000000009</v>
+      </c>
+      <c r="I20" s="3">
+        <f>_xll.RtGet("IDN","EURPLN9M=","ASK")</f>
+        <v>796.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>989.27</v>
+      </c>
+      <c r="C21">
+        <v>1029.27</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="0"/>
+        <v>1009.27</v>
+      </c>
+      <c r="G21" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="3">
+        <f>_xll.RtGet("IDN","EURPLN1Y=","BID")</f>
+        <v>992.78</v>
+      </c>
+      <c r="I21" s="3">
+        <f>_xll.RtGet("IDN","EURPLN1Y=","ASK")</f>
+        <v>1032.53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>1848.32</v>
+      </c>
+      <c r="C22">
+        <v>2048.3200000000002</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="0"/>
+        <v>1948.3200000000002</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" s="3">
+        <f>_xll.RtGet("IDN","EURPLN2Y=","BID")</f>
+        <v>1847.3400000000001</v>
+      </c>
+      <c r="I22" s="3">
+        <f>_xll.RtGet("IDN","EURPLN2Y=","ASK")</f>
+        <v>2047.3400000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>91</v>
+      </c>
+      <c r="G25" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27">
+        <v>13</v>
+      </c>
+      <c r="C27">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E27">
+        <f t="shared" ref="E27:E34" si="1">(B27+C27)/2</f>
+        <v>16</v>
+      </c>
+      <c r="G27" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27">
+        <f>_xll.RtGet("IDN","PL3WEU3E1Y=BHWW","PRIMACT_1")</f>
+        <v>13</v>
+      </c>
+      <c r="I27">
+        <f>_xll.RtGet("IDN","PL3WEU3E1Y=BHWW","SEC_ACT_1")</f>
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>4</v>
+      </c>
+      <c r="B28">
+        <v>15</v>
+      </c>
+      <c r="C28">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+      <c r="G28" t="s">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <f>_xll.RtGet("IDN","PL3WEU3E2Y=BHWW","PRIMACT_1")</f>
+        <v>15</v>
+      </c>
+      <c r="I28">
+        <f>_xll.RtGet("IDN","PL3WEU3E2Y=BHWW","SEC_ACT_1")</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="G29" t="s">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <f>_xll.RtGet("IDN","PL3WEU3E3Y=BHWW","PRIMACT_1")</f>
+        <v>17</v>
+      </c>
+      <c r="I29">
+        <f>_xll.RtGet("IDN","PL3WEU3E3Y=BHWW","SEC_ACT_1")</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30">
+        <v>19</v>
+      </c>
+      <c r="C30">
+        <v>25</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="G30" t="s">
+        <v>6</v>
+      </c>
+      <c r="H30">
+        <f>_xll.RtGet("IDN","PL3WEU3E4Y=BHWW","PRIMACT_1")</f>
+        <v>19</v>
+      </c>
+      <c r="I30">
+        <f>_xll.RtGet("IDN","PL3WEU3E4Y=BHWW","SEC_ACT_1")</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31">
+        <v>21</v>
+      </c>
+      <c r="C31">
+        <v>27</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+      <c r="G31" t="s">
+        <v>7</v>
+      </c>
+      <c r="H31">
+        <f>_xll.RtGet("IDN","PL3WEU3E5Y=BHWW","PRIMACT_1")</f>
+        <v>21</v>
+      </c>
+      <c r="I31">
+        <f>_xll.RtGet("IDN","PL3WEU3E5Y=BHWW","SEC_ACT_1")</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>28</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H32">
+        <f>_xll.RtGet("IDN","PL3WEU3E7Y=BHWW","PRIMACT_1")</f>
+        <v>22</v>
+      </c>
+      <c r="I32">
+        <f>_xll.RtGet("IDN","PL3WEU3E7Y=BHWW","SEC_ACT_1")</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33">
+        <v>24</v>
+      </c>
+      <c r="C33">
+        <v>30</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>27</v>
+      </c>
+      <c r="G33" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33">
+        <f>_xll.RtGet("IDN","PL3WEU3E10Y=BHWW","PRIMACT_1")</f>
+        <v>24</v>
+      </c>
+      <c r="I33">
+        <f>_xll.RtGet("IDN","PL3WEU3E10Y=BHWW","SEC_ACT_1")</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>14</v>
+      </c>
+      <c r="B34">
+        <v>26</v>
+      </c>
+      <c r="C34">
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34">
+        <f>_xll.RtGet("IDN","PL3WEU3E15Y=BHWW","PRIMACT_1")</f>
+        <v>26</v>
+      </c>
+      <c r="I34">
+        <f>_xll.RtGet("IDN","PL3WEU3E15Y=BHWW","SEC_ACT_1")</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>90</v>
+      </c>
+      <c r="G38" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B39">
+        <v>-1.1500000000000001</v>
+      </c>
+      <c r="C39">
+        <v>-0.15</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ref="E39:E53" si="2">(B39+C39)/2</f>
+        <v>-0.65</v>
+      </c>
+      <c r="G39" t="s">
+        <v>29</v>
+      </c>
+      <c r="H39" s="3">
+        <f>_xll.RtGet("IDN","PLNON=","BID")</f>
+        <v>-1.1500000000000001</v>
+      </c>
+      <c r="I39" s="3">
+        <f>_xll.RtGet("IDN","PLNON=","ASK")</f>
+        <v>-0.15</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40">
+        <v>0.48</v>
+      </c>
+      <c r="C40">
+        <v>0.77</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="2"/>
+        <v>0.625</v>
+      </c>
+      <c r="G40" t="s">
+        <v>30</v>
+      </c>
+      <c r="H40" s="3">
+        <f>_xll.RtGet("IDN","PLNTN=","BID")</f>
+        <v>0.48</v>
+      </c>
+      <c r="I40" s="3">
+        <f>_xll.RtGet("IDN","PLNTN=","ASK")</f>
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>84</v>
+      </c>
+      <c r="B41">
+        <v>0.2</v>
+      </c>
+      <c r="C41">
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="G41" t="s">
+        <v>84</v>
+      </c>
+      <c r="H41" s="3">
+        <f>_xll.RtGet("IDN","PLNSN=","BID")</f>
+        <v>0.24</v>
+      </c>
+      <c r="I41" s="3">
+        <f>_xll.RtGet("IDN","PLNSN=","ASK")</f>
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>85</v>
+      </c>
+      <c r="B42">
+        <v>0.33</v>
+      </c>
+      <c r="C42">
+        <v>1.06</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>0.69500000000000006</v>
+      </c>
+      <c r="G42" t="s">
+        <v>85</v>
+      </c>
+      <c r="H42" s="3">
+        <f>_xll.RtGet("IDN","PLNSW=","BID")</f>
+        <v>-0.01</v>
+      </c>
+      <c r="I42" s="3">
+        <f>_xll.RtGet("IDN","PLNSW=","ASK")</f>
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>32</v>
+      </c>
+      <c r="B43">
+        <v>0.52</v>
+      </c>
+      <c r="C43">
+        <v>1.52</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>1.02</v>
+      </c>
+      <c r="G43" t="s">
+        <v>32</v>
+      </c>
+      <c r="H43" s="3">
+        <f>_xll.RtGet("IDN","PLN2W=","BID")</f>
+        <v>0.44</v>
+      </c>
+      <c r="I43" s="3">
+        <f>_xll.RtGet("IDN","PLN2W=","ASK")</f>
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44">
+        <v>0.33</v>
+      </c>
+      <c r="C44">
+        <v>2.66</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="G44" t="s">
+        <v>86</v>
+      </c>
+      <c r="H44" s="3">
+        <f>_xll.RtGet("IDN","PLN3W=","BID")</f>
+        <v>0.49</v>
+      </c>
+      <c r="I44" s="3">
+        <f>_xll.RtGet("IDN","PLN3W=","ASK")</f>
+        <v>2.74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
+      <c r="B45">
+        <v>1.25</v>
+      </c>
+      <c r="C45">
+        <v>3.15</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G45" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="H45" s="3">
+        <f>_xll.RtGet("IDN","PLN1M=","BID")</f>
+        <v>1.19</v>
+      </c>
+      <c r="I45" s="3">
+        <f>_xll.RtGet("IDN","PLN1M=","ASK")</f>
+        <v>3.44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46">
+        <v>4.76</v>
+      </c>
+      <c r="C46">
+        <v>7.01</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>5.8849999999999998</v>
+      </c>
+      <c r="G46" t="s">
+        <v>87</v>
+      </c>
+      <c r="H46" s="3">
+        <f>_xll.RtGet("IDN","PLN2M=","BID")</f>
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="I46" s="3">
+        <f>_xll.RtGet("IDN","PLN2M=","ASK")</f>
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B47">
+        <v>4.0200000000000005</v>
+      </c>
+      <c r="C47">
+        <v>6.88</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>5.45</v>
+      </c>
+      <c r="G47" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="H47" s="3">
+        <f>_xll.RtGet("IDN","PLN3M=","BID")</f>
+        <v>5</v>
+      </c>
+      <c r="I47" s="3">
+        <f>_xll.RtGet("IDN","PLN3M=","ASK")</f>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>88</v>
+      </c>
+      <c r="B48">
+        <v>5.87</v>
+      </c>
+      <c r="C48">
+        <v>9.370000000000001</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>7.620000000000001</v>
+      </c>
+      <c r="G48" t="s">
+        <v>88</v>
+      </c>
+      <c r="H48" s="3">
+        <f>_xll.RtGet("IDN","PLN4M=","BID")</f>
+        <v>5.25</v>
+      </c>
+      <c r="I48" s="3">
+        <f>_xll.RtGet("IDN","PLN4M=","ASK")</f>
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49">
+        <v>7.22</v>
+      </c>
+      <c r="C49">
+        <v>12.02</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="G49" t="s">
+        <v>89</v>
+      </c>
+      <c r="H49" s="3">
+        <f>_xll.RtGet("IDN","PLN5M=","BID")</f>
+        <v>7.22</v>
+      </c>
+      <c r="I49" s="3">
+        <f>_xll.RtGet("IDN","PLN5M=","ASK")</f>
+        <v>12.02</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
+      <c r="B50">
+        <v>6.34</v>
+      </c>
+      <c r="C50">
+        <v>14.52</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>10.43</v>
+      </c>
+      <c r="G50" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="H50" s="3">
+        <f>_xll.RtGet("IDN","PLN6M=","BID")</f>
+        <v>14</v>
+      </c>
+      <c r="I50" s="3">
+        <f>_xll.RtGet("IDN","PLN6M=","ASK")</f>
         <v>22</v>
       </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B51">
+        <v>7.03</v>
+      </c>
+      <c r="C51">
+        <v>21.88</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>14.455</v>
+      </c>
+      <c r="G51" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" s="3">
+        <f>_xll.RtGet("IDN","PLN9M=","BID")</f>
+        <v>6.61</v>
+      </c>
+      <c r="I51" s="3">
+        <f>_xll.RtGet("IDN","PLN9M=","ASK")</f>
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E13" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E14" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B52">
+        <v>16.11</v>
+      </c>
+      <c r="C52">
+        <v>32.660000000000004</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>24.385000000000002</v>
+      </c>
+      <c r="G52" t="s">
         <v>22</v>
       </c>
-      <c r="E16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="E19" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E20" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" t="s">
-        <v>22</v>
+      <c r="H52" s="3">
+        <f>_xll.RtGet("IDN","PLN1Y=","BID")</f>
+        <v>-2</v>
+      </c>
+      <c r="I52" s="3">
+        <f>_xll.RtGet("IDN","PLN1Y=","ASK")</f>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>0.19</v>
+      </c>
+      <c r="C53">
+        <v>123.99000000000001</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>62.09</v>
+      </c>
+      <c r="G53" t="s">
+        <v>4</v>
+      </c>
+      <c r="H53" s="3">
+        <f>_xll.RtGet("IDN","PLN2Y=","BID")</f>
+        <v>1.78</v>
+      </c>
+      <c r="I53" s="3">
+        <f>_xll.RtGet("IDN","PLN2Y=","ASK")</f>
+        <v>125.58</v>
       </c>
     </row>
   </sheetData>
